--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -644,7 +644,7 @@
     </comment>
     <comment authorId="45" ref="A59" shapeId="0">
       <text>
-        <t>Name of access ports list.</t>
+        <t>Name of access ports list. (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="46" ref="A61" shapeId="0">
@@ -770,7 +770,7 @@
     </comment>
     <comment authorId="8" ref="A15" shapeId="0">
       <text>
-        <t>Name of the external interface as defined in the nuh_internal_interface file</t>
+        <t>Name of the external interface as defined in the nuh_internal_interface file (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="9" ref="A17" shapeId="0">
@@ -800,7 +800,7 @@
     </comment>
     <comment authorId="14" ref="A22" shapeId="0">
       <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, NUH requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ]</t>
+        <t>Cpuset information for cpu pinning on KVM. For example, NUH requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="15" ref="A24" shapeId="0">
@@ -881,7 +881,7 @@
     </comment>
     <comment authorId="8" ref="A14" shapeId="0">
       <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, Portal requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ]</t>
+        <t>Cpuset information for cpu pinning on KVM. For example, Portal requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="9" ref="A16" shapeId="0">
@@ -1305,12 +1305,12 @@
     </comment>
     <comment authorId="13" ref="A21" shapeId="0">
       <text>
-        <t>List of one or more NTP server addresses that must be in dotted-decimal (IPv4) or hexidecimal (IPv6) format</t>
+        <t>List of one or more NTP server addresses that must be in dotted-decimal (IPv4) or hexidecimal (IPv6) format (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="14" ref="A22" shapeId="0">
       <text>
-        <t>List of one or more DNS server addresses for resolving component domain names. Must be in dotted-decimal (IPv4) or hexidecimal (IPv6) format.</t>
+        <t>List of one or more DNS server addresses for resolving component domain names. Must be in dotted-decimal (IPv4) or hexidecimal (IPv6) format. (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="15" ref="A24" shapeId="0">
@@ -1645,12 +1645,12 @@
     </comment>
     <comment authorId="81" ref="A102" shapeId="0">
       <text>
-        <t>List of hooks files</t>
+        <t>List of hooks files (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="82" ref="A103" shapeId="0">
       <text>
-        <t>Skip tasks and playbooks</t>
+        <t>Skip tasks and playbooks (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="83" ref="A105" shapeId="0">
@@ -1670,7 +1670,7 @@
     </comment>
     <comment authorId="86" ref="A108" shapeId="0">
       <text>
-        <t>List of destination email addresses</t>
+        <t>List of destination email addresses (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="87" ref="A110" shapeId="0">
@@ -1807,7 +1807,7 @@
     </comment>
     <comment authorId="11" ref="A19" shapeId="0">
       <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, VCIN requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ]</t>
+        <t>Cpuset information for cpu pinning on KVM. For example, VCIN requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="12" ref="A20" shapeId="0">
@@ -1936,7 +1936,7 @@
     </comment>
     <comment authorId="14" ref="A23" shapeId="0">
       <text>
-        <t>Static routes to configure for the data network of the UTIL VM</t>
+        <t>Static routes to configure for the data network of the UTIL VM (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="15" ref="A25" shapeId="0">
@@ -2026,7 +2026,7 @@
     </comment>
     <comment authorId="32" ref="A44" shapeId="0">
       <text>
-        <t>Set of security groups to associate with Mgmt interface</t>
+        <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="33" ref="A45" shapeId="0">
@@ -2046,12 +2046,12 @@
     </comment>
     <comment authorId="36" ref="A48" shapeId="0">
       <text>
-        <t>Set of security groups to associate with Data interface</t>
+        <t>Set of security groups to associate with Data interface (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="37" ref="A50" shapeId="0">
       <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, VNSUTIL requires 2 cores and sample values will be of the form [ 0, 1 ]</t>
+        <t>Cpuset information for cpu pinning on KVM. For example, VNSUTIL requires 2 cores and sample values will be of the form [ 0, 1 ] (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="38" ref="A51" shapeId="0">
@@ -2089,7 +2089,7 @@
     </comment>
     <comment authorId="1" ref="A6" shapeId="0">
       <text>
-        <t>Hypervisor Management IP list on which VRS will be installed</t>
+        <t>Hypervisor Management IP list on which VRS will be installed (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="2" ref="A7" shapeId="0">
@@ -2183,7 +2183,7 @@
     </comment>
     <comment authorId="6" ref="A12" shapeId="0">
       <text>
-        <t>Static routes to apply to the management network for the VSR VM</t>
+        <t>Static routes to apply to the management network for the VSR VM (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="7" ref="A13" shapeId="0">
@@ -2193,7 +2193,7 @@
     </comment>
     <comment authorId="8" ref="A14" shapeId="0">
       <text>
-        <t/>
+        <t xml:space="preserve"> (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="9" ref="A16" shapeId="0">
@@ -2286,7 +2286,7 @@
     </comment>
     <comment authorId="8" ref="A14" shapeId="0">
       <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, Webfilter requires 2 cores and sample values will be of the form [1, 2]</t>
+        <t>Cpuset information for cpu pinning on KVM. For example, Webfilter requires 2 cores and sample values will be of the form [1, 2] (List items separated by comma.)</t>
       </text>
     </comment>
   </commentList>
@@ -2508,7 +2508,7 @@
     </comment>
     <comment authorId="26" ref="A35" shapeId="0">
       <text>
-        <t>Set of security groups to associate with Mgmt interface</t>
+        <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="27" ref="A36" shapeId="0">
@@ -2523,7 +2523,7 @@
     </comment>
     <comment authorId="29" ref="A39" shapeId="0">
       <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, VSD requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ]</t>
+        <t>Cpuset information for cpu pinning on KVM. For example, VSD requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="30" ref="A40" shapeId="0">
@@ -2657,7 +2657,7 @@
     </comment>
     <comment authorId="4" ref="A9" shapeId="0">
       <text>
-        <t>Static Route list to be configured on the management/BOF interface. Define as empty list if no static routes are to be configured. [default: [ 0.0.0.0/1, 128.0.0.0/1 ]]</t>
+        <t>Static Route list to be configured on the management/BOF interface. Define as empty list if no static routes are to be configured. [default: [ 0.0.0.0/1, 128.0.0.0/1 ]] (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="5" ref="A11" shapeId="0">
@@ -2682,7 +2682,7 @@
     </comment>
     <comment authorId="9" ref="A15" shapeId="0">
       <text>
-        <t>Comma Seperated list of control IP VPRNs. Each item in list is of format VLAN_ID:Control_IP_ADDR/NETMASK_LENGTH . Both Control IP address and Netmask length are optional</t>
+        <t>Comma Seperated list of control IP VPRNs. Each item in list is of format VLAN_ID:Control_IP_ADDR/NETMASK_LENGTH . Both Control IP address and Netmask length are optional (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="10" ref="A17" shapeId="0">
@@ -2747,7 +2747,7 @@
     </comment>
     <comment authorId="22" ref="A31" shapeId="0">
       <text>
-        <t>List of route reflector IP addresses if present</t>
+        <t>List of route reflector IP addresses if present (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="23" ref="A33" shapeId="0">
@@ -2807,7 +2807,7 @@
     </comment>
     <comment authorId="34" ref="A45" shapeId="0">
       <text>
-        <t>Set of security groups to associate with Mgmt interface</t>
+        <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="35" ref="A46" shapeId="0">
@@ -2827,7 +2827,7 @@
     </comment>
     <comment authorId="38" ref="A49" shapeId="0">
       <text>
-        <t>Set of security groups to associate with Control interface</t>
+        <t>Set of security groups to associate with Control interface (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="39" ref="A50" shapeId="0">
@@ -2837,7 +2837,7 @@
     </comment>
     <comment authorId="40" ref="A51" shapeId="0">
       <text>
-        <t>Set of security groups to associate with Mgmt interface</t>
+        <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="41" ref="A53" shapeId="0">
@@ -2897,7 +2897,7 @@
     </comment>
     <comment authorId="52" ref="A66" shapeId="0">
       <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, VSC requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ]</t>
+        <t>Cpuset information for cpu pinning on KVM. For example, VSC requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="53" ref="A67" shapeId="0">
@@ -2907,7 +2907,7 @@
     </comment>
     <comment authorId="54" ref="A68" shapeId="0">
       <text>
-        <t>Paths to files that can be optionally applied for additional VSC configuration</t>
+        <t>Paths to files that can be optionally applied for additional VSC configuration (List items separated by comma.)</t>
       </text>
     </comment>
   </commentList>
@@ -3090,7 +3090,7 @@
     </comment>
     <comment authorId="26" ref="A35" shapeId="0">
       <text>
-        <t>Set of security groups to associate with Mgmt interface</t>
+        <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="27" ref="A37" shapeId="0">
@@ -3135,7 +3135,7 @@
     </comment>
     <comment authorId="35" ref="A47" shapeId="0">
       <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, VSTAT requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ]</t>
+        <t>Cpuset information for cpu pinning on KVM. For example, VSTAT requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="36" ref="A48" shapeId="0">
@@ -3529,7 +3529,7 @@
     </comment>
     <comment authorId="11" ref="A18" shapeId="0">
       <text>
-        <t>Static routes to configure for the data network of the DNS VM</t>
+        <t>Static routes to configure for the data network of the DNS VM (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="12" ref="A20" shapeId="0">
@@ -3559,12 +3559,12 @@
     </comment>
     <comment authorId="17" ref="A26" shapeId="0">
       <text>
-        <t/>
+        <t xml:space="preserve"> (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="18" ref="A27" shapeId="0">
       <text>
-        <t/>
+        <t xml:space="preserve"> (List items separated by comma.)</t>
       </text>
     </comment>
   </commentList>
@@ -4070,7 +4070,11 @@
           <t>Name</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Install SD-WAN components on KVM</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -4078,7 +4082,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="B6" s="7" t="n"/>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>Install all SD-WAN components (VSD, VSC, VSTAT, NSG and VNSUtil) on KVM</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4200,7 +4208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4211,10 +4219,6 @@
     <col customWidth="1" max="1" min="1" width="70"/>
     <col customWidth="1" max="2" min="2" width="25"/>
     <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4244,12 +4248,16 @@
           <t>NSGv Access Port Name</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>port1_access</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>port2_access</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -4259,10 +4267,6 @@
       </c>
       <c r="B6" s="7" t="n"/>
       <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -4270,12 +4274,16 @@
           <t>NSGv Access Port VLAN Range</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>0-100</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>0-100</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -4285,10 +4293,6 @@
       </c>
       <c r="B8" s="7" t="n"/>
       <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -4296,24 +4300,24 @@
           <t>NSGv Access Bridge</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>access_1</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>access_2</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="2">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C8" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D8" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E8" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F8" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -4365,7 +4369,11 @@
           <t>Global organization for NSGvs</t>
         </is>
       </c>
-      <c r="B5" s="7" t="n"/>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>metro-test</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -4373,7 +4381,11 @@
           <t>Proxy User First Name</t>
         </is>
       </c>
-      <c r="B6" s="7" t="n"/>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>metro</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -4381,7 +4393,11 @@
           <t>Proxy User Last Name</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>metro</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -4389,7 +4405,11 @@
           <t>Proxy User Email</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>test@mag.net</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -4404,7 +4424,11 @@
           <t>NSG Infrastructure Profile Name</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>metro_vns</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -4412,7 +4436,11 @@
           <t>NSGv Template Name</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>metro-test</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
@@ -4420,7 +4448,11 @@
           <t>Proxy DNS Name</t>
         </is>
       </c>
-      <c r="B12" s="7" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>vnsutil.mag.net</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
@@ -4443,7 +4475,11 @@
           <t>VSC Infrastructure Profile Name</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>metro_vsc</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
@@ -4451,7 +4487,11 @@
           <t>Address of First VSC</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>192.168.110.20</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -4459,7 +4499,11 @@
           <t>Address of Second VSC</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>192.168.110.21</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -4508,7 +4552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4518,11 +4562,6 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="70"/>
     <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4552,12 +4591,11 @@
           <t>VM name</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>nsgv1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -4565,12 +4603,11 @@
           <t>Target Server type</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>kvm</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -4578,12 +4615,11 @@
           <t>Target Server hostname</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>10.105.1.109</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -4598,12 +4634,11 @@
           <t>Bootstrap Method</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>zfb_metro</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -4612,11 +4647,6 @@
         </is>
       </c>
       <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -4625,11 +4655,6 @@
         </is>
       </c>
       <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
@@ -4637,12 +4662,11 @@
           <t>IP Address to assign to NSGv by VNSUtil</t>
         </is>
       </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>192.168.110.70</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -4650,12 +4674,11 @@
           <t>NSGV MAC Address</t>
         </is>
       </c>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>52:54:00:99:85:12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -4671,11 +4694,6 @@
         </is>
       </c>
       <c r="B15" s="9" t="n"/>
-      <c r="C15" s="9" t="n"/>
-      <c r="D15" s="9" t="n"/>
-      <c r="E15" s="9" t="n"/>
-      <c r="F15" s="9" t="n"/>
-      <c r="G15" s="9" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
@@ -4684,11 +4702,6 @@
         </is>
       </c>
       <c r="B16" s="9" t="n"/>
-      <c r="C16" s="9" t="n"/>
-      <c r="D16" s="9" t="n"/>
-      <c r="E16" s="9" t="n"/>
-      <c r="F16" s="9" t="n"/>
-      <c r="G16" s="9" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -4697,11 +4710,6 @@
         </is>
       </c>
       <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -4717,11 +4725,6 @@
         </is>
       </c>
       <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="G19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
@@ -4730,11 +4733,6 @@
         </is>
       </c>
       <c r="B20" s="9" t="n"/>
-      <c r="C20" s="9" t="n"/>
-      <c r="D20" s="9" t="n"/>
-      <c r="E20" s="9" t="n"/>
-      <c r="F20" s="9" t="n"/>
-      <c r="G20" s="9" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
@@ -4743,11 +4741,6 @@
         </is>
       </c>
       <c r="B21" s="9" t="n"/>
-      <c r="C21" s="9" t="n"/>
-      <c r="D21" s="9" t="n"/>
-      <c r="E21" s="9" t="n"/>
-      <c r="F21" s="9" t="n"/>
-      <c r="G21" s="9" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
@@ -4756,11 +4749,6 @@
         </is>
       </c>
       <c r="B22" s="9" t="n"/>
-      <c r="C22" s="9" t="n"/>
-      <c r="D22" s="9" t="n"/>
-      <c r="E22" s="9" t="n"/>
-      <c r="F22" s="9" t="n"/>
-      <c r="G22" s="9" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -4776,11 +4764,6 @@
         </is>
       </c>
       <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
@@ -4789,11 +4772,6 @@
         </is>
       </c>
       <c r="B25" s="7" t="n"/>
-      <c r="C25" s="7" t="n"/>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
@@ -4802,11 +4780,6 @@
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
-      <c r="C26" s="7" t="n"/>
-      <c r="D26" s="7" t="n"/>
-      <c r="E26" s="7" t="n"/>
-      <c r="F26" s="7" t="n"/>
-      <c r="G26" s="7" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
@@ -4815,11 +4788,6 @@
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
-      <c r="G27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
@@ -4828,11 +4796,6 @@
         </is>
       </c>
       <c r="B28" s="7" t="n"/>
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
@@ -4841,11 +4804,6 @@
         </is>
       </c>
       <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
@@ -4854,11 +4812,6 @@
         </is>
       </c>
       <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
-      <c r="G30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
@@ -4867,11 +4820,6 @@
         </is>
       </c>
       <c r="B31" s="7" t="n"/>
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
@@ -4887,11 +4835,6 @@
         </is>
       </c>
       <c r="B33" s="9" t="n"/>
-      <c r="C33" s="9" t="n"/>
-      <c r="D33" s="9" t="n"/>
-      <c r="E33" s="9" t="n"/>
-      <c r="F33" s="9" t="n"/>
-      <c r="G33" s="9" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
@@ -4900,11 +4843,6 @@
         </is>
       </c>
       <c r="B34" s="9" t="n"/>
-      <c r="C34" s="9" t="n"/>
-      <c r="D34" s="9" t="n"/>
-      <c r="E34" s="9" t="n"/>
-      <c r="F34" s="9" t="n"/>
-      <c r="G34" s="9" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
@@ -4913,11 +4851,6 @@
         </is>
       </c>
       <c r="B35" s="9" t="n"/>
-      <c r="C35" s="9" t="n"/>
-      <c r="D35" s="9" t="n"/>
-      <c r="E35" s="9" t="n"/>
-      <c r="F35" s="9" t="n"/>
-      <c r="G35" s="9" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
@@ -4926,11 +4859,6 @@
         </is>
       </c>
       <c r="B36" s="9" t="n"/>
-      <c r="C36" s="9" t="n"/>
-      <c r="D36" s="9" t="n"/>
-      <c r="E36" s="9" t="n"/>
-      <c r="F36" s="9" t="n"/>
-      <c r="G36" s="9" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -4946,11 +4874,6 @@
         </is>
       </c>
       <c r="B38" s="9" t="n"/>
-      <c r="C38" s="9" t="n"/>
-      <c r="D38" s="9" t="n"/>
-      <c r="E38" s="9" t="n"/>
-      <c r="F38" s="9" t="n"/>
-      <c r="G38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
@@ -4958,12 +4881,11 @@
           <t>NSG Name</t>
         </is>
       </c>
-      <c r="B39" s="9" t="n"/>
-      <c r="C39" s="9" t="n"/>
-      <c r="D39" s="9" t="n"/>
-      <c r="E39" s="9" t="n"/>
-      <c r="F39" s="9" t="n"/>
-      <c r="G39" s="9" t="n"/>
+      <c r="B39" s="9" t="inlineStr">
+        <is>
+          <t>NSG_US</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
@@ -4971,12 +4893,11 @@
           <t>Activation Matching Type</t>
         </is>
       </c>
-      <c r="B40" s="7" t="n"/>
-      <c r="C40" s="7" t="n"/>
-      <c r="D40" s="7" t="n"/>
-      <c r="E40" s="7" t="n"/>
-      <c r="F40" s="7" t="n"/>
-      <c r="G40" s="7" t="n"/>
+      <c r="B40" s="7" t="inlineStr">
+        <is>
+          <t>ip_address</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
@@ -4984,12 +4905,11 @@
           <t>Activation Matching Value</t>
         </is>
       </c>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
-      <c r="D41" s="7" t="n"/>
-      <c r="E41" s="7" t="n"/>
-      <c r="F41" s="7" t="n"/>
-      <c r="G41" s="7" t="n"/>
+      <c r="B41" s="7" t="inlineStr">
+        <is>
+          <t>192.168.110.70</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
@@ -4998,11 +4918,6 @@
         </is>
       </c>
       <c r="B42" s="9" t="n"/>
-      <c r="C42" s="9" t="n"/>
-      <c r="D42" s="9" t="n"/>
-      <c r="E42" s="9" t="n"/>
-      <c r="F42" s="9" t="n"/>
-      <c r="G42" s="9" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -5018,11 +4933,6 @@
         </is>
       </c>
       <c r="B44" s="9" t="n"/>
-      <c r="C44" s="9" t="n"/>
-      <c r="D44" s="9" t="n"/>
-      <c r="E44" s="9" t="n"/>
-      <c r="F44" s="9" t="n"/>
-      <c r="G44" s="9" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="8" t="inlineStr">
@@ -5031,11 +4941,6 @@
         </is>
       </c>
       <c r="B45" s="9" t="n"/>
-      <c r="C45" s="9" t="n"/>
-      <c r="D45" s="9" t="n"/>
-      <c r="E45" s="9" t="n"/>
-      <c r="F45" s="9" t="n"/>
-      <c r="G45" s="9" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
@@ -5044,11 +4949,6 @@
         </is>
       </c>
       <c r="B46" s="9" t="n"/>
-      <c r="C46" s="9" t="n"/>
-      <c r="D46" s="9" t="n"/>
-      <c r="E46" s="9" t="n"/>
-      <c r="F46" s="9" t="n"/>
-      <c r="G46" s="9" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
@@ -5057,11 +4957,6 @@
         </is>
       </c>
       <c r="B47" s="9" t="n"/>
-      <c r="C47" s="9" t="n"/>
-      <c r="D47" s="9" t="n"/>
-      <c r="E47" s="9" t="n"/>
-      <c r="F47" s="9" t="n"/>
-      <c r="G47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
@@ -5077,11 +4972,6 @@
         </is>
       </c>
       <c r="B49" s="9" t="n"/>
-      <c r="C49" s="9" t="n"/>
-      <c r="D49" s="9" t="n"/>
-      <c r="E49" s="9" t="n"/>
-      <c r="F49" s="9" t="n"/>
-      <c r="G49" s="9" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
@@ -5090,11 +4980,6 @@
         </is>
       </c>
       <c r="B50" s="9" t="n"/>
-      <c r="C50" s="9" t="n"/>
-      <c r="D50" s="9" t="n"/>
-      <c r="E50" s="9" t="n"/>
-      <c r="F50" s="9" t="n"/>
-      <c r="G50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
@@ -5103,11 +4988,6 @@
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
-      <c r="C51" s="9" t="n"/>
-      <c r="D51" s="9" t="n"/>
-      <c r="E51" s="9" t="n"/>
-      <c r="F51" s="9" t="n"/>
-      <c r="G51" s="9" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
@@ -5115,12 +4995,11 @@
           <t>NSG Network Port Name</t>
         </is>
       </c>
-      <c r="B52" s="9" t="n"/>
-      <c r="C52" s="9" t="n"/>
-      <c r="D52" s="9" t="n"/>
-      <c r="E52" s="9" t="n"/>
-      <c r="F52" s="9" t="n"/>
-      <c r="G52" s="9" t="n"/>
+      <c r="B52" s="9" t="inlineStr">
+        <is>
+          <t>port1_network</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -5136,11 +5015,6 @@
         </is>
       </c>
       <c r="B54" s="9" t="n"/>
-      <c r="C54" s="9" t="n"/>
-      <c r="D54" s="9" t="n"/>
-      <c r="E54" s="9" t="n"/>
-      <c r="F54" s="9" t="n"/>
-      <c r="G54" s="9" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="8" t="inlineStr">
@@ -5149,11 +5023,6 @@
         </is>
       </c>
       <c r="B55" s="9" t="n"/>
-      <c r="C55" s="9" t="n"/>
-      <c r="D55" s="9" t="n"/>
-      <c r="E55" s="9" t="n"/>
-      <c r="F55" s="9" t="n"/>
-      <c r="G55" s="9" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
@@ -5162,11 +5031,6 @@
         </is>
       </c>
       <c r="B56" s="9" t="n"/>
-      <c r="C56" s="9" t="n"/>
-      <c r="D56" s="9" t="n"/>
-      <c r="E56" s="9" t="n"/>
-      <c r="F56" s="9" t="n"/>
-      <c r="G56" s="9" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="8" t="inlineStr">
@@ -5175,11 +5039,6 @@
         </is>
       </c>
       <c r="B57" s="9" t="n"/>
-      <c r="C57" s="9" t="n"/>
-      <c r="D57" s="9" t="n"/>
-      <c r="E57" s="9" t="n"/>
-      <c r="F57" s="9" t="n"/>
-      <c r="G57" s="9" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
@@ -5188,11 +5047,6 @@
         </is>
       </c>
       <c r="B58" s="9" t="n"/>
-      <c r="C58" s="9" t="n"/>
-      <c r="D58" s="9" t="n"/>
-      <c r="E58" s="9" t="n"/>
-      <c r="F58" s="9" t="n"/>
-      <c r="G58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="6" t="inlineStr">
@@ -5200,12 +5054,11 @@
           <t>NSGv Access ports list name</t>
         </is>
       </c>
-      <c r="B59" s="7" t="n"/>
-      <c r="C59" s="7" t="n"/>
-      <c r="D59" s="7" t="n"/>
-      <c r="E59" s="7" t="n"/>
-      <c r="F59" s="7" t="n"/>
-      <c r="G59" s="7" t="n"/>
+      <c r="B59" s="7" t="inlineStr">
+        <is>
+          <t>port1_access, port2_access</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
@@ -5221,11 +5074,6 @@
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
-      <c r="C61" s="9" t="n"/>
-      <c r="D61" s="9" t="n"/>
-      <c r="E61" s="9" t="n"/>
-      <c r="F61" s="9" t="n"/>
-      <c r="G61" s="9" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
@@ -5234,129 +5082,39 @@
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
-      <c r="C62" s="9" t="n"/>
-      <c r="D62" s="9" t="n"/>
-      <c r="E62" s="9" t="n"/>
-      <c r="F62" s="9" t="n"/>
-      <c r="G62" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A60:B60"/>
   </mergeCells>
-  <dataValidations count="42">
+  <dataValidations count="7">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
       <formula1>"kvm,vcenter,aws"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
-      <formula1>"kvm,vcenter,aws"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D6" type="list">
-      <formula1>"kvm,vcenter,aws"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E6" type="list">
-      <formula1>"kvm,vcenter,aws"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F6" type="list">
-      <formula1>"kvm,vcenter,aws"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G6" type="list">
-      <formula1>"kvm,vcenter,aws"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C9" type="list">
-      <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="list">
-      <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E9" type="list">
-      <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F9" type="list">
-      <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="list">
-      <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C40" type="list">
-      <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D40" type="list">
-      <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E40" type="list">
-      <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F40" type="list">
-      <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G40" type="list">
-      <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B47" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C47" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D47" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E47" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F47" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G47" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G58" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G61" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -5369,7 +5127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5379,11 +5137,6 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="70"/>
     <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5413,12 +5166,11 @@
           <t>NUH external network name</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>ExtNetwork1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -5426,12 +5178,11 @@
           <t>External Network IP address</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>192.168.130.71</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -5439,12 +5190,9 @@
           <t>External Network IP Prefix Length</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
+      <c r="B7" s="7" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -5452,12 +5200,11 @@
           <t>External Network Gateway IP</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>192.168.130.1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
@@ -5466,11 +5213,6 @@
         </is>
       </c>
       <c r="B9" s="9" t="n"/>
-      <c r="C9" s="9" t="n"/>
-      <c r="D9" s="9" t="n"/>
-      <c r="E9" s="9" t="n"/>
-      <c r="F9" s="9" t="n"/>
-      <c r="G9" s="9" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -5479,29 +5221,14 @@
         </is>
       </c>
       <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <dataValidations count="12">
+  <dataValidations count="2">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -5514,7 +5241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5524,11 +5251,6 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="70"/>
     <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5558,12 +5280,11 @@
           <t>Hostname</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>nuh1.company.com</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -5572,11 +5293,6 @@
         </is>
       </c>
       <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -5591,12 +5307,11 @@
           <t>Management IP address</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.71</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -5604,12 +5319,9 @@
           <t>Management IP Prefix Length</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
+      <c r="B9" s="5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -5617,12 +5329,11 @@
           <t>Management Gateway IP</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -5637,12 +5348,11 @@
           <t>Internal Network IP address</t>
         </is>
       </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>192.168.120.71</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -5650,12 +5360,9 @@
           <t>Internal Network IP Prefix Length</t>
         </is>
       </c>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
+      <c r="B13" s="7" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -5663,12 +5370,11 @@
           <t>Internal Network Gateway IP</t>
         </is>
       </c>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>192.168.120.1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
@@ -5676,12 +5382,11 @@
           <t>External interface name list</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>ExtNetwork1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -5696,12 +5401,11 @@
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>10.105.1.108</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
@@ -5710,11 +5414,6 @@
         </is>
       </c>
       <c r="B18" s="9" t="n"/>
-      <c r="C18" s="9" t="n"/>
-      <c r="D18" s="9" t="n"/>
-      <c r="E18" s="9" t="n"/>
-      <c r="F18" s="9" t="n"/>
-      <c r="G18" s="9" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
@@ -5723,11 +5422,6 @@
         </is>
       </c>
       <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="G19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
@@ -5736,11 +5430,6 @@
         </is>
       </c>
       <c r="B20" s="9" t="n"/>
-      <c r="C20" s="9" t="n"/>
-      <c r="D20" s="9" t="n"/>
-      <c r="E20" s="9" t="n"/>
-      <c r="F20" s="9" t="n"/>
-      <c r="G20" s="9" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
@@ -5749,11 +5438,6 @@
         </is>
       </c>
       <c r="B21" s="9" t="n"/>
-      <c r="C21" s="9" t="n"/>
-      <c r="D21" s="9" t="n"/>
-      <c r="E21" s="9" t="n"/>
-      <c r="F21" s="9" t="n"/>
-      <c r="G21" s="9" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
@@ -5762,11 +5446,6 @@
         </is>
       </c>
       <c r="B22" s="9" t="n"/>
-      <c r="C22" s="9" t="n"/>
-      <c r="D22" s="9" t="n"/>
-      <c r="E22" s="9" t="n"/>
-      <c r="F22" s="9" t="n"/>
-      <c r="G22" s="9" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -5781,12 +5460,11 @@
           <t>Management Network Bridge</t>
         </is>
       </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>br0</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
@@ -5794,68 +5472,27 @@
           <t>Internal Network Bridge</t>
         </is>
       </c>
-      <c r="B25" s="9" t="n"/>
-      <c r="C25" s="9" t="n"/>
-      <c r="D25" s="9" t="n"/>
-      <c r="E25" s="9" t="n"/>
-      <c r="F25" s="9" t="n"/>
-      <c r="G25" s="9" t="n"/>
+      <c r="B25" s="9" t="inlineStr">
+        <is>
+          <t>br1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
-  <dataValidations count="24">
+  <dataValidations count="4">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D20" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E20" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F20" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E21" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G21" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6930,7 +6567,11 @@
           <t>Nuage Unzip Files Directory</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>/my/unzipped/filedir</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
@@ -6954,7 +6595,11 @@
           <t>Domain Name</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>company.com</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
@@ -6985,7 +6630,11 @@
           <t>Global VSD FQDN</t>
         </is>
       </c>
-      <c r="B12" s="5" t="n"/>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>vsd1.company.com</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -7024,7 +6673,11 @@
           <t>Management Network Bridge</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>br0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -7032,7 +6685,11 @@
           <t>Data Network Bridge</t>
         </is>
       </c>
-      <c r="B18" s="7" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>br1</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -7055,7 +6712,11 @@
           <t>NTP Server IP(s)</t>
         </is>
       </c>
-      <c r="B21" s="5" t="n"/>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>5.5.5.5, 2.2.2.2</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -7063,7 +6724,11 @@
           <t>DNS server IP(s)</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>10.1.0.2</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -8203,7 +7868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8213,11 +7878,6 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="70"/>
     <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8247,12 +7907,11 @@
           <t>Hostname</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>vnsutil1.company.com</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -8260,12 +7919,11 @@
           <t>Management IP address</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.60</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -8273,12 +7931,9 @@
           <t>Management IP Prefix Length</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
+      <c r="B7" s="5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -8286,12 +7941,11 @@
           <t>Management Gateway IP</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -8307,11 +7961,6 @@
         </is>
       </c>
       <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -8319,12 +7968,11 @@
           <t>Target Server Type</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>kvm</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -8332,12 +7980,11 @@
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>10.105.1.107</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -8353,11 +8000,6 @@
         </is>
       </c>
       <c r="B14" s="9" t="n"/>
-      <c r="C14" s="9" t="n"/>
-      <c r="D14" s="9" t="n"/>
-      <c r="E14" s="9" t="n"/>
-      <c r="F14" s="9" t="n"/>
-      <c r="G14" s="9" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
@@ -8366,11 +8008,6 @@
         </is>
       </c>
       <c r="B15" s="9" t="n"/>
-      <c r="C15" s="9" t="n"/>
-      <c r="D15" s="9" t="n"/>
-      <c r="E15" s="9" t="n"/>
-      <c r="F15" s="9" t="n"/>
-      <c r="G15" s="9" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -8385,12 +8022,11 @@
           <t>VNSUTIL Data FQDN</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>vnsutil1.data.company.com</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -8399,11 +8035,6 @@
         </is>
       </c>
       <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -8412,11 +8043,6 @@
         </is>
       </c>
       <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
@@ -8432,11 +8058,6 @@
         </is>
       </c>
       <c r="B21" s="9" t="n"/>
-      <c r="C21" s="9" t="n"/>
-      <c r="D21" s="9" t="n"/>
-      <c r="E21" s="9" t="n"/>
-      <c r="F21" s="9" t="n"/>
-      <c r="G21" s="9" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
@@ -8445,11 +8066,6 @@
         </is>
       </c>
       <c r="B22" s="7" t="n"/>
-      <c r="C22" s="7" t="n"/>
-      <c r="D22" s="7" t="n"/>
-      <c r="E22" s="7" t="n"/>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
@@ -8458,11 +8074,6 @@
         </is>
       </c>
       <c r="B23" s="7" t="n"/>
-      <c r="C23" s="7" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -8478,11 +8089,6 @@
         </is>
       </c>
       <c r="B25" s="9" t="n"/>
-      <c r="C25" s="9" t="n"/>
-      <c r="D25" s="9" t="n"/>
-      <c r="E25" s="9" t="n"/>
-      <c r="F25" s="9" t="n"/>
-      <c r="G25" s="9" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
@@ -8491,11 +8097,6 @@
         </is>
       </c>
       <c r="B26" s="9" t="n"/>
-      <c r="C26" s="9" t="n"/>
-      <c r="D26" s="9" t="n"/>
-      <c r="E26" s="9" t="n"/>
-      <c r="F26" s="9" t="n"/>
-      <c r="G26" s="9" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
@@ -8504,11 +8105,6 @@
         </is>
       </c>
       <c r="B27" s="9" t="n"/>
-      <c r="C27" s="9" t="n"/>
-      <c r="D27" s="9" t="n"/>
-      <c r="E27" s="9" t="n"/>
-      <c r="F27" s="9" t="n"/>
-      <c r="G27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
@@ -8517,11 +8113,6 @@
         </is>
       </c>
       <c r="B28" s="9" t="n"/>
-      <c r="C28" s="9" t="n"/>
-      <c r="D28" s="9" t="n"/>
-      <c r="E28" s="9" t="n"/>
-      <c r="F28" s="9" t="n"/>
-      <c r="G28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
@@ -8530,11 +8121,6 @@
         </is>
       </c>
       <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -8550,11 +8136,6 @@
         </is>
       </c>
       <c r="B31" s="7" t="n"/>
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
@@ -8563,11 +8144,6 @@
         </is>
       </c>
       <c r="B32" s="7" t="n"/>
-      <c r="C32" s="7" t="n"/>
-      <c r="D32" s="7" t="n"/>
-      <c r="E32" s="7" t="n"/>
-      <c r="F32" s="7" t="n"/>
-      <c r="G32" s="7" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
@@ -8576,11 +8152,6 @@
         </is>
       </c>
       <c r="B33" s="7" t="n"/>
-      <c r="C33" s="7" t="n"/>
-      <c r="D33" s="7" t="n"/>
-      <c r="E33" s="7" t="n"/>
-      <c r="F33" s="7" t="n"/>
-      <c r="G33" s="7" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
@@ -8589,11 +8160,6 @@
         </is>
       </c>
       <c r="B34" s="7" t="n"/>
-      <c r="C34" s="7" t="n"/>
-      <c r="D34" s="7" t="n"/>
-      <c r="E34" s="7" t="n"/>
-      <c r="F34" s="7" t="n"/>
-      <c r="G34" s="7" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
@@ -8602,11 +8168,6 @@
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
-      <c r="C35" s="7" t="n"/>
-      <c r="D35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
-      <c r="F35" s="7" t="n"/>
-      <c r="G35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
@@ -8615,11 +8176,6 @@
         </is>
       </c>
       <c r="B36" s="7" t="n"/>
-      <c r="C36" s="7" t="n"/>
-      <c r="D36" s="7" t="n"/>
-      <c r="E36" s="7" t="n"/>
-      <c r="F36" s="7" t="n"/>
-      <c r="G36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -8635,11 +8191,6 @@
         </is>
       </c>
       <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
-      <c r="D38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
-      <c r="F38" s="7" t="n"/>
-      <c r="G38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
@@ -8648,11 +8199,6 @@
         </is>
       </c>
       <c r="B39" s="7" t="n"/>
-      <c r="C39" s="7" t="n"/>
-      <c r="D39" s="7" t="n"/>
-      <c r="E39" s="7" t="n"/>
-      <c r="F39" s="7" t="n"/>
-      <c r="G39" s="7" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
@@ -8661,11 +8207,6 @@
         </is>
       </c>
       <c r="B40" s="7" t="n"/>
-      <c r="C40" s="7" t="n"/>
-      <c r="D40" s="7" t="n"/>
-      <c r="E40" s="7" t="n"/>
-      <c r="F40" s="7" t="n"/>
-      <c r="G40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
@@ -8674,11 +8215,6 @@
         </is>
       </c>
       <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
-      <c r="D41" s="7" t="n"/>
-      <c r="E41" s="7" t="n"/>
-      <c r="F41" s="7" t="n"/>
-      <c r="G41" s="7" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
@@ -8687,11 +8223,6 @@
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
-      <c r="C42" s="7" t="n"/>
-      <c r="D42" s="7" t="n"/>
-      <c r="E42" s="7" t="n"/>
-      <c r="F42" s="7" t="n"/>
-      <c r="G42" s="7" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
@@ -8700,11 +8231,6 @@
         </is>
       </c>
       <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
-      <c r="D43" s="7" t="n"/>
-      <c r="E43" s="7" t="n"/>
-      <c r="F43" s="7" t="n"/>
-      <c r="G43" s="7" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
@@ -8713,11 +8239,6 @@
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
-      <c r="C44" s="7" t="n"/>
-      <c r="D44" s="7" t="n"/>
-      <c r="E44" s="7" t="n"/>
-      <c r="F44" s="7" t="n"/>
-      <c r="G44" s="7" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
@@ -8726,11 +8247,6 @@
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
-      <c r="C45" s="7" t="n"/>
-      <c r="D45" s="7" t="n"/>
-      <c r="E45" s="7" t="n"/>
-      <c r="F45" s="7" t="n"/>
-      <c r="G45" s="7" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
@@ -8739,11 +8255,6 @@
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
-      <c r="C46" s="7" t="n"/>
-      <c r="D46" s="7" t="n"/>
-      <c r="E46" s="7" t="n"/>
-      <c r="F46" s="7" t="n"/>
-      <c r="G46" s="7" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
@@ -8752,11 +8263,6 @@
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
-      <c r="C47" s="7" t="n"/>
-      <c r="D47" s="7" t="n"/>
-      <c r="E47" s="7" t="n"/>
-      <c r="F47" s="7" t="n"/>
-      <c r="G47" s="7" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
@@ -8765,11 +8271,6 @@
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
-      <c r="C48" s="7" t="n"/>
-      <c r="D48" s="7" t="n"/>
-      <c r="E48" s="7" t="n"/>
-      <c r="F48" s="7" t="n"/>
-      <c r="G48" s="7" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
@@ -8785,11 +8286,6 @@
         </is>
       </c>
       <c r="B50" s="9" t="n"/>
-      <c r="C50" s="9" t="n"/>
-      <c r="D50" s="9" t="n"/>
-      <c r="E50" s="9" t="n"/>
-      <c r="F50" s="9" t="n"/>
-      <c r="G50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
@@ -8798,11 +8294,6 @@
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
-      <c r="C51" s="9" t="n"/>
-      <c r="D51" s="9" t="n"/>
-      <c r="E51" s="9" t="n"/>
-      <c r="F51" s="9" t="n"/>
-      <c r="G51" s="9" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
@@ -8811,65 +8302,25 @@
         </is>
       </c>
       <c r="B52" s="9" t="n"/>
-      <c r="C52" s="9" t="n"/>
-      <c r="D52" s="9" t="n"/>
-      <c r="E52" s="9" t="n"/>
-      <c r="F52" s="9" t="n"/>
-      <c r="G52" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
-  <dataValidations count="18">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
       <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C11" type="list">
-      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D11" type="list">
-      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E11" type="list">
-      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F11" type="list">
-      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G11" type="list">
-      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B51" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C51" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D51" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E51" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F51" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G51" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9732,9 +9183,21 @@
           <t>Hostname</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>vsd1.company.com</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>vsd2.company.com</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>vsd3.company.com</t>
+        </is>
+      </c>
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="5" t="n"/>
       <c r="G5" s="5" t="n"/>
@@ -9745,9 +9208,21 @@
           <t>Management IP Address</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.30</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.31</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.32</t>
+        </is>
+      </c>
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="5" t="n"/>
       <c r="G6" s="5" t="n"/>
@@ -9758,9 +9233,15 @@
           <t>Management Network Prefix Length</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
+      <c r="B7" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>24</v>
+      </c>
       <c r="E7" s="5" t="n"/>
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="5" t="n"/>
@@ -9771,9 +9252,21 @@
           <t>Management Network Gateway</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.1</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.1</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.1</t>
+        </is>
+      </c>
       <c r="E8" s="5" t="n"/>
       <c r="F8" s="5" t="n"/>
       <c r="G8" s="5" t="n"/>
@@ -9830,9 +9323,21 @@
           <t>Target Server Type</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>kvm</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>kvm</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>kvm</t>
+        </is>
+      </c>
       <c r="E13" s="5" t="n"/>
       <c r="F13" s="5" t="n"/>
       <c r="G13" s="5" t="n"/>
@@ -9843,9 +9348,21 @@
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>10.105.1.102</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>10.105.1.103</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>10.105.1.104</t>
+        </is>
+      </c>
       <c r="E14" s="5" t="n"/>
       <c r="F14" s="5" t="n"/>
       <c r="G14" s="5" t="n"/>
@@ -10428,8 +9945,16 @@
           <t>Hostname</t>
         </is>
       </c>
-      <c r="B5" s="7" t="n"/>
-      <c r="C5" s="7" t="n"/>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>vsc1.company.ecom</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>vsc2.company.ecom</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -10437,8 +9962,16 @@
           <t>Management IP address</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.25</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.26</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -10446,8 +9979,12 @@
           <t>Management Network Prefix Length</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
+      <c r="B7" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -10455,8 +9992,16 @@
           <t>Management Network Gateway</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.1</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
@@ -10480,8 +10025,16 @@
           <t>Control IP address</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>192.168.110.20</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>192.168.110.21</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
@@ -10489,8 +10042,12 @@
           <t>Control Netmask Prefix Length</t>
         </is>
       </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
+      <c r="B12" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
@@ -10532,8 +10089,16 @@
           <t>System IP address</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>192.168.100.20</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>192.168.100.20</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -10575,8 +10140,16 @@
           <t>Target Server type</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>kvm</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>kvm</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -10584,8 +10157,16 @@
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>10.105.1.100</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>10.105.1.101</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -11078,9 +10659,21 @@
           <t>Hostname</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>vstat1.company.com</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>vstat2.company.com</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>vstat2.company.com</t>
+        </is>
+      </c>
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="5" t="n"/>
       <c r="G5" s="5" t="n"/>
@@ -11091,9 +10684,21 @@
           <t>Management IP address</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.40</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.41</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.41</t>
+        </is>
+      </c>
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="5" t="n"/>
       <c r="G6" s="5" t="n"/>
@@ -11104,9 +10709,15 @@
           <t>Management Network Prefix Length</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
+      <c r="B7" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>24</v>
+      </c>
       <c r="E7" s="5" t="n"/>
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="5" t="n"/>
@@ -11117,9 +10728,21 @@
           <t>Management Network Gateway</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.1</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.1</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>192.168.110.1</t>
+        </is>
+      </c>
       <c r="E8" s="5" t="n"/>
       <c r="F8" s="5" t="n"/>
       <c r="G8" s="5" t="n"/>
@@ -11163,9 +10786,21 @@
           <t>Target Server type</t>
         </is>
       </c>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n"/>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>kvm</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>kvm</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>kvm</t>
+        </is>
+      </c>
       <c r="E12" s="5" t="n"/>
       <c r="F12" s="5" t="n"/>
       <c r="G12" s="5" t="n"/>
@@ -11176,9 +10811,21 @@
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>10.105.1.105</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>10.105.1.106</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>10.105.1.106</t>
+        </is>
+      </c>
       <c r="E13" s="5" t="n"/>
       <c r="F13" s="5" t="n"/>
       <c r="G13" s="5" t="n"/>
@@ -11748,7 +11395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11758,11 +11405,6 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="70"/>
     <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11792,12 +11434,11 @@
           <t>Name</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>nsgv_bootstrap</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -11806,11 +11447,6 @@
         </is>
       </c>
       <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -11819,11 +11455,6 @@
         </is>
       </c>
       <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -11832,11 +11463,6 @@
         </is>
       </c>
       <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -11852,11 +11478,6 @@
         </is>
       </c>
       <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -11865,11 +11486,6 @@
         </is>
       </c>
       <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
@@ -11878,11 +11494,6 @@
         </is>
       </c>
       <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -11891,11 +11502,6 @@
         </is>
       </c>
       <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -11911,11 +11517,6 @@
         </is>
       </c>
       <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
@@ -11924,11 +11525,6 @@
         </is>
       </c>
       <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -11937,11 +11533,6 @@
         </is>
       </c>
       <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -11957,11 +11548,6 @@
         </is>
       </c>
       <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
@@ -11970,11 +11556,6 @@
         </is>
       </c>
       <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
@@ -11983,11 +11564,6 @@
         </is>
       </c>
       <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
@@ -11996,11 +11572,6 @@
         </is>
       </c>
       <c r="B22" s="7" t="n"/>
-      <c r="C22" s="7" t="n"/>
-      <c r="D22" s="7" t="n"/>
-      <c r="E22" s="7" t="n"/>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
@@ -12009,11 +11580,6 @@
         </is>
       </c>
       <c r="B23" s="7" t="n"/>
-      <c r="C23" s="7" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
@@ -12022,11 +11588,6 @@
         </is>
       </c>
       <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -12042,11 +11603,6 @@
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
-      <c r="C26" s="7" t="n"/>
-      <c r="D26" s="7" t="n"/>
-      <c r="E26" s="7" t="n"/>
-      <c r="F26" s="7" t="n"/>
-      <c r="G26" s="7" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
@@ -12055,11 +11611,6 @@
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
-      <c r="G27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
@@ -12068,11 +11619,6 @@
         </is>
       </c>
       <c r="B28" s="7" t="n"/>
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
@@ -12081,11 +11627,6 @@
         </is>
       </c>
       <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
@@ -12094,11 +11635,6 @@
         </is>
       </c>
       <c r="B30" s="9" t="n"/>
-      <c r="C30" s="9" t="n"/>
-      <c r="D30" s="9" t="n"/>
-      <c r="E30" s="9" t="n"/>
-      <c r="F30" s="9" t="n"/>
-      <c r="G30" s="9" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
@@ -12107,11 +11643,6 @@
         </is>
       </c>
       <c r="B31" s="9" t="n"/>
-      <c r="C31" s="9" t="n"/>
-      <c r="D31" s="9" t="n"/>
-      <c r="E31" s="9" t="n"/>
-      <c r="F31" s="9" t="n"/>
-      <c r="G31" s="9" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
@@ -12120,11 +11651,6 @@
         </is>
       </c>
       <c r="B32" s="9" t="n"/>
-      <c r="C32" s="9" t="n"/>
-      <c r="D32" s="9" t="n"/>
-      <c r="E32" s="9" t="n"/>
-      <c r="F32" s="9" t="n"/>
-      <c r="G32" s="9" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
@@ -12140,11 +11666,6 @@
         </is>
       </c>
       <c r="B34" s="7" t="n"/>
-      <c r="C34" s="7" t="n"/>
-      <c r="D34" s="7" t="n"/>
-      <c r="E34" s="7" t="n"/>
-      <c r="F34" s="7" t="n"/>
-      <c r="G34" s="7" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
@@ -12153,11 +11674,6 @@
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
-      <c r="C35" s="7" t="n"/>
-      <c r="D35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
-      <c r="F35" s="7" t="n"/>
-      <c r="G35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -12173,11 +11689,6 @@
         </is>
       </c>
       <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
-      <c r="F37" s="7" t="n"/>
-      <c r="G37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
@@ -12186,11 +11697,6 @@
         </is>
       </c>
       <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
-      <c r="D38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
-      <c r="F38" s="7" t="n"/>
-      <c r="G38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -12206,11 +11712,6 @@
         </is>
       </c>
       <c r="B40" s="7" t="n"/>
-      <c r="C40" s="7" t="n"/>
-      <c r="D40" s="7" t="n"/>
-      <c r="E40" s="7" t="n"/>
-      <c r="F40" s="7" t="n"/>
-      <c r="G40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
@@ -12219,11 +11720,6 @@
         </is>
       </c>
       <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
-      <c r="D41" s="7" t="n"/>
-      <c r="E41" s="7" t="n"/>
-      <c r="F41" s="7" t="n"/>
-      <c r="G41" s="7" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -12239,11 +11735,6 @@
         </is>
       </c>
       <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
-      <c r="D43" s="7" t="n"/>
-      <c r="E43" s="7" t="n"/>
-      <c r="F43" s="7" t="n"/>
-      <c r="G43" s="7" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
@@ -12252,11 +11743,6 @@
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
-      <c r="C44" s="7" t="n"/>
-      <c r="D44" s="7" t="n"/>
-      <c r="E44" s="7" t="n"/>
-      <c r="F44" s="7" t="n"/>
-      <c r="G44" s="7" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
@@ -12264,12 +11750,11 @@
           <t>Password for NSGv Proxy User</t>
         </is>
       </c>
-      <c r="B45" s="7" t="n"/>
-      <c r="C45" s="7" t="n"/>
-      <c r="D45" s="7" t="n"/>
-      <c r="E45" s="7" t="n"/>
-      <c r="F45" s="7" t="n"/>
-      <c r="G45" s="7" t="n"/>
+      <c r="B45" s="7" t="inlineStr">
+        <is>
+          <t>proxy_password</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -12285,11 +11770,6 @@
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
-      <c r="C47" s="7" t="n"/>
-      <c r="D47" s="7" t="n"/>
-      <c r="E47" s="7" t="n"/>
-      <c r="F47" s="7" t="n"/>
-      <c r="G47" s="7" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
@@ -12298,11 +11778,6 @@
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
-      <c r="C48" s="7" t="n"/>
-      <c r="D48" s="7" t="n"/>
-      <c r="E48" s="7" t="n"/>
-      <c r="F48" s="7" t="n"/>
-      <c r="G48" s="7" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
@@ -12311,11 +11786,6 @@
         </is>
       </c>
       <c r="B49" s="7" t="n"/>
-      <c r="C49" s="7" t="n"/>
-      <c r="D49" s="7" t="n"/>
-      <c r="E49" s="7" t="n"/>
-      <c r="F49" s="7" t="n"/>
-      <c r="G49" s="7" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
@@ -12324,11 +11794,6 @@
         </is>
       </c>
       <c r="B50" s="7" t="n"/>
-      <c r="C50" s="7" t="n"/>
-      <c r="D50" s="7" t="n"/>
-      <c r="E50" s="7" t="n"/>
-      <c r="F50" s="7" t="n"/>
-      <c r="G50" s="7" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
@@ -12344,11 +11809,6 @@
         </is>
       </c>
       <c r="B52" s="7" t="n"/>
-      <c r="C52" s="7" t="n"/>
-      <c r="D52" s="7" t="n"/>
-      <c r="E52" s="7" t="n"/>
-      <c r="F52" s="7" t="n"/>
-      <c r="G52" s="7" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
@@ -12357,11 +11817,6 @@
         </is>
       </c>
       <c r="B53" s="7" t="n"/>
-      <c r="C53" s="7" t="n"/>
-      <c r="D53" s="7" t="n"/>
-      <c r="E53" s="7" t="n"/>
-      <c r="F53" s="7" t="n"/>
-      <c r="G53" s="7" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -12377,11 +11832,6 @@
         </is>
       </c>
       <c r="B55" s="7" t="n"/>
-      <c r="C55" s="7" t="n"/>
-      <c r="D55" s="7" t="n"/>
-      <c r="E55" s="7" t="n"/>
-      <c r="F55" s="7" t="n"/>
-      <c r="G55" s="7" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
@@ -12390,11 +11840,6 @@
         </is>
       </c>
       <c r="B56" s="7" t="n"/>
-      <c r="C56" s="7" t="n"/>
-      <c r="D56" s="7" t="n"/>
-      <c r="E56" s="7" t="n"/>
-      <c r="F56" s="7" t="n"/>
-      <c r="G56" s="7" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
@@ -12403,11 +11848,6 @@
         </is>
       </c>
       <c r="B57" s="7" t="n"/>
-      <c r="C57" s="7" t="n"/>
-      <c r="D57" s="7" t="n"/>
-      <c r="E57" s="7" t="n"/>
-      <c r="F57" s="7" t="n"/>
-      <c r="G57" s="7" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
@@ -12416,11 +11856,6 @@
         </is>
       </c>
       <c r="B58" s="7" t="n"/>
-      <c r="C58" s="7" t="n"/>
-      <c r="D58" s="7" t="n"/>
-      <c r="E58" s="7" t="n"/>
-      <c r="F58" s="7" t="n"/>
-      <c r="G58" s="7" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -12436,11 +11871,6 @@
         </is>
       </c>
       <c r="B60" s="7" t="n"/>
-      <c r="C60" s="7" t="n"/>
-      <c r="D60" s="7" t="n"/>
-      <c r="E60" s="7" t="n"/>
-      <c r="F60" s="7" t="n"/>
-      <c r="G60" s="7" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="6" t="inlineStr">
@@ -12449,11 +11879,6 @@
         </is>
       </c>
       <c r="B61" s="7" t="n"/>
-      <c r="C61" s="7" t="n"/>
-      <c r="D61" s="7" t="n"/>
-      <c r="E61" s="7" t="n"/>
-      <c r="F61" s="7" t="n"/>
-      <c r="G61" s="7" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
@@ -12469,11 +11894,6 @@
         </is>
       </c>
       <c r="B63" s="7" t="n"/>
-      <c r="C63" s="7" t="n"/>
-      <c r="D63" s="7" t="n"/>
-      <c r="E63" s="7" t="n"/>
-      <c r="F63" s="7" t="n"/>
-      <c r="G63" s="7" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="6" t="inlineStr">
@@ -12482,28 +11902,23 @@
         </is>
       </c>
       <c r="B64" s="7" t="n"/>
-      <c r="C64" s="7" t="n"/>
-      <c r="D64" s="7" t="n"/>
-      <c r="E64" s="7" t="n"/>
-      <c r="F64" s="7" t="n"/>
-      <c r="G64" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A62:B62"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -13101,9 +12516,21 @@
     <row r="6">
       <c r="A6" s="7" t="n"/>
       <c r="B6" s="7" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="7" t="n"/>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>U42</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>CBIS UC</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>BLANK PANEL</t>
+        </is>
+      </c>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="7" t="n"/>
       <c r="H6" s="7" t="n"/>
@@ -13130,9 +12557,21 @@
     <row r="7">
       <c r="A7" s="7" t="n"/>
       <c r="B7" s="7" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="7" t="n"/>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>U41</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>BLANK PANEL</t>
+        </is>
+      </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="7" t="n"/>
       <c r="H7" s="7" t="n"/>
@@ -13159,9 +12598,21 @@
     <row r="8">
       <c r="A8" s="7" t="n"/>
       <c r="B8" s="7" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="7" t="n"/>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>U40</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>BLANK PANEL</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
@@ -13188,9 +12639,21 @@
     <row r="9">
       <c r="A9" s="7" t="n"/>
       <c r="B9" s="7" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>U39</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>BLANK PANEL</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
@@ -13217,9 +12680,21 @@
     <row r="10">
       <c r="A10" s="7" t="n"/>
       <c r="B10" s="7" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="7" t="n"/>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>U38</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>BLANK PANEL</t>
+        </is>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
@@ -13246,9 +12721,21 @@
     <row r="11">
       <c r="A11" s="7" t="n"/>
       <c r="B11" s="7" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="7" t="n"/>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>U37</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>BLANK PANEL</t>
+        </is>
+      </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
@@ -13275,9 +12762,21 @@
     <row r="12">
       <c r="A12" s="7" t="n"/>
       <c r="B12" s="7" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="7" t="n"/>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>U36</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>BLANK PANEL</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
       <c r="H12" s="7" t="n"/>
@@ -13304,9 +12803,21 @@
     <row r="13">
       <c r="A13" s="7" t="n"/>
       <c r="B13" s="7" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="7" t="n"/>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>U35</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Spine</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>spine01</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="7" t="n"/>
       <c r="H13" s="7" t="n"/>
@@ -13333,9 +12844,21 @@
     <row r="14">
       <c r="A14" s="7" t="n"/>
       <c r="B14" s="7" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="7" t="n"/>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>U34</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>Cable Management</t>
+        </is>
+      </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
@@ -13362,9 +12885,21 @@
     <row r="15">
       <c r="A15" s="7" t="n"/>
       <c r="B15" s="7" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="7" t="n"/>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>U33</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Spine</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>spine02</t>
+        </is>
+      </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="7" t="n"/>
@@ -13391,9 +12926,21 @@
     <row r="16">
       <c r="A16" s="7" t="n"/>
       <c r="B16" s="7" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="7" t="n"/>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>U32</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>CBIS UC</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>Undercloud Node</t>
+        </is>
+      </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="7" t="n"/>
       <c r="H16" s="7" t="n"/>
@@ -13420,9 +12967,21 @@
     <row r="17">
       <c r="A17" s="7" t="n"/>
       <c r="B17" s="7" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="7" t="n"/>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>U31</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>Controller Node 1</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="7" t="n"/>
       <c r="H17" s="7" t="n"/>
@@ -13449,9 +13008,21 @@
     <row r="18">
       <c r="A18" s="7" t="n"/>
       <c r="B18" s="7" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="7" t="n"/>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>U30</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>Controller Node 2</t>
+        </is>
+      </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="7" t="n"/>
       <c r="H18" s="7" t="n"/>
@@ -13478,9 +13049,21 @@
     <row r="19">
       <c r="A19" s="7" t="n"/>
       <c r="B19" s="7" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="7" t="n"/>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>U29</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>Controller Node 3</t>
+        </is>
+      </c>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="7" t="n"/>
       <c r="H19" s="7" t="n"/>
@@ -13507,9 +13090,21 @@
     <row r="20">
       <c r="A20" s="7" t="n"/>
       <c r="B20" s="7" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="7" t="n"/>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>U28</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>Nuage Node 1</t>
+        </is>
+      </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="7" t="n"/>
       <c r="H20" s="7" t="n"/>
@@ -13536,9 +13131,21 @@
     <row r="21">
       <c r="A21" s="7" t="n"/>
       <c r="B21" s="7" t="n"/>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="7" t="n"/>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>U27</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>Nuage Node 2</t>
+        </is>
+      </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="7" t="n"/>
       <c r="H21" s="7" t="n"/>
@@ -13565,9 +13172,21 @@
     <row r="22">
       <c r="A22" s="7" t="n"/>
       <c r="B22" s="7" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="7" t="n"/>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>U26</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>Nuage Node 3</t>
+        </is>
+      </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="7" t="n"/>
       <c r="H22" s="7" t="n"/>
@@ -13594,9 +13213,21 @@
     <row r="23">
       <c r="A23" s="7" t="n"/>
       <c r="B23" s="7" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="7" t="n"/>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>U25</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>Compute Node 1</t>
+        </is>
+      </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="7" t="n"/>
       <c r="H23" s="7" t="n"/>
@@ -13623,9 +13254,21 @@
     <row r="24">
       <c r="A24" s="7" t="n"/>
       <c r="B24" s="7" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="7" t="n"/>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>U24</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>Leaf</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>leaf01</t>
+        </is>
+      </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="7" t="n"/>
       <c r="H24" s="7" t="n"/>
@@ -13652,9 +13295,21 @@
     <row r="25">
       <c r="A25" s="7" t="n"/>
       <c r="B25" s="7" t="n"/>
-      <c r="C25" s="5" t="n"/>
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="7" t="n"/>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>U23</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>Cable Management</t>
+        </is>
+      </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="7" t="n"/>
       <c r="H25" s="7" t="n"/>
@@ -13681,9 +13336,21 @@
     <row r="26">
       <c r="A26" s="7" t="n"/>
       <c r="B26" s="7" t="n"/>
-      <c r="C26" s="5" t="n"/>
-      <c r="D26" s="5" t="n"/>
-      <c r="E26" s="7" t="n"/>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>U22</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Leaf</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>leaf02</t>
+        </is>
+      </c>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="7" t="n"/>
       <c r="H26" s="7" t="n"/>
@@ -13710,9 +13377,21 @@
     <row r="27">
       <c r="A27" s="7" t="n"/>
       <c r="B27" s="7" t="n"/>
-      <c r="C27" s="5" t="n"/>
-      <c r="D27" s="5" t="n"/>
-      <c r="E27" s="7" t="n"/>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>U21</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>Cable Management</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>Cable Management</t>
+        </is>
+      </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="7" t="n"/>
       <c r="H27" s="7" t="n"/>
@@ -13739,9 +13418,21 @@
     <row r="28">
       <c r="A28" s="7" t="n"/>
       <c r="B28" s="7" t="n"/>
-      <c r="C28" s="5" t="n"/>
-      <c r="D28" s="5" t="n"/>
-      <c r="E28" s="7" t="n"/>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>U20</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>Mgmt Switch</t>
+        </is>
+      </c>
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>Management Switch</t>
+        </is>
+      </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="7" t="n"/>
       <c r="H28" s="7" t="n"/>
@@ -13768,9 +13459,21 @@
     <row r="29">
       <c r="A29" s="7" t="n"/>
       <c r="B29" s="7" t="n"/>
-      <c r="C29" s="5" t="n"/>
-      <c r="D29" s="5" t="n"/>
-      <c r="E29" s="7" t="n"/>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>U19</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Cable Management</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>Cable Management</t>
+        </is>
+      </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="7" t="n"/>
       <c r="H29" s="7" t="n"/>
@@ -13797,9 +13500,21 @@
     <row r="30">
       <c r="A30" s="7" t="n"/>
       <c r="B30" s="7" t="n"/>
-      <c r="C30" s="5" t="n"/>
-      <c r="D30" s="5" t="n"/>
-      <c r="E30" s="7" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>U18</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>Compute Node 2</t>
+        </is>
+      </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="7" t="n"/>
       <c r="H30" s="7" t="n"/>
@@ -13826,9 +13541,21 @@
     <row r="31">
       <c r="A31" s="7" t="n"/>
       <c r="B31" s="7" t="n"/>
-      <c r="C31" s="5" t="n"/>
-      <c r="D31" s="5" t="n"/>
-      <c r="E31" s="7" t="n"/>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>U17</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>Node</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>Compute Node 3</t>
+        </is>
+      </c>
       <c r="F31" s="7" t="n"/>
       <c r="G31" s="7" t="n"/>
       <c r="H31" s="7" t="n"/>
@@ -13855,9 +13582,21 @@
     <row r="32">
       <c r="A32" s="7" t="n"/>
       <c r="B32" s="7" t="n"/>
-      <c r="C32" s="5" t="n"/>
-      <c r="D32" s="5" t="n"/>
-      <c r="E32" s="7" t="n"/>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>U16</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>Compute Node 4</t>
+        </is>
+      </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="7" t="n"/>
       <c r="H32" s="7" t="n"/>
@@ -13884,9 +13623,21 @@
     <row r="33">
       <c r="A33" s="7" t="n"/>
       <c r="B33" s="7" t="n"/>
-      <c r="C33" s="5" t="n"/>
-      <c r="D33" s="5" t="n"/>
-      <c r="E33" s="7" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>U15</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>Compute Node 5</t>
+        </is>
+      </c>
       <c r="F33" s="7" t="n"/>
       <c r="G33" s="7" t="n"/>
       <c r="H33" s="7" t="n"/>
@@ -13913,9 +13664,21 @@
     <row r="34">
       <c r="A34" s="7" t="n"/>
       <c r="B34" s="7" t="n"/>
-      <c r="C34" s="5" t="n"/>
-      <c r="D34" s="5" t="n"/>
-      <c r="E34" s="7" t="n"/>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>U14</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>Storage Node</t>
+        </is>
+      </c>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>Storage Node 1</t>
+        </is>
+      </c>
       <c r="F34" s="7" t="n"/>
       <c r="G34" s="7" t="n"/>
       <c r="H34" s="7" t="n"/>
@@ -13942,9 +13705,21 @@
     <row r="35">
       <c r="A35" s="7" t="n"/>
       <c r="B35" s="7" t="n"/>
-      <c r="C35" s="5" t="n"/>
-      <c r="D35" s="5" t="n"/>
-      <c r="E35" s="7" t="n"/>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>U13</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>Storage Node 1</t>
+        </is>
+      </c>
       <c r="F35" s="7" t="n"/>
       <c r="G35" s="7" t="n"/>
       <c r="H35" s="7" t="n"/>
@@ -13971,9 +13746,21 @@
     <row r="36">
       <c r="A36" s="7" t="n"/>
       <c r="B36" s="7" t="n"/>
-      <c r="C36" s="5" t="n"/>
-      <c r="D36" s="5" t="n"/>
-      <c r="E36" s="7" t="n"/>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>U12</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E36" s="7" t="inlineStr">
+        <is>
+          <t>Storage Node 2</t>
+        </is>
+      </c>
       <c r="F36" s="7" t="n"/>
       <c r="G36" s="7" t="n"/>
       <c r="H36" s="7" t="n"/>
@@ -14000,9 +13787,21 @@
     <row r="37">
       <c r="A37" s="7" t="n"/>
       <c r="B37" s="7" t="n"/>
-      <c r="C37" s="5" t="n"/>
-      <c r="D37" s="5" t="n"/>
-      <c r="E37" s="7" t="n"/>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>U11</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>Storage Node 2</t>
+        </is>
+      </c>
       <c r="F37" s="7" t="n"/>
       <c r="G37" s="7" t="n"/>
       <c r="H37" s="7" t="n"/>
@@ -14029,9 +13828,21 @@
     <row r="38">
       <c r="A38" s="7" t="n"/>
       <c r="B38" s="7" t="n"/>
-      <c r="C38" s="5" t="n"/>
-      <c r="D38" s="5" t="n"/>
-      <c r="E38" s="7" t="n"/>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>U10</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>Nuage Node</t>
+        </is>
+      </c>
+      <c r="E38" s="7" t="inlineStr">
+        <is>
+          <t>Storage Node 3</t>
+        </is>
+      </c>
       <c r="F38" s="7" t="n"/>
       <c r="G38" s="7" t="n"/>
       <c r="H38" s="7" t="n"/>
@@ -14058,9 +13869,21 @@
     <row r="39">
       <c r="A39" s="7" t="n"/>
       <c r="B39" s="7" t="n"/>
-      <c r="C39" s="5" t="n"/>
-      <c r="D39" s="5" t="n"/>
-      <c r="E39" s="7" t="n"/>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>U9</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>Storage Node 3</t>
+        </is>
+      </c>
       <c r="F39" s="7" t="n"/>
       <c r="G39" s="7" t="n"/>
       <c r="H39" s="7" t="n"/>
@@ -14087,9 +13910,21 @@
     <row r="40">
       <c r="A40" s="7" t="n"/>
       <c r="B40" s="7" t="n"/>
-      <c r="C40" s="5" t="n"/>
-      <c r="D40" s="5" t="n"/>
-      <c r="E40" s="7" t="n"/>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>U8</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E40" s="7" t="inlineStr">
+        <is>
+          <t>BLANK PANEL</t>
+        </is>
+      </c>
       <c r="F40" s="7" t="n"/>
       <c r="G40" s="7" t="n"/>
       <c r="H40" s="7" t="n"/>
@@ -14116,9 +13951,21 @@
     <row r="41">
       <c r="A41" s="7" t="n"/>
       <c r="B41" s="7" t="n"/>
-      <c r="C41" s="5" t="n"/>
-      <c r="D41" s="5" t="n"/>
-      <c r="E41" s="7" t="n"/>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>U7</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>BLANK PANEL</t>
+        </is>
+      </c>
       <c r="F41" s="7" t="n"/>
       <c r="G41" s="7" t="n"/>
       <c r="H41" s="7" t="n"/>
@@ -14145,9 +13992,21 @@
     <row r="42">
       <c r="A42" s="7" t="n"/>
       <c r="B42" s="7" t="n"/>
-      <c r="C42" s="5" t="n"/>
-      <c r="D42" s="5" t="n"/>
-      <c r="E42" s="7" t="n"/>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>U6</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E42" s="7" t="inlineStr">
+        <is>
+          <t>BLANK PANEL</t>
+        </is>
+      </c>
       <c r="F42" s="7" t="n"/>
       <c r="G42" s="7" t="n"/>
       <c r="H42" s="7" t="n"/>
@@ -14174,9 +14033,21 @@
     <row r="43">
       <c r="A43" s="7" t="n"/>
       <c r="B43" s="7" t="n"/>
-      <c r="C43" s="5" t="n"/>
-      <c r="D43" s="5" t="n"/>
-      <c r="E43" s="7" t="n"/>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>U5</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>BLANK PANEL</t>
+        </is>
+      </c>
       <c r="F43" s="7" t="n"/>
       <c r="G43" s="7" t="n"/>
       <c r="H43" s="7" t="n"/>
@@ -14203,9 +14074,21 @@
     <row r="44">
       <c r="A44" s="7" t="n"/>
       <c r="B44" s="7" t="n"/>
-      <c r="C44" s="5" t="n"/>
-      <c r="D44" s="5" t="n"/>
-      <c r="E44" s="7" t="n"/>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E44" s="7" t="inlineStr">
+        <is>
+          <t>BLANK PANEL</t>
+        </is>
+      </c>
       <c r="F44" s="7" t="n"/>
       <c r="G44" s="7" t="n"/>
       <c r="H44" s="7" t="n"/>
@@ -14232,9 +14115,21 @@
     <row r="45">
       <c r="A45" s="7" t="n"/>
       <c r="B45" s="7" t="n"/>
-      <c r="C45" s="5" t="n"/>
-      <c r="D45" s="5" t="n"/>
-      <c r="E45" s="7" t="n"/>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>U3</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>BLANK PANEL</t>
+        </is>
+      </c>
       <c r="F45" s="7" t="n"/>
       <c r="G45" s="7" t="n"/>
       <c r="H45" s="7" t="n"/>
@@ -14261,9 +14156,21 @@
     <row r="46">
       <c r="A46" s="7" t="n"/>
       <c r="B46" s="7" t="n"/>
-      <c r="C46" s="5" t="n"/>
-      <c r="D46" s="5" t="n"/>
-      <c r="E46" s="7" t="n"/>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E46" s="7" t="inlineStr">
+        <is>
+          <t>BLANK PANEL</t>
+        </is>
+      </c>
       <c r="F46" s="7" t="n"/>
       <c r="G46" s="7" t="n"/>
       <c r="H46" s="7" t="n"/>
@@ -14290,9 +14197,21 @@
     <row r="47">
       <c r="A47" s="7" t="n"/>
       <c r="B47" s="7" t="n"/>
-      <c r="C47" s="5" t="n"/>
-      <c r="D47" s="5" t="n"/>
-      <c r="E47" s="7" t="n"/>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>Inception Server</t>
+        </is>
+      </c>
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t>INCEPTION SERVER</t>
+        </is>
+      </c>
       <c r="F47" s="7" t="n"/>
       <c r="G47" s="7" t="n"/>
       <c r="H47" s="7" t="n"/>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -15,22 +15,21 @@
     <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Mgmt port map" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Netconf managers" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nsgvs" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuhs" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Portals" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Proxys" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Stcv global" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Stcvs" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Vcins" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Vnsutils" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Vrss" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vsrs" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Webfilters" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Nuh external interfaces" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Nuhs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Portals" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Proxys" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Stcv global" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Stcvs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Vcins" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Vnsutils" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Vrss" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Vsrs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Webfilters" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -74,7 +73,7 @@
       <color rgb="00888888"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -101,13 +100,8 @@
         <fgColor rgb="00EEEEEE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AAAAAA"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,24 +133,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00FFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="00FFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
@@ -169,11 +152,6 @@
     <xf borderId="2" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -208,39 +186,6 @@
 <file path=xl/comments/comment10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>netconf_server</author>
-    <author>email</author>
-    <author>first_name</author>
-    <author>last_name</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Hostname or IP address of the machine where NETCONF manager will be installed</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>Email address to configure netconf server with</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>First name of the NETCONF manager user</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
-      <text>
-        <t>Last name of the NETCONF manager user</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
     <author>name</author>
     <author>physical_name</author>
     <author>vlan_range</author>
@@ -277,7 +222,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>nsgv_organization</author>
@@ -364,7 +309,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vmname</author>
@@ -661,7 +606,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -706,7 +651,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -817,7 +762,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -928,7 +873,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1021,7 +966,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>stcv_image_path</author>
@@ -1048,7 +993,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>target_server</author>
@@ -1129,6 +1074,93 @@
     <comment authorId="12" ref="A20" shapeId="0">
       <text>
         <t>Amount of RAM to apply to the STCv VM</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hostname</author>
+    <author>mgmt_ip</author>
+    <author>mgmt_ip_prefix</author>
+    <author>mgmt_gateway</author>
+    <author>vmname</author>
+    <author>target_server_type</author>
+    <author>target_server</author>
+    <author>master_vcin</author>
+    <author>vcenter_datacenter</author>
+    <author>vcenter_cluster</author>
+    <author>vcenter_datastore</author>
+    <author>cpuset</author>
+    <author>credentials_set</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Hostname of the VCIN instance</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>IP address of the management interface</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Management network prefix length</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>IP address of the gateway on the management network</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A10" shapeId="0">
+      <text>
+        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A11" shapeId="0">
+      <text>
+        <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy.</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A12" shapeId="0">
+      <text>
+        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A14" shapeId="0">
+      <text>
+        <t>The FQDN or IP address of the Master VCIN in an Active/Standby deployment. Only used when this VCIN is part of an active/standby configuration. The hostname provided here must match the hostname of another VCIN in the list of VCINs for this deployment. [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="8" ref="A15" shapeId="0">
+      <text>
+        <t>Name of the vCenter Datacenter on which the VCIN VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Name of the vCenter Cluster on which the VCIN VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Name of the vCenter Datastore on which the VCIN VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A19" shapeId="0">
+      <text>
+        <t>Cpuset information for cpu pinning on KVM. For example, VCIN requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>Name of the credentials set for the vsd</t>
       </text>
     </comment>
   </commentList>
@@ -1742,93 +1774,6 @@
     <author>vmname</author>
     <author>target_server_type</author>
     <author>target_server</author>
-    <author>master_vcin</author>
-    <author>vcenter_datacenter</author>
-    <author>vcenter_cluster</author>
-    <author>vcenter_datastore</author>
-    <author>cpuset</author>
-    <author>credentials_set</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Hostname of the VCIN instance</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>IP address of the management interface</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>Management network prefix length</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
-      <text>
-        <t>IP address of the gateway on the management network</t>
-      </text>
-    </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
-      <text>
-        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
-      </text>
-    </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
-      <text>
-        <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy.</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
-      <text>
-        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
-      </text>
-    </comment>
-    <comment authorId="7" ref="A14" shapeId="0">
-      <text>
-        <t>The FQDN or IP address of the Master VCIN in an Active/Standby deployment. Only used when this VCIN is part of an active/standby configuration. The hostname provided here must match the hostname of another VCIN in the list of VCINs for this deployment. [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="8" ref="A15" shapeId="0">
-      <text>
-        <t>Name of the vCenter Datacenter on which the VCIN VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
-      </text>
-    </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
-      <text>
-        <t>Name of the vCenter Cluster on which the VCIN VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
-      <text>
-        <t>Name of the vCenter Datastore on which the VCIN VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
-      <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, VCIN requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
-      <text>
-        <t>Name of the credentials set for the vsd</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>hostname</author>
-    <author>mgmt_ip</author>
-    <author>mgmt_ip_prefix</author>
-    <author>mgmt_gateway</author>
-    <author>vmname</author>
-    <author>target_server_type</author>
-    <author>target_server</author>
     <author>mgmt_bridge</author>
     <author>data_bridge</author>
     <author>data_fqdn</author>
@@ -2068,7 +2013,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vrs_os_type</author>
@@ -2131,7 +2076,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2230,7 +2175,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -3574,168 +3519,30 @@
 <file path=xl/comments/comment9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>slot</author>
-    <author>port</author>
-    <author>rack_position</author>
-    <author>type</author>
-    <author>rack_item_name</author>
-    <author>cbis_visibility</author>
-    <author>inband_ip_address_mask</author>
-    <author>oob_ip_address_mask</author>
-    <author>p3</author>
-    <author>p4</author>
-    <author>p1</author>
-    <author>p2</author>
-    <author>login_id</author>
-    <author>login_password</author>
-    <author>model</author>
-    <author>bios</author>
-    <author>firmware</author>
-    <author>hostname</author>
-    <author>boot_mode_select</author>
-    <author>boot_order_1</author>
-    <author>boot_order_2</author>
-    <author>boot_order_3</author>
-    <author>boot_order_4</author>
-    <author>ipv4_pxe_support</author>
-    <author>pwr_perf_profile</author>
-    <author>ssata_configuration</author>
-    <author>wbx_chassis_mac</author>
+    <author>netconf_server</author>
+    <author>email</author>
+    <author>first_name</author>
+    <author>last_name</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
       <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="B5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="C5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="D5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="4" ref="E5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="5" ref="F5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="G5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="7" ref="H5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="8" ref="I5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="9" ref="J5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="K5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="L5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="M5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="13" ref="N5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="14" ref="O5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="15" ref="P5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="16" ref="Q5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="17" ref="R5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="18" ref="S5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="19" ref="T5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="20" ref="U5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="21" ref="V5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="22" ref="W5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="23" ref="X5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="24" ref="Y5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="25" ref="Z5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
-      </text>
-    </comment>
-    <comment authorId="26" ref="AA5" shapeId="0">
-      <text>
-        <t>DESCRIPTION TO BE WRITTEN</t>
+        <t>Hostname or IP address of the machine where NETCONF manager will be installed</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Email address to configure netconf server with</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>First name of the NETCONF manager user</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Last name of the NETCONF manager user</t>
       </text>
     </comment>
   </commentList>
@@ -4070,11 +3877,7 @@
           <t>Name</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Install SD-WAN components on KVM</t>
-        </is>
-      </c>
+      <c r="B5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -4082,11 +3885,7 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>Install all SD-WAN components (VSD, VSC, VSTAT, NSG and VNSUtil) on KVM</t>
-        </is>
-      </c>
+      <c r="B6" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4103,7 +3902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4123,28 +3922,28 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>NETCONF Managers</t>
+          <t>NSGv Ports</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Configuration for Netconf Manager.</t>
+          <t>Specify NSGvs access port configuration.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Server Details</t>
+          <t>Access ports</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>NETCONF Server IP or FQDN</t>
+          <t>NSGv Access Port Name</t>
         </is>
       </c>
       <c r="B5" s="5" t="n"/>
@@ -4157,7 +3956,7 @@
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>Email address</t>
+          <t>NSGv Access Port Physical Name</t>
         </is>
       </c>
       <c r="B6" s="7" t="n"/>
@@ -4168,22 +3967,22 @@
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>First name</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>NSGv Access Port VLAN Range</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>Last name</t>
+          <t>NSGv Access Port VLAN Number</t>
         </is>
       </c>
       <c r="B8" s="7" t="n"/>
@@ -4193,138 +3992,37 @@
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
     </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>NSGv Access Bridge</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="5" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
   </mergeCells>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
+  </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>NSGv Ports</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Specify NSGvs access port configuration.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Access ports</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>NSGv Access Port Name</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>port1_access</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>port2_access</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>NSGv Access Port Physical Name</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>NSGv Access Port VLAN Range</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>0-100</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>0-100</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>NSGv Access Port VLAN Number</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>NSGv Access Bridge</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>access_1</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>access_2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:C4"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C8" type="whole"/>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4369,11 +4067,7 @@
           <t>Global organization for NSGvs</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
-        <is>
-          <t>metro-test</t>
-        </is>
-      </c>
+      <c r="B5" s="7" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -4381,11 +4075,7 @@
           <t>Proxy User First Name</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>metro</t>
-        </is>
-      </c>
+      <c r="B6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -4393,11 +4083,7 @@
           <t>Proxy User Last Name</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>metro</t>
-        </is>
-      </c>
+      <c r="B7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -4405,11 +4091,7 @@
           <t>Proxy User Email</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>test@mag.net</t>
-        </is>
-      </c>
+      <c r="B8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -4424,11 +4106,7 @@
           <t>NSG Infrastructure Profile Name</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>metro_vns</t>
-        </is>
-      </c>
+      <c r="B10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -4436,11 +4114,7 @@
           <t>NSGv Template Name</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>metro-test</t>
-        </is>
-      </c>
+      <c r="B11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
@@ -4448,11 +4122,7 @@
           <t>Proxy DNS Name</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>vnsutil.mag.net</t>
-        </is>
-      </c>
+      <c r="B12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
@@ -4475,11 +4145,7 @@
           <t>VSC Infrastructure Profile Name</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>metro_vsc</t>
-        </is>
-      </c>
+      <c r="B15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
@@ -4487,11 +4153,7 @@
           <t>Address of First VSC</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>192.168.110.20</t>
-        </is>
-      </c>
+      <c r="B16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -4499,11 +4161,7 @@
           <t>Address of Second VSC</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>192.168.110.21</t>
-        </is>
-      </c>
+      <c r="B17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -4540,6 +4198,867 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Network Services Gateway</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Specify configuration for Nuage MetroAE NSGvs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>VM and Target Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Target Server type</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Target Server hostname</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Bootstrap Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>Bootstrap Method</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
+      <c r="G9" s="7" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>External Bootstrap ISO File Directory</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>External Bootstrap ISO File Name</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>IP Address to assign to NSGv by VNSUtil</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>NSGV MAC Address</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Bridge info</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>Management Network Bridge</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="n"/>
+      <c r="C15" s="9" t="n"/>
+      <c r="D15" s="9" t="n"/>
+      <c r="E15" s="9" t="n"/>
+      <c r="F15" s="9" t="n"/>
+      <c r="G15" s="9" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>Data Network Bridge</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="9" t="n"/>
+      <c r="F16" s="9" t="n"/>
+      <c r="G16" s="9" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>NSGv Access Bridge</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="G19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Cluster Name</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="n"/>
+      <c r="C20" s="9" t="n"/>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="9" t="n"/>
+      <c r="G20" s="9" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="n"/>
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="9" t="n"/>
+      <c r="E22" s="9" t="n"/>
+      <c r="F22" s="9" t="n"/>
+      <c r="G22" s="9" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>AWS Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>AWS Region</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n"/>
+      <c r="C24" s="7" t="n"/>
+      <c r="D24" s="7" t="n"/>
+      <c r="E24" s="7" t="n"/>
+      <c r="F24" s="7" t="n"/>
+      <c r="G24" s="7" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>AWS AMI ID</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n"/>
+      <c r="C25" s="7" t="n"/>
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="7" t="n"/>
+      <c r="F25" s="7" t="n"/>
+      <c r="G25" s="7" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>AWS AMI ID for Upgrading Instance</t>
+        </is>
+      </c>
+      <c r="B26" s="7" t="n"/>
+      <c r="C26" s="7" t="n"/>
+      <c r="D26" s="7" t="n"/>
+      <c r="E26" s="7" t="n"/>
+      <c r="F26" s="7" t="n"/>
+      <c r="G26" s="7" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>AWS Instance Type</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="7" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>AWS Keypair Name</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="7" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>AWS Access ENI</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
+      <c r="G29" s="7" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>AWS Data ENI</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
+      <c r="F30" s="7" t="n"/>
+      <c r="G30" s="7" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>AWS WAN EIP AllocID</t>
+        </is>
+      </c>
+      <c r="B31" s="7" t="n"/>
+      <c r="C31" s="7" t="n"/>
+      <c r="D31" s="7" t="n"/>
+      <c r="E31" s="7" t="n"/>
+      <c r="F31" s="7" t="n"/>
+      <c r="G31" s="7" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>AWS VPC Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>AWS Provision VPC CIDR</t>
+        </is>
+      </c>
+      <c r="B33" s="9" t="n"/>
+      <c r="C33" s="9" t="n"/>
+      <c r="D33" s="9" t="n"/>
+      <c r="E33" s="9" t="n"/>
+      <c r="F33" s="9" t="n"/>
+      <c r="G33" s="9" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>AWS Provision VPC NSG WAN Subnet CIDR</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="n"/>
+      <c r="C34" s="9" t="n"/>
+      <c r="D34" s="9" t="n"/>
+      <c r="E34" s="9" t="n"/>
+      <c r="F34" s="9" t="n"/>
+      <c r="G34" s="9" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>AWS Provision VPC NSG LAN Subnet CIDR</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="n"/>
+      <c r="C35" s="9" t="n"/>
+      <c r="D35" s="9" t="n"/>
+      <c r="E35" s="9" t="n"/>
+      <c r="F35" s="9" t="n"/>
+      <c r="G35" s="9" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>AWS Provision VPC Private Subnet CIDR</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="n"/>
+      <c r="C36" s="9" t="n"/>
+      <c r="D36" s="9" t="n"/>
+      <c r="E36" s="9" t="n"/>
+      <c r="F36" s="9" t="n"/>
+      <c r="G36" s="9" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>NSGv Zero-Factor Bootstrap</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>NSG Organization</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
+      <c r="D38" s="9" t="n"/>
+      <c r="E38" s="9" t="n"/>
+      <c r="F38" s="9" t="n"/>
+      <c r="G38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="inlineStr">
+        <is>
+          <t>NSG Name</t>
+        </is>
+      </c>
+      <c r="B39" s="9" t="n"/>
+      <c r="C39" s="9" t="n"/>
+      <c r="D39" s="9" t="n"/>
+      <c r="E39" s="9" t="n"/>
+      <c r="F39" s="9" t="n"/>
+      <c r="G39" s="9" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>Activation Matching Type</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="n"/>
+      <c r="C40" s="7" t="n"/>
+      <c r="D40" s="7" t="n"/>
+      <c r="E40" s="7" t="n"/>
+      <c r="F40" s="7" t="n"/>
+      <c r="G40" s="7" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Activation Matching Value</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n"/>
+      <c r="C41" s="7" t="n"/>
+      <c r="D41" s="7" t="n"/>
+      <c r="E41" s="7" t="n"/>
+      <c r="F41" s="7" t="n"/>
+      <c r="G41" s="7" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="inlineStr">
+        <is>
+          <t>Enable SSH on NSGv</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="n"/>
+      <c r="C42" s="9" t="n"/>
+      <c r="D42" s="9" t="n"/>
+      <c r="E42" s="9" t="n"/>
+      <c r="F42" s="9" t="n"/>
+      <c r="G42" s="9" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>NSG Advanced Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="inlineStr">
+        <is>
+          <t>NSG Infra Profile Template Name</t>
+        </is>
+      </c>
+      <c r="B44" s="9" t="n"/>
+      <c r="C44" s="9" t="n"/>
+      <c r="D44" s="9" t="n"/>
+      <c r="E44" s="9" t="n"/>
+      <c r="F44" s="9" t="n"/>
+      <c r="G44" s="9" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="inlineStr">
+        <is>
+          <t>NSG Infra Profile Name</t>
+        </is>
+      </c>
+      <c r="B45" s="9" t="n"/>
+      <c r="C45" s="9" t="n"/>
+      <c r="D45" s="9" t="n"/>
+      <c r="E45" s="9" t="n"/>
+      <c r="F45" s="9" t="n"/>
+      <c r="G45" s="9" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t>NSG Infra Profile Proxy DNS Name</t>
+        </is>
+      </c>
+      <c r="B46" s="9" t="n"/>
+      <c r="C46" s="9" t="n"/>
+      <c r="D46" s="9" t="n"/>
+      <c r="E46" s="9" t="n"/>
+      <c r="F46" s="9" t="n"/>
+      <c r="G46" s="9" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="inlineStr">
+        <is>
+          <t>Allow SSH Access Override</t>
+        </is>
+      </c>
+      <c r="B47" s="9" t="n"/>
+      <c r="C47" s="9" t="n"/>
+      <c r="D47" s="9" t="n"/>
+      <c r="E47" s="9" t="n"/>
+      <c r="F47" s="9" t="n"/>
+      <c r="G47" s="9" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>VSC Info</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="inlineStr">
+        <is>
+          <t>VSC Infra Profile Name</t>
+        </is>
+      </c>
+      <c r="B49" s="9" t="n"/>
+      <c r="C49" s="9" t="n"/>
+      <c r="D49" s="9" t="n"/>
+      <c r="E49" s="9" t="n"/>
+      <c r="F49" s="9" t="n"/>
+      <c r="G49" s="9" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="inlineStr">
+        <is>
+          <t>VSC Infra Profile First Controller</t>
+        </is>
+      </c>
+      <c r="B50" s="9" t="n"/>
+      <c r="C50" s="9" t="n"/>
+      <c r="D50" s="9" t="n"/>
+      <c r="E50" s="9" t="n"/>
+      <c r="F50" s="9" t="n"/>
+      <c r="G50" s="9" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="inlineStr">
+        <is>
+          <t>VSC Infra Profile Second Controller</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="n"/>
+      <c r="C51" s="9" t="n"/>
+      <c r="D51" s="9" t="n"/>
+      <c r="E51" s="9" t="n"/>
+      <c r="F51" s="9" t="n"/>
+      <c r="G51" s="9" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="inlineStr">
+        <is>
+          <t>NSG Network Port Name</t>
+        </is>
+      </c>
+      <c r="B52" s="9" t="n"/>
+      <c r="C52" s="9" t="n"/>
+      <c r="D52" s="9" t="n"/>
+      <c r="E52" s="9" t="n"/>
+      <c r="F52" s="9" t="n"/>
+      <c r="G52" s="9" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>Network and Access Ports</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>NSG Network Port Physical Name</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="n"/>
+      <c r="C54" s="9" t="n"/>
+      <c r="D54" s="9" t="n"/>
+      <c r="E54" s="9" t="n"/>
+      <c r="F54" s="9" t="n"/>
+      <c r="G54" s="9" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port Name</t>
+        </is>
+      </c>
+      <c r="B55" s="9" t="n"/>
+      <c r="C55" s="9" t="n"/>
+      <c r="D55" s="9" t="n"/>
+      <c r="E55" s="9" t="n"/>
+      <c r="F55" s="9" t="n"/>
+      <c r="G55" s="9" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port Physical Name</t>
+        </is>
+      </c>
+      <c r="B56" s="9" t="n"/>
+      <c r="C56" s="9" t="n"/>
+      <c r="D56" s="9" t="n"/>
+      <c r="E56" s="9" t="n"/>
+      <c r="F56" s="9" t="n"/>
+      <c r="G56" s="9" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Range</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="n"/>
+      <c r="C57" s="9" t="n"/>
+      <c r="D57" s="9" t="n"/>
+      <c r="E57" s="9" t="n"/>
+      <c r="F57" s="9" t="n"/>
+      <c r="G57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Number</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="n"/>
+      <c r="C58" s="9" t="n"/>
+      <c r="D58" s="9" t="n"/>
+      <c r="E58" s="9" t="n"/>
+      <c r="F58" s="9" t="n"/>
+      <c r="G58" s="9" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>NSGv Access ports list name</t>
+        </is>
+      </c>
+      <c r="B59" s="7" t="n"/>
+      <c r="C59" s="7" t="n"/>
+      <c r="D59" s="7" t="n"/>
+      <c r="E59" s="7" t="n"/>
+      <c r="F59" s="7" t="n"/>
+      <c r="G59" s="7" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Telnet and Credentials</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="inlineStr">
+        <is>
+          <t>Telnet port for console</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="n"/>
+      <c r="C61" s="9" t="n"/>
+      <c r="D61" s="9" t="n"/>
+      <c r="E61" s="9" t="n"/>
+      <c r="F61" s="9" t="n"/>
+      <c r="G61" s="9" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="n"/>
+      <c r="C62" s="9" t="n"/>
+      <c r="D62" s="9" t="n"/>
+      <c r="E62" s="9" t="n"/>
+      <c r="F62" s="9" t="n"/>
+      <c r="G62" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A60:G60"/>
+  </mergeCells>
+  <dataValidations count="42">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+      <formula1>"kvm,vcenter,aws"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"kvm,vcenter,aws"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D6" type="list">
+      <formula1>"kvm,vcenter,aws"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E6" type="list">
+      <formula1>"kvm,vcenter,aws"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F6" type="list">
+      <formula1>"kvm,vcenter,aws"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G6" type="list">
+      <formula1>"kvm,vcenter,aws"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="list">
+      <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C9" type="list">
+      <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="list">
+      <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E9" type="list">
+      <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F9" type="list">
+      <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="list">
+      <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="list">
+      <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C40" type="list">
+      <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D40" type="list">
+      <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E40" type="list">
+      <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F40" type="list">
+      <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G40" type="list">
+      <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B47" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C47" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D47" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E47" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F47" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G47" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G61" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -4552,7 +5071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4562,559 +5081,129 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="70"/>
     <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Network Services Gateway</t>
+          <t>Nuage Utility Host External Interfaces List</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Specify configuration for Nuage MetroAE NSGvs.</t>
+          <t>Configuration for external interfaces for NUH</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>VM and Target Server</t>
+          <t>External Network</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>VM name</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>nsgv1</t>
-        </is>
-      </c>
+          <t>NUH external network name</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Target Server type</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>kvm</t>
-        </is>
-      </c>
+          <t>External Network IP address</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Target Server hostname</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>10.105.1.109</t>
-        </is>
-      </c>
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>External Network IP Prefix Length</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+      <c r="G7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Bootstrap Parameters</t>
-        </is>
-      </c>
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>External Network Gateway IP</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Bootstrap Method</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>zfb_metro</t>
-        </is>
-      </c>
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>External Network VLAN ID</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>External Bootstrap ISO File Directory</t>
+          <t>External Network Bridge</t>
         </is>
       </c>
       <c r="B10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>External Bootstrap ISO File Name</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>IP Address to assign to NSGv by VNSUtil</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>192.168.110.70</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>NSGV MAC Address</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>52:54:00:99:85:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Bridge info</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B15" s="9" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="inlineStr">
-        <is>
-          <t>Data Network Bridge</t>
-        </is>
-      </c>
-      <c r="B16" s="9" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>NSGv Access Bridge</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>vCenter Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter Name</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Host Reference</t>
-        </is>
-      </c>
-      <c r="B21" s="9" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B22" s="9" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>AWS Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>AWS Region</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>AWS AMI ID</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>AWS AMI ID for Upgrading Instance</t>
-        </is>
-      </c>
-      <c r="B26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>AWS Instance Type</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="inlineStr">
-        <is>
-          <t>AWS Keypair Name</t>
-        </is>
-      </c>
-      <c r="B28" s="7" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>AWS Access ENI</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>AWS Data ENI</t>
-        </is>
-      </c>
-      <c r="B30" s="7" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>AWS WAN EIP AllocID</t>
-        </is>
-      </c>
-      <c r="B31" s="7" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>AWS VPC Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>AWS Provision VPC CIDR</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="inlineStr">
-        <is>
-          <t>AWS Provision VPC NSG WAN Subnet CIDR</t>
-        </is>
-      </c>
-      <c r="B34" s="9" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>AWS Provision VPC NSG LAN Subnet CIDR</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8" t="inlineStr">
-        <is>
-          <t>AWS Provision VPC Private Subnet CIDR</t>
-        </is>
-      </c>
-      <c r="B36" s="9" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>NSGv Zero-Factor Bootstrap</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="8" t="inlineStr">
-        <is>
-          <t>NSG Organization</t>
-        </is>
-      </c>
-      <c r="B38" s="9" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>NSG Name</t>
-        </is>
-      </c>
-      <c r="B39" s="9" t="inlineStr">
-        <is>
-          <t>NSG_US</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>Activation Matching Type</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="inlineStr">
-        <is>
-          <t>ip_address</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>Activation Matching Value</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="inlineStr">
-        <is>
-          <t>192.168.110.70</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="8" t="inlineStr">
-        <is>
-          <t>Enable SSH on NSGv</t>
-        </is>
-      </c>
-      <c r="B42" s="9" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>NSG Advanced Options</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="8" t="inlineStr">
-        <is>
-          <t>NSG Infra Profile Template Name</t>
-        </is>
-      </c>
-      <c r="B44" s="9" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>NSG Infra Profile Name</t>
-        </is>
-      </c>
-      <c r="B45" s="9" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>NSG Infra Profile Proxy DNS Name</t>
-        </is>
-      </c>
-      <c r="B46" s="9" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>Allow SSH Access Override</t>
-        </is>
-      </c>
-      <c r="B47" s="9" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>VSC Info</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>VSC Infra Profile Name</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>VSC Infra Profile First Controller</t>
-        </is>
-      </c>
-      <c r="B50" s="9" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="8" t="inlineStr">
-        <is>
-          <t>VSC Infra Profile Second Controller</t>
-        </is>
-      </c>
-      <c r="B51" s="9" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="8" t="inlineStr">
-        <is>
-          <t>NSG Network Port Name</t>
-        </is>
-      </c>
-      <c r="B52" s="9" t="inlineStr">
-        <is>
-          <t>port1_network</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>Network and Access Ports</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>NSG Network Port Physical Name</t>
-        </is>
-      </c>
-      <c r="B54" s="9" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>NSG Access Port Name</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="inlineStr">
-        <is>
-          <t>NSG Access Port Physical Name</t>
-        </is>
-      </c>
-      <c r="B56" s="9" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>NSG Access Port VLAN Range</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>NSG Access Port VLAN Number</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="6" t="inlineStr">
-        <is>
-          <t>NSGv Access ports list name</t>
-        </is>
-      </c>
-      <c r="B59" s="7" t="inlineStr">
-        <is>
-          <t>port1_access, port2_access</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Telnet and Credentials</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="inlineStr">
-        <is>
-          <t>Telnet port for console</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="8" t="inlineStr">
-        <is>
-          <t>Credentials set name</t>
-        </is>
-      </c>
-      <c r="B62" s="9" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A60:B60"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
-  <dataValidations count="7">
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
-      <formula1>"kvm,vcenter,aws"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="list">
-      <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="list">
-      <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B47" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B61" type="whole"/>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -5122,386 +5211,6 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nuage Utility Host External Interfaces List</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Configuration for external interfaces for NUH</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>External Network</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>NUH external network name</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>ExtNetwork1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>External Network IP address</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>192.168.130.71</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>External Network IP Prefix Length</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>External Network Gateway IP</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>192.168.130.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>External Network VLAN ID</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>External Network Bridge</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="whole"/>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nuage Utility Host VM</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Configuration for Nuage Utility Host VM.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Host and VM Name</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Hostname</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>nuh1.company.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>VM name</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Management Interface</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Management IP address</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.71</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Management IP Prefix Length</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>Management Gateway IP</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Network Interfaces</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Internal Network IP address</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>192.168.120.71</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Internal Network IP Prefix Length</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Internal Network Gateway IP</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>192.168.120.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>External interface name list</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>ExtNetwork1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Other parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>Target Server IP or FQDN</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>10.105.1.108</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>Timezone</t>
-        </is>
-      </c>
-      <c r="B18" s="9" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Custom NUH configuration file location</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>Skip VSD installed check</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>Health monitoring agent</t>
-        </is>
-      </c>
-      <c r="B21" s="9" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B22" s="9" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Bridge details</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="inlineStr">
-        <is>
-          <t>br0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>Internal Network Bridge</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="inlineStr">
-        <is>
-          <t>br1</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A23:B23"/>
-  </mergeCells>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5527,6 +5236,362 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Nuage Utility Host VM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Configuration for Nuage Utility Host VM.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Host and VM Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Hostname</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Management Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Management IP address</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>Management IP Prefix Length</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Management Gateway IP</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Network Interfaces</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Internal Network IP address</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Internal Network IP Prefix Length</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Internal Network Gateway IP</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>External interface name list</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Other parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="5" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Timezone</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="G18" s="9" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Custom NUH configuration file location</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="G19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>Skip VSD installed check</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="n"/>
+      <c r="C20" s="9" t="n"/>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="9" t="n"/>
+      <c r="G20" s="9" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Health monitoring agent</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="n"/>
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="9" t="n"/>
+      <c r="E22" s="9" t="n"/>
+      <c r="F22" s="9" t="n"/>
+      <c r="G22" s="9" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Bridge details</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Bridge</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n"/>
+      <c r="C24" s="7" t="n"/>
+      <c r="D24" s="7" t="n"/>
+      <c r="E24" s="7" t="n"/>
+      <c r="F24" s="7" t="n"/>
+      <c r="G24" s="7" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>Internal Network Bridge</t>
+        </is>
+      </c>
+      <c r="B25" s="9" t="n"/>
+      <c r="C25" s="9" t="n"/>
+      <c r="D25" s="9" t="n"/>
+      <c r="E25" s="9" t="n"/>
+      <c r="F25" s="9" t="n"/>
+      <c r="G25" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A23:G23"/>
+  </mergeCells>
+  <dataValidations count="24">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D20" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E20" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F20" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E21" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G21" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>Nuage SD-WAN Portal</t>
         </is>
       </c>
@@ -5875,7 +5940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6166,7 +6231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6233,6 +6298,290 @@
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
   </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STCv</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Specify configuration for STCv VMs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Target Server and VM info</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Target Server Ip or FQDN</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Target Server Type</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>VM Hostname</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Management Network</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>VM Management IP</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>VM Management Gateway</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Management Network Prefix Length</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Management Bridge</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Data Network</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Data Bridge 1</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Data Bridge 2</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Image CPU and RAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Image path</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>VM VCPUs</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="n"/>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>VM RAM</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="7" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A17:G17"/>
+  </mergeCells>
+  <dataValidations count="24">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D6" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E6" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F6" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G6" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B19" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C19" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D19" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E19" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F19" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G19" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C20" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D20" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E20" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F20" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
+  </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
@@ -6264,28 +6613,28 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>STCv</t>
+          <t>vCenter Integration Node</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Specify configuration for STCv VMs.</t>
+          <t>vCenter Integration Node (VCIN) Configuration</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Target Server and VM info</t>
+          <t>Management Interface</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Target Server Ip or FQDN</t>
+          <t>Hostname</t>
         </is>
       </c>
       <c r="B5" s="5" t="n"/>
@@ -6296,22 +6645,22 @@
       <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Target Server Type</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Management IP Address</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>VM Hostname</t>
+          <t>Management Network Prefix Length</t>
         </is>
       </c>
       <c r="B7" s="5" t="n"/>
@@ -6322,42 +6671,42 @@
       <c r="G7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>VM name</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Management Network Gateway</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Management Network</t>
+          <t>VM and Target Server</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>VM Management IP</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>VM Management Gateway</t>
+          <t>Target Server Type</t>
         </is>
       </c>
       <c r="B11" s="5" t="n"/>
@@ -6370,7 +6719,7 @@
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Management Network Prefix Length</t>
+          <t>Target Server IP or FQDN</t>
         </is>
       </c>
       <c r="B12" s="5" t="n"/>
@@ -6381,141 +6730,129 @@
       <c r="G12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Management Bridge</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Data Network</t>
-        </is>
-      </c>
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>Master VCIN hostname</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="n"/>
+      <c r="C14" s="9" t="n"/>
+      <c r="D14" s="9" t="n"/>
+      <c r="E14" s="9" t="n"/>
+      <c r="F14" s="9" t="n"/>
+      <c r="G14" s="9" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>Data Bridge 1</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="n"/>
+      <c r="C15" s="9" t="n"/>
+      <c r="D15" s="9" t="n"/>
+      <c r="E15" s="9" t="n"/>
+      <c r="F15" s="9" t="n"/>
+      <c r="G15" s="9" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>Data Bridge 2</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Cluster Name</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="9" t="n"/>
+      <c r="F16" s="9" t="n"/>
+      <c r="G16" s="9" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>Image CPU and RAM</t>
-        </is>
-      </c>
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="9" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Image path</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>CPU and credentials</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>VM VCPUs</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="G19" s="9" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>VM RAM</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="n"/>
+      <c r="C20" s="9" t="n"/>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="9" t="n"/>
+      <c r="G20" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
-  <dataValidations count="24">
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D6" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E6" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F6" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G6" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B19" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C19" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D19" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E19" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F19" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G19" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C20" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D20" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E20" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F20" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C11" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D11" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E11" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F11" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G11" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -6567,11 +6904,7 @@
           <t>Nuage Unzip Files Directory</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>/my/unzipped/filedir</t>
-        </is>
-      </c>
+      <c r="B5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
@@ -6595,11 +6928,7 @@
           <t>Domain Name</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>company.com</t>
-        </is>
-      </c>
+      <c r="B8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
@@ -6630,11 +6959,7 @@
           <t>Global VSD FQDN</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>vsd1.company.com</t>
-        </is>
-      </c>
+      <c r="B12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -6673,11 +6998,7 @@
           <t>Management Network Bridge</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>br0</t>
-        </is>
-      </c>
+      <c r="B17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -6685,11 +7006,7 @@
           <t>Data Network Bridge</t>
         </is>
       </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>br1</t>
-        </is>
-      </c>
+      <c r="B18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
@@ -6712,11 +7029,7 @@
           <t>NTP Server IP(s)</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>5.5.5.5, 2.2.2.2</t>
-        </is>
-      </c>
+      <c r="B21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -6724,11 +7037,7 @@
           <t>DNS server IP(s)</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>10.1.0.2</t>
-        </is>
-      </c>
+      <c r="B22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -7596,7 +7905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7616,14 +7925,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>vCenter Integration Node</t>
+          <t>Virtualized Network Service Proxy VM</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>vCenter Integration Node (VCIN) Configuration</t>
+          <t>Configuration for Nuage VNS Proxy VM.</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7959,7 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Management IP Address</t>
+          <t>Management IP address</t>
         </is>
       </c>
       <c r="B6" s="5" t="n"/>
@@ -7663,7 +7972,7 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Management Network Prefix Length</t>
+          <t>Management IP Prefix Length</t>
         </is>
       </c>
       <c r="B7" s="5" t="n"/>
@@ -7676,7 +7985,7 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Management Network Gateway</t>
+          <t>Management Gateway IP</t>
         </is>
       </c>
       <c r="B8" s="5" t="n"/>
@@ -7735,14 +8044,14 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>vCenter Parameters</t>
+          <t>Bridge Info</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>Master VCIN hostname</t>
+          <t>Management Bridge interface</t>
         </is>
       </c>
       <c r="B14" s="9" t="n"/>
@@ -7755,7 +8064,7 @@
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datacenter Name</t>
+          <t>Data Network Bridge</t>
         </is>
       </c>
       <c r="B15" s="9" t="n"/>
@@ -7766,72 +8075,463 @@
       <c r="G15" s="9" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>KVM Data Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>VNSUTIL Data FQDN</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="5" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>VNSUTIL Data IP address</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Data Netmask</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="n"/>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Data Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Gateway address for NSGvs</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Data Subnet</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="7" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="7" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Data Static Route</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="n"/>
+      <c r="C23" s="7" t="n"/>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="7" t="n"/>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="7" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B25" s="9" t="n"/>
+      <c r="C25" s="9" t="n"/>
+      <c r="D25" s="9" t="n"/>
+      <c r="E25" s="9" t="n"/>
+      <c r="F25" s="9" t="n"/>
+      <c r="G25" s="9" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
         <is>
           <t>vCenter Cluster Name</t>
         </is>
       </c>
-      <c r="B16" s="9" t="n"/>
-      <c r="C16" s="9" t="n"/>
-      <c r="D16" s="9" t="n"/>
-      <c r="E16" s="9" t="n"/>
-      <c r="F16" s="9" t="n"/>
-      <c r="G16" s="9" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="B26" s="9" t="n"/>
+      <c r="C26" s="9" t="n"/>
+      <c r="D26" s="9" t="n"/>
+      <c r="E26" s="9" t="n"/>
+      <c r="F26" s="9" t="n"/>
+      <c r="G26" s="9" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B27" s="9" t="n"/>
+      <c r="C27" s="9" t="n"/>
+      <c r="D27" s="9" t="n"/>
+      <c r="E27" s="9" t="n"/>
+      <c r="F27" s="9" t="n"/>
+      <c r="G27" s="9" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
         <is>
           <t>vCenter Datastore Name</t>
         </is>
       </c>
-      <c r="B17" s="9" t="n"/>
-      <c r="C17" s="9" t="n"/>
-      <c r="D17" s="9" t="n"/>
-      <c r="E17" s="9" t="n"/>
-      <c r="F17" s="9" t="n"/>
-      <c r="G17" s="9" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>CPU and credentials</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
+      <c r="B28" s="9" t="n"/>
+      <c r="C28" s="9" t="n"/>
+      <c r="D28" s="9" t="n"/>
+      <c r="E28" s="9" t="n"/>
+      <c r="F28" s="9" t="n"/>
+      <c r="G28" s="9" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>vCenter VM Folder</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
+      <c r="G29" s="7" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>AWS Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>AWS Region</t>
+        </is>
+      </c>
+      <c r="B31" s="7" t="n"/>
+      <c r="C31" s="7" t="n"/>
+      <c r="D31" s="7" t="n"/>
+      <c r="E31" s="7" t="n"/>
+      <c r="F31" s="7" t="n"/>
+      <c r="G31" s="7" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>AWS AMI ID</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="n"/>
+      <c r="C32" s="7" t="n"/>
+      <c r="D32" s="7" t="n"/>
+      <c r="E32" s="7" t="n"/>
+      <c r="F32" s="7" t="n"/>
+      <c r="G32" s="7" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>AWS Instance Type</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="n"/>
+      <c r="C33" s="7" t="n"/>
+      <c r="D33" s="7" t="n"/>
+      <c r="E33" s="7" t="n"/>
+      <c r="F33" s="7" t="n"/>
+      <c r="G33" s="7" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>AWS Keypair Name</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="n"/>
+      <c r="C34" s="7" t="n"/>
+      <c r="D34" s="7" t="n"/>
+      <c r="E34" s="7" t="n"/>
+      <c r="F34" s="7" t="n"/>
+      <c r="G34" s="7" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>AWS Management ENI ID</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
+      <c r="D35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
+      <c r="F35" s="7" t="n"/>
+      <c r="G35" s="7" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>AWS Data ENI ID</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="n"/>
+      <c r="C36" s="7" t="n"/>
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
+      <c r="F36" s="7" t="n"/>
+      <c r="G36" s="7" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Image</t>
+        </is>
+      </c>
+      <c r="B38" s="7" t="n"/>
+      <c r="C38" s="7" t="n"/>
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="7" t="n"/>
+      <c r="F38" s="7" t="n"/>
+      <c r="G38" s="7" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Flavor</t>
+        </is>
+      </c>
+      <c r="B39" s="7" t="n"/>
+      <c r="C39" s="7" t="n"/>
+      <c r="D39" s="7" t="n"/>
+      <c r="E39" s="7" t="n"/>
+      <c r="F39" s="7" t="n"/>
+      <c r="G39" s="7" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Availability Zone</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="n"/>
+      <c r="C40" s="7" t="n"/>
+      <c r="D40" s="7" t="n"/>
+      <c r="E40" s="7" t="n"/>
+      <c r="F40" s="7" t="n"/>
+      <c r="G40" s="7" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Management Network</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n"/>
+      <c r="C41" s="7" t="n"/>
+      <c r="D41" s="7" t="n"/>
+      <c r="E41" s="7" t="n"/>
+      <c r="F41" s="7" t="n"/>
+      <c r="G41" s="7" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Management Subnet</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n"/>
+      <c r="C42" s="7" t="n"/>
+      <c r="D42" s="7" t="n"/>
+      <c r="E42" s="7" t="n"/>
+      <c r="F42" s="7" t="n"/>
+      <c r="G42" s="7" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Management Port Name</t>
+        </is>
+      </c>
+      <c r="B43" s="7" t="n"/>
+      <c r="C43" s="7" t="n"/>
+      <c r="D43" s="7" t="n"/>
+      <c r="E43" s="7" t="n"/>
+      <c r="F43" s="7" t="n"/>
+      <c r="G43" s="7" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Management Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="n"/>
+      <c r="C44" s="7" t="n"/>
+      <c r="D44" s="7" t="n"/>
+      <c r="E44" s="7" t="n"/>
+      <c r="F44" s="7" t="n"/>
+      <c r="G44" s="7" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Data Network</t>
+        </is>
+      </c>
+      <c r="B45" s="7" t="n"/>
+      <c r="C45" s="7" t="n"/>
+      <c r="D45" s="7" t="n"/>
+      <c r="E45" s="7" t="n"/>
+      <c r="F45" s="7" t="n"/>
+      <c r="G45" s="7" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Data Subnet</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="n"/>
+      <c r="C46" s="7" t="n"/>
+      <c r="D46" s="7" t="n"/>
+      <c r="E46" s="7" t="n"/>
+      <c r="F46" s="7" t="n"/>
+      <c r="G46" s="7" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Data Port Name</t>
+        </is>
+      </c>
+      <c r="B47" s="7" t="n"/>
+      <c r="C47" s="7" t="n"/>
+      <c r="D47" s="7" t="n"/>
+      <c r="E47" s="7" t="n"/>
+      <c r="F47" s="7" t="n"/>
+      <c r="G47" s="7" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Data Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="n"/>
+      <c r="C48" s="7" t="n"/>
+      <c r="D48" s="7" t="n"/>
+      <c r="E48" s="7" t="n"/>
+      <c r="F48" s="7" t="n"/>
+      <c r="G48" s="7" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Other Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="inlineStr">
         <is>
           <t>KVM cpuset information</t>
         </is>
       </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="G19" s="9" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="B50" s="9" t="n"/>
+      <c r="C50" s="9" t="n"/>
+      <c r="D50" s="9" t="n"/>
+      <c r="E50" s="9" t="n"/>
+      <c r="F50" s="9" t="n"/>
+      <c r="G50" s="9" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="inlineStr">
+        <is>
+          <t>Health monitoring agent</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="n"/>
+      <c r="C51" s="9" t="n"/>
+      <c r="D51" s="9" t="n"/>
+      <c r="E51" s="9" t="n"/>
+      <c r="F51" s="9" t="n"/>
+      <c r="G51" s="9" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="inlineStr">
         <is>
           <t>Credentials set name</t>
         </is>
       </c>
-      <c r="B20" s="9" t="n"/>
-      <c r="C20" s="9" t="n"/>
-      <c r="D20" s="9" t="n"/>
-      <c r="E20" s="9" t="n"/>
-      <c r="F20" s="9" t="n"/>
-      <c r="G20" s="9" t="n"/>
+      <c r="B52" s="9" t="n"/>
+      <c r="C52" s="9" t="n"/>
+      <c r="D52" s="9" t="n"/>
+      <c r="E52" s="9" t="n"/>
+      <c r="F52" s="9" t="n"/>
+      <c r="G52" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A49:G49"/>
   </mergeCells>
-  <dataValidations count="12">
+  <dataValidations count="18">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -7839,22 +8539,40 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
-      <formula1>"kvm,vcenter,none"</formula1>
+      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C11" type="list">
-      <formula1>"kvm,vcenter,none"</formula1>
+      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D11" type="list">
-      <formula1>"kvm,vcenter,none"</formula1>
+      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E11" type="list">
-      <formula1>"kvm,vcenter,none"</formula1>
+      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F11" type="list">
-      <formula1>"kvm,vcenter,none"</formula1>
+      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G11" type="list">
-      <formula1>"kvm,vcenter,none"</formula1>
+      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B51" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C51" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D51" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E51" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F51" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G51" type="list">
+      <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -7863,473 +8581,6 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Virtualized Network Service Proxy VM</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Configuration for Nuage VNS Proxy VM.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Management Interface</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Hostname</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>vnsutil1.company.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Management IP address</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Management IP Prefix Length</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Management Gateway IP</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>VM and Target Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>VM name</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>Target Server Type</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>kvm</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Target Server IP or FQDN</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>10.105.1.107</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Bridge Info</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>Management Bridge interface</t>
-        </is>
-      </c>
-      <c r="B14" s="9" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Data Network Bridge</t>
-        </is>
-      </c>
-      <c r="B15" s="9" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>KVM Data Interface</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>VNSUTIL Data FQDN</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>vnsutil1.data.company.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>VNSUTIL Data IP address</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>Data Netmask</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Data Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>Gateway address for NSGvs</t>
-        </is>
-      </c>
-      <c r="B21" s="9" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>Data Subnet</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>Data Static Route</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>vCenter Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter Name</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B26" s="9" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Host Reference</t>
-        </is>
-      </c>
-      <c r="B27" s="9" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>AWS Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>AWS Region</t>
-        </is>
-      </c>
-      <c r="B31" s="7" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="inlineStr">
-        <is>
-          <t>AWS AMI ID</t>
-        </is>
-      </c>
-      <c r="B32" s="7" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="6" t="inlineStr">
-        <is>
-          <t>AWS Instance Type</t>
-        </is>
-      </c>
-      <c r="B33" s="7" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="inlineStr">
-        <is>
-          <t>AWS Keypair Name</t>
-        </is>
-      </c>
-      <c r="B34" s="7" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="6" t="inlineStr">
-        <is>
-          <t>AWS Management ENI ID</t>
-        </is>
-      </c>
-      <c r="B35" s="7" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="inlineStr">
-        <is>
-          <t>AWS Data ENI ID</t>
-        </is>
-      </c>
-      <c r="B36" s="7" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Flavor</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Availability Zone</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Management Network</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Management Subnet</t>
-        </is>
-      </c>
-      <c r="B42" s="7" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Management Port Name</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Management Port Security Groups</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Data Network</t>
-        </is>
-      </c>
-      <c r="B45" s="7" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Data Subnet</t>
-        </is>
-      </c>
-      <c r="B46" s="7" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Data Port Name</t>
-        </is>
-      </c>
-      <c r="B47" s="7" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Data Port Security Groups</t>
-        </is>
-      </c>
-      <c r="B48" s="7" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>Other Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B50" s="9" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="8" t="inlineStr">
-        <is>
-          <t>Health monitoring agent</t>
-        </is>
-      </c>
-      <c r="B51" s="9" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="8" t="inlineStr">
-        <is>
-          <t>Credentials set name</t>
-        </is>
-      </c>
-      <c r="B52" s="9" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A49:B49"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
-      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B51" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8553,7 +8804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8833,7 +9084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9183,21 +9434,9 @@
           <t>Hostname</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>vsd1.company.com</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>vsd2.company.com</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>vsd3.company.com</t>
-        </is>
-      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="5" t="n"/>
       <c r="G5" s="5" t="n"/>
@@ -9208,21 +9447,9 @@
           <t>Management IP Address</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.30</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.31</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.32</t>
-        </is>
-      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="5" t="n"/>
       <c r="G6" s="5" t="n"/>
@@ -9233,15 +9460,9 @@
           <t>Management Network Prefix Length</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>24</v>
-      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
       <c r="E7" s="5" t="n"/>
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="5" t="n"/>
@@ -9252,21 +9473,9 @@
           <t>Management Network Gateway</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.1</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.1</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.1</t>
-        </is>
-      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
       <c r="E8" s="5" t="n"/>
       <c r="F8" s="5" t="n"/>
       <c r="G8" s="5" t="n"/>
@@ -9323,21 +9532,9 @@
           <t>Target Server Type</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>kvm</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>kvm</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>kvm</t>
-        </is>
-      </c>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
       <c r="E13" s="5" t="n"/>
       <c r="F13" s="5" t="n"/>
       <c r="G13" s="5" t="n"/>
@@ -9348,21 +9545,9 @@
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>10.105.1.102</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>10.105.1.103</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>10.105.1.104</t>
-        </is>
-      </c>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="5" t="n"/>
       <c r="E14" s="5" t="n"/>
       <c r="F14" s="5" t="n"/>
       <c r="G14" s="5" t="n"/>
@@ -9945,16 +10130,8 @@
           <t>Hostname</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
-        <is>
-          <t>vsc1.company.ecom</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>vsc2.company.ecom</t>
-        </is>
-      </c>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -9962,16 +10139,8 @@
           <t>Management IP address</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.25</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.26</t>
-        </is>
-      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -9979,12 +10148,8 @@
           <t>Management Network Prefix Length</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>24</v>
-      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -9992,16 +10157,8 @@
           <t>Management Network Gateway</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.1</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.1</t>
-        </is>
-      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
@@ -10025,16 +10182,8 @@
           <t>Control IP address</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>192.168.110.20</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>192.168.110.21</t>
-        </is>
-      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
@@ -10042,12 +10191,8 @@
           <t>Control Netmask Prefix Length</t>
         </is>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>24</v>
-      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
@@ -10089,16 +10234,8 @@
           <t>System IP address</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>192.168.100.20</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>192.168.100.20</t>
-        </is>
-      </c>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -10140,16 +10277,8 @@
           <t>Target Server type</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>kvm</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>kvm</t>
-        </is>
-      </c>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -10157,16 +10286,8 @@
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>10.105.1.100</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>10.105.1.101</t>
-        </is>
-      </c>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="5" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -10659,21 +10780,9 @@
           <t>Hostname</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>vstat1.company.com</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>vstat2.company.com</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>vstat2.company.com</t>
-        </is>
-      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
       <c r="E5" s="5" t="n"/>
       <c r="F5" s="5" t="n"/>
       <c r="G5" s="5" t="n"/>
@@ -10684,21 +10793,9 @@
           <t>Management IP address</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.40</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.41</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.41</t>
-        </is>
-      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="5" t="n"/>
       <c r="G6" s="5" t="n"/>
@@ -10709,15 +10806,9 @@
           <t>Management Network Prefix Length</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>24</v>
-      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
       <c r="E7" s="5" t="n"/>
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="5" t="n"/>
@@ -10728,21 +10819,9 @@
           <t>Management Network Gateway</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.1</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.1</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>192.168.110.1</t>
-        </is>
-      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
       <c r="E8" s="5" t="n"/>
       <c r="F8" s="5" t="n"/>
       <c r="G8" s="5" t="n"/>
@@ -10786,21 +10865,9 @@
           <t>Target Server type</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>kvm</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>kvm</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>kvm</t>
-        </is>
-      </c>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
       <c r="E12" s="5" t="n"/>
       <c r="F12" s="5" t="n"/>
       <c r="G12" s="5" t="n"/>
@@ -10811,21 +10878,9 @@
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>10.105.1.105</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>10.105.1.106</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>10.105.1.106</t>
-        </is>
-      </c>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
       <c r="E13" s="5" t="n"/>
       <c r="F13" s="5" t="n"/>
       <c r="G13" s="5" t="n"/>
@@ -11395,7 +11450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11405,6 +11460,11 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="70"/>
     <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11434,11 +11494,12 @@
           <t>Name</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>nsgv_bootstrap</t>
-        </is>
-      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -11447,6 +11508,11 @@
         </is>
       </c>
       <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -11455,6 +11521,11 @@
         </is>
       </c>
       <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+      <c r="G7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -11463,6 +11534,11 @@
         </is>
       </c>
       <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -11478,6 +11554,11 @@
         </is>
       </c>
       <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
@@ -11486,6 +11567,11 @@
         </is>
       </c>
       <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
@@ -11494,6 +11580,11 @@
         </is>
       </c>
       <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -11502,6 +11593,11 @@
         </is>
       </c>
       <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -11517,6 +11613,11 @@
         </is>
       </c>
       <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
@@ -11525,6 +11626,11 @@
         </is>
       </c>
       <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
+      <c r="G16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -11533,6 +11639,11 @@
         </is>
       </c>
       <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -11548,6 +11659,11 @@
         </is>
       </c>
       <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="n"/>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
@@ -11556,6 +11672,11 @@
         </is>
       </c>
       <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
@@ -11564,6 +11685,11 @@
         </is>
       </c>
       <c r="B21" s="7" t="n"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="7" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
@@ -11572,6 +11698,11 @@
         </is>
       </c>
       <c r="B22" s="7" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="7" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="7" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
@@ -11580,6 +11711,11 @@
         </is>
       </c>
       <c r="B23" s="7" t="n"/>
+      <c r="C23" s="7" t="n"/>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="7" t="n"/>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
@@ -11588,6 +11724,11 @@
         </is>
       </c>
       <c r="B24" s="7" t="n"/>
+      <c r="C24" s="7" t="n"/>
+      <c r="D24" s="7" t="n"/>
+      <c r="E24" s="7" t="n"/>
+      <c r="F24" s="7" t="n"/>
+      <c r="G24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -11603,6 +11744,11 @@
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
+      <c r="C26" s="7" t="n"/>
+      <c r="D26" s="7" t="n"/>
+      <c r="E26" s="7" t="n"/>
+      <c r="F26" s="7" t="n"/>
+      <c r="G26" s="7" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
@@ -11611,6 +11757,11 @@
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
@@ -11619,6 +11770,11 @@
         </is>
       </c>
       <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
@@ -11627,6 +11783,11 @@
         </is>
       </c>
       <c r="B29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
+      <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
@@ -11635,6 +11796,11 @@
         </is>
       </c>
       <c r="B30" s="9" t="n"/>
+      <c r="C30" s="9" t="n"/>
+      <c r="D30" s="9" t="n"/>
+      <c r="E30" s="9" t="n"/>
+      <c r="F30" s="9" t="n"/>
+      <c r="G30" s="9" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
@@ -11643,6 +11809,11 @@
         </is>
       </c>
       <c r="B31" s="9" t="n"/>
+      <c r="C31" s="9" t="n"/>
+      <c r="D31" s="9" t="n"/>
+      <c r="E31" s="9" t="n"/>
+      <c r="F31" s="9" t="n"/>
+      <c r="G31" s="9" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
@@ -11651,6 +11822,11 @@
         </is>
       </c>
       <c r="B32" s="9" t="n"/>
+      <c r="C32" s="9" t="n"/>
+      <c r="D32" s="9" t="n"/>
+      <c r="E32" s="9" t="n"/>
+      <c r="F32" s="9" t="n"/>
+      <c r="G32" s="9" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
@@ -11666,6 +11842,11 @@
         </is>
       </c>
       <c r="B34" s="7" t="n"/>
+      <c r="C34" s="7" t="n"/>
+      <c r="D34" s="7" t="n"/>
+      <c r="E34" s="7" t="n"/>
+      <c r="F34" s="7" t="n"/>
+      <c r="G34" s="7" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
@@ -11674,6 +11855,11 @@
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
+      <c r="D35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
+      <c r="F35" s="7" t="n"/>
+      <c r="G35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -11689,6 +11875,11 @@
         </is>
       </c>
       <c r="B37" s="7" t="n"/>
+      <c r="C37" s="7" t="n"/>
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
+      <c r="F37" s="7" t="n"/>
+      <c r="G37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
@@ -11697,6 +11888,11 @@
         </is>
       </c>
       <c r="B38" s="7" t="n"/>
+      <c r="C38" s="7" t="n"/>
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="7" t="n"/>
+      <c r="F38" s="7" t="n"/>
+      <c r="G38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -11712,6 +11908,11 @@
         </is>
       </c>
       <c r="B40" s="7" t="n"/>
+      <c r="C40" s="7" t="n"/>
+      <c r="D40" s="7" t="n"/>
+      <c r="E40" s="7" t="n"/>
+      <c r="F40" s="7" t="n"/>
+      <c r="G40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
@@ -11720,6 +11921,11 @@
         </is>
       </c>
       <c r="B41" s="7" t="n"/>
+      <c r="C41" s="7" t="n"/>
+      <c r="D41" s="7" t="n"/>
+      <c r="E41" s="7" t="n"/>
+      <c r="F41" s="7" t="n"/>
+      <c r="G41" s="7" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -11735,6 +11941,11 @@
         </is>
       </c>
       <c r="B43" s="7" t="n"/>
+      <c r="C43" s="7" t="n"/>
+      <c r="D43" s="7" t="n"/>
+      <c r="E43" s="7" t="n"/>
+      <c r="F43" s="7" t="n"/>
+      <c r="G43" s="7" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
@@ -11743,6 +11954,11 @@
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
+      <c r="C44" s="7" t="n"/>
+      <c r="D44" s="7" t="n"/>
+      <c r="E44" s="7" t="n"/>
+      <c r="F44" s="7" t="n"/>
+      <c r="G44" s="7" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
@@ -11750,11 +11966,12 @@
           <t>Password for NSGv Proxy User</t>
         </is>
       </c>
-      <c r="B45" s="7" t="inlineStr">
-        <is>
-          <t>proxy_password</t>
-        </is>
-      </c>
+      <c r="B45" s="7" t="n"/>
+      <c r="C45" s="7" t="n"/>
+      <c r="D45" s="7" t="n"/>
+      <c r="E45" s="7" t="n"/>
+      <c r="F45" s="7" t="n"/>
+      <c r="G45" s="7" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -11770,6 +11987,11 @@
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
+      <c r="C47" s="7" t="n"/>
+      <c r="D47" s="7" t="n"/>
+      <c r="E47" s="7" t="n"/>
+      <c r="F47" s="7" t="n"/>
+      <c r="G47" s="7" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
@@ -11778,6 +12000,11 @@
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
+      <c r="C48" s="7" t="n"/>
+      <c r="D48" s="7" t="n"/>
+      <c r="E48" s="7" t="n"/>
+      <c r="F48" s="7" t="n"/>
+      <c r="G48" s="7" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
@@ -11786,6 +12013,11 @@
         </is>
       </c>
       <c r="B49" s="7" t="n"/>
+      <c r="C49" s="7" t="n"/>
+      <c r="D49" s="7" t="n"/>
+      <c r="E49" s="7" t="n"/>
+      <c r="F49" s="7" t="n"/>
+      <c r="G49" s="7" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
@@ -11794,6 +12026,11 @@
         </is>
       </c>
       <c r="B50" s="7" t="n"/>
+      <c r="C50" s="7" t="n"/>
+      <c r="D50" s="7" t="n"/>
+      <c r="E50" s="7" t="n"/>
+      <c r="F50" s="7" t="n"/>
+      <c r="G50" s="7" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
@@ -11809,6 +12046,11 @@
         </is>
       </c>
       <c r="B52" s="7" t="n"/>
+      <c r="C52" s="7" t="n"/>
+      <c r="D52" s="7" t="n"/>
+      <c r="E52" s="7" t="n"/>
+      <c r="F52" s="7" t="n"/>
+      <c r="G52" s="7" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
@@ -11817,6 +12059,11 @@
         </is>
       </c>
       <c r="B53" s="7" t="n"/>
+      <c r="C53" s="7" t="n"/>
+      <c r="D53" s="7" t="n"/>
+      <c r="E53" s="7" t="n"/>
+      <c r="F53" s="7" t="n"/>
+      <c r="G53" s="7" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -11832,6 +12079,11 @@
         </is>
       </c>
       <c r="B55" s="7" t="n"/>
+      <c r="C55" s="7" t="n"/>
+      <c r="D55" s="7" t="n"/>
+      <c r="E55" s="7" t="n"/>
+      <c r="F55" s="7" t="n"/>
+      <c r="G55" s="7" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
@@ -11840,6 +12092,11 @@
         </is>
       </c>
       <c r="B56" s="7" t="n"/>
+      <c r="C56" s="7" t="n"/>
+      <c r="D56" s="7" t="n"/>
+      <c r="E56" s="7" t="n"/>
+      <c r="F56" s="7" t="n"/>
+      <c r="G56" s="7" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
@@ -11848,6 +12105,11 @@
         </is>
       </c>
       <c r="B57" s="7" t="n"/>
+      <c r="C57" s="7" t="n"/>
+      <c r="D57" s="7" t="n"/>
+      <c r="E57" s="7" t="n"/>
+      <c r="F57" s="7" t="n"/>
+      <c r="G57" s="7" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
@@ -11856,6 +12118,11 @@
         </is>
       </c>
       <c r="B58" s="7" t="n"/>
+      <c r="C58" s="7" t="n"/>
+      <c r="D58" s="7" t="n"/>
+      <c r="E58" s="7" t="n"/>
+      <c r="F58" s="7" t="n"/>
+      <c r="G58" s="7" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -11871,6 +12138,11 @@
         </is>
       </c>
       <c r="B60" s="7" t="n"/>
+      <c r="C60" s="7" t="n"/>
+      <c r="D60" s="7" t="n"/>
+      <c r="E60" s="7" t="n"/>
+      <c r="F60" s="7" t="n"/>
+      <c r="G60" s="7" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="6" t="inlineStr">
@@ -11879,6 +12151,11 @@
         </is>
       </c>
       <c r="B61" s="7" t="n"/>
+      <c r="C61" s="7" t="n"/>
+      <c r="D61" s="7" t="n"/>
+      <c r="E61" s="7" t="n"/>
+      <c r="F61" s="7" t="n"/>
+      <c r="G61" s="7" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
@@ -11894,6 +12171,11 @@
         </is>
       </c>
       <c r="B63" s="7" t="n"/>
+      <c r="C63" s="7" t="n"/>
+      <c r="D63" s="7" t="n"/>
+      <c r="E63" s="7" t="n"/>
+      <c r="F63" s="7" t="n"/>
+      <c r="G63" s="7" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="6" t="inlineStr">
@@ -11902,23 +12184,28 @@
         </is>
       </c>
       <c r="B64" s="7" t="n"/>
+      <c r="C64" s="7" t="n"/>
+      <c r="D64" s="7" t="n"/>
+      <c r="E64" s="7" t="n"/>
+      <c r="F64" s="7" t="n"/>
+      <c r="G64" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A62:G62"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -12283,7 +12570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12291,3055 +12578,92 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="25"/>
+    <col customWidth="1" max="1" min="1" width="70"/>
     <col customWidth="1" max="2" min="2" width="25"/>
     <col customWidth="1" max="3" min="3" width="25"/>
     <col customWidth="1" max="4" min="4" width="25"/>
     <col customWidth="1" max="5" min="5" width="25"/>
     <col customWidth="1" max="6" min="6" width="25"/>
     <col customWidth="1" max="7" min="7" width="25"/>
-    <col customWidth="1" max="8" min="8" width="25"/>
-    <col customWidth="1" max="9" min="9" width="25"/>
-    <col customWidth="1" max="10" min="10" width="25"/>
-    <col customWidth="1" max="11" min="11" width="25"/>
-    <col customWidth="1" max="12" min="12" width="25"/>
-    <col customWidth="1" max="13" min="13" width="25"/>
-    <col customWidth="1" max="14" min="14" width="25"/>
-    <col customWidth="1" max="15" min="15" width="25"/>
-    <col customWidth="1" max="16" min="16" width="25"/>
-    <col customWidth="1" max="17" min="17" width="25"/>
-    <col customWidth="1" max="18" min="18" width="25"/>
-    <col customWidth="1" max="19" min="19" width="25"/>
-    <col customWidth="1" max="20" min="20" width="25"/>
-    <col customWidth="1" max="21" min="21" width="25"/>
-    <col customWidth="1" max="22" min="22" width="25"/>
-    <col customWidth="1" max="23" min="23" width="25"/>
-    <col customWidth="1" max="24" min="24" width="25"/>
-    <col customWidth="1" max="25" min="25" width="25"/>
-    <col customWidth="1" max="26" min="26" width="25"/>
-    <col customWidth="1" max="27" min="27" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Management Port Map</t>
+          <t>NETCONF Managers</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>DESCRIPTION TO BE WRITTEN</t>
+          <t>Configuration for Netconf Manager.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>Management Switch</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>Airframe Server</t>
-        </is>
-      </c>
-      <c r="H4" s="10" t="inlineStr">
-        <is>
-          <t>Top Slot</t>
-        </is>
-      </c>
-      <c r="K4" s="10" t="inlineStr">
-        <is>
-          <t>Bottom Slot</t>
-        </is>
-      </c>
-      <c r="M4" s="10" t="inlineStr">
-        <is>
-          <t>Login</t>
-        </is>
-      </c>
-      <c r="O4" s="10" t="inlineStr">
-        <is>
-          <t>Expected Server Info</t>
-        </is>
-      </c>
-      <c r="R4" s="10" t="inlineStr">
-        <is>
-          <t>BIOS Audit Parameters</t>
-        </is>
-      </c>
-      <c r="AA4" s="10" t="inlineStr">
-        <is>
-          <t>WBX</t>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Server Details</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>Slot</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>Port</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>Rack Position</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E5" s="11" t="inlineStr">
-        <is>
-          <t>Rack Item Name</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>CBIS Visibility</t>
-        </is>
-      </c>
-      <c r="G5" s="11" t="inlineStr">
-        <is>
-          <t>Inband IP Address/Netmask</t>
-        </is>
-      </c>
-      <c r="H5" s="11" t="inlineStr">
-        <is>
-          <t>OOB IP Address/Netmask</t>
-        </is>
-      </c>
-      <c r="I5" s="11" t="inlineStr">
-        <is>
-          <t>P3(ens31f0)</t>
-        </is>
-      </c>
-      <c r="J5" s="11" t="inlineStr">
-        <is>
-          <t>P4(ens31f1)</t>
-        </is>
-      </c>
-      <c r="K5" s="11" t="inlineStr">
-        <is>
-          <t>P1(ens5f1)</t>
-        </is>
-      </c>
-      <c r="L5" s="11" t="inlineStr">
-        <is>
-          <t>P2(ens5f0)</t>
-        </is>
-      </c>
-      <c r="M5" s="11" t="inlineStr">
-        <is>
-          <t>Login ID</t>
-        </is>
-      </c>
-      <c r="N5" s="11" t="inlineStr">
-        <is>
-          <t>Login Password</t>
-        </is>
-      </c>
-      <c r="O5" s="11" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="P5" s="11" t="inlineStr">
-        <is>
-          <t>BIOS</t>
-        </is>
-      </c>
-      <c r="Q5" s="11" t="inlineStr">
-        <is>
-          <t>Firmware</t>
-        </is>
-      </c>
-      <c r="R5" s="11" t="inlineStr">
-        <is>
-          <t>Host Name</t>
-        </is>
-      </c>
-      <c r="S5" s="11" t="inlineStr">
-        <is>
-          <t>Boot Mode Select</t>
-        </is>
-      </c>
-      <c r="T5" s="11" t="inlineStr">
-        <is>
-          <t>Boot Order 1</t>
-        </is>
-      </c>
-      <c r="U5" s="11" t="inlineStr">
-        <is>
-          <t>Boot Order 2</t>
-        </is>
-      </c>
-      <c r="V5" s="11" t="inlineStr">
-        <is>
-          <t>Boot Order 3</t>
-        </is>
-      </c>
-      <c r="W5" s="11" t="inlineStr">
-        <is>
-          <t>Boot Order 4</t>
-        </is>
-      </c>
-      <c r="X5" s="11" t="inlineStr">
-        <is>
-          <t>IPv4 PXE Support</t>
-        </is>
-      </c>
-      <c r="Y5" s="11" t="inlineStr">
-        <is>
-          <t>Pwr and Perf Profile</t>
-        </is>
-      </c>
-      <c r="Z5" s="11" t="inlineStr">
-        <is>
-          <t>sSATA Configuration</t>
-        </is>
-      </c>
-      <c r="AA5" s="11" t="inlineStr">
-        <is>
-          <t>WBX Chassis MAC</t>
-        </is>
-      </c>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>NETCONF Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n"/>
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Email address</t>
+        </is>
+      </c>
       <c r="B6" s="7" t="n"/>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>U42</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>CBIS UC</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>BLANK PANEL</t>
-        </is>
-      </c>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="7" t="n"/>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="7" t="n"/>
-      <c r="J6" s="7" t="n"/>
-      <c r="K6" s="7" t="n"/>
-      <c r="L6" s="7" t="n"/>
-      <c r="M6" s="7" t="n"/>
-      <c r="N6" s="7" t="n"/>
-      <c r="O6" s="7" t="n"/>
-      <c r="P6" s="7" t="n"/>
-      <c r="Q6" s="7" t="n"/>
-      <c r="R6" s="7" t="n"/>
-      <c r="S6" s="7" t="n"/>
-      <c r="T6" s="7" t="n"/>
-      <c r="U6" s="7" t="n"/>
-      <c r="V6" s="7" t="n"/>
-      <c r="W6" s="7" t="n"/>
-      <c r="X6" s="7" t="n"/>
-      <c r="Y6" s="7" t="n"/>
-      <c r="Z6" s="7" t="n"/>
-      <c r="AA6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n"/>
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>First name</t>
+        </is>
+      </c>
       <c r="B7" s="7" t="n"/>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>U41</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>BLANK PANEL</t>
-        </is>
-      </c>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="7" t="n"/>
-      <c r="H7" s="7" t="n"/>
-      <c r="I7" s="7" t="n"/>
-      <c r="J7" s="7" t="n"/>
-      <c r="K7" s="7" t="n"/>
-      <c r="L7" s="7" t="n"/>
-      <c r="M7" s="7" t="n"/>
-      <c r="N7" s="7" t="n"/>
-      <c r="O7" s="7" t="n"/>
-      <c r="P7" s="7" t="n"/>
-      <c r="Q7" s="7" t="n"/>
-      <c r="R7" s="7" t="n"/>
-      <c r="S7" s="7" t="n"/>
-      <c r="T7" s="7" t="n"/>
-      <c r="U7" s="7" t="n"/>
-      <c r="V7" s="7" t="n"/>
-      <c r="W7" s="7" t="n"/>
-      <c r="X7" s="7" t="n"/>
-      <c r="Y7" s="7" t="n"/>
-      <c r="Z7" s="7" t="n"/>
-      <c r="AA7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n"/>
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Last name</t>
+        </is>
+      </c>
       <c r="B8" s="7" t="n"/>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>U40</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>BLANK PANEL</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="7" t="n"/>
-      <c r="J8" s="7" t="n"/>
-      <c r="K8" s="7" t="n"/>
-      <c r="L8" s="7" t="n"/>
-      <c r="M8" s="7" t="n"/>
-      <c r="N8" s="7" t="n"/>
-      <c r="O8" s="7" t="n"/>
-      <c r="P8" s="7" t="n"/>
-      <c r="Q8" s="7" t="n"/>
-      <c r="R8" s="7" t="n"/>
-      <c r="S8" s="7" t="n"/>
-      <c r="T8" s="7" t="n"/>
-      <c r="U8" s="7" t="n"/>
-      <c r="V8" s="7" t="n"/>
-      <c r="W8" s="7" t="n"/>
-      <c r="X8" s="7" t="n"/>
-      <c r="Y8" s="7" t="n"/>
-      <c r="Z8" s="7" t="n"/>
-      <c r="AA8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>U39</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t>BLANK PANEL</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="7" t="n"/>
-      <c r="J9" s="7" t="n"/>
-      <c r="K9" s="7" t="n"/>
-      <c r="L9" s="7" t="n"/>
-      <c r="M9" s="7" t="n"/>
-      <c r="N9" s="7" t="n"/>
-      <c r="O9" s="7" t="n"/>
-      <c r="P9" s="7" t="n"/>
-      <c r="Q9" s="7" t="n"/>
-      <c r="R9" s="7" t="n"/>
-      <c r="S9" s="7" t="n"/>
-      <c r="T9" s="7" t="n"/>
-      <c r="U9" s="7" t="n"/>
-      <c r="V9" s="7" t="n"/>
-      <c r="W9" s="7" t="n"/>
-      <c r="X9" s="7" t="n"/>
-      <c r="Y9" s="7" t="n"/>
-      <c r="Z9" s="7" t="n"/>
-      <c r="AA9" s="7" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>U38</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>BLANK PANEL</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
-      <c r="J10" s="7" t="n"/>
-      <c r="K10" s="7" t="n"/>
-      <c r="L10" s="7" t="n"/>
-      <c r="M10" s="7" t="n"/>
-      <c r="N10" s="7" t="n"/>
-      <c r="O10" s="7" t="n"/>
-      <c r="P10" s="7" t="n"/>
-      <c r="Q10" s="7" t="n"/>
-      <c r="R10" s="7" t="n"/>
-      <c r="S10" s="7" t="n"/>
-      <c r="T10" s="7" t="n"/>
-      <c r="U10" s="7" t="n"/>
-      <c r="V10" s="7" t="n"/>
-      <c r="W10" s="7" t="n"/>
-      <c r="X10" s="7" t="n"/>
-      <c r="Y10" s="7" t="n"/>
-      <c r="Z10" s="7" t="n"/>
-      <c r="AA10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>U37</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>BLANK PANEL</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-      <c r="K11" s="7" t="n"/>
-      <c r="L11" s="7" t="n"/>
-      <c r="M11" s="7" t="n"/>
-      <c r="N11" s="7" t="n"/>
-      <c r="O11" s="7" t="n"/>
-      <c r="P11" s="7" t="n"/>
-      <c r="Q11" s="7" t="n"/>
-      <c r="R11" s="7" t="n"/>
-      <c r="S11" s="7" t="n"/>
-      <c r="T11" s="7" t="n"/>
-      <c r="U11" s="7" t="n"/>
-      <c r="V11" s="7" t="n"/>
-      <c r="W11" s="7" t="n"/>
-      <c r="X11" s="7" t="n"/>
-      <c r="Y11" s="7" t="n"/>
-      <c r="Z11" s="7" t="n"/>
-      <c r="AA11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>U36</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>BLANK PANEL</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-      <c r="K12" s="7" t="n"/>
-      <c r="L12" s="7" t="n"/>
-      <c r="M12" s="7" t="n"/>
-      <c r="N12" s="7" t="n"/>
-      <c r="O12" s="7" t="n"/>
-      <c r="P12" s="7" t="n"/>
-      <c r="Q12" s="7" t="n"/>
-      <c r="R12" s="7" t="n"/>
-      <c r="S12" s="7" t="n"/>
-      <c r="T12" s="7" t="n"/>
-      <c r="U12" s="7" t="n"/>
-      <c r="V12" s="7" t="n"/>
-      <c r="W12" s="7" t="n"/>
-      <c r="X12" s="7" t="n"/>
-      <c r="Y12" s="7" t="n"/>
-      <c r="Z12" s="7" t="n"/>
-      <c r="AA12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>U35</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Spine</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>spine01</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-      <c r="K13" s="7" t="n"/>
-      <c r="L13" s="7" t="n"/>
-      <c r="M13" s="7" t="n"/>
-      <c r="N13" s="7" t="n"/>
-      <c r="O13" s="7" t="n"/>
-      <c r="P13" s="7" t="n"/>
-      <c r="Q13" s="7" t="n"/>
-      <c r="R13" s="7" t="n"/>
-      <c r="S13" s="7" t="n"/>
-      <c r="T13" s="7" t="n"/>
-      <c r="U13" s="7" t="n"/>
-      <c r="V13" s="7" t="n"/>
-      <c r="W13" s="7" t="n"/>
-      <c r="X13" s="7" t="n"/>
-      <c r="Y13" s="7" t="n"/>
-      <c r="Z13" s="7" t="n"/>
-      <c r="AA13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>U34</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr">
-        <is>
-          <t>Cable Management</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="7" t="n"/>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-      <c r="K14" s="7" t="n"/>
-      <c r="L14" s="7" t="n"/>
-      <c r="M14" s="7" t="n"/>
-      <c r="N14" s="7" t="n"/>
-      <c r="O14" s="7" t="n"/>
-      <c r="P14" s="7" t="n"/>
-      <c r="Q14" s="7" t="n"/>
-      <c r="R14" s="7" t="n"/>
-      <c r="S14" s="7" t="n"/>
-      <c r="T14" s="7" t="n"/>
-      <c r="U14" s="7" t="n"/>
-      <c r="V14" s="7" t="n"/>
-      <c r="W14" s="7" t="n"/>
-      <c r="X14" s="7" t="n"/>
-      <c r="Y14" s="7" t="n"/>
-      <c r="Z14" s="7" t="n"/>
-      <c r="AA14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="n"/>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>U33</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>Spine</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>spine02</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="7" t="n"/>
-      <c r="I15" s="7" t="n"/>
-      <c r="J15" s="7" t="n"/>
-      <c r="K15" s="7" t="n"/>
-      <c r="L15" s="7" t="n"/>
-      <c r="M15" s="7" t="n"/>
-      <c r="N15" s="7" t="n"/>
-      <c r="O15" s="7" t="n"/>
-      <c r="P15" s="7" t="n"/>
-      <c r="Q15" s="7" t="n"/>
-      <c r="R15" s="7" t="n"/>
-      <c r="S15" s="7" t="n"/>
-      <c r="T15" s="7" t="n"/>
-      <c r="U15" s="7" t="n"/>
-      <c r="V15" s="7" t="n"/>
-      <c r="W15" s="7" t="n"/>
-      <c r="X15" s="7" t="n"/>
-      <c r="Y15" s="7" t="n"/>
-      <c r="Z15" s="7" t="n"/>
-      <c r="AA15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="n"/>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>U32</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>CBIS UC</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="inlineStr">
-        <is>
-          <t>Undercloud Node</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
-      <c r="J16" s="7" t="n"/>
-      <c r="K16" s="7" t="n"/>
-      <c r="L16" s="7" t="n"/>
-      <c r="M16" s="7" t="n"/>
-      <c r="N16" s="7" t="n"/>
-      <c r="O16" s="7" t="n"/>
-      <c r="P16" s="7" t="n"/>
-      <c r="Q16" s="7" t="n"/>
-      <c r="R16" s="7" t="n"/>
-      <c r="S16" s="7" t="n"/>
-      <c r="T16" s="7" t="n"/>
-      <c r="U16" s="7" t="n"/>
-      <c r="V16" s="7" t="n"/>
-      <c r="W16" s="7" t="n"/>
-      <c r="X16" s="7" t="n"/>
-      <c r="Y16" s="7" t="n"/>
-      <c r="Z16" s="7" t="n"/>
-      <c r="AA16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="n"/>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>U31</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>Controller Node 1</t>
-        </is>
-      </c>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
-      <c r="H17" s="7" t="n"/>
-      <c r="I17" s="7" t="n"/>
-      <c r="J17" s="7" t="n"/>
-      <c r="K17" s="7" t="n"/>
-      <c r="L17" s="7" t="n"/>
-      <c r="M17" s="7" t="n"/>
-      <c r="N17" s="7" t="n"/>
-      <c r="O17" s="7" t="n"/>
-      <c r="P17" s="7" t="n"/>
-      <c r="Q17" s="7" t="n"/>
-      <c r="R17" s="7" t="n"/>
-      <c r="S17" s="7" t="n"/>
-      <c r="T17" s="7" t="n"/>
-      <c r="U17" s="7" t="n"/>
-      <c r="V17" s="7" t="n"/>
-      <c r="W17" s="7" t="n"/>
-      <c r="X17" s="7" t="n"/>
-      <c r="Y17" s="7" t="n"/>
-      <c r="Z17" s="7" t="n"/>
-      <c r="AA17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="n"/>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>U30</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="inlineStr">
-        <is>
-          <t>Controller Node 2</t>
-        </is>
-      </c>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
-      <c r="H18" s="7" t="n"/>
-      <c r="I18" s="7" t="n"/>
-      <c r="J18" s="7" t="n"/>
-      <c r="K18" s="7" t="n"/>
-      <c r="L18" s="7" t="n"/>
-      <c r="M18" s="7" t="n"/>
-      <c r="N18" s="7" t="n"/>
-      <c r="O18" s="7" t="n"/>
-      <c r="P18" s="7" t="n"/>
-      <c r="Q18" s="7" t="n"/>
-      <c r="R18" s="7" t="n"/>
-      <c r="S18" s="7" t="n"/>
-      <c r="T18" s="7" t="n"/>
-      <c r="U18" s="7" t="n"/>
-      <c r="V18" s="7" t="n"/>
-      <c r="W18" s="7" t="n"/>
-      <c r="X18" s="7" t="n"/>
-      <c r="Y18" s="7" t="n"/>
-      <c r="Z18" s="7" t="n"/>
-      <c r="AA18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="n"/>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>U29</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>Controller Node 3</t>
-        </is>
-      </c>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
-      <c r="H19" s="7" t="n"/>
-      <c r="I19" s="7" t="n"/>
-      <c r="J19" s="7" t="n"/>
-      <c r="K19" s="7" t="n"/>
-      <c r="L19" s="7" t="n"/>
-      <c r="M19" s="7" t="n"/>
-      <c r="N19" s="7" t="n"/>
-      <c r="O19" s="7" t="n"/>
-      <c r="P19" s="7" t="n"/>
-      <c r="Q19" s="7" t="n"/>
-      <c r="R19" s="7" t="n"/>
-      <c r="S19" s="7" t="n"/>
-      <c r="T19" s="7" t="n"/>
-      <c r="U19" s="7" t="n"/>
-      <c r="V19" s="7" t="n"/>
-      <c r="W19" s="7" t="n"/>
-      <c r="X19" s="7" t="n"/>
-      <c r="Y19" s="7" t="n"/>
-      <c r="Z19" s="7" t="n"/>
-      <c r="AA19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="n"/>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>U28</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>Nuage Node 1</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-      <c r="H20" s="7" t="n"/>
-      <c r="I20" s="7" t="n"/>
-      <c r="J20" s="7" t="n"/>
-      <c r="K20" s="7" t="n"/>
-      <c r="L20" s="7" t="n"/>
-      <c r="M20" s="7" t="n"/>
-      <c r="N20" s="7" t="n"/>
-      <c r="O20" s="7" t="n"/>
-      <c r="P20" s="7" t="n"/>
-      <c r="Q20" s="7" t="n"/>
-      <c r="R20" s="7" t="n"/>
-      <c r="S20" s="7" t="n"/>
-      <c r="T20" s="7" t="n"/>
-      <c r="U20" s="7" t="n"/>
-      <c r="V20" s="7" t="n"/>
-      <c r="W20" s="7" t="n"/>
-      <c r="X20" s="7" t="n"/>
-      <c r="Y20" s="7" t="n"/>
-      <c r="Z20" s="7" t="n"/>
-      <c r="AA20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>U27</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>Nuage Node 2</t>
-        </is>
-      </c>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
-      <c r="H21" s="7" t="n"/>
-      <c r="I21" s="7" t="n"/>
-      <c r="J21" s="7" t="n"/>
-      <c r="K21" s="7" t="n"/>
-      <c r="L21" s="7" t="n"/>
-      <c r="M21" s="7" t="n"/>
-      <c r="N21" s="7" t="n"/>
-      <c r="O21" s="7" t="n"/>
-      <c r="P21" s="7" t="n"/>
-      <c r="Q21" s="7" t="n"/>
-      <c r="R21" s="7" t="n"/>
-      <c r="S21" s="7" t="n"/>
-      <c r="T21" s="7" t="n"/>
-      <c r="U21" s="7" t="n"/>
-      <c r="V21" s="7" t="n"/>
-      <c r="W21" s="7" t="n"/>
-      <c r="X21" s="7" t="n"/>
-      <c r="Y21" s="7" t="n"/>
-      <c r="Z21" s="7" t="n"/>
-      <c r="AA21" s="7" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="n"/>
-      <c r="B22" s="7" t="n"/>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>U26</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr">
-        <is>
-          <t>Nuage Node 3</t>
-        </is>
-      </c>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
-      <c r="H22" s="7" t="n"/>
-      <c r="I22" s="7" t="n"/>
-      <c r="J22" s="7" t="n"/>
-      <c r="K22" s="7" t="n"/>
-      <c r="L22" s="7" t="n"/>
-      <c r="M22" s="7" t="n"/>
-      <c r="N22" s="7" t="n"/>
-      <c r="O22" s="7" t="n"/>
-      <c r="P22" s="7" t="n"/>
-      <c r="Q22" s="7" t="n"/>
-      <c r="R22" s="7" t="n"/>
-      <c r="S22" s="7" t="n"/>
-      <c r="T22" s="7" t="n"/>
-      <c r="U22" s="7" t="n"/>
-      <c r="V22" s="7" t="n"/>
-      <c r="W22" s="7" t="n"/>
-      <c r="X22" s="7" t="n"/>
-      <c r="Y22" s="7" t="n"/>
-      <c r="Z22" s="7" t="n"/>
-      <c r="AA22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="n"/>
-      <c r="B23" s="7" t="n"/>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>U25</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="inlineStr">
-        <is>
-          <t>Compute Node 1</t>
-        </is>
-      </c>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="n"/>
-      <c r="H23" s="7" t="n"/>
-      <c r="I23" s="7" t="n"/>
-      <c r="J23" s="7" t="n"/>
-      <c r="K23" s="7" t="n"/>
-      <c r="L23" s="7" t="n"/>
-      <c r="M23" s="7" t="n"/>
-      <c r="N23" s="7" t="n"/>
-      <c r="O23" s="7" t="n"/>
-      <c r="P23" s="7" t="n"/>
-      <c r="Q23" s="7" t="n"/>
-      <c r="R23" s="7" t="n"/>
-      <c r="S23" s="7" t="n"/>
-      <c r="T23" s="7" t="n"/>
-      <c r="U23" s="7" t="n"/>
-      <c r="V23" s="7" t="n"/>
-      <c r="W23" s="7" t="n"/>
-      <c r="X23" s="7" t="n"/>
-      <c r="Y23" s="7" t="n"/>
-      <c r="Z23" s="7" t="n"/>
-      <c r="AA23" s="7" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="n"/>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>U24</t>
-        </is>
-      </c>
-      <c r="D24" s="5" t="inlineStr">
-        <is>
-          <t>Leaf</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="inlineStr">
-        <is>
-          <t>leaf01</t>
-        </is>
-      </c>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
-      <c r="H24" s="7" t="n"/>
-      <c r="I24" s="7" t="n"/>
-      <c r="J24" s="7" t="n"/>
-      <c r="K24" s="7" t="n"/>
-      <c r="L24" s="7" t="n"/>
-      <c r="M24" s="7" t="n"/>
-      <c r="N24" s="7" t="n"/>
-      <c r="O24" s="7" t="n"/>
-      <c r="P24" s="7" t="n"/>
-      <c r="Q24" s="7" t="n"/>
-      <c r="R24" s="7" t="n"/>
-      <c r="S24" s="7" t="n"/>
-      <c r="T24" s="7" t="n"/>
-      <c r="U24" s="7" t="n"/>
-      <c r="V24" s="7" t="n"/>
-      <c r="W24" s="7" t="n"/>
-      <c r="X24" s="7" t="n"/>
-      <c r="Y24" s="7" t="n"/>
-      <c r="Z24" s="7" t="n"/>
-      <c r="AA24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="n"/>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>U23</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t>Cable Management</t>
-        </is>
-      </c>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
-      <c r="H25" s="7" t="n"/>
-      <c r="I25" s="7" t="n"/>
-      <c r="J25" s="7" t="n"/>
-      <c r="K25" s="7" t="n"/>
-      <c r="L25" s="7" t="n"/>
-      <c r="M25" s="7" t="n"/>
-      <c r="N25" s="7" t="n"/>
-      <c r="O25" s="7" t="n"/>
-      <c r="P25" s="7" t="n"/>
-      <c r="Q25" s="7" t="n"/>
-      <c r="R25" s="7" t="n"/>
-      <c r="S25" s="7" t="n"/>
-      <c r="T25" s="7" t="n"/>
-      <c r="U25" s="7" t="n"/>
-      <c r="V25" s="7" t="n"/>
-      <c r="W25" s="7" t="n"/>
-      <c r="X25" s="7" t="n"/>
-      <c r="Y25" s="7" t="n"/>
-      <c r="Z25" s="7" t="n"/>
-      <c r="AA25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="n"/>
-      <c r="B26" s="7" t="n"/>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>U22</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>Leaf</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="inlineStr">
-        <is>
-          <t>leaf02</t>
-        </is>
-      </c>
-      <c r="F26" s="7" t="n"/>
-      <c r="G26" s="7" t="n"/>
-      <c r="H26" s="7" t="n"/>
-      <c r="I26" s="7" t="n"/>
-      <c r="J26" s="7" t="n"/>
-      <c r="K26" s="7" t="n"/>
-      <c r="L26" s="7" t="n"/>
-      <c r="M26" s="7" t="n"/>
-      <c r="N26" s="7" t="n"/>
-      <c r="O26" s="7" t="n"/>
-      <c r="P26" s="7" t="n"/>
-      <c r="Q26" s="7" t="n"/>
-      <c r="R26" s="7" t="n"/>
-      <c r="S26" s="7" t="n"/>
-      <c r="T26" s="7" t="n"/>
-      <c r="U26" s="7" t="n"/>
-      <c r="V26" s="7" t="n"/>
-      <c r="W26" s="7" t="n"/>
-      <c r="X26" s="7" t="n"/>
-      <c r="Y26" s="7" t="n"/>
-      <c r="Z26" s="7" t="n"/>
-      <c r="AA26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="n"/>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>U21</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>Cable Management</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="inlineStr">
-        <is>
-          <t>Cable Management</t>
-        </is>
-      </c>
-      <c r="F27" s="7" t="n"/>
-      <c r="G27" s="7" t="n"/>
-      <c r="H27" s="7" t="n"/>
-      <c r="I27" s="7" t="n"/>
-      <c r="J27" s="7" t="n"/>
-      <c r="K27" s="7" t="n"/>
-      <c r="L27" s="7" t="n"/>
-      <c r="M27" s="7" t="n"/>
-      <c r="N27" s="7" t="n"/>
-      <c r="O27" s="7" t="n"/>
-      <c r="P27" s="7" t="n"/>
-      <c r="Q27" s="7" t="n"/>
-      <c r="R27" s="7" t="n"/>
-      <c r="S27" s="7" t="n"/>
-      <c r="T27" s="7" t="n"/>
-      <c r="U27" s="7" t="n"/>
-      <c r="V27" s="7" t="n"/>
-      <c r="W27" s="7" t="n"/>
-      <c r="X27" s="7" t="n"/>
-      <c r="Y27" s="7" t="n"/>
-      <c r="Z27" s="7" t="n"/>
-      <c r="AA27" s="7" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="n"/>
-      <c r="B28" s="7" t="n"/>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>U20</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>Mgmt Switch</t>
-        </is>
-      </c>
-      <c r="E28" s="7" t="inlineStr">
-        <is>
-          <t>Management Switch</t>
-        </is>
-      </c>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="7" t="n"/>
-      <c r="H28" s="7" t="n"/>
-      <c r="I28" s="7" t="n"/>
-      <c r="J28" s="7" t="n"/>
-      <c r="K28" s="7" t="n"/>
-      <c r="L28" s="7" t="n"/>
-      <c r="M28" s="7" t="n"/>
-      <c r="N28" s="7" t="n"/>
-      <c r="O28" s="7" t="n"/>
-      <c r="P28" s="7" t="n"/>
-      <c r="Q28" s="7" t="n"/>
-      <c r="R28" s="7" t="n"/>
-      <c r="S28" s="7" t="n"/>
-      <c r="T28" s="7" t="n"/>
-      <c r="U28" s="7" t="n"/>
-      <c r="V28" s="7" t="n"/>
-      <c r="W28" s="7" t="n"/>
-      <c r="X28" s="7" t="n"/>
-      <c r="Y28" s="7" t="n"/>
-      <c r="Z28" s="7" t="n"/>
-      <c r="AA28" s="7" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="n"/>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>U19</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>Cable Management</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="inlineStr">
-        <is>
-          <t>Cable Management</t>
-        </is>
-      </c>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
-      <c r="H29" s="7" t="n"/>
-      <c r="I29" s="7" t="n"/>
-      <c r="J29" s="7" t="n"/>
-      <c r="K29" s="7" t="n"/>
-      <c r="L29" s="7" t="n"/>
-      <c r="M29" s="7" t="n"/>
-      <c r="N29" s="7" t="n"/>
-      <c r="O29" s="7" t="n"/>
-      <c r="P29" s="7" t="n"/>
-      <c r="Q29" s="7" t="n"/>
-      <c r="R29" s="7" t="n"/>
-      <c r="S29" s="7" t="n"/>
-      <c r="T29" s="7" t="n"/>
-      <c r="U29" s="7" t="n"/>
-      <c r="V29" s="7" t="n"/>
-      <c r="W29" s="7" t="n"/>
-      <c r="X29" s="7" t="n"/>
-      <c r="Y29" s="7" t="n"/>
-      <c r="Z29" s="7" t="n"/>
-      <c r="AA29" s="7" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="n"/>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>U18</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E30" s="7" t="inlineStr">
-        <is>
-          <t>Compute Node 2</t>
-        </is>
-      </c>
-      <c r="F30" s="7" t="n"/>
-      <c r="G30" s="7" t="n"/>
-      <c r="H30" s="7" t="n"/>
-      <c r="I30" s="7" t="n"/>
-      <c r="J30" s="7" t="n"/>
-      <c r="K30" s="7" t="n"/>
-      <c r="L30" s="7" t="n"/>
-      <c r="M30" s="7" t="n"/>
-      <c r="N30" s="7" t="n"/>
-      <c r="O30" s="7" t="n"/>
-      <c r="P30" s="7" t="n"/>
-      <c r="Q30" s="7" t="n"/>
-      <c r="R30" s="7" t="n"/>
-      <c r="S30" s="7" t="n"/>
-      <c r="T30" s="7" t="n"/>
-      <c r="U30" s="7" t="n"/>
-      <c r="V30" s="7" t="n"/>
-      <c r="W30" s="7" t="n"/>
-      <c r="X30" s="7" t="n"/>
-      <c r="Y30" s="7" t="n"/>
-      <c r="Z30" s="7" t="n"/>
-      <c r="AA30" s="7" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="n"/>
-      <c r="B31" s="7" t="n"/>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>U17</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>Node</t>
-        </is>
-      </c>
-      <c r="E31" s="7" t="inlineStr">
-        <is>
-          <t>Compute Node 3</t>
-        </is>
-      </c>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="n"/>
-      <c r="H31" s="7" t="n"/>
-      <c r="I31" s="7" t="n"/>
-      <c r="J31" s="7" t="n"/>
-      <c r="K31" s="7" t="n"/>
-      <c r="L31" s="7" t="n"/>
-      <c r="M31" s="7" t="n"/>
-      <c r="N31" s="7" t="n"/>
-      <c r="O31" s="7" t="n"/>
-      <c r="P31" s="7" t="n"/>
-      <c r="Q31" s="7" t="n"/>
-      <c r="R31" s="7" t="n"/>
-      <c r="S31" s="7" t="n"/>
-      <c r="T31" s="7" t="n"/>
-      <c r="U31" s="7" t="n"/>
-      <c r="V31" s="7" t="n"/>
-      <c r="W31" s="7" t="n"/>
-      <c r="X31" s="7" t="n"/>
-      <c r="Y31" s="7" t="n"/>
-      <c r="Z31" s="7" t="n"/>
-      <c r="AA31" s="7" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="n"/>
-      <c r="B32" s="7" t="n"/>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>U16</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E32" s="7" t="inlineStr">
-        <is>
-          <t>Compute Node 4</t>
-        </is>
-      </c>
-      <c r="F32" s="7" t="n"/>
-      <c r="G32" s="7" t="n"/>
-      <c r="H32" s="7" t="n"/>
-      <c r="I32" s="7" t="n"/>
-      <c r="J32" s="7" t="n"/>
-      <c r="K32" s="7" t="n"/>
-      <c r="L32" s="7" t="n"/>
-      <c r="M32" s="7" t="n"/>
-      <c r="N32" s="7" t="n"/>
-      <c r="O32" s="7" t="n"/>
-      <c r="P32" s="7" t="n"/>
-      <c r="Q32" s="7" t="n"/>
-      <c r="R32" s="7" t="n"/>
-      <c r="S32" s="7" t="n"/>
-      <c r="T32" s="7" t="n"/>
-      <c r="U32" s="7" t="n"/>
-      <c r="V32" s="7" t="n"/>
-      <c r="W32" s="7" t="n"/>
-      <c r="X32" s="7" t="n"/>
-      <c r="Y32" s="7" t="n"/>
-      <c r="Z32" s="7" t="n"/>
-      <c r="AA32" s="7" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="n"/>
-      <c r="B33" s="7" t="n"/>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>U15</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E33" s="7" t="inlineStr">
-        <is>
-          <t>Compute Node 5</t>
-        </is>
-      </c>
-      <c r="F33" s="7" t="n"/>
-      <c r="G33" s="7" t="n"/>
-      <c r="H33" s="7" t="n"/>
-      <c r="I33" s="7" t="n"/>
-      <c r="J33" s="7" t="n"/>
-      <c r="K33" s="7" t="n"/>
-      <c r="L33" s="7" t="n"/>
-      <c r="M33" s="7" t="n"/>
-      <c r="N33" s="7" t="n"/>
-      <c r="O33" s="7" t="n"/>
-      <c r="P33" s="7" t="n"/>
-      <c r="Q33" s="7" t="n"/>
-      <c r="R33" s="7" t="n"/>
-      <c r="S33" s="7" t="n"/>
-      <c r="T33" s="7" t="n"/>
-      <c r="U33" s="7" t="n"/>
-      <c r="V33" s="7" t="n"/>
-      <c r="W33" s="7" t="n"/>
-      <c r="X33" s="7" t="n"/>
-      <c r="Y33" s="7" t="n"/>
-      <c r="Z33" s="7" t="n"/>
-      <c r="AA33" s="7" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="n"/>
-      <c r="B34" s="7" t="n"/>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>U14</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
-        <is>
-          <t>Storage Node</t>
-        </is>
-      </c>
-      <c r="E34" s="7" t="inlineStr">
-        <is>
-          <t>Storage Node 1</t>
-        </is>
-      </c>
-      <c r="F34" s="7" t="n"/>
-      <c r="G34" s="7" t="n"/>
-      <c r="H34" s="7" t="n"/>
-      <c r="I34" s="7" t="n"/>
-      <c r="J34" s="7" t="n"/>
-      <c r="K34" s="7" t="n"/>
-      <c r="L34" s="7" t="n"/>
-      <c r="M34" s="7" t="n"/>
-      <c r="N34" s="7" t="n"/>
-      <c r="O34" s="7" t="n"/>
-      <c r="P34" s="7" t="n"/>
-      <c r="Q34" s="7" t="n"/>
-      <c r="R34" s="7" t="n"/>
-      <c r="S34" s="7" t="n"/>
-      <c r="T34" s="7" t="n"/>
-      <c r="U34" s="7" t="n"/>
-      <c r="V34" s="7" t="n"/>
-      <c r="W34" s="7" t="n"/>
-      <c r="X34" s="7" t="n"/>
-      <c r="Y34" s="7" t="n"/>
-      <c r="Z34" s="7" t="n"/>
-      <c r="AA34" s="7" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="n"/>
-      <c r="B35" s="7" t="n"/>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>U13</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>Storage Node 1</t>
-        </is>
-      </c>
-      <c r="F35" s="7" t="n"/>
-      <c r="G35" s="7" t="n"/>
-      <c r="H35" s="7" t="n"/>
-      <c r="I35" s="7" t="n"/>
-      <c r="J35" s="7" t="n"/>
-      <c r="K35" s="7" t="n"/>
-      <c r="L35" s="7" t="n"/>
-      <c r="M35" s="7" t="n"/>
-      <c r="N35" s="7" t="n"/>
-      <c r="O35" s="7" t="n"/>
-      <c r="P35" s="7" t="n"/>
-      <c r="Q35" s="7" t="n"/>
-      <c r="R35" s="7" t="n"/>
-      <c r="S35" s="7" t="n"/>
-      <c r="T35" s="7" t="n"/>
-      <c r="U35" s="7" t="n"/>
-      <c r="V35" s="7" t="n"/>
-      <c r="W35" s="7" t="n"/>
-      <c r="X35" s="7" t="n"/>
-      <c r="Y35" s="7" t="n"/>
-      <c r="Z35" s="7" t="n"/>
-      <c r="AA35" s="7" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="7" t="n"/>
-      <c r="B36" s="7" t="n"/>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>U12</t>
-        </is>
-      </c>
-      <c r="D36" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E36" s="7" t="inlineStr">
-        <is>
-          <t>Storage Node 2</t>
-        </is>
-      </c>
-      <c r="F36" s="7" t="n"/>
-      <c r="G36" s="7" t="n"/>
-      <c r="H36" s="7" t="n"/>
-      <c r="I36" s="7" t="n"/>
-      <c r="J36" s="7" t="n"/>
-      <c r="K36" s="7" t="n"/>
-      <c r="L36" s="7" t="n"/>
-      <c r="M36" s="7" t="n"/>
-      <c r="N36" s="7" t="n"/>
-      <c r="O36" s="7" t="n"/>
-      <c r="P36" s="7" t="n"/>
-      <c r="Q36" s="7" t="n"/>
-      <c r="R36" s="7" t="n"/>
-      <c r="S36" s="7" t="n"/>
-      <c r="T36" s="7" t="n"/>
-      <c r="U36" s="7" t="n"/>
-      <c r="V36" s="7" t="n"/>
-      <c r="W36" s="7" t="n"/>
-      <c r="X36" s="7" t="n"/>
-      <c r="Y36" s="7" t="n"/>
-      <c r="Z36" s="7" t="n"/>
-      <c r="AA36" s="7" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="7" t="n"/>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>U11</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E37" s="7" t="inlineStr">
-        <is>
-          <t>Storage Node 2</t>
-        </is>
-      </c>
-      <c r="F37" s="7" t="n"/>
-      <c r="G37" s="7" t="n"/>
-      <c r="H37" s="7" t="n"/>
-      <c r="I37" s="7" t="n"/>
-      <c r="J37" s="7" t="n"/>
-      <c r="K37" s="7" t="n"/>
-      <c r="L37" s="7" t="n"/>
-      <c r="M37" s="7" t="n"/>
-      <c r="N37" s="7" t="n"/>
-      <c r="O37" s="7" t="n"/>
-      <c r="P37" s="7" t="n"/>
-      <c r="Q37" s="7" t="n"/>
-      <c r="R37" s="7" t="n"/>
-      <c r="S37" s="7" t="n"/>
-      <c r="T37" s="7" t="n"/>
-      <c r="U37" s="7" t="n"/>
-      <c r="V37" s="7" t="n"/>
-      <c r="W37" s="7" t="n"/>
-      <c r="X37" s="7" t="n"/>
-      <c r="Y37" s="7" t="n"/>
-      <c r="Z37" s="7" t="n"/>
-      <c r="AA37" s="7" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="7" t="n"/>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="5" t="inlineStr">
-        <is>
-          <t>U10</t>
-        </is>
-      </c>
-      <c r="D38" s="5" t="inlineStr">
-        <is>
-          <t>Nuage Node</t>
-        </is>
-      </c>
-      <c r="E38" s="7" t="inlineStr">
-        <is>
-          <t>Storage Node 3</t>
-        </is>
-      </c>
-      <c r="F38" s="7" t="n"/>
-      <c r="G38" s="7" t="n"/>
-      <c r="H38" s="7" t="n"/>
-      <c r="I38" s="7" t="n"/>
-      <c r="J38" s="7" t="n"/>
-      <c r="K38" s="7" t="n"/>
-      <c r="L38" s="7" t="n"/>
-      <c r="M38" s="7" t="n"/>
-      <c r="N38" s="7" t="n"/>
-      <c r="O38" s="7" t="n"/>
-      <c r="P38" s="7" t="n"/>
-      <c r="Q38" s="7" t="n"/>
-      <c r="R38" s="7" t="n"/>
-      <c r="S38" s="7" t="n"/>
-      <c r="T38" s="7" t="n"/>
-      <c r="U38" s="7" t="n"/>
-      <c r="V38" s="7" t="n"/>
-      <c r="W38" s="7" t="n"/>
-      <c r="X38" s="7" t="n"/>
-      <c r="Y38" s="7" t="n"/>
-      <c r="Z38" s="7" t="n"/>
-      <c r="AA38" s="7" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="7" t="n"/>
-      <c r="B39" s="7" t="n"/>
-      <c r="C39" s="5" t="inlineStr">
-        <is>
-          <t>U9</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E39" s="7" t="inlineStr">
-        <is>
-          <t>Storage Node 3</t>
-        </is>
-      </c>
-      <c r="F39" s="7" t="n"/>
-      <c r="G39" s="7" t="n"/>
-      <c r="H39" s="7" t="n"/>
-      <c r="I39" s="7" t="n"/>
-      <c r="J39" s="7" t="n"/>
-      <c r="K39" s="7" t="n"/>
-      <c r="L39" s="7" t="n"/>
-      <c r="M39" s="7" t="n"/>
-      <c r="N39" s="7" t="n"/>
-      <c r="O39" s="7" t="n"/>
-      <c r="P39" s="7" t="n"/>
-      <c r="Q39" s="7" t="n"/>
-      <c r="R39" s="7" t="n"/>
-      <c r="S39" s="7" t="n"/>
-      <c r="T39" s="7" t="n"/>
-      <c r="U39" s="7" t="n"/>
-      <c r="V39" s="7" t="n"/>
-      <c r="W39" s="7" t="n"/>
-      <c r="X39" s="7" t="n"/>
-      <c r="Y39" s="7" t="n"/>
-      <c r="Z39" s="7" t="n"/>
-      <c r="AA39" s="7" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="7" t="n"/>
-      <c r="B40" s="7" t="n"/>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>U8</t>
-        </is>
-      </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E40" s="7" t="inlineStr">
-        <is>
-          <t>BLANK PANEL</t>
-        </is>
-      </c>
-      <c r="F40" s="7" t="n"/>
-      <c r="G40" s="7" t="n"/>
-      <c r="H40" s="7" t="n"/>
-      <c r="I40" s="7" t="n"/>
-      <c r="J40" s="7" t="n"/>
-      <c r="K40" s="7" t="n"/>
-      <c r="L40" s="7" t="n"/>
-      <c r="M40" s="7" t="n"/>
-      <c r="N40" s="7" t="n"/>
-      <c r="O40" s="7" t="n"/>
-      <c r="P40" s="7" t="n"/>
-      <c r="Q40" s="7" t="n"/>
-      <c r="R40" s="7" t="n"/>
-      <c r="S40" s="7" t="n"/>
-      <c r="T40" s="7" t="n"/>
-      <c r="U40" s="7" t="n"/>
-      <c r="V40" s="7" t="n"/>
-      <c r="W40" s="7" t="n"/>
-      <c r="X40" s="7" t="n"/>
-      <c r="Y40" s="7" t="n"/>
-      <c r="Z40" s="7" t="n"/>
-      <c r="AA40" s="7" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="7" t="n"/>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="5" t="inlineStr">
-        <is>
-          <t>U7</t>
-        </is>
-      </c>
-      <c r="D41" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E41" s="7" t="inlineStr">
-        <is>
-          <t>BLANK PANEL</t>
-        </is>
-      </c>
-      <c r="F41" s="7" t="n"/>
-      <c r="G41" s="7" t="n"/>
-      <c r="H41" s="7" t="n"/>
-      <c r="I41" s="7" t="n"/>
-      <c r="J41" s="7" t="n"/>
-      <c r="K41" s="7" t="n"/>
-      <c r="L41" s="7" t="n"/>
-      <c r="M41" s="7" t="n"/>
-      <c r="N41" s="7" t="n"/>
-      <c r="O41" s="7" t="n"/>
-      <c r="P41" s="7" t="n"/>
-      <c r="Q41" s="7" t="n"/>
-      <c r="R41" s="7" t="n"/>
-      <c r="S41" s="7" t="n"/>
-      <c r="T41" s="7" t="n"/>
-      <c r="U41" s="7" t="n"/>
-      <c r="V41" s="7" t="n"/>
-      <c r="W41" s="7" t="n"/>
-      <c r="X41" s="7" t="n"/>
-      <c r="Y41" s="7" t="n"/>
-      <c r="Z41" s="7" t="n"/>
-      <c r="AA41" s="7" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="7" t="n"/>
-      <c r="B42" s="7" t="n"/>
-      <c r="C42" s="5" t="inlineStr">
-        <is>
-          <t>U6</t>
-        </is>
-      </c>
-      <c r="D42" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E42" s="7" t="inlineStr">
-        <is>
-          <t>BLANK PANEL</t>
-        </is>
-      </c>
-      <c r="F42" s="7" t="n"/>
-      <c r="G42" s="7" t="n"/>
-      <c r="H42" s="7" t="n"/>
-      <c r="I42" s="7" t="n"/>
-      <c r="J42" s="7" t="n"/>
-      <c r="K42" s="7" t="n"/>
-      <c r="L42" s="7" t="n"/>
-      <c r="M42" s="7" t="n"/>
-      <c r="N42" s="7" t="n"/>
-      <c r="O42" s="7" t="n"/>
-      <c r="P42" s="7" t="n"/>
-      <c r="Q42" s="7" t="n"/>
-      <c r="R42" s="7" t="n"/>
-      <c r="S42" s="7" t="n"/>
-      <c r="T42" s="7" t="n"/>
-      <c r="U42" s="7" t="n"/>
-      <c r="V42" s="7" t="n"/>
-      <c r="W42" s="7" t="n"/>
-      <c r="X42" s="7" t="n"/>
-      <c r="Y42" s="7" t="n"/>
-      <c r="Z42" s="7" t="n"/>
-      <c r="AA42" s="7" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="7" t="n"/>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="5" t="inlineStr">
-        <is>
-          <t>U5</t>
-        </is>
-      </c>
-      <c r="D43" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E43" s="7" t="inlineStr">
-        <is>
-          <t>BLANK PANEL</t>
-        </is>
-      </c>
-      <c r="F43" s="7" t="n"/>
-      <c r="G43" s="7" t="n"/>
-      <c r="H43" s="7" t="n"/>
-      <c r="I43" s="7" t="n"/>
-      <c r="J43" s="7" t="n"/>
-      <c r="K43" s="7" t="n"/>
-      <c r="L43" s="7" t="n"/>
-      <c r="M43" s="7" t="n"/>
-      <c r="N43" s="7" t="n"/>
-      <c r="O43" s="7" t="n"/>
-      <c r="P43" s="7" t="n"/>
-      <c r="Q43" s="7" t="n"/>
-      <c r="R43" s="7" t="n"/>
-      <c r="S43" s="7" t="n"/>
-      <c r="T43" s="7" t="n"/>
-      <c r="U43" s="7" t="n"/>
-      <c r="V43" s="7" t="n"/>
-      <c r="W43" s="7" t="n"/>
-      <c r="X43" s="7" t="n"/>
-      <c r="Y43" s="7" t="n"/>
-      <c r="Z43" s="7" t="n"/>
-      <c r="AA43" s="7" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="7" t="n"/>
-      <c r="B44" s="7" t="n"/>
-      <c r="C44" s="5" t="inlineStr">
-        <is>
-          <t>U4</t>
-        </is>
-      </c>
-      <c r="D44" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E44" s="7" t="inlineStr">
-        <is>
-          <t>BLANK PANEL</t>
-        </is>
-      </c>
-      <c r="F44" s="7" t="n"/>
-      <c r="G44" s="7" t="n"/>
-      <c r="H44" s="7" t="n"/>
-      <c r="I44" s="7" t="n"/>
-      <c r="J44" s="7" t="n"/>
-      <c r="K44" s="7" t="n"/>
-      <c r="L44" s="7" t="n"/>
-      <c r="M44" s="7" t="n"/>
-      <c r="N44" s="7" t="n"/>
-      <c r="O44" s="7" t="n"/>
-      <c r="P44" s="7" t="n"/>
-      <c r="Q44" s="7" t="n"/>
-      <c r="R44" s="7" t="n"/>
-      <c r="S44" s="7" t="n"/>
-      <c r="T44" s="7" t="n"/>
-      <c r="U44" s="7" t="n"/>
-      <c r="V44" s="7" t="n"/>
-      <c r="W44" s="7" t="n"/>
-      <c r="X44" s="7" t="n"/>
-      <c r="Y44" s="7" t="n"/>
-      <c r="Z44" s="7" t="n"/>
-      <c r="AA44" s="7" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="7" t="n"/>
-      <c r="B45" s="7" t="n"/>
-      <c r="C45" s="5" t="inlineStr">
-        <is>
-          <t>U3</t>
-        </is>
-      </c>
-      <c r="D45" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E45" s="7" t="inlineStr">
-        <is>
-          <t>BLANK PANEL</t>
-        </is>
-      </c>
-      <c r="F45" s="7" t="n"/>
-      <c r="G45" s="7" t="n"/>
-      <c r="H45" s="7" t="n"/>
-      <c r="I45" s="7" t="n"/>
-      <c r="J45" s="7" t="n"/>
-      <c r="K45" s="7" t="n"/>
-      <c r="L45" s="7" t="n"/>
-      <c r="M45" s="7" t="n"/>
-      <c r="N45" s="7" t="n"/>
-      <c r="O45" s="7" t="n"/>
-      <c r="P45" s="7" t="n"/>
-      <c r="Q45" s="7" t="n"/>
-      <c r="R45" s="7" t="n"/>
-      <c r="S45" s="7" t="n"/>
-      <c r="T45" s="7" t="n"/>
-      <c r="U45" s="7" t="n"/>
-      <c r="V45" s="7" t="n"/>
-      <c r="W45" s="7" t="n"/>
-      <c r="X45" s="7" t="n"/>
-      <c r="Y45" s="7" t="n"/>
-      <c r="Z45" s="7" t="n"/>
-      <c r="AA45" s="7" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="7" t="n"/>
-      <c r="B46" s="7" t="n"/>
-      <c r="C46" s="5" t="inlineStr">
-        <is>
-          <t>U2</t>
-        </is>
-      </c>
-      <c r="D46" s="5" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="E46" s="7" t="inlineStr">
-        <is>
-          <t>BLANK PANEL</t>
-        </is>
-      </c>
-      <c r="F46" s="7" t="n"/>
-      <c r="G46" s="7" t="n"/>
-      <c r="H46" s="7" t="n"/>
-      <c r="I46" s="7" t="n"/>
-      <c r="J46" s="7" t="n"/>
-      <c r="K46" s="7" t="n"/>
-      <c r="L46" s="7" t="n"/>
-      <c r="M46" s="7" t="n"/>
-      <c r="N46" s="7" t="n"/>
-      <c r="O46" s="7" t="n"/>
-      <c r="P46" s="7" t="n"/>
-      <c r="Q46" s="7" t="n"/>
-      <c r="R46" s="7" t="n"/>
-      <c r="S46" s="7" t="n"/>
-      <c r="T46" s="7" t="n"/>
-      <c r="U46" s="7" t="n"/>
-      <c r="V46" s="7" t="n"/>
-      <c r="W46" s="7" t="n"/>
-      <c r="X46" s="7" t="n"/>
-      <c r="Y46" s="7" t="n"/>
-      <c r="Z46" s="7" t="n"/>
-      <c r="AA46" s="7" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="7" t="n"/>
-      <c r="B47" s="7" t="n"/>
-      <c r="C47" s="5" t="inlineStr">
-        <is>
-          <t>U1</t>
-        </is>
-      </c>
-      <c r="D47" s="5" t="inlineStr">
-        <is>
-          <t>Inception Server</t>
-        </is>
-      </c>
-      <c r="E47" s="7" t="inlineStr">
-        <is>
-          <t>INCEPTION SERVER</t>
-        </is>
-      </c>
-      <c r="F47" s="7" t="n"/>
-      <c r="G47" s="7" t="n"/>
-      <c r="H47" s="7" t="n"/>
-      <c r="I47" s="7" t="n"/>
-      <c r="J47" s="7" t="n"/>
-      <c r="K47" s="7" t="n"/>
-      <c r="L47" s="7" t="n"/>
-      <c r="M47" s="7" t="n"/>
-      <c r="N47" s="7" t="n"/>
-      <c r="O47" s="7" t="n"/>
-      <c r="P47" s="7" t="n"/>
-      <c r="Q47" s="7" t="n"/>
-      <c r="R47" s="7" t="n"/>
-      <c r="S47" s="7" t="n"/>
-      <c r="T47" s="7" t="n"/>
-      <c r="U47" s="7" t="n"/>
-      <c r="V47" s="7" t="n"/>
-      <c r="W47" s="7" t="n"/>
-      <c r="X47" s="7" t="n"/>
-      <c r="Y47" s="7" t="n"/>
-      <c r="Z47" s="7" t="n"/>
-      <c r="AA47" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:Z4"/>
-    <mergeCell ref="AA4"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
-  <dataValidations count="420">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A6" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A8" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A10" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A12" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A14" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A15" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A16" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A17" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A18" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A19" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A20" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A22" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A23" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A24" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A25" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A26" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A27" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A28" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A29" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A30" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A31" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A32" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A33" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A34" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A35" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A36" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A37" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A39" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A42" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A44" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A45" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A46" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="A47" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B14" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B15" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B16" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B17" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B18" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B19" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B23" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B25" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B26" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B27" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B28" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B29" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B30" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B31" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B32" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B33" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B34" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B35" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B36" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B37" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B39" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B45" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B46" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B47" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D6" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D8" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D10" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D11" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D13" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D14" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D15" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D16" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D17" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D18" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D19" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D20" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D22" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D23" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D24" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D25" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D26" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D27" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D28" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D29" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D30" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D31" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D32" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D33" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D34" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D35" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D36" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D37" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D38" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D39" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D40" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D45" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D46" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D47" type="list">
-      <formula1>"Blank,Spine,Leaf,Cable Management,Nuage Node,Node,Storage Node,Mgmt Switch,Inception Server,CBIS UC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F6" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F8" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F9" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F10" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F11" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F13" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F14" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F15" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F16" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F17" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F18" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F19" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F20" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F22" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F23" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F24" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F25" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F26" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F27" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F28" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F29" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F30" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F31" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F32" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F33" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F34" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F35" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F36" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F37" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F38" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F39" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F40" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F45" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F46" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F47" type="list">
-      <formula1>"Visibile,Not Visibile"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S6" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S7" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S8" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S9" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S10" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S11" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S12" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S13" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S14" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S15" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S16" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S17" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S18" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S19" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S20" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S21" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S22" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S23" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S24" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S25" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S26" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S27" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S28" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S29" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S30" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S31" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S32" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S33" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S34" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S35" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S36" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S37" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S38" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S39" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S40" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S41" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S42" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S43" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S44" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S45" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S46" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="S47" type="list">
-      <formula1>"Legacy,UEFI"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T6" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T7" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T8" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T9" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T10" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T11" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T12" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T13" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T14" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T15" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T16" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T17" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T18" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T19" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T20" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T21" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T22" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T23" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T24" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T25" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T26" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T27" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T28" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T29" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T30" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T31" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T32" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T33" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T34" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T35" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T36" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T37" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T38" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T39" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T40" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T41" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T42" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T43" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T44" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T45" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T46" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="T47" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U6" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U7" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U8" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U9" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U10" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U11" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U12" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U13" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U14" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U15" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U16" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U17" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U18" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U19" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U20" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U21" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U22" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U23" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U24" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U25" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U26" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U27" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U28" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U29" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U30" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U31" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U32" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U33" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U34" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U35" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U36" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U37" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U38" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U39" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U40" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U41" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U42" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U43" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U44" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U45" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U46" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="U47" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V6" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V7" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V8" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V9" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V10" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V11" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V12" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V13" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V14" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V15" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V16" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V17" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V18" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V19" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V20" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V21" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V22" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V23" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V24" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V25" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V26" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V27" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V28" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V29" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V30" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V31" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V32" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V33" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V34" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V35" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V36" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V37" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V38" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V39" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V40" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V41" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V42" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V43" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V44" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V45" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V46" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="V47" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W6" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W7" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W8" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W9" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W10" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W11" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W12" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W13" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W14" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W15" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W16" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W17" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W18" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W19" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W20" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W21" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W22" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W23" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W24" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W25" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W26" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W27" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W28" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W29" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W30" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W31" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W32" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W33" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W34" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W35" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W36" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W37" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W38" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W39" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W40" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W41" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W42" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W43" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W44" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W45" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W46" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="W47" type="list">
-      <formula1>"Entry 1,Entry 2,Entry 3,Entry 4"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X6" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X7" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X8" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X9" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X10" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X11" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X12" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X13" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X14" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X15" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X16" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X17" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X18" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X19" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X20" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X21" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X22" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X23" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X24" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X25" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X26" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X27" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X28" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X29" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X30" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X31" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X32" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X33" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X34" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X35" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X36" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X37" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X38" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X39" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X40" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X41" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X42" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X43" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X44" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X45" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X46" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="X47" type="list">
-      <formula1>"Disabled,Enabled"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -19,17 +19,19 @@
     <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nuh external interfaces" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nuhs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Portals" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Proxys" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Stcv global" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Stcvs" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Vcins" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Vnsutils" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Vrss" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Vsrs" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Webfilters" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Portals" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -327,6 +329,7 @@
     <author>vcenter_cluster</author>
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>aws_region</author>
     <author>aws_ami_id</author>
     <author>aws_upgrade_ami_id</author>
@@ -437,167 +440,172 @@
         <t>Name of the vCenter Datastore on which the NSG VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A24" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="16" ref="A25" shapeId="0">
       <text>
         <t>AWS Region</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
+    <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A26" shapeId="0">
+    <comment authorId="18" ref="A27" shapeId="0">
       <text>
         <t>AMI ID of the upgraded image</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A27" shapeId="0">
+    <comment authorId="19" ref="A28" shapeId="0">
       <text>
         <t>Instance Type of the AWS Instance</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A28" shapeId="0">
+    <comment authorId="20" ref="A29" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to VPC</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="21" ref="A30" shapeId="0">
       <text>
         <t>ENI for Access Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>ENI for Access Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>AWS WAN EIP AllocID</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A33" shapeId="0">
+    <comment authorId="24" ref="A34" shapeId="0">
       <text>
         <t>CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A34" shapeId="0">
+    <comment authorId="25" ref="A35" shapeId="0">
       <text>
         <t>WAN Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A35" shapeId="0">
+    <comment authorId="26" ref="A36" shapeId="0">
       <text>
         <t>LAN Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A36" shapeId="0">
+    <comment authorId="27" ref="A37" shapeId="0">
       <text>
         <t>Private Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A38" shapeId="0">
+    <comment authorId="28" ref="A39" shapeId="0">
       <text>
         <t>Organization on the VSD to associate with the NSG being bootstrapped, overrides global setting. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A39" shapeId="0">
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Name of the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A40" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Field type to match against for NSGv activation. [default: none]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Value to match against for NSGv activation. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Enables SSH on NSGv when set. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A44" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Name of the NSG infra profile template on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A45" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of the NSG infra profile on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A46" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of the NSG infra profile proxy DNS on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Allows NSGs using this profile to override SSH access. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A49" shapeId="0">
+    <comment authorId="37" ref="A50" shapeId="0">
       <text>
         <t>Name of the VSC infra profile for the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A50" shapeId="0">
+    <comment authorId="38" ref="A51" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile first controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A51" shapeId="0">
+    <comment authorId="39" ref="A52" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile second controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>Name of the network port for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A54" shapeId="0">
+    <comment authorId="41" ref="A55" shapeId="0">
       <text>
         <t>Physical name of the network port for the NSG [default: port1]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A55" shapeId="0">
+    <comment authorId="42" ref="A56" shapeId="0">
       <text>
         <t>Name of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A56" shapeId="0">
+    <comment authorId="43" ref="A57" shapeId="0">
       <text>
         <t>Physical name of the access port for the NSG. Deprecated in favor of access_ports [default: port2]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A57" shapeId="0">
+    <comment authorId="44" ref="A58" shapeId="0">
       <text>
         <t>VLAN range of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A58" shapeId="0">
+    <comment authorId="45" ref="A59" shapeId="0">
       <text>
         <t>VLAN number of the NSG access port for the NSG. Deprecated in favor of access_ports [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A59" shapeId="0">
+    <comment authorId="46" ref="A60" shapeId="0">
       <text>
         <t>Name of access ports list. (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A61" shapeId="0">
+    <comment authorId="47" ref="A62" shapeId="0">
       <text>
         <t>The port for telnet to HV host to access NSGv serial or console terminal [default: 2300]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A62" shapeId="0">
+    <comment authorId="48" ref="A63" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -607,6 +615,27 @@
 </file>
 
 <file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>vsdconfig_enable</author>
+    <author>elasticsearch_enable</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Enable VSD configuration parameters on NUH [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Enable Elasticsearch configuration parameters on NUH [default: False]</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -651,7 +680,40 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>router_id</author>
+    <author>enabled</author>
+    <author>interface</author>
+    <author>vip</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Router ID [default: 100]</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Enable this VRRP configuration [default: True]</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>VRRP interface</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>List of VIP addresses (List items separated by comma.)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -762,7 +824,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -873,7 +935,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -966,7 +1028,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>stcv_image_path</author>
@@ -987,180 +1049,6 @@
     <comment authorId="2" ref="A7" shapeId="0">
       <text>
         <t>IP address of the server where the STCv license is found</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>target_server</author>
-    <author>target_server_type</author>
-    <author>hostname</author>
-    <author>vmname</author>
-    <author>mgmt_ip</author>
-    <author>mgmt_gateway</author>
-    <author>mgmt_ip_prefix</author>
-    <author>mgmt_bridge</author>
-    <author>data_bridge1</author>
-    <author>data_bridge2</author>
-    <author>stcv_destination_image_path</author>
-    <author>vcpus</author>
-    <author>ram</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Hostname or IP address of the KVM hypervisor where the STCv VM will be instantiated</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>Type of hypervisor environment into which the instance will be created</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>Hostname to apply to the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
-      <text>
-        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
-      </text>
-    </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
-      <text>
-        <t>IP address to apply to the management interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
-      <text>
-        <t>IP address of the network gateway for the management interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
-      <text>
-        <t>Network prefix length for the STCv management interface</t>
-      </text>
-    </comment>
-    <comment authorId="7" ref="A13" shapeId="0">
-      <text>
-        <t>Bridge to connect the management interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="8" ref="A15" shapeId="0">
-      <text>
-        <t>Bridge to connect the first data interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
-      <text>
-        <t>Bridge to connect the second data interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="A18" shapeId="0">
-      <text>
-        <t>Path to the STCv qcow2 image on the target server</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
-      <text>
-        <t>Number of vCPUs to apply to the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
-      <text>
-        <t>Amount of RAM to apply to the STCv VM</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>hostname</author>
-    <author>mgmt_ip</author>
-    <author>mgmt_ip_prefix</author>
-    <author>mgmt_gateway</author>
-    <author>vmname</author>
-    <author>target_server_type</author>
-    <author>target_server</author>
-    <author>master_vcin</author>
-    <author>vcenter_datacenter</author>
-    <author>vcenter_cluster</author>
-    <author>vcenter_datastore</author>
-    <author>cpuset</author>
-    <author>credentials_set</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Hostname of the VCIN instance</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>IP address of the management interface</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>Management network prefix length</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
-      <text>
-        <t>IP address of the gateway on the management network</t>
-      </text>
-    </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
-      <text>
-        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
-      </text>
-    </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
-      <text>
-        <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy.</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
-      <text>
-        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
-      </text>
-    </comment>
-    <comment authorId="7" ref="A14" shapeId="0">
-      <text>
-        <t>The FQDN or IP address of the Master VCIN in an Active/Standby deployment. Only used when this VCIN is part of an active/standby configuration. The hostname provided here must match the hostname of another VCIN in the list of VCINs for this deployment. [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="8" ref="A15" shapeId="0">
-      <text>
-        <t>Name of the vCenter Datacenter on which the VCIN VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
-      </text>
-    </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
-      <text>
-        <t>Name of the vCenter Cluster on which the VCIN VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
-      <text>
-        <t>Name of the vCenter Datastore on which the VCIN VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
-      <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, VCIN requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
-      <text>
-        <t>Name of the credentials set for the vsd</t>
       </text>
     </comment>
   </commentList>
@@ -1185,6 +1073,8 @@
     <author>access_bridge</author>
     <author>ntp_server_list</author>
     <author>dns_server_list</author>
+    <author>stats_out</author>
+    <author>stats_out_proxy</author>
     <author>timezone</author>
     <author>skip_dns_resolution_tests</author>
     <author>vsd_run_cluster_rtt_test</author>
@@ -1205,6 +1095,7 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>vcenter_resource_pool</author>
     <author>vcenter_ovftool</author>
     <author>vcenter_start_vsd_with_interfaces_disabled</author>
@@ -1347,415 +1238,430 @@
     </comment>
     <comment authorId="15" ref="A24" shapeId="0">
       <text>
+        <t>Set the deployment for stats-out.  At this time, only exactly 3 clustered VSDs and exactly 3 stats VSDs are supported.  The first 3 VSDs specified are clustered and the remaining are marked statistics only [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="16" ref="A25" shapeId="0">
+      <text>
+        <t>Set the proxy address for a stats-out deployment.  If unspecified the first NUH to be deployed will be used as the proxy.  If there are no NUHs being deployed, an alternative proxy address must be specified. [default: (first NUH hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="17" ref="A27" shapeId="0">
+      <text>
         <t>Timezone specification for the deployment [default: US/Pacific]</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
+    <comment authorId="18" ref="A28" shapeId="0">
       <text>
         <t>When true, skip DNS resolution checks for hostnames from the MetroAE host. This is used for situations where the VSP components are configured to use a DNS server that is not accessible from the MetroAE host or when you are deploying a new DNS server with MetroAE. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A26" shapeId="0">
+    <comment authorId="19" ref="A29" shapeId="0">
       <text>
         <t>When true, run RTT tests between VSDs in a cluster or standby/active cluster [default: False]</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A27" shapeId="0">
+    <comment authorId="20" ref="A30" shapeId="0">
       <text>
         <t>When true, do not validate the RTT between VSDs in a cluster is less than max RTT [default: False]</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A28" shapeId="0">
+    <comment authorId="21" ref="A31" shapeId="0">
       <text>
         <t>Maximum RTT in milliseconds between VSDs in a cluster [default: 20]</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="22" ref="A32" shapeId="0">
       <text>
         <t>Maximum RTT in milliseconds between Active and Standby VSDs [default: 200]</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="23" ref="A33" shapeId="0">
       <text>
         <t>Run the VSD disk performance test when true, else skip the test [default: False]</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="24" ref="A34" shapeId="0">
       <text>
         <t>Sets the total size of created files for VSD disk performance test. For a valid measurement, the total file size must be larger than VSD RAM to minimize the effects of caching. [default: 100G]</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A32" shapeId="0">
+    <comment authorId="25" ref="A35" shapeId="0">
       <text>
         <t>Sets the minimum value for VSD disk performance test in IOPS [default: 10000]</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A33" shapeId="0">
+    <comment authorId="26" ref="A36" shapeId="0">
       <text>
         <t>Sets the duration of the VSD disk performance test in seconds [default: 300]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A34" shapeId="0">
+    <comment authorId="27" ref="A37" shapeId="0">
       <text>
         <t>When true, ignore the results of the VSD disk performance test [default: False]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A35" shapeId="0">
+    <comment authorId="28" ref="A38" shapeId="0">
       <text>
         <t>When true, ask user for confirmation before MetroAE destroys components. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Specifies the global directory root to store backup file sets on the MetroAE host.  This overrides metro_backup_root in the upgrade deployment file if specified.  If neither is specified, a backups directory will be created off of nuage_unzipped_files_dir.</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Specifies the maximum number of backups to store in backup_directory_root.  The oldest backups of the same type exceeding this amount will be deleted at backup time.  The default of -1 specifies no limit. [default: -1]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>The name of the backup file set directory under the backup_directory_root to restore. [default: backup-latest-full]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="32" ref="A44" shapeId="0">
       <text>
         <t>vCenter datacenter to deploy Nuage components. Can be overridden by individual components</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Name of the vCenter cluster on which to deploy Nuage components. Can be overridden by individual components</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components. Can be overridden by individual components</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of the vCenter datastore on which to deploy the Nuage components. Can be overridden by individual components</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Optional path to a folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="38" ref="A51" shapeId="0">
       <text>
         <t>The vCenter resource pool where the VMs need to be located. A resource pool is a logical abstraction of resources. Different resource pools can be configured to have different priorities in case of resource contention and can have different resource reservations and limitations.</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="39" ref="A52" shapeId="0">
       <text>
         <t>This is the full path to the vCenter OVFtool executable. When running metroae from a clone of the nuage-metroae repo, this should be set to the path to ovftool on the host, usually /usr/bin/ovftool. When running the metroae Docker container, the ovftool installation directory, /usr/lib/vmware-ovftool, must be copied to the metroae_data directory and this parameter must be set to the internal container path to the ovftool in that directory, /data/vmware-ovftool/ovftool. [default: /usr/bin/ovftool]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A49" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>This when set to true starts the VM with disabled interfaces during upgrade process [default: False]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A51" shapeId="0">
+    <comment authorId="41" ref="A55" shapeId="0">
       <text>
         <t>Project name for OpenStack [default: ]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="42" ref="A56" shapeId="0">
       <text>
         <t>Keystone URL for OpenStack [default: ]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A53" shapeId="0">
+    <comment authorId="43" ref="A57" shapeId="0">
       <text>
         <t>Project domain name for OpenStack if required [default: default]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A54" shapeId="0">
+    <comment authorId="44" ref="A58" shapeId="0">
       <text>
         <t>User domain name for OpenStack if required [default: default]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A55" shapeId="0">
+    <comment authorId="45" ref="A59" shapeId="0">
       <text>
         <t>CA cetrificate file path for Openstack if necessary</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A57" shapeId="0">
+    <comment authorId="46" ref="A61" shapeId="0">
       <text>
         <t>Full path to the public key file to be injected into Nuage components to enable passwordless connectivity for configuration. When using docker container changing the path from default can cause connectivity issues [default: ~/.ssh/id_rsa.pub]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A58" shapeId="0">
+    <comment authorId="47" ref="A62" shapeId="0">
       <text>
         <t>Flag to indicate when secure communications via TLS will be used between VSCs and VSDs [default: True]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A59" shapeId="0">
+    <comment authorId="48" ref="A63" shapeId="0">
       <text>
         <t>Flag to indicate when secure communications via TLS will be used between VSCs and data plane components, e.g. VRS or NSGv; If VRS is defined, target_server_password must be defined in credentials.yml [default: True]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A61" shapeId="0">
+    <comment authorId="49" ref="A65" shapeId="0">
       <text>
         <t>Path to the standard license file for the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A62" shapeId="0">
+    <comment authorId="50" ref="A66" shapeId="0">
       <text>
         <t>Path to the cluster license file for the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A63" shapeId="0">
+    <comment authorId="51" ref="A67" shapeId="0">
       <text>
         <t>Raise a failure if the VSD licenses (Standard or cluster only) do not have at least the specified number of days remaining before expiration. If undefined, no check of days remaining before VSD license expiration will be made. If you want to verify that the number of days left before expiration is more than a certain number of days, uncomment this variable and set the value to the number of days. [default: -1]</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A64" shapeId="0">
+    <comment authorId="52" ref="A68" shapeId="0">
       <text>
         <t>Path to the Ejabberd license file for the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A65" shapeId="0">
+    <comment authorId="53" ref="A69" shapeId="0">
       <text>
         <t>Path to the license file for the SD-WAN Portal [default: ]</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A66" shapeId="0">
+    <comment authorId="54" ref="A70" shapeId="0">
       <text>
         <t>Path to the license file for the NUH [default: ]</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A68" shapeId="0">
+    <comment authorId="55" ref="A72" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSD during the installation [default: True]</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A69" shapeId="0">
+    <comment authorId="56" ref="A73" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSTAT during the installation [default: False]</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A70" shapeId="0">
+    <comment authorId="57" ref="A74" shapeId="0">
       <text>
         <t>Proxy URL to be used if Yum repositories cannot be directly reached [default: NONE]</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A71" shapeId="0">
+    <comment authorId="58" ref="A75" shapeId="0">
       <text>
         <t>Username of the SSH proxy host if one is used [default: root]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A72" shapeId="0">
+    <comment authorId="59" ref="A76" shapeId="0">
       <text>
         <t>IP Address or Hostname of the SSH host if one is used [default: sshhost]</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A74" shapeId="0">
+    <comment authorId="60" ref="A78" shapeId="0">
       <text>
         <t>Amount of VSD disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="58" ref="A75" shapeId="0">
+    <comment authorId="61" ref="A79" shapeId="0">
       <text>
         <t>Amount of VSC disk space to pre-allocate, in GB. The only valid values are 0 and 1. When undefined or 0, file size allocation will be skipped. Production deployments should set this value to 1. [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="59" ref="A76" shapeId="0">
+    <comment authorId="62" ref="A80" shapeId="0">
       <text>
         <t>Amount of VSTAT disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 100]</t>
       </text>
     </comment>
-    <comment authorId="60" ref="A77" shapeId="0">
+    <comment authorId="63" ref="A81" shapeId="0">
       <text>
         <t>Amount of VCIN disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="61" ref="A78" shapeId="0">
+    <comment authorId="64" ref="A82" shapeId="0">
       <text>
         <t>Amount of NSGV disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="62" ref="A80" shapeId="0">
+    <comment authorId="65" ref="A84" shapeId="0">
       <text>
         <t>Amount of VSD RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="63" ref="A81" shapeId="0">
+    <comment authorId="66" ref="A85" shapeId="0">
       <text>
         <t>Amount of VSC RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="64" ref="A82" shapeId="0">
+    <comment authorId="67" ref="A86" shapeId="0">
       <text>
         <t>Amount of VSTAT RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="65" ref="A83" shapeId="0">
+    <comment authorId="68" ref="A87" shapeId="0">
       <text>
         <t>Amount of VCIN RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="66" ref="A84" shapeId="0">
+    <comment authorId="69" ref="A88" shapeId="0">
       <text>
         <t>Amount of NUH RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="67" ref="A85" shapeId="0">
+    <comment authorId="70" ref="A89" shapeId="0">
       <text>
         <t>Amount of Webfilter RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="68" ref="A86" shapeId="0">
+    <comment authorId="71" ref="A90" shapeId="0">
       <text>
         <t>Amount of Portal RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="69" ref="A88" shapeId="0">
+    <comment authorId="72" ref="A92" shapeId="0">
       <text>
         <t>Number of CPU's for VSD. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="70" ref="A89" shapeId="0">
+    <comment authorId="73" ref="A93" shapeId="0">
       <text>
         <t>Number of CPU's for VSC. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="71" ref="A90" shapeId="0">
+    <comment authorId="74" ref="A94" shapeId="0">
       <text>
         <t>Number of CPU's for VSTAT. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="72" ref="A91" shapeId="0">
+    <comment authorId="75" ref="A95" shapeId="0">
       <text>
         <t>Number of CPU's for VNSUTIL. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="73" ref="A92" shapeId="0">
+    <comment authorId="76" ref="A96" shapeId="0">
       <text>
         <t>Number of CPU's for NUH. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="74" ref="A93" shapeId="0">
+    <comment authorId="77" ref="A97" shapeId="0">
       <text>
         <t>Number of CPU's for VCIN. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="75" ref="A94" shapeId="0">
+    <comment authorId="78" ref="A98" shapeId="0">
       <text>
         <t>Number of CPU's for Portal vm. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="76" ref="A95" shapeId="0">
+    <comment authorId="79" ref="A99" shapeId="0">
       <text>
         <t>Number of CPU's for Webfilter vm. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="77" ref="A97" shapeId="0">
+    <comment authorId="80" ref="A101" shapeId="0">
       <text>
         <t>VSD Architect URL. Required for tasks during Upgrade, Health Checks etc [default: https://(vsd_fqdn):8443]</t>
       </text>
     </comment>
-    <comment authorId="78" ref="A98" shapeId="0">
+    <comment authorId="81" ref="A102" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VSD Architect. Required for tasks during Upgrade, Health Checks etc [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="79" ref="A99" shapeId="0">
+    <comment authorId="82" ref="A103" shapeId="0">
       <text>
         <t>VCIN URL used for API interaction. Required for tasks like VRS-E upgrade (through VCIN) [default: https://(vcin_ip_address):8443]</t>
       </text>
     </comment>
-    <comment authorId="80" ref="A100" shapeId="0">
+    <comment authorId="83" ref="A104" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VCIN. Required for tasks like VRS-E upgrade (through VCIN) [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="81" ref="A102" shapeId="0">
+    <comment authorId="84" ref="A106" shapeId="0">
       <text>
         <t>List of hooks files (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="82" ref="A103" shapeId="0">
+    <comment authorId="85" ref="A107" shapeId="0">
       <text>
         <t>Skip tasks and playbooks (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="83" ref="A105" shapeId="0">
+    <comment authorId="86" ref="A109" shapeId="0">
       <text>
         <t>Address of SMTP server to be used if emailing health results</t>
       </text>
     </comment>
-    <comment authorId="84" ref="A106" shapeId="0">
+    <comment authorId="87" ref="A110" shapeId="0">
       <text>
         <t>Port to be used on the SMTP Server [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="85" ref="A107" shapeId="0">
+    <comment authorId="88" ref="A111" shapeId="0">
       <text>
         <t>Email address from which health report will be sent</t>
       </text>
     </comment>
-    <comment authorId="86" ref="A108" shapeId="0">
+    <comment authorId="89" ref="A112" shapeId="0">
       <text>
         <t>List of destination email addresses (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="87" ref="A110" shapeId="0">
+    <comment authorId="90" ref="A114" shapeId="0">
       <text>
         <t>Address of the mail server to be used to receive monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="88" ref="A111" shapeId="0">
+    <comment authorId="91" ref="A115" shapeId="0">
       <text>
         <t>Port on mail server to be used for monit alerts [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="89" ref="A112" shapeId="0">
+    <comment authorId="92" ref="A116" shapeId="0">
       <text>
         <t>Encryption to be used when sending monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="90" ref="A113" shapeId="0">
+    <comment authorId="93" ref="A117" shapeId="0">
       <text>
         <t>Enables use of monit eventqueue to store alerts if email alerts fail to send [default: True]</t>
       </text>
     </comment>
-    <comment authorId="91" ref="A114" shapeId="0">
+    <comment authorId="94" ref="A118" shapeId="0">
       <text>
         <t>Email address from which monit alerts will be sent</t>
       </text>
     </comment>
-    <comment authorId="92" ref="A115" shapeId="0">
+    <comment authorId="95" ref="A119" shapeId="0">
       <text>
         <t>Email address to reply to monit alert emails</t>
       </text>
     </comment>
-    <comment authorId="93" ref="A116" shapeId="0">
+    <comment authorId="96" ref="A120" shapeId="0">
       <text>
         <t>Email subject for alert emails. Overrides monit default alert subject</t>
       </text>
     </comment>
-    <comment authorId="94" ref="A117" shapeId="0">
+    <comment authorId="97" ref="A121" shapeId="0">
       <text>
         <t>Email message for alert emails. Overrides monit default alert message</t>
       </text>
     </comment>
-    <comment authorId="95" ref="A118" shapeId="0">
+    <comment authorId="98" ref="A122" shapeId="0">
       <text>
         <t>Destination email address for monit alerts</t>
       </text>
     </comment>
-    <comment authorId="96" ref="A119" shapeId="0">
+    <comment authorId="99" ref="A123" shapeId="0">
       <text>
         <t>Specific events for which alerts should be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="97" ref="A120" shapeId="0">
+    <comment authorId="100" ref="A124" shapeId="0">
       <text>
         <t>Events for which alerts should not be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
@@ -1765,6 +1671,186 @@
 </file>
 
 <file path=xl/comments/comment20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>target_server</author>
+    <author>target_server_type</author>
+    <author>hostname</author>
+    <author>vmname</author>
+    <author>mgmt_ip</author>
+    <author>mgmt_gateway</author>
+    <author>mgmt_ip_prefix</author>
+    <author>mgmt_bridge</author>
+    <author>data_bridge1</author>
+    <author>data_bridge2</author>
+    <author>stcv_destination_image_path</author>
+    <author>vcpus</author>
+    <author>ram</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Hostname or IP address of the KVM hypervisor where the STCv VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Type of hypervisor environment into which the instance will be created</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Hostname to apply to the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A10" shapeId="0">
+      <text>
+        <t>IP address to apply to the management interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A11" shapeId="0">
+      <text>
+        <t>IP address of the network gateway for the management interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A12" shapeId="0">
+      <text>
+        <t>Network prefix length for the STCv management interface</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A13" shapeId="0">
+      <text>
+        <t>Bridge to connect the management interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="8" ref="A15" shapeId="0">
+      <text>
+        <t>Bridge to connect the first data interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Bridge to connect the second data interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A18" shapeId="0">
+      <text>
+        <t>Path to the STCv qcow2 image on the target server</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A19" shapeId="0">
+      <text>
+        <t>Number of vCPUs to apply to the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>Amount of RAM to apply to the STCv VM</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hostname</author>
+    <author>mgmt_ip</author>
+    <author>mgmt_ip_prefix</author>
+    <author>mgmt_gateway</author>
+    <author>vmname</author>
+    <author>target_server_type</author>
+    <author>target_server</author>
+    <author>master_vcin</author>
+    <author>vcenter_datacenter</author>
+    <author>vcenter_cluster</author>
+    <author>vcenter_datastore</author>
+    <author>vcenter_host_clusters_folder</author>
+    <author>cpuset</author>
+    <author>credentials_set</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Hostname of the VCIN instance</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>IP address of the management interface</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Management network prefix length</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>IP address of the gateway on the management network</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A10" shapeId="0">
+      <text>
+        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A11" shapeId="0">
+      <text>
+        <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy.</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A12" shapeId="0">
+      <text>
+        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A14" shapeId="0">
+      <text>
+        <t>The FQDN or IP address of the Master VCIN in an Active/Standby deployment. Only used when this VCIN is part of an active/standby configuration. The hostname provided here must match the hostname of another VCIN in the list of VCINs for this deployment. [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="8" ref="A15" shapeId="0">
+      <text>
+        <t>Name of the vCenter Datacenter on which the VCIN VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Name of the vCenter Cluster on which the VCIN VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Name of the vCenter Datastore on which the VCIN VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A18" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>Cpuset information for cpu pinning on KVM. For example, VCIN requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A21" shapeId="0">
+      <text>
+        <t>Name of the credentials set for the vsd</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1787,6 +1873,7 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>aws_region</author>
     <author>aws_ami_id</author>
     <author>aws_instance_type</author>
@@ -1909,102 +1996,107 @@
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A31" shapeId="0">
+    <comment authorId="20" ref="A30" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="21" ref="A32" shapeId="0">
       <text>
         <t>Only applicable for AWS deployments</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A32" shapeId="0">
+    <comment authorId="22" ref="A33" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A33" shapeId="0">
+    <comment authorId="23" ref="A34" shapeId="0">
       <text>
         <t>Instance Type of the AWS Instance</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A34" shapeId="0">
+    <comment authorId="24" ref="A35" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to VPC</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A35" shapeId="0">
+    <comment authorId="25" ref="A36" shapeId="0">
       <text>
         <t>ENI ID for VNSUTIL Instance on Management Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A36" shapeId="0">
+    <comment authorId="26" ref="A37" shapeId="0">
       <text>
         <t>ENI ID for VNSUTIL on Data Interface</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A38" shapeId="0">
+    <comment authorId="27" ref="A39" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A39" shapeId="0">
+    <comment authorId="28" ref="A40" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A40" shapeId="0">
+    <comment authorId="29" ref="A41" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A41" shapeId="0">
+    <comment authorId="30" ref="A42" shapeId="0">
       <text>
         <t>Name of management network on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A42" shapeId="0">
+    <comment authorId="31" ref="A43" shapeId="0">
       <text>
         <t>Name of management subnet on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A43" shapeId="0">
+    <comment authorId="32" ref="A44" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A44" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A45" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of data network on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A46" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of data subnet on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name for Data interface</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Set of security groups to associate with Data interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A50" shapeId="0">
+    <comment authorId="38" ref="A51" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VNSUTIL requires 2 cores and sample values will be of the form [ 0, 1 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A51" shapeId="0">
+    <comment authorId="39" ref="A52" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -2013,7 +2105,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vrs_os_type</author>
@@ -2076,7 +2168,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2175,7 +2267,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2294,6 +2386,7 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>aws_region</author>
     <author>aws_ami_id</author>
     <author>aws_upgrade_ami_id</author>
@@ -2391,127 +2484,132 @@
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="14" ref="A21" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t>Only applicable for AWS deployments</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A24" shapeId="0">
+    <comment authorId="17" ref="A25" shapeId="0">
       <text>
         <t>AMI VSD ID of the latest VSD release. Used only during an upgrade</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A25" shapeId="0">
+    <comment authorId="18" ref="A26" shapeId="0">
       <text>
         <t>Instance Type to be used for a VSD instance</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A26" shapeId="0">
+    <comment authorId="19" ref="A27" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to AWS instances</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A27" shapeId="0">
+    <comment authorId="20" ref="A28" shapeId="0">
       <text>
         <t>ENI ID for VSD Instance on Management Subnet</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="21" ref="A30" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A32" shapeId="0">
+    <comment authorId="24" ref="A33" shapeId="0">
       <text>
         <t>Name of network on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A33" shapeId="0">
+    <comment authorId="25" ref="A34" shapeId="0">
       <text>
         <t>Name of subnet on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A34" shapeId="0">
+    <comment authorId="26" ref="A35" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A35" shapeId="0">
+    <comment authorId="27" ref="A36" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A36" shapeId="0">
+    <comment authorId="28" ref="A37" shapeId="0">
       <text>
         <t>Project name for OpenStack [default: ]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A37" shapeId="0">
+    <comment authorId="29" ref="A38" shapeId="0">
       <text>
         <t>Keystone URL for OpenStack [default: ]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="30" ref="A40" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSD requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A40" shapeId="0">
+    <comment authorId="31" ref="A41" shapeId="0">
       <text>
         <t>Lockout the user after reaching the number of failed login attempts</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A41" shapeId="0">
+    <comment authorId="32" ref="A42" shapeId="0">
       <text>
         <t>Lockout time after failed login attemps</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A42" shapeId="0">
+    <comment authorId="33" ref="A43" shapeId="0">
       <text>
         <t>Enables advance API access logging</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A43" shapeId="0">
+    <comment authorId="34" ref="A44" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="35" ref="A46" shapeId="0">
       <text>
         <t>TLS version to use</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="36" ref="A47" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="37" ref="A48" shapeId="0">
       <text>
         <t>Path to intermediate certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="38" ref="A49" shapeId="0">
       <text>
         <t>Path to certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="39" ref="A50" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -2551,6 +2649,7 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>openstack_image</author>
     <author>openstack_flavor</author>
     <author>openstack_availability_zone</author>
@@ -2720,137 +2819,142 @@
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A39" shapeId="0">
+    <comment authorId="28" ref="A38" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A40" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Name of management network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Name of management subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="34" ref="A45" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="35" ref="A46" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="36" ref="A47" shapeId="0">
       <text>
         <t>Name of control network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="37" ref="A48" shapeId="0">
       <text>
         <t>Name of control subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="38" ref="A49" shapeId="0">
       <text>
         <t>Name for Control interface</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="39" ref="A50" shapeId="0">
       <text>
         <t>Set of security groups to associate with Control interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A50" shapeId="0">
+    <comment authorId="40" ref="A51" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A51" shapeId="0">
+    <comment authorId="41" ref="A52" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A53" shapeId="0">
+    <comment authorId="42" ref="A54" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A54" shapeId="0">
+    <comment authorId="43" ref="A55" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A55" shapeId="0">
+    <comment authorId="44" ref="A56" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A56" shapeId="0">
+    <comment authorId="45" ref="A57" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A57" shapeId="0">
+    <comment authorId="46" ref="A58" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A59" shapeId="0">
+    <comment authorId="47" ref="A60" shapeId="0">
       <text>
         <t>Ejabberd user id used to create the certificate</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A60" shapeId="0">
+    <comment authorId="48" ref="A61" shapeId="0">
       <text>
         <t>Path to VSC certificate key pem file</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A61" shapeId="0">
+    <comment authorId="49" ref="A62" shapeId="0">
       <text>
         <t>Path to VSC certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A62" shapeId="0">
+    <comment authorId="50" ref="A63" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A63" shapeId="0">
+    <comment authorId="51" ref="A64" shapeId="0">
       <text>
         <t>XMPP domain used in custom certificates</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A64" shapeId="0">
+    <comment authorId="52" ref="A65" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsc</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A66" shapeId="0">
+    <comment authorId="53" ref="A67" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSC requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A67" shapeId="0">
+    <comment authorId="54" ref="A68" shapeId="0">
       <text>
         <t>Enables hardening configuration on VSC [default: True]</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A68" shapeId="0">
+    <comment authorId="55" ref="A69" shapeId="0">
       <text>
         <t>Paths to files that can be optionally applied for additional VSC configuration (List items separated by comma.)</t>
       </text>
@@ -2877,6 +2981,7 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>aws_ami_id</author>
     <author>aws_upgrade_ami_id</author>
     <author>aws_instance_type</author>
@@ -2978,122 +3083,127 @@
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="15" ref="A22" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A24" shapeId="0">
+    <comment authorId="17" ref="A25" shapeId="0">
       <text>
         <t>AMI ID of the upgraded image</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A25" shapeId="0">
+    <comment authorId="18" ref="A26" shapeId="0">
       <text>
         <t>Instance Type of the AWS Instance</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A26" shapeId="0">
+    <comment authorId="19" ref="A27" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to VPC</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A27" shapeId="0">
+    <comment authorId="20" ref="A28" shapeId="0">
       <text>
         <t>ENI ID for VSTAT Instance on Management Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="21" ref="A30" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A32" shapeId="0">
+    <comment authorId="24" ref="A33" shapeId="0">
       <text>
         <t>Name of network on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A33" shapeId="0">
+    <comment authorId="25" ref="A34" shapeId="0">
       <text>
         <t>Name of subnet on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A34" shapeId="0">
+    <comment authorId="26" ref="A35" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A35" shapeId="0">
+    <comment authorId="27" ref="A36" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="28" ref="A38" shapeId="0">
       <text>
         <t>NFS share for copying vstat backups. For example, NFS share should contain both the ip address and shared volume in this form 1.1.1.1:/nfshare</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="29" ref="A39" shapeId="0">
       <text>
         <t>Interval to restore database snapshots, min value is 0 and max value is 60 minutes [default: 5]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="30" ref="A40" shapeId="0">
       <text>
         <t>Interval to create database snapshots, min value is 0 and max value is 60 minutes [default: 5]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A40" shapeId="0">
+    <comment authorId="31" ref="A41" shapeId="0">
       <text>
         <t>Repository name for storing backups</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Add a second disk to separate Elasticsearch data from primary image. Disk is added to path /var/lib/elasticsearch on the VSTAT. Supported on KVM only. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Size of the extra disk in GB. Supported on KVM only. [default: 1000]</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="34" ref="A45" shapeId="0">
       <text>
         <t>Path on the hypervisor to store the extra disk image. Supported on KVM only. [default: /var/lib/libvirt/images]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="35" ref="A46" shapeId="0">
       <text>
         <t>Name of the extra disk image file. Supported on KVM only. [default: extra-disk-(hostname)]</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSTAT requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Enable the setup of the Virtualized Security Services UI [default: False]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A49" shapeId="0">
+    <comment authorId="38" ref="A50" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A50" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -3402,7 +3512,7 @@
     <author>vmname</author>
     <author>mgmt_ip</author>
     <author>mgmt_gateway</author>
-    <author>mgmt_netmask</author>
+    <author>mgmt_ip_prefix</author>
     <author>data_ip</author>
     <author>data_subnet</author>
     <author>data_netmask</author>
@@ -3449,7 +3559,7 @@
     </comment>
     <comment authorId="6" ref="A12" shapeId="0">
       <text>
-        <t>Management network netmask for the DNS VM</t>
+        <t>Management network prefix length for DNS VM</t>
       </text>
     </comment>
     <comment authorId="7" ref="A14" shapeId="0">
@@ -3853,7 +3963,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Deployment</t>
+          <t>Deployment details</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4465,29 +4575,29 @@
       <c r="G22" s="9" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B23" s="9" t="n"/>
+      <c r="C23" s="9" t="n"/>
+      <c r="D23" s="9" t="n"/>
+      <c r="E23" s="9" t="n"/>
+      <c r="F23" s="9" t="n"/>
+      <c r="G23" s="9" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>AWS Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>AWS Region</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID</t>
+          <t>AWS Region</t>
         </is>
       </c>
       <c r="B25" s="7" t="n"/>
@@ -4500,7 +4610,7 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID for Upgrading Instance</t>
+          <t>AWS AMI ID</t>
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
@@ -4513,7 +4623,7 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>AWS AMI ID for Upgrading Instance</t>
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
@@ -4526,7 +4636,7 @@
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B28" s="7" t="n"/>
@@ -4539,7 +4649,7 @@
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>AWS Access ENI</t>
+          <t>AWS Keypair Name</t>
         </is>
       </c>
       <c r="B29" s="7" t="n"/>
@@ -4552,7 +4662,7 @@
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>AWS Data ENI</t>
+          <t>AWS Access ENI</t>
         </is>
       </c>
       <c r="B30" s="7" t="n"/>
@@ -4565,7 +4675,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>AWS WAN EIP AllocID</t>
+          <t>AWS Data ENI</t>
         </is>
       </c>
       <c r="B31" s="7" t="n"/>
@@ -4576,29 +4686,29 @@
       <c r="G31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>AWS WAN EIP AllocID</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="n"/>
+      <c r="C32" s="7" t="n"/>
+      <c r="D32" s="7" t="n"/>
+      <c r="E32" s="7" t="n"/>
+      <c r="F32" s="7" t="n"/>
+      <c r="G32" s="7" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>AWS VPC Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>AWS Provision VPC CIDR</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="n"/>
-      <c r="C33" s="9" t="n"/>
-      <c r="D33" s="9" t="n"/>
-      <c r="E33" s="9" t="n"/>
-      <c r="F33" s="9" t="n"/>
-      <c r="G33" s="9" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC NSG WAN Subnet CIDR</t>
+          <t>AWS Provision VPC CIDR</t>
         </is>
       </c>
       <c r="B34" s="9" t="n"/>
@@ -4611,7 +4721,7 @@
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC NSG LAN Subnet CIDR</t>
+          <t>AWS Provision VPC NSG WAN Subnet CIDR</t>
         </is>
       </c>
       <c r="B35" s="9" t="n"/>
@@ -4624,7 +4734,7 @@
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC Private Subnet CIDR</t>
+          <t>AWS Provision VPC NSG LAN Subnet CIDR</t>
         </is>
       </c>
       <c r="B36" s="9" t="n"/>
@@ -4635,29 +4745,29 @@
       <c r="G36" s="9" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>AWS Provision VPC Private Subnet CIDR</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="n"/>
+      <c r="C37" s="9" t="n"/>
+      <c r="D37" s="9" t="n"/>
+      <c r="E37" s="9" t="n"/>
+      <c r="F37" s="9" t="n"/>
+      <c r="G37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>NSGv Zero-Factor Bootstrap</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="8" t="inlineStr">
-        <is>
-          <t>NSG Organization</t>
-        </is>
-      </c>
-      <c r="B38" s="9" t="n"/>
-      <c r="C38" s="9" t="n"/>
-      <c r="D38" s="9" t="n"/>
-      <c r="E38" s="9" t="n"/>
-      <c r="F38" s="9" t="n"/>
-      <c r="G38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>NSG Name</t>
+          <t>NSG Organization</t>
         </is>
       </c>
       <c r="B39" s="9" t="n"/>
@@ -4668,22 +4778,22 @@
       <c r="G39" s="9" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>Activation Matching Type</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="n"/>
-      <c r="C40" s="7" t="n"/>
-      <c r="D40" s="7" t="n"/>
-      <c r="E40" s="7" t="n"/>
-      <c r="F40" s="7" t="n"/>
-      <c r="G40" s="7" t="n"/>
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>NSG Name</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
+      <c r="D40" s="9" t="n"/>
+      <c r="E40" s="9" t="n"/>
+      <c r="F40" s="9" t="n"/>
+      <c r="G40" s="9" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>Activation Matching Value</t>
+          <t>Activation Matching Type</t>
         </is>
       </c>
       <c r="B41" s="7" t="n"/>
@@ -4694,42 +4804,42 @@
       <c r="G41" s="7" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="inlineStr">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Activation Matching Value</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n"/>
+      <c r="C42" s="7" t="n"/>
+      <c r="D42" s="7" t="n"/>
+      <c r="E42" s="7" t="n"/>
+      <c r="F42" s="7" t="n"/>
+      <c r="G42" s="7" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="inlineStr">
         <is>
           <t>Enable SSH on NSGv</t>
         </is>
       </c>
-      <c r="B42" s="9" t="n"/>
-      <c r="C42" s="9" t="n"/>
-      <c r="D42" s="9" t="n"/>
-      <c r="E42" s="9" t="n"/>
-      <c r="F42" s="9" t="n"/>
-      <c r="G42" s="9" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
+      <c r="D43" s="9" t="n"/>
+      <c r="E43" s="9" t="n"/>
+      <c r="F43" s="9" t="n"/>
+      <c r="G43" s="9" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>NSG Advanced Options</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="8" t="inlineStr">
-        <is>
-          <t>NSG Infra Profile Template Name</t>
-        </is>
-      </c>
-      <c r="B44" s="9" t="n"/>
-      <c r="C44" s="9" t="n"/>
-      <c r="D44" s="9" t="n"/>
-      <c r="E44" s="9" t="n"/>
-      <c r="F44" s="9" t="n"/>
-      <c r="G44" s="9" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Name</t>
+          <t>NSG Infra Profile Template Name</t>
         </is>
       </c>
       <c r="B45" s="9" t="n"/>
@@ -4742,7 +4852,7 @@
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Proxy DNS Name</t>
+          <t>NSG Infra Profile Name</t>
         </is>
       </c>
       <c r="B46" s="9" t="n"/>
@@ -4755,7 +4865,7 @@
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
         <is>
-          <t>Allow SSH Access Override</t>
+          <t>NSG Infra Profile Proxy DNS Name</t>
         </is>
       </c>
       <c r="B47" s="9" t="n"/>
@@ -4766,29 +4876,29 @@
       <c r="G47" s="9" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" s="8" t="inlineStr">
+        <is>
+          <t>Allow SSH Access Override</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="n"/>
+      <c r="C48" s="9" t="n"/>
+      <c r="D48" s="9" t="n"/>
+      <c r="E48" s="9" t="n"/>
+      <c r="F48" s="9" t="n"/>
+      <c r="G48" s="9" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>VSC Info</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>VSC Infra Profile Name</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="n"/>
-      <c r="C49" s="9" t="n"/>
-      <c r="D49" s="9" t="n"/>
-      <c r="E49" s="9" t="n"/>
-      <c r="F49" s="9" t="n"/>
-      <c r="G49" s="9" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile First Controller</t>
+          <t>VSC Infra Profile Name</t>
         </is>
       </c>
       <c r="B50" s="9" t="n"/>
@@ -4801,7 +4911,7 @@
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile Second Controller</t>
+          <t>VSC Infra Profile First Controller</t>
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
@@ -4814,7 +4924,7 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>NSG Network Port Name</t>
+          <t>VSC Infra Profile Second Controller</t>
         </is>
       </c>
       <c r="B52" s="9" t="n"/>
@@ -4825,29 +4935,29 @@
       <c r="G52" s="9" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>NSG Network Port Name</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="n"/>
+      <c r="C53" s="9" t="n"/>
+      <c r="D53" s="9" t="n"/>
+      <c r="E53" s="9" t="n"/>
+      <c r="F53" s="9" t="n"/>
+      <c r="G53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>Network and Access Ports</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>NSG Network Port Physical Name</t>
-        </is>
-      </c>
-      <c r="B54" s="9" t="n"/>
-      <c r="C54" s="9" t="n"/>
-      <c r="D54" s="9" t="n"/>
-      <c r="E54" s="9" t="n"/>
-      <c r="F54" s="9" t="n"/>
-      <c r="G54" s="9" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Name</t>
+          <t>NSG Network Port Physical Name</t>
         </is>
       </c>
       <c r="B55" s="9" t="n"/>
@@ -4860,7 +4970,7 @@
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Physical Name</t>
+          <t>NSG Access Port Name</t>
         </is>
       </c>
       <c r="B56" s="9" t="n"/>
@@ -4873,7 +4983,7 @@
     <row r="57">
       <c r="A57" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Range</t>
+          <t>NSG Access Port Physical Name</t>
         </is>
       </c>
       <c r="B57" s="9" t="n"/>
@@ -4886,7 +4996,7 @@
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Number</t>
+          <t>NSG Access Port VLAN Range</t>
         </is>
       </c>
       <c r="B58" s="9" t="n"/>
@@ -4897,42 +5007,42 @@
       <c r="G58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="inlineStr">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Number</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="n"/>
+      <c r="C59" s="9" t="n"/>
+      <c r="D59" s="9" t="n"/>
+      <c r="E59" s="9" t="n"/>
+      <c r="F59" s="9" t="n"/>
+      <c r="G59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="inlineStr">
         <is>
           <t>NSGv Access ports list name</t>
         </is>
       </c>
-      <c r="B59" s="7" t="n"/>
-      <c r="C59" s="7" t="n"/>
-      <c r="D59" s="7" t="n"/>
-      <c r="E59" s="7" t="n"/>
-      <c r="F59" s="7" t="n"/>
-      <c r="G59" s="7" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
+      <c r="B60" s="7" t="n"/>
+      <c r="C60" s="7" t="n"/>
+      <c r="D60" s="7" t="n"/>
+      <c r="E60" s="7" t="n"/>
+      <c r="F60" s="7" t="n"/>
+      <c r="G60" s="7" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>Telnet and Credentials</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="inlineStr">
-        <is>
-          <t>Telnet port for console</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="n"/>
-      <c r="C61" s="9" t="n"/>
-      <c r="D61" s="9" t="n"/>
-      <c r="E61" s="9" t="n"/>
-      <c r="F61" s="9" t="n"/>
-      <c r="G61" s="9" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Telnet port for console</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -4942,19 +5052,32 @@
       <c r="F62" s="9" t="n"/>
       <c r="G62" s="9" t="n"/>
     </row>
+    <row r="63">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="n"/>
+      <c r="C63" s="9" t="n"/>
+      <c r="D63" s="9" t="n"/>
+      <c r="E63" s="9" t="n"/>
+      <c r="F63" s="9" t="n"/>
+      <c r="G63" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A61:G61"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
@@ -4993,72 +5116,72 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G62" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -5066,6 +5189,78 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="70"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NUH Common Configuration Settings</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>NUH Common configuration settings for this deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>NUH Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Enable VSD configuration on NUH</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Enable Elasticsearch configuration on NUH</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B5" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5210,7 +5405,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NUH VRRP Configuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>NUH VRRP configuration settings for this deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>NUH VRRP</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Router ID</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Enable VRRP configuration</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>VRRP interface</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>VIP list</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5566,7 +5892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5940,7 +6266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6231,7 +6557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6303,7 +6629,1082 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B124"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="70"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Common Configuration Settings</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Common configuration settings for this deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Paths and Domains</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Nuage Unzip Files Directory</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Nuage Software Version</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>KVM Images Directory</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Domain Name</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Reports Directory</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>Branding Zip File</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Management FQDNs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Global VSD FQDN</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Global VSD API port</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Global SD-WAN Portal FQDN</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Global VSTAT FQDN</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Network Bridges</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Bridge</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Data Network Bridge</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>NSGv Access Bridge</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Network Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>NTP Server IP(s)</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>DNS server IP(s)</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Stats Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Statistics Out Deployment</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>Statistics Out Proxy Address</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Timezone</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Skip DNS Resolution Tests</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>Run VSD Cluster RTT Tests</t>
+        </is>
+      </c>
+      <c r="B29" s="9" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Ignore RTT Test Errors</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>Max VSD cluster RTT</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>Max VSD active-standby RTT</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>Run VSD Disk Performance Test</t>
+        </is>
+      </c>
+      <c r="B33" s="9" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>Total Size of Disk Performance Test Files</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>Minimum Disk Performance Threshold</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>Duration of Disk Performance Test in Seconds</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>Ignore Disk Performance Test Errors</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>Prompt before destroying components</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Backup and Restore</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>Backup directory</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Maximum number of backups to store.</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Backup set directory to be restored.</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>vCenter infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Cluster Name</t>
+        </is>
+      </c>
+      <c r="B45" s="7" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B47" s="7" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>vCenter VM Folder</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>vCenter common</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Resource Pool</t>
+        </is>
+      </c>
+      <c r="B51" s="7" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>OVF tool location</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Interfaces Disabled State</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Project Name</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Keystone URL</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>OpenStack Project Domain Name</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>OpenStack User Domain Name</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>OpenStack CA Certificate</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="inlineStr">
+        <is>
+          <t>SSH Public Key</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>XMPP TLS</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>OpenFlow TLS</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Licenses</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="inlineStr">
+        <is>
+          <t>VSD Standard License File</t>
+        </is>
+      </c>
+      <c r="B65" s="9" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="inlineStr">
+        <is>
+          <t>VSD Cluster License File</t>
+        </is>
+      </c>
+      <c r="B66" s="9" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>VSD License Required Days Left</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="inlineStr">
+        <is>
+          <t>VSD Ejabberd License File</t>
+        </is>
+      </c>
+      <c r="B68" s="9" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="inlineStr">
+        <is>
+          <t>SD-WAN Portal License Filename</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="inlineStr">
+        <is>
+          <t>NUH License File</t>
+        </is>
+      </c>
+      <c r="B70" s="9" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Yum and SSH Proxy</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>VSD yum update</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="inlineStr">
+        <is>
+          <t>VSTAT yum update</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="inlineStr">
+        <is>
+          <t>Proxy for Yum Updates</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
+        <is>
+          <t>SSH proxy configuration username</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="8" t="inlineStr">
+        <is>
+          <t>SSH proxy configuration host</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>Disk Space</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="inlineStr">
+        <is>
+          <t>VSD Disk Size</t>
+        </is>
+      </c>
+      <c r="B78" s="9" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="8" t="inlineStr">
+        <is>
+          <t>VSC Disk Size</t>
+        </is>
+      </c>
+      <c r="B79" s="9" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="inlineStr">
+        <is>
+          <t>VSTAT Disk Size</t>
+        </is>
+      </c>
+      <c r="B80" s="9" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="8" t="inlineStr">
+        <is>
+          <t>VCIN Disk Size</t>
+        </is>
+      </c>
+      <c r="B81" s="9" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="inlineStr">
+        <is>
+          <t>NSGV Disk Size</t>
+        </is>
+      </c>
+      <c r="B82" s="9" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>KVM RAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSD RAM</t>
+        </is>
+      </c>
+      <c r="B84" s="9" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSC RAM</t>
+        </is>
+      </c>
+      <c r="B85" s="9" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSTAT RAM</t>
+        </is>
+      </c>
+      <c r="B86" s="9" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="inlineStr">
+        <is>
+          <t>KVM VCIN RAM</t>
+        </is>
+      </c>
+      <c r="B87" s="9" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="inlineStr">
+        <is>
+          <t>KVM NUH RAM</t>
+        </is>
+      </c>
+      <c r="B88" s="9" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="inlineStr">
+        <is>
+          <t>KVM Webfilter RAM</t>
+        </is>
+      </c>
+      <c r="B89" s="9" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="inlineStr">
+        <is>
+          <t>KVM Portal RAM</t>
+        </is>
+      </c>
+      <c r="B90" s="9" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>KVM CPU</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSD CPU cores</t>
+        </is>
+      </c>
+      <c r="B92" s="9" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="inlineStr">
+        <is>
+          <t>VSC CPU cores</t>
+        </is>
+      </c>
+      <c r="B93" s="9" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSTAT CPU cores</t>
+        </is>
+      </c>
+      <c r="B94" s="9" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="8" t="inlineStr">
+        <is>
+          <t>KVM VNSUTIL CPU cores</t>
+        </is>
+      </c>
+      <c r="B95" s="9" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="8" t="inlineStr">
+        <is>
+          <t>KVM NUH CPU cores</t>
+        </is>
+      </c>
+      <c r="B96" s="9" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="8" t="inlineStr">
+        <is>
+          <t>KVM VCIN CPU cores</t>
+        </is>
+      </c>
+      <c r="B97" s="9" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="8" t="inlineStr">
+        <is>
+          <t>KVM Portal VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="8" t="inlineStr">
+        <is>
+          <t>KVM Webfilter VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B99" s="9" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>Authentication</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="8" t="inlineStr">
+        <is>
+          <t>VSD Architect URL</t>
+        </is>
+      </c>
+      <c r="B101" s="9" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="8" t="inlineStr">
+        <is>
+          <t>VSD Enterprise</t>
+        </is>
+      </c>
+      <c r="B102" s="9" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="8" t="inlineStr">
+        <is>
+          <t>VCIN URL</t>
+        </is>
+      </c>
+      <c r="B103" s="9" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="8" t="inlineStr">
+        <is>
+          <t>VCIN Enterprise</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>Hooks</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="8" t="inlineStr">
+        <is>
+          <t>hooks</t>
+        </is>
+      </c>
+      <c r="B106" s="9" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="8" t="inlineStr">
+        <is>
+          <t>skip actions</t>
+        </is>
+      </c>
+      <c r="B107" s="9" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>Component Health Report Email Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="8" t="inlineStr">
+        <is>
+          <t>Health Report SMTP Server</t>
+        </is>
+      </c>
+      <c r="B109" s="9" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="8" t="inlineStr">
+        <is>
+          <t>Health Report SMTP Server Port</t>
+        </is>
+      </c>
+      <c r="B110" s="9" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="8" t="inlineStr">
+        <is>
+          <t>Health Report Email From Address</t>
+        </is>
+      </c>
+      <c r="B111" s="9" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="8" t="inlineStr">
+        <is>
+          <t>Health Report Destination Email Address(es)</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>VSD Monit Email Alerts Configuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server</t>
+        </is>
+      </c>
+      <c r="B114" s="9" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server Port</t>
+        </is>
+      </c>
+      <c r="B115" s="9" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server Encryption Type</t>
+        </is>
+      </c>
+      <c r="B116" s="9" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="8" t="inlineStr">
+        <is>
+          <t>Use VSD Monit Eventqueue</t>
+        </is>
+      </c>
+      <c r="B117" s="9" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit From Email Address</t>
+        </is>
+      </c>
+      <c r="B118" s="9" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Reply-To Email Address</t>
+        </is>
+      </c>
+      <c r="B119" s="9" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Email Alert Subject</t>
+        </is>
+      </c>
+      <c r="B120" s="9" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Email Alert Message</t>
+        </is>
+      </c>
+      <c r="B121" s="9" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Destination Email Address</t>
+        </is>
+      </c>
+      <c r="B122" s="9" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Only Alert On</t>
+        </is>
+      </c>
+      <c r="B123" s="9" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Do Not Alert On</t>
+        </is>
+      </c>
+      <c r="B124" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A113:B113"/>
+  </mergeCells>
+  <dataValidations count="39">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B28" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B29" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B30" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B31" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B32" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B33" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B37" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B38" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B53" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B67" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B72" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B73" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B78" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B79" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B80" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B81" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B82" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B84" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B85" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B87" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B96" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B97" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B98" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B99" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B110" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B115" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B117" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6587,13 +7988,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6789,29 +8190,29 @@
       <c r="G17" s="9" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="G18" s="9" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>CPU and credentials</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="G19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B20" s="9" t="n"/>
@@ -6821,12 +8222,25 @@
       <c r="F20" s="9" t="n"/>
       <c r="G20" s="9" t="n"/>
     </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -6859,1053 +8273,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B120"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="70"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Common Configuration Settings</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Common configuration settings for this deployment</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Paths and Domains</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Nuage Unzip Files Directory</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>Nuage Software Version</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>KVM Images Directory</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Domain Name</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Reports Directory</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>Branding Zip File</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Management FQDNs</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Global VSD FQDN</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Global VSD API port</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Global SD-WAN Portal FQDN</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>Global VSTAT FQDN</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Network Bridges</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Data Network Bridge</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>NSGv Access Bridge</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Network Services</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>NTP Server IP(s)</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>DNS server IP(s)</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Options</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Timezone</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>Skip DNS Resolution Tests</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="inlineStr">
-        <is>
-          <t>Run VSD Cluster RTT Tests</t>
-        </is>
-      </c>
-      <c r="B26" s="9" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="inlineStr">
-        <is>
-          <t>Ignore RTT Test Errors</t>
-        </is>
-      </c>
-      <c r="B27" s="9" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>Max VSD cluster RTT</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8" t="inlineStr">
-        <is>
-          <t>Max VSD active-standby RTT</t>
-        </is>
-      </c>
-      <c r="B29" s="9" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
-        <is>
-          <t>Run VSD Disk Performance Test</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t>Total Size of Disk Performance Test Files</t>
-        </is>
-      </c>
-      <c r="B31" s="9" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="inlineStr">
-        <is>
-          <t>Minimum Disk Performance Threshold</t>
-        </is>
-      </c>
-      <c r="B32" s="9" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>Duration of Disk Performance Test in Seconds</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="inlineStr">
-        <is>
-          <t>Ignore Disk Performance Test Errors</t>
-        </is>
-      </c>
-      <c r="B34" s="9" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>Prompt before destroying components</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>Backup and Restore</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>Backup directory</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>Maximum number of backups to store.</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>Backup set directory to be restored.</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>vCenter infrastructure</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B42" s="7" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Host Reference</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B45" s="7" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>vCenter common</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Resource Pool</t>
-        </is>
-      </c>
-      <c r="B47" s="7" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="inlineStr">
-        <is>
-          <t>OVF tool location</t>
-        </is>
-      </c>
-      <c r="B48" s="7" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Interfaces Disabled State</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Project Name</t>
-        </is>
-      </c>
-      <c r="B51" s="7" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Keystone URL</t>
-        </is>
-      </c>
-      <c r="B52" s="7" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="8" t="inlineStr">
-        <is>
-          <t>OpenStack Project Domain Name</t>
-        </is>
-      </c>
-      <c r="B53" s="9" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>OpenStack User Domain Name</t>
-        </is>
-      </c>
-      <c r="B54" s="9" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>OpenStack CA Certificate</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>SSH Public Key</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>XMPP TLS</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="inlineStr">
-        <is>
-          <t>OpenFlow TLS</t>
-        </is>
-      </c>
-      <c r="B59" s="9" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Licenses</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="inlineStr">
-        <is>
-          <t>VSD Standard License File</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="8" t="inlineStr">
-        <is>
-          <t>VSD Cluster License File</t>
-        </is>
-      </c>
-      <c r="B62" s="9" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="8" t="inlineStr">
-        <is>
-          <t>VSD License Required Days Left</t>
-        </is>
-      </c>
-      <c r="B63" s="9" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="inlineStr">
-        <is>
-          <t>VSD Ejabberd License File</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="8" t="inlineStr">
-        <is>
-          <t>SD-WAN Portal License Filename</t>
-        </is>
-      </c>
-      <c r="B65" s="9" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="8" t="inlineStr">
-        <is>
-          <t>NUH License File</t>
-        </is>
-      </c>
-      <c r="B66" s="9" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>Yum and SSH Proxy</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="8" t="inlineStr">
-        <is>
-          <t>VSD yum update</t>
-        </is>
-      </c>
-      <c r="B68" s="9" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="8" t="inlineStr">
-        <is>
-          <t>VSTAT yum update</t>
-        </is>
-      </c>
-      <c r="B69" s="9" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="8" t="inlineStr">
-        <is>
-          <t>Proxy for Yum Updates</t>
-        </is>
-      </c>
-      <c r="B70" s="9" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="8" t="inlineStr">
-        <is>
-          <t>SSH proxy configuration username</t>
-        </is>
-      </c>
-      <c r="B71" s="9" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="8" t="inlineStr">
-        <is>
-          <t>SSH proxy configuration host</t>
-        </is>
-      </c>
-      <c r="B72" s="9" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>Disk Space</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="8" t="inlineStr">
-        <is>
-          <t>VSD Disk Size</t>
-        </is>
-      </c>
-      <c r="B74" s="9" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="8" t="inlineStr">
-        <is>
-          <t>VSC Disk Size</t>
-        </is>
-      </c>
-      <c r="B75" s="9" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="8" t="inlineStr">
-        <is>
-          <t>VSTAT Disk Size</t>
-        </is>
-      </c>
-      <c r="B76" s="9" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="8" t="inlineStr">
-        <is>
-          <t>VCIN Disk Size</t>
-        </is>
-      </c>
-      <c r="B77" s="9" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="8" t="inlineStr">
-        <is>
-          <t>NSGV Disk Size</t>
-        </is>
-      </c>
-      <c r="B78" s="9" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t>KVM RAM</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD RAM</t>
-        </is>
-      </c>
-      <c r="B80" s="9" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSC RAM</t>
-        </is>
-      </c>
-      <c r="B81" s="9" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSTAT RAM</t>
-        </is>
-      </c>
-      <c r="B82" s="9" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN RAM</t>
-        </is>
-      </c>
-      <c r="B83" s="9" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="8" t="inlineStr">
-        <is>
-          <t>KVM NUH RAM</t>
-        </is>
-      </c>
-      <c r="B84" s="9" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="8" t="inlineStr">
-        <is>
-          <t>KVM Webfilter RAM</t>
-        </is>
-      </c>
-      <c r="B85" s="9" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="8" t="inlineStr">
-        <is>
-          <t>KVM Portal RAM</t>
-        </is>
-      </c>
-      <c r="B86" s="9" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="inlineStr">
-        <is>
-          <t>KVM CPU</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD CPU cores</t>
-        </is>
-      </c>
-      <c r="B88" s="9" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="8" t="inlineStr">
-        <is>
-          <t>VSC CPU cores</t>
-        </is>
-      </c>
-      <c r="B89" s="9" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSTAT CPU cores</t>
-        </is>
-      </c>
-      <c r="B90" s="9" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="8" t="inlineStr">
-        <is>
-          <t>KVM VNSUTIL CPU cores</t>
-        </is>
-      </c>
-      <c r="B91" s="9" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="8" t="inlineStr">
-        <is>
-          <t>KVM NUH CPU cores</t>
-        </is>
-      </c>
-      <c r="B92" s="9" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN CPU cores</t>
-        </is>
-      </c>
-      <c r="B93" s="9" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="8" t="inlineStr">
-        <is>
-          <t>KVM Portal VM CPU cores</t>
-        </is>
-      </c>
-      <c r="B94" s="9" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="8" t="inlineStr">
-        <is>
-          <t>KVM Webfilter VM CPU cores</t>
-        </is>
-      </c>
-      <c r="B95" s="9" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="inlineStr">
-        <is>
-          <t>Authentication</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="8" t="inlineStr">
-        <is>
-          <t>VSD Architect URL</t>
-        </is>
-      </c>
-      <c r="B97" s="9" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="8" t="inlineStr">
-        <is>
-          <t>VSD Enterprise</t>
-        </is>
-      </c>
-      <c r="B98" s="9" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="8" t="inlineStr">
-        <is>
-          <t>VCIN URL</t>
-        </is>
-      </c>
-      <c r="B99" s="9" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="8" t="inlineStr">
-        <is>
-          <t>VCIN Enterprise</t>
-        </is>
-      </c>
-      <c r="B100" s="9" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="inlineStr">
-        <is>
-          <t>Hooks</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="8" t="inlineStr">
-        <is>
-          <t>hooks</t>
-        </is>
-      </c>
-      <c r="B102" s="9" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="8" t="inlineStr">
-        <is>
-          <t>skip actions</t>
-        </is>
-      </c>
-      <c r="B103" s="9" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="inlineStr">
-        <is>
-          <t>Component Health Report Email Options</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server</t>
-        </is>
-      </c>
-      <c r="B105" s="9" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server Port</t>
-        </is>
-      </c>
-      <c r="B106" s="9" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="8" t="inlineStr">
-        <is>
-          <t>Health Report Email From Address</t>
-        </is>
-      </c>
-      <c r="B107" s="9" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="8" t="inlineStr">
-        <is>
-          <t>Health Report Destination Email Address(es)</t>
-        </is>
-      </c>
-      <c r="B108" s="9" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
-        <is>
-          <t>VSD Monit Email Alerts Configuration</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server</t>
-        </is>
-      </c>
-      <c r="B110" s="9" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server Port</t>
-        </is>
-      </c>
-      <c r="B111" s="9" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server Encryption Type</t>
-        </is>
-      </c>
-      <c r="B112" s="9" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="8" t="inlineStr">
-        <is>
-          <t>Use VSD Monit Eventqueue</t>
-        </is>
-      </c>
-      <c r="B113" s="9" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit From Email Address</t>
-        </is>
-      </c>
-      <c r="B114" s="9" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Reply-To Email Address</t>
-        </is>
-      </c>
-      <c r="B115" s="9" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Email Alert Subject</t>
-        </is>
-      </c>
-      <c r="B116" s="9" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Email Alert Message</t>
-        </is>
-      </c>
-      <c r="B117" s="9" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Destination Email Address</t>
-        </is>
-      </c>
-      <c r="B118" s="9" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Only Alert On</t>
-        </is>
-      </c>
-      <c r="B119" s="9" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Do Not Alert On</t>
-        </is>
-      </c>
-      <c r="B120" s="9" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A109:B109"/>
-  </mergeCells>
-  <dataValidations count="38">
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B25" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B26" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B28" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B29" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B30" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B34" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B35" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B49" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B69" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B74" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B75" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B76" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B77" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B78" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B80" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B81" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B82" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B83" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B84" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B85" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B91" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B106" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B111" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B113" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8239,29 +8613,29 @@
       <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="n"/>
+      <c r="C30" s="9" t="n"/>
+      <c r="D30" s="9" t="n"/>
+      <c r="E30" s="9" t="n"/>
+      <c r="F30" s="9" t="n"/>
+      <c r="G30" s="9" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>AWS Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>AWS Region</t>
-        </is>
-      </c>
-      <c r="B31" s="7" t="n"/>
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID</t>
+          <t>AWS Region</t>
         </is>
       </c>
       <c r="B32" s="7" t="n"/>
@@ -8274,7 +8648,7 @@
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>AWS AMI ID</t>
         </is>
       </c>
       <c r="B33" s="7" t="n"/>
@@ -8287,7 +8661,7 @@
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B34" s="7" t="n"/>
@@ -8300,7 +8674,7 @@
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>AWS Management ENI ID</t>
+          <t>AWS Keypair Name</t>
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
@@ -8313,7 +8687,7 @@
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>AWS Data ENI ID</t>
+          <t>AWS Management ENI ID</t>
         </is>
       </c>
       <c r="B36" s="7" t="n"/>
@@ -8324,29 +8698,29 @@
       <c r="G36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>AWS Data ENI ID</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="n"/>
+      <c r="C37" s="7" t="n"/>
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
+      <c r="F37" s="7" t="n"/>
+      <c r="G37" s="7" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>OpenStack Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
-      <c r="D38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
-      <c r="F38" s="7" t="n"/>
-      <c r="G38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B39" s="7" t="n"/>
@@ -8359,7 +8733,7 @@
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Availability Zone</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B40" s="7" t="n"/>
@@ -8372,7 +8746,7 @@
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Management Network</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B41" s="7" t="n"/>
@@ -8385,7 +8759,7 @@
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Management Subnet</t>
+          <t>OpenStack Management Network</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
@@ -8398,7 +8772,7 @@
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Management Port Name</t>
+          <t>OpenStack Management Subnet</t>
         </is>
       </c>
       <c r="B43" s="7" t="n"/>
@@ -8411,7 +8785,7 @@
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Management Port Security Groups</t>
+          <t>OpenStack Management Port Name</t>
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
@@ -8424,7 +8798,7 @@
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Data Network</t>
+          <t>OpenStack Management Port Security Groups</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -8437,7 +8811,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Data Subnet</t>
+          <t>OpenStack Data Network</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -8450,7 +8824,7 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Data Port Name</t>
+          <t>OpenStack Data Subnet</t>
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
@@ -8463,7 +8837,7 @@
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Data Port Security Groups</t>
+          <t>OpenStack Data Port Name</t>
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
@@ -8474,29 +8848,29 @@
       <c r="G48" s="7" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Data Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n"/>
+      <c r="C49" s="7" t="n"/>
+      <c r="D49" s="7" t="n"/>
+      <c r="E49" s="7" t="n"/>
+      <c r="F49" s="7" t="n"/>
+      <c r="G49" s="7" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>Other Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B50" s="9" t="n"/>
-      <c r="C50" s="9" t="n"/>
-      <c r="D50" s="9" t="n"/>
-      <c r="E50" s="9" t="n"/>
-      <c r="F50" s="9" t="n"/>
-      <c r="G50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>Health monitoring agent</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
@@ -8509,7 +8883,7 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Health monitoring agent</t>
         </is>
       </c>
       <c r="B52" s="9" t="n"/>
@@ -8518,6 +8892,19 @@
       <c r="E52" s="9" t="n"/>
       <c r="F52" s="9" t="n"/>
       <c r="G52" s="9" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="n"/>
+      <c r="C53" s="9" t="n"/>
+      <c r="D53" s="9" t="n"/>
+      <c r="E53" s="9" t="n"/>
+      <c r="F53" s="9" t="n"/>
+      <c r="G53" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8527,9 +8914,9 @@
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A50:G50"/>
   </mergeCells>
   <dataValidations count="18">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -8556,22 +8943,22 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G11" type="list">
       <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8580,7 +8967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8804,7 +9191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9084,7 +9471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9390,1352 +9777,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Virtualized Services Directory</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Specify configuration for Nuage VSDs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Management Network</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Hostname</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Management IP Address</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Management Network Prefix Length</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Management Network Gateway</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="n"/>
-      <c r="C9" s="9" t="n"/>
-      <c r="D9" s="9" t="n"/>
-      <c r="E9" s="9" t="n"/>
-      <c r="F9" s="9" t="n"/>
-      <c r="G9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>VM and Target Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>VM name</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Upgrade VM Name</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>Target Server Type</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>Target Server IP or FQDN</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>vCenter Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter Name</t>
-        </is>
-      </c>
-      <c r="B16" s="9" t="n"/>
-      <c r="C16" s="9" t="n"/>
-      <c r="D16" s="9" t="n"/>
-      <c r="E16" s="9" t="n"/>
-      <c r="F16" s="9" t="n"/>
-      <c r="G16" s="9" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B17" s="9" t="n"/>
-      <c r="C17" s="9" t="n"/>
-      <c r="D17" s="9" t="n"/>
-      <c r="E17" s="9" t="n"/>
-      <c r="F17" s="9" t="n"/>
-      <c r="G17" s="9" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Host Reference</t>
-        </is>
-      </c>
-      <c r="B18" s="9" t="n"/>
-      <c r="C18" s="9" t="n"/>
-      <c r="D18" s="9" t="n"/>
-      <c r="E18" s="9" t="n"/>
-      <c r="F18" s="9" t="n"/>
-      <c r="G18" s="9" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="G19" s="9" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>AWS Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>AWS Region</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="n"/>
-      <c r="C22" s="7" t="n"/>
-      <c r="D22" s="7" t="n"/>
-      <c r="E22" s="7" t="n"/>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>AWS VSD AMI ID</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="n"/>
-      <c r="C23" s="7" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Upgrade AWS VSD AMI ID</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>AWS Instance Type</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="7" t="n"/>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>AWS Keypair Name</t>
-        </is>
-      </c>
-      <c r="B26" s="7" t="n"/>
-      <c r="C26" s="7" t="n"/>
-      <c r="D26" s="7" t="n"/>
-      <c r="E26" s="7" t="n"/>
-      <c r="F26" s="7" t="n"/>
-      <c r="G26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>AWS Management ENI ID</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
-      <c r="G27" s="7" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Flavor</t>
-        </is>
-      </c>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
-      <c r="G30" s="7" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Availability Zone</t>
-        </is>
-      </c>
-      <c r="B31" s="7" t="n"/>
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Network</t>
-        </is>
-      </c>
-      <c r="B32" s="7" t="n"/>
-      <c r="C32" s="7" t="n"/>
-      <c r="D32" s="7" t="n"/>
-      <c r="E32" s="7" t="n"/>
-      <c r="F32" s="7" t="n"/>
-      <c r="G32" s="7" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Subnet</t>
-        </is>
-      </c>
-      <c r="B33" s="7" t="n"/>
-      <c r="C33" s="7" t="n"/>
-      <c r="D33" s="7" t="n"/>
-      <c r="E33" s="7" t="n"/>
-      <c r="F33" s="7" t="n"/>
-      <c r="G33" s="7" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Port Name</t>
-        </is>
-      </c>
-      <c r="B34" s="7" t="n"/>
-      <c r="C34" s="7" t="n"/>
-      <c r="D34" s="7" t="n"/>
-      <c r="E34" s="7" t="n"/>
-      <c r="F34" s="7" t="n"/>
-      <c r="G34" s="7" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Port Security Groups</t>
-        </is>
-      </c>
-      <c r="B35" s="7" t="n"/>
-      <c r="C35" s="7" t="n"/>
-      <c r="D35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
-      <c r="F35" s="7" t="n"/>
-      <c r="G35" s="7" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Project Name</t>
-        </is>
-      </c>
-      <c r="B36" s="7" t="n"/>
-      <c r="C36" s="7" t="n"/>
-      <c r="D36" s="7" t="n"/>
-      <c r="E36" s="7" t="n"/>
-      <c r="F36" s="7" t="n"/>
-      <c r="G36" s="7" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Keystone URL</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
-      <c r="F37" s="7" t="n"/>
-      <c r="G37" s="7" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>VSD Options</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B39" s="9" t="n"/>
-      <c r="C39" s="9" t="n"/>
-      <c r="D39" s="9" t="n"/>
-      <c r="E39" s="9" t="n"/>
-      <c r="F39" s="9" t="n"/>
-      <c r="G39" s="9" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="8" t="inlineStr">
-        <is>
-          <t>Failed login attempts</t>
-        </is>
-      </c>
-      <c r="B40" s="9" t="n"/>
-      <c r="C40" s="9" t="n"/>
-      <c r="D40" s="9" t="n"/>
-      <c r="E40" s="9" t="n"/>
-      <c r="F40" s="9" t="n"/>
-      <c r="G40" s="9" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="8" t="inlineStr">
-        <is>
-          <t>Failed login lockout time</t>
-        </is>
-      </c>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="9" t="n"/>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="9" t="n"/>
-      <c r="F41" s="9" t="n"/>
-      <c r="G41" s="9" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="8" t="inlineStr">
-        <is>
-          <t>Advanced API Access Logging</t>
-        </is>
-      </c>
-      <c r="B42" s="9" t="n"/>
-      <c r="C42" s="9" t="n"/>
-      <c r="D42" s="9" t="n"/>
-      <c r="E42" s="9" t="n"/>
-      <c r="F42" s="9" t="n"/>
-      <c r="G42" s="9" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="8" t="inlineStr">
-        <is>
-          <t>Health monitoring agent</t>
-        </is>
-      </c>
-      <c r="B43" s="9" t="n"/>
-      <c r="C43" s="9" t="n"/>
-      <c r="D43" s="9" t="n"/>
-      <c r="E43" s="9" t="n"/>
-      <c r="F43" s="9" t="n"/>
-      <c r="G43" s="9" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>Security and Certificates</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>TLS version</t>
-        </is>
-      </c>
-      <c r="B45" s="9" t="n"/>
-      <c r="C45" s="9" t="n"/>
-      <c r="D45" s="9" t="n"/>
-      <c r="E45" s="9" t="n"/>
-      <c r="F45" s="9" t="n"/>
-      <c r="G45" s="9" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>Path to CA certificate pem file</t>
-        </is>
-      </c>
-      <c r="B46" s="9" t="n"/>
-      <c r="C46" s="9" t="n"/>
-      <c r="D46" s="9" t="n"/>
-      <c r="E46" s="9" t="n"/>
-      <c r="F46" s="9" t="n"/>
-      <c r="G46" s="9" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>Path to intermediate certificate pem file</t>
-        </is>
-      </c>
-      <c r="B47" s="9" t="n"/>
-      <c r="C47" s="9" t="n"/>
-      <c r="D47" s="9" t="n"/>
-      <c r="E47" s="9" t="n"/>
-      <c r="F47" s="9" t="n"/>
-      <c r="G47" s="9" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="8" t="inlineStr">
-        <is>
-          <t>Path to certificate pem file</t>
-        </is>
-      </c>
-      <c r="B48" s="9" t="n"/>
-      <c r="C48" s="9" t="n"/>
-      <c r="D48" s="9" t="n"/>
-      <c r="E48" s="9" t="n"/>
-      <c r="F48" s="9" t="n"/>
-      <c r="G48" s="9" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>Credentials set name</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="n"/>
-      <c r="C49" s="9" t="n"/>
-      <c r="D49" s="9" t="n"/>
-      <c r="E49" s="9" t="n"/>
-      <c r="F49" s="9" t="n"/>
-      <c r="G49" s="9" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A44:G44"/>
-  </mergeCells>
-  <dataValidations count="42">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B45" type="list">
-      <formula1>"1.0,1.2"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C45" type="list">
-      <formula1>"1.0,1.2"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D45" type="list">
-      <formula1>"1.0,1.2"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E45" type="list">
-      <formula1>"1.0,1.2"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F45" type="list">
-      <formula1>"1.0,1.2"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G45" type="list">
-      <formula1>"1.0,1.2"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Virtualized Services Controller</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Specify configuration for Nuage VSCs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Management Network</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Hostname</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="n"/>
-      <c r="C5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Management IP address</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Management Network Prefix Length</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Management Network Gateway</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Management Network Static Routes</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>Control Network</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Control IP address</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Control Netmask Prefix Length</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Vlan ID for Control Interface</t>
-        </is>
-      </c>
-      <c r="B13" s="9" t="n"/>
-      <c r="C13" s="9" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>Control IP address for VPRN Interface</t>
-        </is>
-      </c>
-      <c r="B14" s="9" t="n"/>
-      <c r="C14" s="9" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>List of control IP VPRNs</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>System info</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>System IP address</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>VM name</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>System Name</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>XMPP username</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Target Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>Target Server type</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>Target Server IP or FQDN</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Bridges and Private IP</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="n"/>
-      <c r="C25" s="9" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="inlineStr">
-        <is>
-          <t>Data Network Bridge</t>
-        </is>
-      </c>
-      <c r="B26" s="9" t="n"/>
-      <c r="C26" s="9" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="inlineStr">
-        <is>
-          <t>VSD FQDN</t>
-        </is>
-      </c>
-      <c r="B27" s="9" t="n"/>
-      <c r="C27" s="9" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>Private Management IP</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="n"/>
-      <c r="C28" s="9" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8" t="inlineStr">
-        <is>
-          <t>Private Control IP Address</t>
-        </is>
-      </c>
-      <c r="B29" s="9" t="n"/>
-      <c r="C29" s="9" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
-        <is>
-          <t>Private Data Gateway IP Address</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="n"/>
-      <c r="C30" s="9" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t>List of route reflector IPs</t>
-        </is>
-      </c>
-      <c r="B31" s="9" t="n"/>
-      <c r="C31" s="9" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>vCenter Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter Name</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="n"/>
-      <c r="C33" s="9" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B34" s="9" t="n"/>
-      <c r="C34" s="9" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Host Reference</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n"/>
-      <c r="C35" s="9" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B36" s="9" t="n"/>
-      <c r="C36" s="9" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="n"/>
-      <c r="C39" s="7" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Flavor</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="n"/>
-      <c r="C40" s="7" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Availability Zone</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Mgmt Network</t>
-        </is>
-      </c>
-      <c r="B42" s="7" t="n"/>
-      <c r="C42" s="7" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Mgmt Subnet</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Mgmt Port Name</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n"/>
-      <c r="C44" s="7" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Mgmt Port Security Groups</t>
-        </is>
-      </c>
-      <c r="B45" s="7" t="n"/>
-      <c r="C45" s="7" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Control Network</t>
-        </is>
-      </c>
-      <c r="B46" s="7" t="n"/>
-      <c r="C46" s="7" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Control Subnet</t>
-        </is>
-      </c>
-      <c r="B47" s="7" t="n"/>
-      <c r="C47" s="7" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Control Port Name</t>
-        </is>
-      </c>
-      <c r="B48" s="7" t="n"/>
-      <c r="C48" s="7" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Control Port Security Groups</t>
-        </is>
-      </c>
-      <c r="B49" s="7" t="n"/>
-      <c r="C49" s="7" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Port Name</t>
-        </is>
-      </c>
-      <c r="B50" s="7" t="n"/>
-      <c r="C50" s="7" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Port Security Groups</t>
-        </is>
-      </c>
-      <c r="B51" s="7" t="n"/>
-      <c r="C51" s="7" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>Health Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of BGP neighbors</t>
-        </is>
-      </c>
-      <c r="B53" s="9" t="n"/>
-      <c r="C53" s="9" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of vswitches</t>
-        </is>
-      </c>
-      <c r="B54" s="9" t="n"/>
-      <c r="C54" s="9" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of host vports</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-      <c r="C55" s="9" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of VM vports</t>
-        </is>
-      </c>
-      <c r="B56" s="9" t="n"/>
-      <c r="C56" s="9" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of gateway ports</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-      <c r="C57" s="9" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>Certificates and credentials</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="inlineStr">
-        <is>
-          <t>Ejabberd user id</t>
-        </is>
-      </c>
-      <c r="B59" s="9" t="n"/>
-      <c r="C59" s="9" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="8" t="inlineStr">
-        <is>
-          <t>Private key path</t>
-        </is>
-      </c>
-      <c r="B60" s="9" t="n"/>
-      <c r="C60" s="9" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="inlineStr">
-        <is>
-          <t>Certificate path</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="n"/>
-      <c r="C61" s="9" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="8" t="inlineStr">
-        <is>
-          <t>CA certificate path</t>
-        </is>
-      </c>
-      <c r="B62" s="9" t="n"/>
-      <c r="C62" s="9" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="8" t="inlineStr">
-        <is>
-          <t>XMPP domain</t>
-        </is>
-      </c>
-      <c r="B63" s="9" t="n"/>
-      <c r="C63" s="9" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="inlineStr">
-        <is>
-          <t>Credentials set name</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="n"/>
-      <c r="C64" s="9" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>VSC Options</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B66" s="9" t="n"/>
-      <c r="C66" s="9" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="8" t="inlineStr">
-        <is>
-          <t>Harden VSC</t>
-        </is>
-      </c>
-      <c r="B67" s="9" t="n"/>
-      <c r="C67" s="9" t="n"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="8" t="inlineStr">
-        <is>
-          <t>Paths to VSC Config Files</t>
-        </is>
-      </c>
-      <c r="B68" s="9" t="n"/>
-      <c r="C68" s="9" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A65:C65"/>
-  </mergeCells>
-  <dataValidations count="20">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
-      <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
-      <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B53" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C53" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B54" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C54" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B67" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C67" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10756,21 +9797,21 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>VSD Statistics (Elasticsearch)</t>
+          <t>Virtualized Services Directory</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Specify configuration for Nuage VSD stats (VSTAT).</t>
+          <t>Specify configuration for Nuage VSDs.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Management Interface</t>
+          <t>Management Network</t>
         </is>
       </c>
     </row>
@@ -10790,7 +9831,7 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Management IP address</t>
+          <t>Management IP Address</t>
         </is>
       </c>
       <c r="B6" s="5" t="n"/>
@@ -10827,6 +9868,1374 @@
       <c r="G8" s="5" t="n"/>
     </row>
     <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Management Network Bridge</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>VM and Target Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Upgrade VM Name</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Target Server Type</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="9" t="n"/>
+      <c r="F16" s="9" t="n"/>
+      <c r="G16" s="9" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Cluster Name</t>
+        </is>
+      </c>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="9" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="G18" s="9" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="G19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>vCenter VM Folder</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="7" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>AWS Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>AWS Region</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="n"/>
+      <c r="C23" s="7" t="n"/>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="7" t="n"/>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="7" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>AWS VSD AMI ID</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n"/>
+      <c r="C24" s="7" t="n"/>
+      <c r="D24" s="7" t="n"/>
+      <c r="E24" s="7" t="n"/>
+      <c r="F24" s="7" t="n"/>
+      <c r="G24" s="7" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>Upgrade AWS VSD AMI ID</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n"/>
+      <c r="C25" s="7" t="n"/>
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="7" t="n"/>
+      <c r="F25" s="7" t="n"/>
+      <c r="G25" s="7" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>AWS Instance Type</t>
+        </is>
+      </c>
+      <c r="B26" s="7" t="n"/>
+      <c r="C26" s="7" t="n"/>
+      <c r="D26" s="7" t="n"/>
+      <c r="E26" s="7" t="n"/>
+      <c r="F26" s="7" t="n"/>
+      <c r="G26" s="7" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>AWS Keypair Name</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="7" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>AWS Management ENI ID</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="7" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Image</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
+      <c r="F30" s="7" t="n"/>
+      <c r="G30" s="7" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Flavor</t>
+        </is>
+      </c>
+      <c r="B31" s="7" t="n"/>
+      <c r="C31" s="7" t="n"/>
+      <c r="D31" s="7" t="n"/>
+      <c r="E31" s="7" t="n"/>
+      <c r="F31" s="7" t="n"/>
+      <c r="G31" s="7" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Availability Zone</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="n"/>
+      <c r="C32" s="7" t="n"/>
+      <c r="D32" s="7" t="n"/>
+      <c r="E32" s="7" t="n"/>
+      <c r="F32" s="7" t="n"/>
+      <c r="G32" s="7" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Network</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="n"/>
+      <c r="C33" s="7" t="n"/>
+      <c r="D33" s="7" t="n"/>
+      <c r="E33" s="7" t="n"/>
+      <c r="F33" s="7" t="n"/>
+      <c r="G33" s="7" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Subnet</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="n"/>
+      <c r="C34" s="7" t="n"/>
+      <c r="D34" s="7" t="n"/>
+      <c r="E34" s="7" t="n"/>
+      <c r="F34" s="7" t="n"/>
+      <c r="G34" s="7" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Name</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
+      <c r="D35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
+      <c r="F35" s="7" t="n"/>
+      <c r="G35" s="7" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="n"/>
+      <c r="C36" s="7" t="n"/>
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
+      <c r="F36" s="7" t="n"/>
+      <c r="G36" s="7" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Project Name</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="n"/>
+      <c r="C37" s="7" t="n"/>
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
+      <c r="F37" s="7" t="n"/>
+      <c r="G37" s="7" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Keystone URL</t>
+        </is>
+      </c>
+      <c r="B38" s="7" t="n"/>
+      <c r="C38" s="7" t="n"/>
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="7" t="n"/>
+      <c r="F38" s="7" t="n"/>
+      <c r="G38" s="7" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>VSD Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
+      <c r="D40" s="9" t="n"/>
+      <c r="E40" s="9" t="n"/>
+      <c r="F40" s="9" t="n"/>
+      <c r="G40" s="9" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t>Failed login attempts</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="n"/>
+      <c r="C41" s="9" t="n"/>
+      <c r="D41" s="9" t="n"/>
+      <c r="E41" s="9" t="n"/>
+      <c r="F41" s="9" t="n"/>
+      <c r="G41" s="9" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="inlineStr">
+        <is>
+          <t>Failed login lockout time</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="n"/>
+      <c r="C42" s="9" t="n"/>
+      <c r="D42" s="9" t="n"/>
+      <c r="E42" s="9" t="n"/>
+      <c r="F42" s="9" t="n"/>
+      <c r="G42" s="9" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="inlineStr">
+        <is>
+          <t>Advanced API Access Logging</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
+      <c r="D43" s="9" t="n"/>
+      <c r="E43" s="9" t="n"/>
+      <c r="F43" s="9" t="n"/>
+      <c r="G43" s="9" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="inlineStr">
+        <is>
+          <t>Health monitoring agent</t>
+        </is>
+      </c>
+      <c r="B44" s="9" t="n"/>
+      <c r="C44" s="9" t="n"/>
+      <c r="D44" s="9" t="n"/>
+      <c r="E44" s="9" t="n"/>
+      <c r="F44" s="9" t="n"/>
+      <c r="G44" s="9" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>Security and Certificates</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t>TLS version</t>
+        </is>
+      </c>
+      <c r="B46" s="9" t="n"/>
+      <c r="C46" s="9" t="n"/>
+      <c r="D46" s="9" t="n"/>
+      <c r="E46" s="9" t="n"/>
+      <c r="F46" s="9" t="n"/>
+      <c r="G46" s="9" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="inlineStr">
+        <is>
+          <t>Path to CA certificate pem file</t>
+        </is>
+      </c>
+      <c r="B47" s="9" t="n"/>
+      <c r="C47" s="9" t="n"/>
+      <c r="D47" s="9" t="n"/>
+      <c r="E47" s="9" t="n"/>
+      <c r="F47" s="9" t="n"/>
+      <c r="G47" s="9" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="inlineStr">
+        <is>
+          <t>Path to intermediate certificate pem file</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="n"/>
+      <c r="C48" s="9" t="n"/>
+      <c r="D48" s="9" t="n"/>
+      <c r="E48" s="9" t="n"/>
+      <c r="F48" s="9" t="n"/>
+      <c r="G48" s="9" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="inlineStr">
+        <is>
+          <t>Path to certificate pem file</t>
+        </is>
+      </c>
+      <c r="B49" s="9" t="n"/>
+      <c r="C49" s="9" t="n"/>
+      <c r="D49" s="9" t="n"/>
+      <c r="E49" s="9" t="n"/>
+      <c r="F49" s="9" t="n"/>
+      <c r="G49" s="9" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B50" s="9" t="n"/>
+      <c r="C50" s="9" t="n"/>
+      <c r="D50" s="9" t="n"/>
+      <c r="E50" s="9" t="n"/>
+      <c r="F50" s="9" t="n"/>
+      <c r="G50" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A45:G45"/>
+  </mergeCells>
+  <dataValidations count="42">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="list">
+      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="list">
+      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D13" type="list">
+      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E13" type="list">
+      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F13" type="list">
+      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="list">
+      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B46" type="list">
+      <formula1>"1.0,1.2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C46" type="list">
+      <formula1>"1.0,1.2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D46" type="list">
+      <formula1>"1.0,1.2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E46" type="list">
+      <formula1>"1.0,1.2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F46" type="list">
+      <formula1>"1.0,1.2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G46" type="list">
+      <formula1>"1.0,1.2"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Virtualized Services Controller</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Specify configuration for Nuage VSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Management Network</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>Hostname</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Management IP address</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Management Network Prefix Length</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Management Network Gateway</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Static Routes</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Control Network</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Control IP address</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Control Netmask Prefix Length</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>Vlan ID for Control Interface</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="n"/>
+      <c r="C13" s="9" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>Control IP address for VPRN Interface</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="n"/>
+      <c r="C14" s="9" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>List of control IP VPRNs</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>System info</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>System IP address</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>System Name</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>XMPP username</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Target Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Target Server type</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="5" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Bridges and Private IP</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>Management Network Bridge</t>
+        </is>
+      </c>
+      <c r="B25" s="9" t="n"/>
+      <c r="C25" s="9" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>Data Network Bridge</t>
+        </is>
+      </c>
+      <c r="B26" s="9" t="n"/>
+      <c r="C26" s="9" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>VSD FQDN</t>
+        </is>
+      </c>
+      <c r="B27" s="9" t="n"/>
+      <c r="C27" s="9" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Private Management IP</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="n"/>
+      <c r="C28" s="9" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>Private Control IP Address</t>
+        </is>
+      </c>
+      <c r="B29" s="9" t="n"/>
+      <c r="C29" s="9" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Private Data Gateway IP Address</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="n"/>
+      <c r="C30" s="9" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>List of route reflector IPs</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="n"/>
+      <c r="C31" s="9" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B33" s="9" t="n"/>
+      <c r="C33" s="9" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Cluster Name</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="n"/>
+      <c r="C34" s="9" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="n"/>
+      <c r="C35" s="9" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="n"/>
+      <c r="C36" s="9" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>vCenter VM Folder</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="n"/>
+      <c r="C37" s="7" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Image</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="n"/>
+      <c r="C40" s="7" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Flavor</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n"/>
+      <c r="C41" s="7" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Availability Zone</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n"/>
+      <c r="C42" s="7" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Mgmt Network</t>
+        </is>
+      </c>
+      <c r="B43" s="7" t="n"/>
+      <c r="C43" s="7" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Mgmt Subnet</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="n"/>
+      <c r="C44" s="7" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Mgmt Port Name</t>
+        </is>
+      </c>
+      <c r="B45" s="7" t="n"/>
+      <c r="C45" s="7" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Mgmt Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="n"/>
+      <c r="C46" s="7" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Network</t>
+        </is>
+      </c>
+      <c r="B47" s="7" t="n"/>
+      <c r="C47" s="7" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Subnet</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="n"/>
+      <c r="C48" s="7" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Name</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n"/>
+      <c r="C49" s="7" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B50" s="7" t="n"/>
+      <c r="C50" s="7" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Name</t>
+        </is>
+      </c>
+      <c r="B51" s="7" t="n"/>
+      <c r="C51" s="7" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="n"/>
+      <c r="C52" s="7" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>Health Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of BGP neighbors</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="n"/>
+      <c r="C54" s="9" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of vswitches</t>
+        </is>
+      </c>
+      <c r="B55" s="9" t="n"/>
+      <c r="C55" s="9" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of host vports</t>
+        </is>
+      </c>
+      <c r="B56" s="9" t="n"/>
+      <c r="C56" s="9" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of VM vports</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="n"/>
+      <c r="C57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of gateway ports</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="n"/>
+      <c r="C58" s="9" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>Certificates and credentials</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>Ejabberd user id</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="n"/>
+      <c r="C60" s="9" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="inlineStr">
+        <is>
+          <t>Private key path</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="n"/>
+      <c r="C61" s="9" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>Certificate path</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="n"/>
+      <c r="C62" s="9" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>CA certificate path</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="n"/>
+      <c r="C63" s="9" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="inlineStr">
+        <is>
+          <t>XMPP domain</t>
+        </is>
+      </c>
+      <c r="B64" s="9" t="n"/>
+      <c r="C64" s="9" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B65" s="9" t="n"/>
+      <c r="C65" s="9" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>VSC Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+      <c r="C67" s="9" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="inlineStr">
+        <is>
+          <t>Harden VSC</t>
+        </is>
+      </c>
+      <c r="B68" s="9" t="n"/>
+      <c r="C68" s="9" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="inlineStr">
+        <is>
+          <t>Paths to VSC Config Files</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="n"/>
+      <c r="C69" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A66:C66"/>
+  </mergeCells>
+  <dataValidations count="20">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
+      <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+      <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C68" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>VSD Statistics (Elasticsearch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Specify configuration for Nuage VSD stats (VSTAT).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Management Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Hostname</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Management IP address</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Management Network Prefix Length</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Management Network Gateway</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+    <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
           <t>VM and Target Server</t>
@@ -10984,29 +11393,29 @@
       <c r="G21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="n"/>
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="9" t="n"/>
+      <c r="E22" s="9" t="n"/>
+      <c r="F22" s="9" t="n"/>
+      <c r="G22" s="9" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>AWS Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>AWS AMI ID</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="n"/>
-      <c r="C23" s="7" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID for Upgrading Instance</t>
+          <t>AWS AMI ID</t>
         </is>
       </c>
       <c r="B24" s="7" t="n"/>
@@ -11019,7 +11428,7 @@
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>AWS AMI ID for Upgrading Instance</t>
         </is>
       </c>
       <c r="B25" s="7" t="n"/>
@@ -11032,7 +11441,7 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
@@ -11045,7 +11454,7 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>AWS Management ENI ID</t>
+          <t>AWS Keypair Name</t>
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
@@ -11056,29 +11465,29 @@
       <c r="G27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>AWS Management ENI ID</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="7" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>OpenStack Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B30" s="7" t="n"/>
@@ -11091,7 +11500,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Availability Zone</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B31" s="7" t="n"/>
@@ -11104,7 +11513,7 @@
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Network</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B32" s="7" t="n"/>
@@ -11117,7 +11526,7 @@
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Subnet</t>
+          <t>OpenStack Network</t>
         </is>
       </c>
       <c r="B33" s="7" t="n"/>
@@ -11130,7 +11539,7 @@
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Subnet</t>
         </is>
       </c>
       <c r="B34" s="7" t="n"/>
@@ -11143,7 +11552,7 @@
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Port Name</t>
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
@@ -11154,29 +11563,29 @@
       <c r="G35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="n"/>
+      <c r="C36" s="7" t="n"/>
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
+      <c r="F36" s="7" t="n"/>
+      <c r="G36" s="7" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>NFS Backup Configuration</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>NFS backup location</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
-      <c r="F37" s="7" t="n"/>
-      <c r="G37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>Interval to restore snapshots</t>
+          <t>NFS backup location</t>
         </is>
       </c>
       <c r="B38" s="7" t="n"/>
@@ -11189,7 +11598,7 @@
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>Interval to create snapshots</t>
+          <t>Interval to restore snapshots</t>
         </is>
       </c>
       <c r="B39" s="7" t="n"/>
@@ -11202,7 +11611,7 @@
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>Backup repository name</t>
+          <t>Interval to create snapshots</t>
         </is>
       </c>
       <c r="B40" s="7" t="n"/>
@@ -11213,29 +11622,29 @@
       <c r="G40" s="7" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Backup repository name</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n"/>
+      <c r="C41" s="7" t="n"/>
+      <c r="D41" s="7" t="n"/>
+      <c r="E41" s="7" t="n"/>
+      <c r="F41" s="7" t="n"/>
+      <c r="G41" s="7" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>Extra Disk</t>
         </is>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>Add extra disk</t>
-        </is>
-      </c>
-      <c r="B42" s="7" t="n"/>
-      <c r="C42" s="7" t="n"/>
-      <c r="D42" s="7" t="n"/>
-      <c r="E42" s="7" t="n"/>
-      <c r="F42" s="7" t="n"/>
-      <c r="G42" s="7" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>Extra disk size in GB</t>
+          <t>Add extra disk</t>
         </is>
       </c>
       <c r="B43" s="7" t="n"/>
@@ -11248,7 +11657,7 @@
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>Extra disk image path on hypervisor</t>
+          <t>Extra disk size in GB</t>
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
@@ -11261,7 +11670,7 @@
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>Extra disk image file prefix</t>
+          <t>Extra disk image path on hypervisor</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -11272,29 +11681,29 @@
       <c r="G45" s="7" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>Extra disk image file prefix</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="n"/>
+      <c r="C46" s="7" t="n"/>
+      <c r="D46" s="7" t="n"/>
+      <c r="E46" s="7" t="n"/>
+      <c r="F46" s="7" t="n"/>
+      <c r="G46" s="7" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>Other configuration</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B47" s="9" t="n"/>
-      <c r="C47" s="9" t="n"/>
-      <c r="D47" s="9" t="n"/>
-      <c r="E47" s="9" t="n"/>
-      <c r="F47" s="9" t="n"/>
-      <c r="G47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>Enable VSS UI</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B48" s="9" t="n"/>
@@ -11307,7 +11716,7 @@
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
-          <t>Health monitoring agent</t>
+          <t>Enable VSS UI</t>
         </is>
       </c>
       <c r="B49" s="9" t="n"/>
@@ -11320,7 +11729,7 @@
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Health monitoring agent</t>
         </is>
       </c>
       <c r="B50" s="9" t="n"/>
@@ -11330,16 +11739,29 @@
       <c r="F50" s="9" t="n"/>
       <c r="G50" s="9" t="n"/>
     </row>
+    <row r="51">
+      <c r="A51" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="n"/>
+      <c r="C51" s="9" t="n"/>
+      <c r="D51" s="9" t="n"/>
+      <c r="E51" s="9" t="n"/>
+      <c r="F51" s="9" t="n"/>
+      <c r="G51" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A47:G47"/>
   </mergeCells>
   <dataValidations count="48">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -11366,76 +11788,76 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
       <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G38" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G39" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12539,7 +12961,7 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A25:G25"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="12">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
       <formula1>"kvm,vcenter"</formula1>
     </dataValidation>
@@ -12558,6 +12980,12 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="list">
       <formula1>"kvm,vcenter"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -19,17 +19,19 @@
     <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nuh external interfaces" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nuhs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Portals" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Proxys" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Stcv global" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Stcvs" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Vcins" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Vnsutils" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Vrss" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Vsrs" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Webfilters" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Portals" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -327,6 +329,7 @@
     <author>vcenter_cluster</author>
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>aws_region</author>
     <author>aws_ami_id</author>
     <author>aws_upgrade_ami_id</author>
@@ -437,167 +440,172 @@
         <t>Name of the vCenter Datastore on which the NSG VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A24" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="16" ref="A25" shapeId="0">
       <text>
         <t>AWS Region</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
+    <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A26" shapeId="0">
+    <comment authorId="18" ref="A27" shapeId="0">
       <text>
         <t>AMI ID of the upgraded image</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A27" shapeId="0">
+    <comment authorId="19" ref="A28" shapeId="0">
       <text>
         <t>Instance Type of the AWS Instance</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A28" shapeId="0">
+    <comment authorId="20" ref="A29" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to VPC</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="21" ref="A30" shapeId="0">
       <text>
         <t>ENI for Access Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>ENI for Access Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>AWS WAN EIP AllocID</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A33" shapeId="0">
+    <comment authorId="24" ref="A34" shapeId="0">
       <text>
         <t>CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A34" shapeId="0">
+    <comment authorId="25" ref="A35" shapeId="0">
       <text>
         <t>WAN Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A35" shapeId="0">
+    <comment authorId="26" ref="A36" shapeId="0">
       <text>
         <t>LAN Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A36" shapeId="0">
+    <comment authorId="27" ref="A37" shapeId="0">
       <text>
         <t>Private Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A38" shapeId="0">
+    <comment authorId="28" ref="A39" shapeId="0">
       <text>
         <t>Organization on the VSD to associate with the NSG being bootstrapped, overrides global setting. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A39" shapeId="0">
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Name of the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A40" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Field type to match against for NSGv activation. [default: none]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Value to match against for NSGv activation. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Enables SSH on NSGv when set. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A44" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Name of the NSG infra profile template on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A45" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of the NSG infra profile on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A46" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of the NSG infra profile proxy DNS on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Allows NSGs using this profile to override SSH access. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A49" shapeId="0">
+    <comment authorId="37" ref="A50" shapeId="0">
       <text>
         <t>Name of the VSC infra profile for the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A50" shapeId="0">
+    <comment authorId="38" ref="A51" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile first controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A51" shapeId="0">
+    <comment authorId="39" ref="A52" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile second controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>Name of the network port for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A54" shapeId="0">
+    <comment authorId="41" ref="A55" shapeId="0">
       <text>
         <t>Physical name of the network port for the NSG [default: port1]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A55" shapeId="0">
+    <comment authorId="42" ref="A56" shapeId="0">
       <text>
         <t>Name of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A56" shapeId="0">
+    <comment authorId="43" ref="A57" shapeId="0">
       <text>
         <t>Physical name of the access port for the NSG. Deprecated in favor of access_ports [default: port2]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A57" shapeId="0">
+    <comment authorId="44" ref="A58" shapeId="0">
       <text>
         <t>VLAN range of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A58" shapeId="0">
+    <comment authorId="45" ref="A59" shapeId="0">
       <text>
         <t>VLAN number of the NSG access port for the NSG. Deprecated in favor of access_ports [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A59" shapeId="0">
+    <comment authorId="46" ref="A60" shapeId="0">
       <text>
         <t>Name of access ports list. (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A61" shapeId="0">
+    <comment authorId="47" ref="A62" shapeId="0">
       <text>
         <t>The port for telnet to HV host to access NSGv serial or console terminal [default: 2300]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A62" shapeId="0">
+    <comment authorId="48" ref="A63" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -609,11 +617,33 @@
 <file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>vsdconfig_enable</author>
+    <author>elasticsearch_enable</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Enable VSD configuration parameters on NUH [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Enable Elasticsearch configuration parameters on NUH [default: False]</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>name</author>
     <author>external_ip</author>
     <author>external_ip_prefix</author>
     <author>external_gateway</author>
     <author>vlan</author>
+    <author>external_fqdn</author>
     <author>external_bridge</author>
   </authors>
   <commentList>
@@ -644,6 +674,11 @@
     </comment>
     <comment authorId="5" ref="A10" shapeId="0">
       <text>
+        <t>Optional External FQDN name. A valid cert of this FQDN will be generated from the VSD and transferred to NUH [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A11" shapeId="0">
+      <text>
         <t>Network Bridge used for the external network on the NUH. This will be a Linux network bridge when deploying on KVM. Defaults to using access bridge [default: (access bridge)]</t>
       </text>
     </comment>
@@ -651,7 +686,40 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>router_id</author>
+    <author>enabled</author>
+    <author>interface</author>
+    <author>vip</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Router ID [default: 100]</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Enable this VRRP configuration [default: True]</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>VRRP interface</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>List of VIP addresses (List items separated by comma.)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -762,7 +830,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -873,7 +941,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -966,7 +1034,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>stcv_image_path</author>
@@ -987,180 +1055,6 @@
     <comment authorId="2" ref="A7" shapeId="0">
       <text>
         <t>IP address of the server where the STCv license is found</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>target_server</author>
-    <author>target_server_type</author>
-    <author>hostname</author>
-    <author>vmname</author>
-    <author>mgmt_ip</author>
-    <author>mgmt_gateway</author>
-    <author>mgmt_ip_prefix</author>
-    <author>mgmt_bridge</author>
-    <author>data_bridge1</author>
-    <author>data_bridge2</author>
-    <author>stcv_destination_image_path</author>
-    <author>vcpus</author>
-    <author>ram</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Hostname or IP address of the KVM hypervisor where the STCv VM will be instantiated</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>Type of hypervisor environment into which the instance will be created</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>Hostname to apply to the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
-      <text>
-        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
-      </text>
-    </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
-      <text>
-        <t>IP address to apply to the management interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
-      <text>
-        <t>IP address of the network gateway for the management interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
-      <text>
-        <t>Network prefix length for the STCv management interface</t>
-      </text>
-    </comment>
-    <comment authorId="7" ref="A13" shapeId="0">
-      <text>
-        <t>Bridge to connect the management interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="8" ref="A15" shapeId="0">
-      <text>
-        <t>Bridge to connect the first data interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
-      <text>
-        <t>Bridge to connect the second data interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="A18" shapeId="0">
-      <text>
-        <t>Path to the STCv qcow2 image on the target server</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
-      <text>
-        <t>Number of vCPUs to apply to the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
-      <text>
-        <t>Amount of RAM to apply to the STCv VM</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>hostname</author>
-    <author>mgmt_ip</author>
-    <author>mgmt_ip_prefix</author>
-    <author>mgmt_gateway</author>
-    <author>vmname</author>
-    <author>target_server_type</author>
-    <author>target_server</author>
-    <author>master_vcin</author>
-    <author>vcenter_datacenter</author>
-    <author>vcenter_cluster</author>
-    <author>vcenter_datastore</author>
-    <author>cpuset</author>
-    <author>credentials_set</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Hostname of the VCIN instance</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>IP address of the management interface</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>Management network prefix length</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
-      <text>
-        <t>IP address of the gateway on the management network</t>
-      </text>
-    </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
-      <text>
-        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
-      </text>
-    </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
-      <text>
-        <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy.</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
-      <text>
-        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
-      </text>
-    </comment>
-    <comment authorId="7" ref="A14" shapeId="0">
-      <text>
-        <t>The FQDN or IP address of the Master VCIN in an Active/Standby deployment. Only used when this VCIN is part of an active/standby configuration. The hostname provided here must match the hostname of another VCIN in the list of VCINs for this deployment. [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="8" ref="A15" shapeId="0">
-      <text>
-        <t>Name of the vCenter Datacenter on which the VCIN VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
-      </text>
-    </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
-      <text>
-        <t>Name of the vCenter Cluster on which the VCIN VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
-      <text>
-        <t>Name of the vCenter Datastore on which the VCIN VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
-      <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, VCIN requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
-      <text>
-        <t>Name of the credentials set for the vsd</t>
       </text>
     </comment>
   </commentList>
@@ -1185,6 +1079,8 @@
     <author>access_bridge</author>
     <author>ntp_server_list</author>
     <author>dns_server_list</author>
+    <author>stats_out</author>
+    <author>stats_out_proxy</author>
     <author>timezone</author>
     <author>skip_dns_resolution_tests</author>
     <author>vsd_run_cluster_rtt_test</author>
@@ -1205,6 +1101,7 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>vcenter_resource_pool</author>
     <author>vcenter_ovftool</author>
     <author>vcenter_start_vsd_with_interfaces_disabled</author>
@@ -1347,415 +1244,430 @@
     </comment>
     <comment authorId="15" ref="A24" shapeId="0">
       <text>
+        <t>Set the deployment for stats-out.  At this time, only exactly 3 clustered VSDs and exactly 3 stats VSDs are supported.  The first 3 VSDs specified are clustered and the remaining are marked statistics only [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="16" ref="A25" shapeId="0">
+      <text>
+        <t>Set the proxy address for a stats-out deployment.  If unspecified the first NUH to be deployed will be used as the proxy.  If there are no NUHs being deployed, an alternative proxy address must be specified. [default: (first NUH hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="17" ref="A27" shapeId="0">
+      <text>
         <t>Timezone specification for the deployment [default: US/Pacific]</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
+    <comment authorId="18" ref="A28" shapeId="0">
       <text>
         <t>When true, skip DNS resolution checks for hostnames from the MetroAE host. This is used for situations where the VSP components are configured to use a DNS server that is not accessible from the MetroAE host or when you are deploying a new DNS server with MetroAE. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A26" shapeId="0">
+    <comment authorId="19" ref="A29" shapeId="0">
       <text>
         <t>When true, run RTT tests between VSDs in a cluster or standby/active cluster [default: False]</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A27" shapeId="0">
+    <comment authorId="20" ref="A30" shapeId="0">
       <text>
         <t>When true, do not validate the RTT between VSDs in a cluster is less than max RTT [default: False]</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A28" shapeId="0">
+    <comment authorId="21" ref="A31" shapeId="0">
       <text>
         <t>Maximum RTT in milliseconds between VSDs in a cluster [default: 20]</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="22" ref="A32" shapeId="0">
       <text>
         <t>Maximum RTT in milliseconds between Active and Standby VSDs [default: 200]</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="23" ref="A33" shapeId="0">
       <text>
         <t>Run the VSD disk performance test when true, else skip the test [default: False]</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="24" ref="A34" shapeId="0">
       <text>
         <t>Sets the total size of created files for VSD disk performance test. For a valid measurement, the total file size must be larger than VSD RAM to minimize the effects of caching. [default: 100G]</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A32" shapeId="0">
+    <comment authorId="25" ref="A35" shapeId="0">
       <text>
         <t>Sets the minimum value for VSD disk performance test in IOPS [default: 10000]</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A33" shapeId="0">
+    <comment authorId="26" ref="A36" shapeId="0">
       <text>
         <t>Sets the duration of the VSD disk performance test in seconds [default: 300]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A34" shapeId="0">
+    <comment authorId="27" ref="A37" shapeId="0">
       <text>
         <t>When true, ignore the results of the VSD disk performance test [default: False]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A35" shapeId="0">
+    <comment authorId="28" ref="A38" shapeId="0">
       <text>
         <t>When true, ask user for confirmation before MetroAE destroys components. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Specifies the global directory root to store backup file sets on the MetroAE host.  This overrides metro_backup_root in the upgrade deployment file if specified.  If neither is specified, a backups directory will be created off of nuage_unzipped_files_dir.</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Specifies the maximum number of backups to store in backup_directory_root.  The oldest backups of the same type exceeding this amount will be deleted at backup time.  The default of -1 specifies no limit. [default: -1]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>The name of the backup file set directory under the backup_directory_root to restore. [default: backup-latest-full]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="32" ref="A44" shapeId="0">
       <text>
         <t>vCenter datacenter to deploy Nuage components. Can be overridden by individual components</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Name of the vCenter cluster on which to deploy Nuage components. Can be overridden by individual components</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components. Can be overridden by individual components</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of the vCenter datastore on which to deploy the Nuage components. Can be overridden by individual components</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Optional path to a folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="38" ref="A51" shapeId="0">
       <text>
         <t>The vCenter resource pool where the VMs need to be located. A resource pool is a logical abstraction of resources. Different resource pools can be configured to have different priorities in case of resource contention and can have different resource reservations and limitations.</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="39" ref="A52" shapeId="0">
       <text>
         <t>This is the full path to the vCenter OVFtool executable. When running metroae from a clone of the nuage-metroae repo, this should be set to the path to ovftool on the host, usually /usr/bin/ovftool. When running the metroae Docker container, the ovftool installation directory, /usr/lib/vmware-ovftool, must be copied to the metroae_data directory and this parameter must be set to the internal container path to the ovftool in that directory, /data/vmware-ovftool/ovftool. [default: /usr/bin/ovftool]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A49" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>This when set to true starts the VM with disabled interfaces during upgrade process [default: False]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A51" shapeId="0">
+    <comment authorId="41" ref="A55" shapeId="0">
       <text>
         <t>Project name for OpenStack [default: ]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="42" ref="A56" shapeId="0">
       <text>
         <t>Keystone URL for OpenStack [default: ]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A53" shapeId="0">
+    <comment authorId="43" ref="A57" shapeId="0">
       <text>
         <t>Project domain name for OpenStack if required [default: default]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A54" shapeId="0">
+    <comment authorId="44" ref="A58" shapeId="0">
       <text>
         <t>User domain name for OpenStack if required [default: default]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A55" shapeId="0">
+    <comment authorId="45" ref="A59" shapeId="0">
       <text>
         <t>CA cetrificate file path for Openstack if necessary</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A57" shapeId="0">
+    <comment authorId="46" ref="A61" shapeId="0">
       <text>
         <t>Full path to the public key file to be injected into Nuage components to enable passwordless connectivity for configuration. When using docker container changing the path from default can cause connectivity issues [default: ~/.ssh/id_rsa.pub]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A58" shapeId="0">
+    <comment authorId="47" ref="A62" shapeId="0">
       <text>
         <t>Flag to indicate when secure communications via TLS will be used between VSCs and VSDs [default: True]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A59" shapeId="0">
+    <comment authorId="48" ref="A63" shapeId="0">
       <text>
         <t>Flag to indicate when secure communications via TLS will be used between VSCs and data plane components, e.g. VRS or NSGv; If VRS is defined, target_server_password must be defined in credentials.yml [default: True]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A61" shapeId="0">
+    <comment authorId="49" ref="A65" shapeId="0">
       <text>
         <t>Path to the standard license file for the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A62" shapeId="0">
+    <comment authorId="50" ref="A66" shapeId="0">
       <text>
         <t>Path to the cluster license file for the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A63" shapeId="0">
+    <comment authorId="51" ref="A67" shapeId="0">
       <text>
         <t>Raise a failure if the VSD licenses (Standard or cluster only) do not have at least the specified number of days remaining before expiration. If undefined, no check of days remaining before VSD license expiration will be made. If you want to verify that the number of days left before expiration is more than a certain number of days, uncomment this variable and set the value to the number of days. [default: -1]</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A64" shapeId="0">
+    <comment authorId="52" ref="A68" shapeId="0">
       <text>
         <t>Path to the Ejabberd license file for the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A65" shapeId="0">
+    <comment authorId="53" ref="A69" shapeId="0">
       <text>
         <t>Path to the license file for the SD-WAN Portal [default: ]</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A66" shapeId="0">
+    <comment authorId="54" ref="A70" shapeId="0">
       <text>
         <t>Path to the license file for the NUH [default: ]</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A68" shapeId="0">
+    <comment authorId="55" ref="A72" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSD during the installation [default: True]</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A69" shapeId="0">
+    <comment authorId="56" ref="A73" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSTAT during the installation [default: False]</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A70" shapeId="0">
+    <comment authorId="57" ref="A74" shapeId="0">
       <text>
         <t>Proxy URL to be used if Yum repositories cannot be directly reached [default: NONE]</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A71" shapeId="0">
+    <comment authorId="58" ref="A75" shapeId="0">
       <text>
         <t>Username of the SSH proxy host if one is used [default: root]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A72" shapeId="0">
+    <comment authorId="59" ref="A76" shapeId="0">
       <text>
         <t>IP Address or Hostname of the SSH host if one is used [default: sshhost]</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A74" shapeId="0">
+    <comment authorId="60" ref="A78" shapeId="0">
       <text>
         <t>Amount of VSD disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="58" ref="A75" shapeId="0">
+    <comment authorId="61" ref="A79" shapeId="0">
       <text>
         <t>Amount of VSC disk space to pre-allocate, in GB. The only valid values are 0 and 1. When undefined or 0, file size allocation will be skipped. Production deployments should set this value to 1. [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="59" ref="A76" shapeId="0">
+    <comment authorId="62" ref="A80" shapeId="0">
       <text>
         <t>Amount of VSTAT disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 100]</t>
       </text>
     </comment>
-    <comment authorId="60" ref="A77" shapeId="0">
+    <comment authorId="63" ref="A81" shapeId="0">
       <text>
         <t>Amount of VCIN disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="61" ref="A78" shapeId="0">
+    <comment authorId="64" ref="A82" shapeId="0">
       <text>
         <t>Amount of NSGV disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="62" ref="A80" shapeId="0">
+    <comment authorId="65" ref="A84" shapeId="0">
       <text>
         <t>Amount of VSD RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="63" ref="A81" shapeId="0">
+    <comment authorId="66" ref="A85" shapeId="0">
       <text>
         <t>Amount of VSC RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="64" ref="A82" shapeId="0">
+    <comment authorId="67" ref="A86" shapeId="0">
       <text>
         <t>Amount of VSTAT RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="65" ref="A83" shapeId="0">
+    <comment authorId="68" ref="A87" shapeId="0">
       <text>
         <t>Amount of VCIN RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="66" ref="A84" shapeId="0">
+    <comment authorId="69" ref="A88" shapeId="0">
       <text>
         <t>Amount of NUH RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="67" ref="A85" shapeId="0">
+    <comment authorId="70" ref="A89" shapeId="0">
       <text>
         <t>Amount of Webfilter RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="68" ref="A86" shapeId="0">
+    <comment authorId="71" ref="A90" shapeId="0">
       <text>
         <t>Amount of Portal RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="69" ref="A88" shapeId="0">
+    <comment authorId="72" ref="A92" shapeId="0">
       <text>
         <t>Number of CPU's for VSD. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="70" ref="A89" shapeId="0">
+    <comment authorId="73" ref="A93" shapeId="0">
       <text>
         <t>Number of CPU's for VSC. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="71" ref="A90" shapeId="0">
+    <comment authorId="74" ref="A94" shapeId="0">
       <text>
         <t>Number of CPU's for VSTAT. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="72" ref="A91" shapeId="0">
+    <comment authorId="75" ref="A95" shapeId="0">
       <text>
         <t>Number of CPU's for VNSUTIL. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="73" ref="A92" shapeId="0">
+    <comment authorId="76" ref="A96" shapeId="0">
       <text>
         <t>Number of CPU's for NUH. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="74" ref="A93" shapeId="0">
+    <comment authorId="77" ref="A97" shapeId="0">
       <text>
         <t>Number of CPU's for VCIN. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="75" ref="A94" shapeId="0">
+    <comment authorId="78" ref="A98" shapeId="0">
       <text>
         <t>Number of CPU's for Portal vm. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="76" ref="A95" shapeId="0">
+    <comment authorId="79" ref="A99" shapeId="0">
       <text>
         <t>Number of CPU's for Webfilter vm. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="77" ref="A97" shapeId="0">
+    <comment authorId="80" ref="A101" shapeId="0">
       <text>
         <t>VSD Architect URL. Required for tasks during Upgrade, Health Checks etc [default: https://(vsd_fqdn):8443]</t>
       </text>
     </comment>
-    <comment authorId="78" ref="A98" shapeId="0">
+    <comment authorId="81" ref="A102" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VSD Architect. Required for tasks during Upgrade, Health Checks etc [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="79" ref="A99" shapeId="0">
+    <comment authorId="82" ref="A103" shapeId="0">
       <text>
         <t>VCIN URL used for API interaction. Required for tasks like VRS-E upgrade (through VCIN) [default: https://(vcin_ip_address):8443]</t>
       </text>
     </comment>
-    <comment authorId="80" ref="A100" shapeId="0">
+    <comment authorId="83" ref="A104" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VCIN. Required for tasks like VRS-E upgrade (through VCIN) [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="81" ref="A102" shapeId="0">
+    <comment authorId="84" ref="A106" shapeId="0">
       <text>
         <t>List of hooks files (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="82" ref="A103" shapeId="0">
+    <comment authorId="85" ref="A107" shapeId="0">
       <text>
         <t>Skip tasks and playbooks (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="83" ref="A105" shapeId="0">
+    <comment authorId="86" ref="A109" shapeId="0">
       <text>
         <t>Address of SMTP server to be used if emailing health results</t>
       </text>
     </comment>
-    <comment authorId="84" ref="A106" shapeId="0">
+    <comment authorId="87" ref="A110" shapeId="0">
       <text>
         <t>Port to be used on the SMTP Server [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="85" ref="A107" shapeId="0">
+    <comment authorId="88" ref="A111" shapeId="0">
       <text>
         <t>Email address from which health report will be sent</t>
       </text>
     </comment>
-    <comment authorId="86" ref="A108" shapeId="0">
+    <comment authorId="89" ref="A112" shapeId="0">
       <text>
         <t>List of destination email addresses (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="87" ref="A110" shapeId="0">
+    <comment authorId="90" ref="A114" shapeId="0">
       <text>
         <t>Address of the mail server to be used to receive monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="88" ref="A111" shapeId="0">
+    <comment authorId="91" ref="A115" shapeId="0">
       <text>
         <t>Port on mail server to be used for monit alerts [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="89" ref="A112" shapeId="0">
+    <comment authorId="92" ref="A116" shapeId="0">
       <text>
         <t>Encryption to be used when sending monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="90" ref="A113" shapeId="0">
+    <comment authorId="93" ref="A117" shapeId="0">
       <text>
         <t>Enables use of monit eventqueue to store alerts if email alerts fail to send [default: True]</t>
       </text>
     </comment>
-    <comment authorId="91" ref="A114" shapeId="0">
+    <comment authorId="94" ref="A118" shapeId="0">
       <text>
         <t>Email address from which monit alerts will be sent</t>
       </text>
     </comment>
-    <comment authorId="92" ref="A115" shapeId="0">
+    <comment authorId="95" ref="A119" shapeId="0">
       <text>
         <t>Email address to reply to monit alert emails</t>
       </text>
     </comment>
-    <comment authorId="93" ref="A116" shapeId="0">
+    <comment authorId="96" ref="A120" shapeId="0">
       <text>
         <t>Email subject for alert emails. Overrides monit default alert subject</t>
       </text>
     </comment>
-    <comment authorId="94" ref="A117" shapeId="0">
+    <comment authorId="97" ref="A121" shapeId="0">
       <text>
         <t>Email message for alert emails. Overrides monit default alert message</t>
       </text>
     </comment>
-    <comment authorId="95" ref="A118" shapeId="0">
+    <comment authorId="98" ref="A122" shapeId="0">
       <text>
         <t>Destination email address for monit alerts</t>
       </text>
     </comment>
-    <comment authorId="96" ref="A119" shapeId="0">
+    <comment authorId="99" ref="A123" shapeId="0">
       <text>
         <t>Specific events for which alerts should be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="97" ref="A120" shapeId="0">
+    <comment authorId="100" ref="A124" shapeId="0">
       <text>
         <t>Events for which alerts should not be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
@@ -1765,6 +1677,186 @@
 </file>
 
 <file path=xl/comments/comment20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>target_server</author>
+    <author>target_server_type</author>
+    <author>hostname</author>
+    <author>vmname</author>
+    <author>mgmt_ip</author>
+    <author>mgmt_gateway</author>
+    <author>mgmt_ip_prefix</author>
+    <author>mgmt_bridge</author>
+    <author>data_bridge1</author>
+    <author>data_bridge2</author>
+    <author>stcv_destination_image_path</author>
+    <author>vcpus</author>
+    <author>ram</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Hostname or IP address of the KVM hypervisor where the STCv VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Type of hypervisor environment into which the instance will be created</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Hostname to apply to the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A10" shapeId="0">
+      <text>
+        <t>IP address to apply to the management interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A11" shapeId="0">
+      <text>
+        <t>IP address of the network gateway for the management interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A12" shapeId="0">
+      <text>
+        <t>Network prefix length for the STCv management interface</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A13" shapeId="0">
+      <text>
+        <t>Bridge to connect the management interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="8" ref="A15" shapeId="0">
+      <text>
+        <t>Bridge to connect the first data interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Bridge to connect the second data interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A18" shapeId="0">
+      <text>
+        <t>Path to the STCv qcow2 image on the target server</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A19" shapeId="0">
+      <text>
+        <t>Number of vCPUs to apply to the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>Amount of RAM to apply to the STCv VM</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hostname</author>
+    <author>mgmt_ip</author>
+    <author>mgmt_ip_prefix</author>
+    <author>mgmt_gateway</author>
+    <author>vmname</author>
+    <author>target_server_type</author>
+    <author>target_server</author>
+    <author>master_vcin</author>
+    <author>vcenter_datacenter</author>
+    <author>vcenter_cluster</author>
+    <author>vcenter_datastore</author>
+    <author>vcenter_host_clusters_folder</author>
+    <author>cpuset</author>
+    <author>credentials_set</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Hostname of the VCIN instance</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>IP address of the management interface</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Management network prefix length</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>IP address of the gateway on the management network</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A10" shapeId="0">
+      <text>
+        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A11" shapeId="0">
+      <text>
+        <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy.</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A12" shapeId="0">
+      <text>
+        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A14" shapeId="0">
+      <text>
+        <t>The FQDN or IP address of the Master VCIN in an Active/Standby deployment. Only used when this VCIN is part of an active/standby configuration. The hostname provided here must match the hostname of another VCIN in the list of VCINs for this deployment. [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="8" ref="A15" shapeId="0">
+      <text>
+        <t>Name of the vCenter Datacenter on which the VCIN VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Name of the vCenter Cluster on which the VCIN VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Name of the vCenter Datastore on which the VCIN VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A18" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>Cpuset information for cpu pinning on KVM. For example, VCIN requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A21" shapeId="0">
+      <text>
+        <t>Name of the credentials set for the vsd</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1787,6 +1879,7 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>aws_region</author>
     <author>aws_ami_id</author>
     <author>aws_instance_type</author>
@@ -1909,102 +2002,107 @@
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A31" shapeId="0">
+    <comment authorId="20" ref="A30" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="21" ref="A32" shapeId="0">
       <text>
         <t>Only applicable for AWS deployments</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A32" shapeId="0">
+    <comment authorId="22" ref="A33" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A33" shapeId="0">
+    <comment authorId="23" ref="A34" shapeId="0">
       <text>
         <t>Instance Type of the AWS Instance</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A34" shapeId="0">
+    <comment authorId="24" ref="A35" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to VPC</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A35" shapeId="0">
+    <comment authorId="25" ref="A36" shapeId="0">
       <text>
         <t>ENI ID for VNSUTIL Instance on Management Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A36" shapeId="0">
+    <comment authorId="26" ref="A37" shapeId="0">
       <text>
         <t>ENI ID for VNSUTIL on Data Interface</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A38" shapeId="0">
+    <comment authorId="27" ref="A39" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A39" shapeId="0">
+    <comment authorId="28" ref="A40" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A40" shapeId="0">
+    <comment authorId="29" ref="A41" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A41" shapeId="0">
+    <comment authorId="30" ref="A42" shapeId="0">
       <text>
         <t>Name of management network on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A42" shapeId="0">
+    <comment authorId="31" ref="A43" shapeId="0">
       <text>
         <t>Name of management subnet on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A43" shapeId="0">
+    <comment authorId="32" ref="A44" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A44" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A45" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of data network on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A46" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of data subnet on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name for Data interface</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Set of security groups to associate with Data interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A50" shapeId="0">
+    <comment authorId="38" ref="A51" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VNSUTIL requires 2 cores and sample values will be of the form [ 0, 1 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A51" shapeId="0">
+    <comment authorId="39" ref="A52" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -2013,7 +2111,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vrs_os_type</author>
@@ -2076,7 +2174,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2175,7 +2273,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2294,6 +2392,7 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>aws_region</author>
     <author>aws_ami_id</author>
     <author>aws_upgrade_ami_id</author>
@@ -2391,127 +2490,132 @@
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="14" ref="A21" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t>Only applicable for AWS deployments</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A24" shapeId="0">
+    <comment authorId="17" ref="A25" shapeId="0">
       <text>
         <t>AMI VSD ID of the latest VSD release. Used only during an upgrade</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A25" shapeId="0">
+    <comment authorId="18" ref="A26" shapeId="0">
       <text>
         <t>Instance Type to be used for a VSD instance</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A26" shapeId="0">
+    <comment authorId="19" ref="A27" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to AWS instances</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A27" shapeId="0">
+    <comment authorId="20" ref="A28" shapeId="0">
       <text>
         <t>ENI ID for VSD Instance on Management Subnet</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="21" ref="A30" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A32" shapeId="0">
+    <comment authorId="24" ref="A33" shapeId="0">
       <text>
         <t>Name of network on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A33" shapeId="0">
+    <comment authorId="25" ref="A34" shapeId="0">
       <text>
         <t>Name of subnet on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A34" shapeId="0">
+    <comment authorId="26" ref="A35" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A35" shapeId="0">
+    <comment authorId="27" ref="A36" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A36" shapeId="0">
+    <comment authorId="28" ref="A37" shapeId="0">
       <text>
         <t>Project name for OpenStack [default: ]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A37" shapeId="0">
+    <comment authorId="29" ref="A38" shapeId="0">
       <text>
         <t>Keystone URL for OpenStack [default: ]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="30" ref="A40" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSD requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A40" shapeId="0">
+    <comment authorId="31" ref="A41" shapeId="0">
       <text>
         <t>Lockout the user after reaching the number of failed login attempts</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A41" shapeId="0">
+    <comment authorId="32" ref="A42" shapeId="0">
       <text>
         <t>Lockout time after failed login attemps</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A42" shapeId="0">
+    <comment authorId="33" ref="A43" shapeId="0">
       <text>
         <t>Enables advance API access logging</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A43" shapeId="0">
+    <comment authorId="34" ref="A44" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="35" ref="A46" shapeId="0">
       <text>
         <t>TLS version to use</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="36" ref="A47" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="37" ref="A48" shapeId="0">
       <text>
         <t>Path to intermediate certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="38" ref="A49" shapeId="0">
       <text>
         <t>Path to certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="39" ref="A50" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -2551,6 +2655,7 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>openstack_image</author>
     <author>openstack_flavor</author>
     <author>openstack_availability_zone</author>
@@ -2720,137 +2825,142 @@
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A39" shapeId="0">
+    <comment authorId="28" ref="A38" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A40" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Name of management network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Name of management subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="34" ref="A45" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="35" ref="A46" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="36" ref="A47" shapeId="0">
       <text>
         <t>Name of control network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="37" ref="A48" shapeId="0">
       <text>
         <t>Name of control subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="38" ref="A49" shapeId="0">
       <text>
         <t>Name for Control interface</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="39" ref="A50" shapeId="0">
       <text>
         <t>Set of security groups to associate with Control interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A50" shapeId="0">
+    <comment authorId="40" ref="A51" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A51" shapeId="0">
+    <comment authorId="41" ref="A52" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A53" shapeId="0">
+    <comment authorId="42" ref="A54" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A54" shapeId="0">
+    <comment authorId="43" ref="A55" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A55" shapeId="0">
+    <comment authorId="44" ref="A56" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A56" shapeId="0">
+    <comment authorId="45" ref="A57" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A57" shapeId="0">
+    <comment authorId="46" ref="A58" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A59" shapeId="0">
+    <comment authorId="47" ref="A60" shapeId="0">
       <text>
         <t>Ejabberd user id used to create the certificate</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A60" shapeId="0">
+    <comment authorId="48" ref="A61" shapeId="0">
       <text>
         <t>Path to VSC certificate key pem file</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A61" shapeId="0">
+    <comment authorId="49" ref="A62" shapeId="0">
       <text>
         <t>Path to VSC certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A62" shapeId="0">
+    <comment authorId="50" ref="A63" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A63" shapeId="0">
+    <comment authorId="51" ref="A64" shapeId="0">
       <text>
         <t>XMPP domain used in custom certificates</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A64" shapeId="0">
+    <comment authorId="52" ref="A65" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsc</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A66" shapeId="0">
+    <comment authorId="53" ref="A67" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSC requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A67" shapeId="0">
+    <comment authorId="54" ref="A68" shapeId="0">
       <text>
         <t>Enables hardening configuration on VSC [default: True]</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A68" shapeId="0">
+    <comment authorId="55" ref="A69" shapeId="0">
       <text>
         <t>Paths to files that can be optionally applied for additional VSC configuration (List items separated by comma.)</t>
       </text>
@@ -2877,6 +2987,7 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>aws_ami_id</author>
     <author>aws_upgrade_ami_id</author>
     <author>aws_instance_type</author>
@@ -2978,122 +3089,127 @@
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="15" ref="A22" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A24" shapeId="0">
+    <comment authorId="17" ref="A25" shapeId="0">
       <text>
         <t>AMI ID of the upgraded image</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A25" shapeId="0">
+    <comment authorId="18" ref="A26" shapeId="0">
       <text>
         <t>Instance Type of the AWS Instance</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A26" shapeId="0">
+    <comment authorId="19" ref="A27" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to VPC</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A27" shapeId="0">
+    <comment authorId="20" ref="A28" shapeId="0">
       <text>
         <t>ENI ID for VSTAT Instance on Management Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="21" ref="A30" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A32" shapeId="0">
+    <comment authorId="24" ref="A33" shapeId="0">
       <text>
         <t>Name of network on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A33" shapeId="0">
+    <comment authorId="25" ref="A34" shapeId="0">
       <text>
         <t>Name of subnet on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A34" shapeId="0">
+    <comment authorId="26" ref="A35" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A35" shapeId="0">
+    <comment authorId="27" ref="A36" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="28" ref="A38" shapeId="0">
       <text>
         <t>NFS share for copying vstat backups. For example, NFS share should contain both the ip address and shared volume in this form 1.1.1.1:/nfshare</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="29" ref="A39" shapeId="0">
       <text>
         <t>Interval to restore database snapshots, min value is 0 and max value is 60 minutes [default: 5]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="30" ref="A40" shapeId="0">
       <text>
         <t>Interval to create database snapshots, min value is 0 and max value is 60 minutes [default: 5]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A40" shapeId="0">
+    <comment authorId="31" ref="A41" shapeId="0">
       <text>
         <t>Repository name for storing backups</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Add a second disk to separate Elasticsearch data from primary image. Disk is added to path /var/lib/elasticsearch on the VSTAT. Supported on KVM only. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Size of the extra disk in GB. Supported on KVM only. [default: 1000]</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="34" ref="A45" shapeId="0">
       <text>
         <t>Path on the hypervisor to store the extra disk image. Supported on KVM only. [default: /var/lib/libvirt/images]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="35" ref="A46" shapeId="0">
       <text>
         <t>Name of the extra disk image file. Supported on KVM only. [default: extra-disk-(hostname)]</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSTAT requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Enable the setup of the Virtualized Security Services UI [default: False]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A49" shapeId="0">
+    <comment authorId="38" ref="A50" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A50" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -3402,7 +3518,7 @@
     <author>vmname</author>
     <author>mgmt_ip</author>
     <author>mgmt_gateway</author>
-    <author>mgmt_netmask</author>
+    <author>mgmt_ip_prefix</author>
     <author>data_ip</author>
     <author>data_subnet</author>
     <author>data_netmask</author>
@@ -3449,7 +3565,7 @@
     </comment>
     <comment authorId="6" ref="A12" shapeId="0">
       <text>
-        <t>Management network netmask for the DNS VM</t>
+        <t>Management network prefix length for DNS VM</t>
       </text>
     </comment>
     <comment authorId="7" ref="A14" shapeId="0">
@@ -3853,7 +3969,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Deployment</t>
+          <t>Deployment details</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4465,29 +4581,29 @@
       <c r="G22" s="9" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B23" s="9" t="n"/>
+      <c r="C23" s="9" t="n"/>
+      <c r="D23" s="9" t="n"/>
+      <c r="E23" s="9" t="n"/>
+      <c r="F23" s="9" t="n"/>
+      <c r="G23" s="9" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>AWS Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>AWS Region</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID</t>
+          <t>AWS Region</t>
         </is>
       </c>
       <c r="B25" s="7" t="n"/>
@@ -4500,7 +4616,7 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID for Upgrading Instance</t>
+          <t>AWS AMI ID</t>
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
@@ -4513,7 +4629,7 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>AWS AMI ID for Upgrading Instance</t>
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
@@ -4526,7 +4642,7 @@
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B28" s="7" t="n"/>
@@ -4539,7 +4655,7 @@
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>AWS Access ENI</t>
+          <t>AWS Keypair Name</t>
         </is>
       </c>
       <c r="B29" s="7" t="n"/>
@@ -4552,7 +4668,7 @@
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>AWS Data ENI</t>
+          <t>AWS Access ENI</t>
         </is>
       </c>
       <c r="B30" s="7" t="n"/>
@@ -4565,7 +4681,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>AWS WAN EIP AllocID</t>
+          <t>AWS Data ENI</t>
         </is>
       </c>
       <c r="B31" s="7" t="n"/>
@@ -4576,29 +4692,29 @@
       <c r="G31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>AWS WAN EIP AllocID</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="n"/>
+      <c r="C32" s="7" t="n"/>
+      <c r="D32" s="7" t="n"/>
+      <c r="E32" s="7" t="n"/>
+      <c r="F32" s="7" t="n"/>
+      <c r="G32" s="7" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>AWS VPC Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>AWS Provision VPC CIDR</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="n"/>
-      <c r="C33" s="9" t="n"/>
-      <c r="D33" s="9" t="n"/>
-      <c r="E33" s="9" t="n"/>
-      <c r="F33" s="9" t="n"/>
-      <c r="G33" s="9" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC NSG WAN Subnet CIDR</t>
+          <t>AWS Provision VPC CIDR</t>
         </is>
       </c>
       <c r="B34" s="9" t="n"/>
@@ -4611,7 +4727,7 @@
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC NSG LAN Subnet CIDR</t>
+          <t>AWS Provision VPC NSG WAN Subnet CIDR</t>
         </is>
       </c>
       <c r="B35" s="9" t="n"/>
@@ -4624,7 +4740,7 @@
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC Private Subnet CIDR</t>
+          <t>AWS Provision VPC NSG LAN Subnet CIDR</t>
         </is>
       </c>
       <c r="B36" s="9" t="n"/>
@@ -4635,29 +4751,29 @@
       <c r="G36" s="9" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>AWS Provision VPC Private Subnet CIDR</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="n"/>
+      <c r="C37" s="9" t="n"/>
+      <c r="D37" s="9" t="n"/>
+      <c r="E37" s="9" t="n"/>
+      <c r="F37" s="9" t="n"/>
+      <c r="G37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>NSGv Zero-Factor Bootstrap</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="8" t="inlineStr">
-        <is>
-          <t>NSG Organization</t>
-        </is>
-      </c>
-      <c r="B38" s="9" t="n"/>
-      <c r="C38" s="9" t="n"/>
-      <c r="D38" s="9" t="n"/>
-      <c r="E38" s="9" t="n"/>
-      <c r="F38" s="9" t="n"/>
-      <c r="G38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>NSG Name</t>
+          <t>NSG Organization</t>
         </is>
       </c>
       <c r="B39" s="9" t="n"/>
@@ -4668,22 +4784,22 @@
       <c r="G39" s="9" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>Activation Matching Type</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="n"/>
-      <c r="C40" s="7" t="n"/>
-      <c r="D40" s="7" t="n"/>
-      <c r="E40" s="7" t="n"/>
-      <c r="F40" s="7" t="n"/>
-      <c r="G40" s="7" t="n"/>
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>NSG Name</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
+      <c r="D40" s="9" t="n"/>
+      <c r="E40" s="9" t="n"/>
+      <c r="F40" s="9" t="n"/>
+      <c r="G40" s="9" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>Activation Matching Value</t>
+          <t>Activation Matching Type</t>
         </is>
       </c>
       <c r="B41" s="7" t="n"/>
@@ -4694,42 +4810,42 @@
       <c r="G41" s="7" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="inlineStr">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Activation Matching Value</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n"/>
+      <c r="C42" s="7" t="n"/>
+      <c r="D42" s="7" t="n"/>
+      <c r="E42" s="7" t="n"/>
+      <c r="F42" s="7" t="n"/>
+      <c r="G42" s="7" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="inlineStr">
         <is>
           <t>Enable SSH on NSGv</t>
         </is>
       </c>
-      <c r="B42" s="9" t="n"/>
-      <c r="C42" s="9" t="n"/>
-      <c r="D42" s="9" t="n"/>
-      <c r="E42" s="9" t="n"/>
-      <c r="F42" s="9" t="n"/>
-      <c r="G42" s="9" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
+      <c r="D43" s="9" t="n"/>
+      <c r="E43" s="9" t="n"/>
+      <c r="F43" s="9" t="n"/>
+      <c r="G43" s="9" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>NSG Advanced Options</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="8" t="inlineStr">
-        <is>
-          <t>NSG Infra Profile Template Name</t>
-        </is>
-      </c>
-      <c r="B44" s="9" t="n"/>
-      <c r="C44" s="9" t="n"/>
-      <c r="D44" s="9" t="n"/>
-      <c r="E44" s="9" t="n"/>
-      <c r="F44" s="9" t="n"/>
-      <c r="G44" s="9" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Name</t>
+          <t>NSG Infra Profile Template Name</t>
         </is>
       </c>
       <c r="B45" s="9" t="n"/>
@@ -4742,7 +4858,7 @@
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Proxy DNS Name</t>
+          <t>NSG Infra Profile Name</t>
         </is>
       </c>
       <c r="B46" s="9" t="n"/>
@@ -4755,7 +4871,7 @@
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
         <is>
-          <t>Allow SSH Access Override</t>
+          <t>NSG Infra Profile Proxy DNS Name</t>
         </is>
       </c>
       <c r="B47" s="9" t="n"/>
@@ -4766,29 +4882,29 @@
       <c r="G47" s="9" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" s="8" t="inlineStr">
+        <is>
+          <t>Allow SSH Access Override</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="n"/>
+      <c r="C48" s="9" t="n"/>
+      <c r="D48" s="9" t="n"/>
+      <c r="E48" s="9" t="n"/>
+      <c r="F48" s="9" t="n"/>
+      <c r="G48" s="9" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>VSC Info</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>VSC Infra Profile Name</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="n"/>
-      <c r="C49" s="9" t="n"/>
-      <c r="D49" s="9" t="n"/>
-      <c r="E49" s="9" t="n"/>
-      <c r="F49" s="9" t="n"/>
-      <c r="G49" s="9" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile First Controller</t>
+          <t>VSC Infra Profile Name</t>
         </is>
       </c>
       <c r="B50" s="9" t="n"/>
@@ -4801,7 +4917,7 @@
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile Second Controller</t>
+          <t>VSC Infra Profile First Controller</t>
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
@@ -4814,7 +4930,7 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>NSG Network Port Name</t>
+          <t>VSC Infra Profile Second Controller</t>
         </is>
       </c>
       <c r="B52" s="9" t="n"/>
@@ -4825,29 +4941,29 @@
       <c r="G52" s="9" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>NSG Network Port Name</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="n"/>
+      <c r="C53" s="9" t="n"/>
+      <c r="D53" s="9" t="n"/>
+      <c r="E53" s="9" t="n"/>
+      <c r="F53" s="9" t="n"/>
+      <c r="G53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>Network and Access Ports</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>NSG Network Port Physical Name</t>
-        </is>
-      </c>
-      <c r="B54" s="9" t="n"/>
-      <c r="C54" s="9" t="n"/>
-      <c r="D54" s="9" t="n"/>
-      <c r="E54" s="9" t="n"/>
-      <c r="F54" s="9" t="n"/>
-      <c r="G54" s="9" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Name</t>
+          <t>NSG Network Port Physical Name</t>
         </is>
       </c>
       <c r="B55" s="9" t="n"/>
@@ -4860,7 +4976,7 @@
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Physical Name</t>
+          <t>NSG Access Port Name</t>
         </is>
       </c>
       <c r="B56" s="9" t="n"/>
@@ -4873,7 +4989,7 @@
     <row r="57">
       <c r="A57" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Range</t>
+          <t>NSG Access Port Physical Name</t>
         </is>
       </c>
       <c r="B57" s="9" t="n"/>
@@ -4886,7 +5002,7 @@
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Number</t>
+          <t>NSG Access Port VLAN Range</t>
         </is>
       </c>
       <c r="B58" s="9" t="n"/>
@@ -4897,42 +5013,42 @@
       <c r="G58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="inlineStr">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Number</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="n"/>
+      <c r="C59" s="9" t="n"/>
+      <c r="D59" s="9" t="n"/>
+      <c r="E59" s="9" t="n"/>
+      <c r="F59" s="9" t="n"/>
+      <c r="G59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="inlineStr">
         <is>
           <t>NSGv Access ports list name</t>
         </is>
       </c>
-      <c r="B59" s="7" t="n"/>
-      <c r="C59" s="7" t="n"/>
-      <c r="D59" s="7" t="n"/>
-      <c r="E59" s="7" t="n"/>
-      <c r="F59" s="7" t="n"/>
-      <c r="G59" s="7" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
+      <c r="B60" s="7" t="n"/>
+      <c r="C60" s="7" t="n"/>
+      <c r="D60" s="7" t="n"/>
+      <c r="E60" s="7" t="n"/>
+      <c r="F60" s="7" t="n"/>
+      <c r="G60" s="7" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>Telnet and Credentials</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="inlineStr">
-        <is>
-          <t>Telnet port for console</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="n"/>
-      <c r="C61" s="9" t="n"/>
-      <c r="D61" s="9" t="n"/>
-      <c r="E61" s="9" t="n"/>
-      <c r="F61" s="9" t="n"/>
-      <c r="G61" s="9" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Telnet port for console</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -4942,19 +5058,32 @@
       <c r="F62" s="9" t="n"/>
       <c r="G62" s="9" t="n"/>
     </row>
+    <row r="63">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="n"/>
+      <c r="C63" s="9" t="n"/>
+      <c r="D63" s="9" t="n"/>
+      <c r="E63" s="9" t="n"/>
+      <c r="F63" s="9" t="n"/>
+      <c r="G63" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A61:G61"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
@@ -4993,72 +5122,72 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G62" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -5071,7 +5200,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="70"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NUH Common Configuration Settings</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>NUH Common configuration settings for this deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>NUH Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Enable VSD configuration on NUH</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Enable Elasticsearch configuration on NUH</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B5" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5175,17 +5376,30 @@
       <c r="G9" s="9" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>External FQDN Name</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="9" t="n"/>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="9" t="n"/>
+      <c r="G10" s="9" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>External Network Bridge</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5210,7 +5424,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NUH VRRP Configuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>NUH VRRP configuration settings for this deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>NUH VRRP</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Router ID</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Enable VRRP configuration</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>VRRP interface</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>VIP list</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5566,7 +5911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5940,7 +6285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6231,7 +6576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6303,7 +6648,1082 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B124"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="70"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Common Configuration Settings</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Common configuration settings for this deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Paths and Domains</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Nuage Unzip Files Directory</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Nuage Software Version</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>KVM Images Directory</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Domain Name</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Reports Directory</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>Branding Zip File</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Management FQDNs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Global VSD FQDN</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Global VSD API port</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Global SD-WAN Portal FQDN</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Global VSTAT FQDN</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Network Bridges</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Bridge</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Data Network Bridge</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>NSGv Access Bridge</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Network Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>NTP Server IP(s)</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>DNS server IP(s)</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Stats Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Statistics Out Deployment</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>Statistics Out Proxy Address</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Timezone</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Skip DNS Resolution Tests</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>Run VSD Cluster RTT Tests</t>
+        </is>
+      </c>
+      <c r="B29" s="9" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Ignore RTT Test Errors</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>Max VSD cluster RTT</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>Max VSD active-standby RTT</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>Run VSD Disk Performance Test</t>
+        </is>
+      </c>
+      <c r="B33" s="9" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>Total Size of Disk Performance Test Files</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>Minimum Disk Performance Threshold</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>Duration of Disk Performance Test in Seconds</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>Ignore Disk Performance Test Errors</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>Prompt before destroying components</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Backup and Restore</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>Backup directory</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Maximum number of backups to store.</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Backup set directory to be restored.</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>vCenter infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Cluster Name</t>
+        </is>
+      </c>
+      <c r="B45" s="7" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B47" s="7" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>vCenter VM Folder</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>vCenter common</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Resource Pool</t>
+        </is>
+      </c>
+      <c r="B51" s="7" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>OVF tool location</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Interfaces Disabled State</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Project Name</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Keystone URL</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>OpenStack Project Domain Name</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>OpenStack User Domain Name</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>OpenStack CA Certificate</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="inlineStr">
+        <is>
+          <t>SSH Public Key</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>XMPP TLS</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>OpenFlow TLS</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Licenses</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="inlineStr">
+        <is>
+          <t>VSD Standard License File</t>
+        </is>
+      </c>
+      <c r="B65" s="9" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="inlineStr">
+        <is>
+          <t>VSD Cluster License File</t>
+        </is>
+      </c>
+      <c r="B66" s="9" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>VSD License Required Days Left</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="inlineStr">
+        <is>
+          <t>VSD Ejabberd License File</t>
+        </is>
+      </c>
+      <c r="B68" s="9" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="inlineStr">
+        <is>
+          <t>SD-WAN Portal License Filename</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="inlineStr">
+        <is>
+          <t>NUH License File</t>
+        </is>
+      </c>
+      <c r="B70" s="9" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Yum and SSH Proxy</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>VSD yum update</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="inlineStr">
+        <is>
+          <t>VSTAT yum update</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="inlineStr">
+        <is>
+          <t>Proxy for Yum Updates</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
+        <is>
+          <t>SSH proxy configuration username</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="8" t="inlineStr">
+        <is>
+          <t>SSH proxy configuration host</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>Disk Space</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="inlineStr">
+        <is>
+          <t>VSD Disk Size</t>
+        </is>
+      </c>
+      <c r="B78" s="9" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="8" t="inlineStr">
+        <is>
+          <t>VSC Disk Size</t>
+        </is>
+      </c>
+      <c r="B79" s="9" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="inlineStr">
+        <is>
+          <t>VSTAT Disk Size</t>
+        </is>
+      </c>
+      <c r="B80" s="9" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="8" t="inlineStr">
+        <is>
+          <t>VCIN Disk Size</t>
+        </is>
+      </c>
+      <c r="B81" s="9" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="inlineStr">
+        <is>
+          <t>NSGV Disk Size</t>
+        </is>
+      </c>
+      <c r="B82" s="9" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>KVM RAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSD RAM</t>
+        </is>
+      </c>
+      <c r="B84" s="9" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSC RAM</t>
+        </is>
+      </c>
+      <c r="B85" s="9" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSTAT RAM</t>
+        </is>
+      </c>
+      <c r="B86" s="9" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="inlineStr">
+        <is>
+          <t>KVM VCIN RAM</t>
+        </is>
+      </c>
+      <c r="B87" s="9" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="inlineStr">
+        <is>
+          <t>KVM NUH RAM</t>
+        </is>
+      </c>
+      <c r="B88" s="9" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="inlineStr">
+        <is>
+          <t>KVM Webfilter RAM</t>
+        </is>
+      </c>
+      <c r="B89" s="9" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="inlineStr">
+        <is>
+          <t>KVM Portal RAM</t>
+        </is>
+      </c>
+      <c r="B90" s="9" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>KVM CPU</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSD CPU cores</t>
+        </is>
+      </c>
+      <c r="B92" s="9" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="inlineStr">
+        <is>
+          <t>VSC CPU cores</t>
+        </is>
+      </c>
+      <c r="B93" s="9" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSTAT CPU cores</t>
+        </is>
+      </c>
+      <c r="B94" s="9" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="8" t="inlineStr">
+        <is>
+          <t>KVM VNSUTIL CPU cores</t>
+        </is>
+      </c>
+      <c r="B95" s="9" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="8" t="inlineStr">
+        <is>
+          <t>KVM NUH CPU cores</t>
+        </is>
+      </c>
+      <c r="B96" s="9" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="8" t="inlineStr">
+        <is>
+          <t>KVM VCIN CPU cores</t>
+        </is>
+      </c>
+      <c r="B97" s="9" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="8" t="inlineStr">
+        <is>
+          <t>KVM Portal VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="8" t="inlineStr">
+        <is>
+          <t>KVM Webfilter VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B99" s="9" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>Authentication</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="8" t="inlineStr">
+        <is>
+          <t>VSD Architect URL</t>
+        </is>
+      </c>
+      <c r="B101" s="9" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="8" t="inlineStr">
+        <is>
+          <t>VSD Enterprise</t>
+        </is>
+      </c>
+      <c r="B102" s="9" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="8" t="inlineStr">
+        <is>
+          <t>VCIN URL</t>
+        </is>
+      </c>
+      <c r="B103" s="9" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="8" t="inlineStr">
+        <is>
+          <t>VCIN Enterprise</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>Hooks</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="8" t="inlineStr">
+        <is>
+          <t>hooks</t>
+        </is>
+      </c>
+      <c r="B106" s="9" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="8" t="inlineStr">
+        <is>
+          <t>skip actions</t>
+        </is>
+      </c>
+      <c r="B107" s="9" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>Component Health Report Email Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="8" t="inlineStr">
+        <is>
+          <t>Health Report SMTP Server</t>
+        </is>
+      </c>
+      <c r="B109" s="9" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="8" t="inlineStr">
+        <is>
+          <t>Health Report SMTP Server Port</t>
+        </is>
+      </c>
+      <c r="B110" s="9" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="8" t="inlineStr">
+        <is>
+          <t>Health Report Email From Address</t>
+        </is>
+      </c>
+      <c r="B111" s="9" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="8" t="inlineStr">
+        <is>
+          <t>Health Report Destination Email Address(es)</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>VSD Monit Email Alerts Configuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server</t>
+        </is>
+      </c>
+      <c r="B114" s="9" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server Port</t>
+        </is>
+      </c>
+      <c r="B115" s="9" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server Encryption Type</t>
+        </is>
+      </c>
+      <c r="B116" s="9" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="8" t="inlineStr">
+        <is>
+          <t>Use VSD Monit Eventqueue</t>
+        </is>
+      </c>
+      <c r="B117" s="9" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit From Email Address</t>
+        </is>
+      </c>
+      <c r="B118" s="9" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Reply-To Email Address</t>
+        </is>
+      </c>
+      <c r="B119" s="9" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Email Alert Subject</t>
+        </is>
+      </c>
+      <c r="B120" s="9" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Email Alert Message</t>
+        </is>
+      </c>
+      <c r="B121" s="9" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Destination Email Address</t>
+        </is>
+      </c>
+      <c r="B122" s="9" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Only Alert On</t>
+        </is>
+      </c>
+      <c r="B123" s="9" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Do Not Alert On</t>
+        </is>
+      </c>
+      <c r="B124" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A113:B113"/>
+  </mergeCells>
+  <dataValidations count="39">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B28" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B29" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B30" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B31" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B32" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B33" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B37" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B38" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B53" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B67" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B72" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B73" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B78" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B79" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B80" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B81" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B82" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B84" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B85" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B87" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B96" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B97" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B98" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B99" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B110" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B115" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B117" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6587,13 +8007,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6789,29 +8209,29 @@
       <c r="G17" s="9" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="G18" s="9" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>CPU and credentials</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="G19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B20" s="9" t="n"/>
@@ -6821,12 +8241,25 @@
       <c r="F20" s="9" t="n"/>
       <c r="G20" s="9" t="n"/>
     </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -6859,1053 +8292,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B120"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="70"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Common Configuration Settings</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Common configuration settings for this deployment</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Paths and Domains</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Nuage Unzip Files Directory</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>Nuage Software Version</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>KVM Images Directory</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Domain Name</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Reports Directory</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>Branding Zip File</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Management FQDNs</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Global VSD FQDN</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Global VSD API port</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Global SD-WAN Portal FQDN</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>Global VSTAT FQDN</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Network Bridges</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Data Network Bridge</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>NSGv Access Bridge</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Network Services</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>NTP Server IP(s)</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>DNS server IP(s)</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Options</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Timezone</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>Skip DNS Resolution Tests</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="inlineStr">
-        <is>
-          <t>Run VSD Cluster RTT Tests</t>
-        </is>
-      </c>
-      <c r="B26" s="9" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="inlineStr">
-        <is>
-          <t>Ignore RTT Test Errors</t>
-        </is>
-      </c>
-      <c r="B27" s="9" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>Max VSD cluster RTT</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8" t="inlineStr">
-        <is>
-          <t>Max VSD active-standby RTT</t>
-        </is>
-      </c>
-      <c r="B29" s="9" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
-        <is>
-          <t>Run VSD Disk Performance Test</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t>Total Size of Disk Performance Test Files</t>
-        </is>
-      </c>
-      <c r="B31" s="9" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="inlineStr">
-        <is>
-          <t>Minimum Disk Performance Threshold</t>
-        </is>
-      </c>
-      <c r="B32" s="9" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>Duration of Disk Performance Test in Seconds</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="inlineStr">
-        <is>
-          <t>Ignore Disk Performance Test Errors</t>
-        </is>
-      </c>
-      <c r="B34" s="9" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>Prompt before destroying components</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>Backup and Restore</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>Backup directory</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>Maximum number of backups to store.</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>Backup set directory to be restored.</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>vCenter infrastructure</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B42" s="7" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Host Reference</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B45" s="7" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>vCenter common</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Resource Pool</t>
-        </is>
-      </c>
-      <c r="B47" s="7" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="inlineStr">
-        <is>
-          <t>OVF tool location</t>
-        </is>
-      </c>
-      <c r="B48" s="7" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Interfaces Disabled State</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Project Name</t>
-        </is>
-      </c>
-      <c r="B51" s="7" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Keystone URL</t>
-        </is>
-      </c>
-      <c r="B52" s="7" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="8" t="inlineStr">
-        <is>
-          <t>OpenStack Project Domain Name</t>
-        </is>
-      </c>
-      <c r="B53" s="9" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>OpenStack User Domain Name</t>
-        </is>
-      </c>
-      <c r="B54" s="9" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>OpenStack CA Certificate</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>SSH Public Key</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>XMPP TLS</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="inlineStr">
-        <is>
-          <t>OpenFlow TLS</t>
-        </is>
-      </c>
-      <c r="B59" s="9" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Licenses</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="inlineStr">
-        <is>
-          <t>VSD Standard License File</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="8" t="inlineStr">
-        <is>
-          <t>VSD Cluster License File</t>
-        </is>
-      </c>
-      <c r="B62" s="9" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="8" t="inlineStr">
-        <is>
-          <t>VSD License Required Days Left</t>
-        </is>
-      </c>
-      <c r="B63" s="9" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="inlineStr">
-        <is>
-          <t>VSD Ejabberd License File</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="8" t="inlineStr">
-        <is>
-          <t>SD-WAN Portal License Filename</t>
-        </is>
-      </c>
-      <c r="B65" s="9" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="8" t="inlineStr">
-        <is>
-          <t>NUH License File</t>
-        </is>
-      </c>
-      <c r="B66" s="9" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>Yum and SSH Proxy</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="8" t="inlineStr">
-        <is>
-          <t>VSD yum update</t>
-        </is>
-      </c>
-      <c r="B68" s="9" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="8" t="inlineStr">
-        <is>
-          <t>VSTAT yum update</t>
-        </is>
-      </c>
-      <c r="B69" s="9" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="8" t="inlineStr">
-        <is>
-          <t>Proxy for Yum Updates</t>
-        </is>
-      </c>
-      <c r="B70" s="9" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="8" t="inlineStr">
-        <is>
-          <t>SSH proxy configuration username</t>
-        </is>
-      </c>
-      <c r="B71" s="9" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="8" t="inlineStr">
-        <is>
-          <t>SSH proxy configuration host</t>
-        </is>
-      </c>
-      <c r="B72" s="9" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>Disk Space</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="8" t="inlineStr">
-        <is>
-          <t>VSD Disk Size</t>
-        </is>
-      </c>
-      <c r="B74" s="9" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="8" t="inlineStr">
-        <is>
-          <t>VSC Disk Size</t>
-        </is>
-      </c>
-      <c r="B75" s="9" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="8" t="inlineStr">
-        <is>
-          <t>VSTAT Disk Size</t>
-        </is>
-      </c>
-      <c r="B76" s="9" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="8" t="inlineStr">
-        <is>
-          <t>VCIN Disk Size</t>
-        </is>
-      </c>
-      <c r="B77" s="9" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="8" t="inlineStr">
-        <is>
-          <t>NSGV Disk Size</t>
-        </is>
-      </c>
-      <c r="B78" s="9" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t>KVM RAM</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD RAM</t>
-        </is>
-      </c>
-      <c r="B80" s="9" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSC RAM</t>
-        </is>
-      </c>
-      <c r="B81" s="9" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSTAT RAM</t>
-        </is>
-      </c>
-      <c r="B82" s="9" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN RAM</t>
-        </is>
-      </c>
-      <c r="B83" s="9" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="8" t="inlineStr">
-        <is>
-          <t>KVM NUH RAM</t>
-        </is>
-      </c>
-      <c r="B84" s="9" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="8" t="inlineStr">
-        <is>
-          <t>KVM Webfilter RAM</t>
-        </is>
-      </c>
-      <c r="B85" s="9" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="8" t="inlineStr">
-        <is>
-          <t>KVM Portal RAM</t>
-        </is>
-      </c>
-      <c r="B86" s="9" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="inlineStr">
-        <is>
-          <t>KVM CPU</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD CPU cores</t>
-        </is>
-      </c>
-      <c r="B88" s="9" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="8" t="inlineStr">
-        <is>
-          <t>VSC CPU cores</t>
-        </is>
-      </c>
-      <c r="B89" s="9" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSTAT CPU cores</t>
-        </is>
-      </c>
-      <c r="B90" s="9" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="8" t="inlineStr">
-        <is>
-          <t>KVM VNSUTIL CPU cores</t>
-        </is>
-      </c>
-      <c r="B91" s="9" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="8" t="inlineStr">
-        <is>
-          <t>KVM NUH CPU cores</t>
-        </is>
-      </c>
-      <c r="B92" s="9" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN CPU cores</t>
-        </is>
-      </c>
-      <c r="B93" s="9" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="8" t="inlineStr">
-        <is>
-          <t>KVM Portal VM CPU cores</t>
-        </is>
-      </c>
-      <c r="B94" s="9" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="8" t="inlineStr">
-        <is>
-          <t>KVM Webfilter VM CPU cores</t>
-        </is>
-      </c>
-      <c r="B95" s="9" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="inlineStr">
-        <is>
-          <t>Authentication</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="8" t="inlineStr">
-        <is>
-          <t>VSD Architect URL</t>
-        </is>
-      </c>
-      <c r="B97" s="9" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="8" t="inlineStr">
-        <is>
-          <t>VSD Enterprise</t>
-        </is>
-      </c>
-      <c r="B98" s="9" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="8" t="inlineStr">
-        <is>
-          <t>VCIN URL</t>
-        </is>
-      </c>
-      <c r="B99" s="9" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="8" t="inlineStr">
-        <is>
-          <t>VCIN Enterprise</t>
-        </is>
-      </c>
-      <c r="B100" s="9" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="inlineStr">
-        <is>
-          <t>Hooks</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="8" t="inlineStr">
-        <is>
-          <t>hooks</t>
-        </is>
-      </c>
-      <c r="B102" s="9" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="8" t="inlineStr">
-        <is>
-          <t>skip actions</t>
-        </is>
-      </c>
-      <c r="B103" s="9" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="inlineStr">
-        <is>
-          <t>Component Health Report Email Options</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server</t>
-        </is>
-      </c>
-      <c r="B105" s="9" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server Port</t>
-        </is>
-      </c>
-      <c r="B106" s="9" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="8" t="inlineStr">
-        <is>
-          <t>Health Report Email From Address</t>
-        </is>
-      </c>
-      <c r="B107" s="9" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="8" t="inlineStr">
-        <is>
-          <t>Health Report Destination Email Address(es)</t>
-        </is>
-      </c>
-      <c r="B108" s="9" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
-        <is>
-          <t>VSD Monit Email Alerts Configuration</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server</t>
-        </is>
-      </c>
-      <c r="B110" s="9" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server Port</t>
-        </is>
-      </c>
-      <c r="B111" s="9" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server Encryption Type</t>
-        </is>
-      </c>
-      <c r="B112" s="9" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="8" t="inlineStr">
-        <is>
-          <t>Use VSD Monit Eventqueue</t>
-        </is>
-      </c>
-      <c r="B113" s="9" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit From Email Address</t>
-        </is>
-      </c>
-      <c r="B114" s="9" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Reply-To Email Address</t>
-        </is>
-      </c>
-      <c r="B115" s="9" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Email Alert Subject</t>
-        </is>
-      </c>
-      <c r="B116" s="9" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Email Alert Message</t>
-        </is>
-      </c>
-      <c r="B117" s="9" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Destination Email Address</t>
-        </is>
-      </c>
-      <c r="B118" s="9" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Only Alert On</t>
-        </is>
-      </c>
-      <c r="B119" s="9" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Do Not Alert On</t>
-        </is>
-      </c>
-      <c r="B120" s="9" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A109:B109"/>
-  </mergeCells>
-  <dataValidations count="38">
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B25" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B26" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B28" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B29" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B30" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B34" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B35" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B49" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B69" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B74" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B75" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B76" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B77" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B78" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B80" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B81" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B82" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B83" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B84" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B85" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B91" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B106" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B111" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B113" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8239,29 +8632,29 @@
       <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="n"/>
+      <c r="C30" s="9" t="n"/>
+      <c r="D30" s="9" t="n"/>
+      <c r="E30" s="9" t="n"/>
+      <c r="F30" s="9" t="n"/>
+      <c r="G30" s="9" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>AWS Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>AWS Region</t>
-        </is>
-      </c>
-      <c r="B31" s="7" t="n"/>
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID</t>
+          <t>AWS Region</t>
         </is>
       </c>
       <c r="B32" s="7" t="n"/>
@@ -8274,7 +8667,7 @@
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>AWS AMI ID</t>
         </is>
       </c>
       <c r="B33" s="7" t="n"/>
@@ -8287,7 +8680,7 @@
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B34" s="7" t="n"/>
@@ -8300,7 +8693,7 @@
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>AWS Management ENI ID</t>
+          <t>AWS Keypair Name</t>
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
@@ -8313,7 +8706,7 @@
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>AWS Data ENI ID</t>
+          <t>AWS Management ENI ID</t>
         </is>
       </c>
       <c r="B36" s="7" t="n"/>
@@ -8324,29 +8717,29 @@
       <c r="G36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>AWS Data ENI ID</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="n"/>
+      <c r="C37" s="7" t="n"/>
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
+      <c r="F37" s="7" t="n"/>
+      <c r="G37" s="7" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>OpenStack Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
-      <c r="D38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
-      <c r="F38" s="7" t="n"/>
-      <c r="G38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B39" s="7" t="n"/>
@@ -8359,7 +8752,7 @@
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Availability Zone</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B40" s="7" t="n"/>
@@ -8372,7 +8765,7 @@
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Management Network</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B41" s="7" t="n"/>
@@ -8385,7 +8778,7 @@
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Management Subnet</t>
+          <t>OpenStack Management Network</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
@@ -8398,7 +8791,7 @@
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Management Port Name</t>
+          <t>OpenStack Management Subnet</t>
         </is>
       </c>
       <c r="B43" s="7" t="n"/>
@@ -8411,7 +8804,7 @@
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Management Port Security Groups</t>
+          <t>OpenStack Management Port Name</t>
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
@@ -8424,7 +8817,7 @@
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Data Network</t>
+          <t>OpenStack Management Port Security Groups</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -8437,7 +8830,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Data Subnet</t>
+          <t>OpenStack Data Network</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -8450,7 +8843,7 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Data Port Name</t>
+          <t>OpenStack Data Subnet</t>
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
@@ -8463,7 +8856,7 @@
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Data Port Security Groups</t>
+          <t>OpenStack Data Port Name</t>
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
@@ -8474,29 +8867,29 @@
       <c r="G48" s="7" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Data Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n"/>
+      <c r="C49" s="7" t="n"/>
+      <c r="D49" s="7" t="n"/>
+      <c r="E49" s="7" t="n"/>
+      <c r="F49" s="7" t="n"/>
+      <c r="G49" s="7" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>Other Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B50" s="9" t="n"/>
-      <c r="C50" s="9" t="n"/>
-      <c r="D50" s="9" t="n"/>
-      <c r="E50" s="9" t="n"/>
-      <c r="F50" s="9" t="n"/>
-      <c r="G50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>Health monitoring agent</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
@@ -8509,7 +8902,7 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Health monitoring agent</t>
         </is>
       </c>
       <c r="B52" s="9" t="n"/>
@@ -8518,6 +8911,19 @@
       <c r="E52" s="9" t="n"/>
       <c r="F52" s="9" t="n"/>
       <c r="G52" s="9" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="n"/>
+      <c r="C53" s="9" t="n"/>
+      <c r="D53" s="9" t="n"/>
+      <c r="E53" s="9" t="n"/>
+      <c r="F53" s="9" t="n"/>
+      <c r="G53" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8527,9 +8933,9 @@
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A50:G50"/>
   </mergeCells>
   <dataValidations count="18">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -8556,22 +8962,22 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G11" type="list">
       <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8580,7 +8986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8804,7 +9210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9084,7 +9490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9390,1352 +9796,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Virtualized Services Directory</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Specify configuration for Nuage VSDs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Management Network</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Hostname</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Management IP Address</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Management Network Prefix Length</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Management Network Gateway</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="n"/>
-      <c r="C9" s="9" t="n"/>
-      <c r="D9" s="9" t="n"/>
-      <c r="E9" s="9" t="n"/>
-      <c r="F9" s="9" t="n"/>
-      <c r="G9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>VM and Target Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>VM name</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Upgrade VM Name</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>Target Server Type</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>Target Server IP or FQDN</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>vCenter Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter Name</t>
-        </is>
-      </c>
-      <c r="B16" s="9" t="n"/>
-      <c r="C16" s="9" t="n"/>
-      <c r="D16" s="9" t="n"/>
-      <c r="E16" s="9" t="n"/>
-      <c r="F16" s="9" t="n"/>
-      <c r="G16" s="9" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B17" s="9" t="n"/>
-      <c r="C17" s="9" t="n"/>
-      <c r="D17" s="9" t="n"/>
-      <c r="E17" s="9" t="n"/>
-      <c r="F17" s="9" t="n"/>
-      <c r="G17" s="9" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Host Reference</t>
-        </is>
-      </c>
-      <c r="B18" s="9" t="n"/>
-      <c r="C18" s="9" t="n"/>
-      <c r="D18" s="9" t="n"/>
-      <c r="E18" s="9" t="n"/>
-      <c r="F18" s="9" t="n"/>
-      <c r="G18" s="9" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="G19" s="9" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>AWS Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>AWS Region</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="n"/>
-      <c r="C22" s="7" t="n"/>
-      <c r="D22" s="7" t="n"/>
-      <c r="E22" s="7" t="n"/>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>AWS VSD AMI ID</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="n"/>
-      <c r="C23" s="7" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Upgrade AWS VSD AMI ID</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>AWS Instance Type</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="7" t="n"/>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>AWS Keypair Name</t>
-        </is>
-      </c>
-      <c r="B26" s="7" t="n"/>
-      <c r="C26" s="7" t="n"/>
-      <c r="D26" s="7" t="n"/>
-      <c r="E26" s="7" t="n"/>
-      <c r="F26" s="7" t="n"/>
-      <c r="G26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>AWS Management ENI ID</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
-      <c r="G27" s="7" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Flavor</t>
-        </is>
-      </c>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
-      <c r="G30" s="7" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Availability Zone</t>
-        </is>
-      </c>
-      <c r="B31" s="7" t="n"/>
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Network</t>
-        </is>
-      </c>
-      <c r="B32" s="7" t="n"/>
-      <c r="C32" s="7" t="n"/>
-      <c r="D32" s="7" t="n"/>
-      <c r="E32" s="7" t="n"/>
-      <c r="F32" s="7" t="n"/>
-      <c r="G32" s="7" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Subnet</t>
-        </is>
-      </c>
-      <c r="B33" s="7" t="n"/>
-      <c r="C33" s="7" t="n"/>
-      <c r="D33" s="7" t="n"/>
-      <c r="E33" s="7" t="n"/>
-      <c r="F33" s="7" t="n"/>
-      <c r="G33" s="7" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Port Name</t>
-        </is>
-      </c>
-      <c r="B34" s="7" t="n"/>
-      <c r="C34" s="7" t="n"/>
-      <c r="D34" s="7" t="n"/>
-      <c r="E34" s="7" t="n"/>
-      <c r="F34" s="7" t="n"/>
-      <c r="G34" s="7" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Port Security Groups</t>
-        </is>
-      </c>
-      <c r="B35" s="7" t="n"/>
-      <c r="C35" s="7" t="n"/>
-      <c r="D35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
-      <c r="F35" s="7" t="n"/>
-      <c r="G35" s="7" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Project Name</t>
-        </is>
-      </c>
-      <c r="B36" s="7" t="n"/>
-      <c r="C36" s="7" t="n"/>
-      <c r="D36" s="7" t="n"/>
-      <c r="E36" s="7" t="n"/>
-      <c r="F36" s="7" t="n"/>
-      <c r="G36" s="7" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Keystone URL</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
-      <c r="F37" s="7" t="n"/>
-      <c r="G37" s="7" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>VSD Options</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B39" s="9" t="n"/>
-      <c r="C39" s="9" t="n"/>
-      <c r="D39" s="9" t="n"/>
-      <c r="E39" s="9" t="n"/>
-      <c r="F39" s="9" t="n"/>
-      <c r="G39" s="9" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="8" t="inlineStr">
-        <is>
-          <t>Failed login attempts</t>
-        </is>
-      </c>
-      <c r="B40" s="9" t="n"/>
-      <c r="C40" s="9" t="n"/>
-      <c r="D40" s="9" t="n"/>
-      <c r="E40" s="9" t="n"/>
-      <c r="F40" s="9" t="n"/>
-      <c r="G40" s="9" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="8" t="inlineStr">
-        <is>
-          <t>Failed login lockout time</t>
-        </is>
-      </c>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="9" t="n"/>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="9" t="n"/>
-      <c r="F41" s="9" t="n"/>
-      <c r="G41" s="9" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="8" t="inlineStr">
-        <is>
-          <t>Advanced API Access Logging</t>
-        </is>
-      </c>
-      <c r="B42" s="9" t="n"/>
-      <c r="C42" s="9" t="n"/>
-      <c r="D42" s="9" t="n"/>
-      <c r="E42" s="9" t="n"/>
-      <c r="F42" s="9" t="n"/>
-      <c r="G42" s="9" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="8" t="inlineStr">
-        <is>
-          <t>Health monitoring agent</t>
-        </is>
-      </c>
-      <c r="B43" s="9" t="n"/>
-      <c r="C43" s="9" t="n"/>
-      <c r="D43" s="9" t="n"/>
-      <c r="E43" s="9" t="n"/>
-      <c r="F43" s="9" t="n"/>
-      <c r="G43" s="9" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>Security and Certificates</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>TLS version</t>
-        </is>
-      </c>
-      <c r="B45" s="9" t="n"/>
-      <c r="C45" s="9" t="n"/>
-      <c r="D45" s="9" t="n"/>
-      <c r="E45" s="9" t="n"/>
-      <c r="F45" s="9" t="n"/>
-      <c r="G45" s="9" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>Path to CA certificate pem file</t>
-        </is>
-      </c>
-      <c r="B46" s="9" t="n"/>
-      <c r="C46" s="9" t="n"/>
-      <c r="D46" s="9" t="n"/>
-      <c r="E46" s="9" t="n"/>
-      <c r="F46" s="9" t="n"/>
-      <c r="G46" s="9" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>Path to intermediate certificate pem file</t>
-        </is>
-      </c>
-      <c r="B47" s="9" t="n"/>
-      <c r="C47" s="9" t="n"/>
-      <c r="D47" s="9" t="n"/>
-      <c r="E47" s="9" t="n"/>
-      <c r="F47" s="9" t="n"/>
-      <c r="G47" s="9" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="8" t="inlineStr">
-        <is>
-          <t>Path to certificate pem file</t>
-        </is>
-      </c>
-      <c r="B48" s="9" t="n"/>
-      <c r="C48" s="9" t="n"/>
-      <c r="D48" s="9" t="n"/>
-      <c r="E48" s="9" t="n"/>
-      <c r="F48" s="9" t="n"/>
-      <c r="G48" s="9" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>Credentials set name</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="n"/>
-      <c r="C49" s="9" t="n"/>
-      <c r="D49" s="9" t="n"/>
-      <c r="E49" s="9" t="n"/>
-      <c r="F49" s="9" t="n"/>
-      <c r="G49" s="9" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A44:G44"/>
-  </mergeCells>
-  <dataValidations count="42">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B45" type="list">
-      <formula1>"1.0,1.2"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C45" type="list">
-      <formula1>"1.0,1.2"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D45" type="list">
-      <formula1>"1.0,1.2"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E45" type="list">
-      <formula1>"1.0,1.2"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F45" type="list">
-      <formula1>"1.0,1.2"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G45" type="list">
-      <formula1>"1.0,1.2"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Virtualized Services Controller</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Specify configuration for Nuage VSCs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Management Network</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Hostname</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="n"/>
-      <c r="C5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Management IP address</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Management Network Prefix Length</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Management Network Gateway</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Management Network Static Routes</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>Control Network</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Control IP address</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Control Netmask Prefix Length</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Vlan ID for Control Interface</t>
-        </is>
-      </c>
-      <c r="B13" s="9" t="n"/>
-      <c r="C13" s="9" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>Control IP address for VPRN Interface</t>
-        </is>
-      </c>
-      <c r="B14" s="9" t="n"/>
-      <c r="C14" s="9" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>List of control IP VPRNs</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>System info</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>System IP address</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>VM name</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>System Name</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>XMPP username</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Target Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>Target Server type</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>Target Server IP or FQDN</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Bridges and Private IP</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="n"/>
-      <c r="C25" s="9" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="inlineStr">
-        <is>
-          <t>Data Network Bridge</t>
-        </is>
-      </c>
-      <c r="B26" s="9" t="n"/>
-      <c r="C26" s="9" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="inlineStr">
-        <is>
-          <t>VSD FQDN</t>
-        </is>
-      </c>
-      <c r="B27" s="9" t="n"/>
-      <c r="C27" s="9" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>Private Management IP</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="n"/>
-      <c r="C28" s="9" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8" t="inlineStr">
-        <is>
-          <t>Private Control IP Address</t>
-        </is>
-      </c>
-      <c r="B29" s="9" t="n"/>
-      <c r="C29" s="9" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
-        <is>
-          <t>Private Data Gateway IP Address</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="n"/>
-      <c r="C30" s="9" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t>List of route reflector IPs</t>
-        </is>
-      </c>
-      <c r="B31" s="9" t="n"/>
-      <c r="C31" s="9" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>vCenter Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter Name</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="n"/>
-      <c r="C33" s="9" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B34" s="9" t="n"/>
-      <c r="C34" s="9" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Host Reference</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n"/>
-      <c r="C35" s="9" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B36" s="9" t="n"/>
-      <c r="C36" s="9" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="n"/>
-      <c r="C39" s="7" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Flavor</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="n"/>
-      <c r="C40" s="7" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Availability Zone</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Mgmt Network</t>
-        </is>
-      </c>
-      <c r="B42" s="7" t="n"/>
-      <c r="C42" s="7" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Mgmt Subnet</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Mgmt Port Name</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n"/>
-      <c r="C44" s="7" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Mgmt Port Security Groups</t>
-        </is>
-      </c>
-      <c r="B45" s="7" t="n"/>
-      <c r="C45" s="7" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Control Network</t>
-        </is>
-      </c>
-      <c r="B46" s="7" t="n"/>
-      <c r="C46" s="7" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Control Subnet</t>
-        </is>
-      </c>
-      <c r="B47" s="7" t="n"/>
-      <c r="C47" s="7" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Control Port Name</t>
-        </is>
-      </c>
-      <c r="B48" s="7" t="n"/>
-      <c r="C48" s="7" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Control Port Security Groups</t>
-        </is>
-      </c>
-      <c r="B49" s="7" t="n"/>
-      <c r="C49" s="7" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Port Name</t>
-        </is>
-      </c>
-      <c r="B50" s="7" t="n"/>
-      <c r="C50" s="7" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Port Security Groups</t>
-        </is>
-      </c>
-      <c r="B51" s="7" t="n"/>
-      <c r="C51" s="7" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>Health Parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of BGP neighbors</t>
-        </is>
-      </c>
-      <c r="B53" s="9" t="n"/>
-      <c r="C53" s="9" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of vswitches</t>
-        </is>
-      </c>
-      <c r="B54" s="9" t="n"/>
-      <c r="C54" s="9" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of host vports</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-      <c r="C55" s="9" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of VM vports</t>
-        </is>
-      </c>
-      <c r="B56" s="9" t="n"/>
-      <c r="C56" s="9" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of gateway ports</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-      <c r="C57" s="9" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>Certificates and credentials</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="inlineStr">
-        <is>
-          <t>Ejabberd user id</t>
-        </is>
-      </c>
-      <c r="B59" s="9" t="n"/>
-      <c r="C59" s="9" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="8" t="inlineStr">
-        <is>
-          <t>Private key path</t>
-        </is>
-      </c>
-      <c r="B60" s="9" t="n"/>
-      <c r="C60" s="9" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="inlineStr">
-        <is>
-          <t>Certificate path</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="n"/>
-      <c r="C61" s="9" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="8" t="inlineStr">
-        <is>
-          <t>CA certificate path</t>
-        </is>
-      </c>
-      <c r="B62" s="9" t="n"/>
-      <c r="C62" s="9" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="8" t="inlineStr">
-        <is>
-          <t>XMPP domain</t>
-        </is>
-      </c>
-      <c r="B63" s="9" t="n"/>
-      <c r="C63" s="9" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="inlineStr">
-        <is>
-          <t>Credentials set name</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="n"/>
-      <c r="C64" s="9" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>VSC Options</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B66" s="9" t="n"/>
-      <c r="C66" s="9" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="8" t="inlineStr">
-        <is>
-          <t>Harden VSC</t>
-        </is>
-      </c>
-      <c r="B67" s="9" t="n"/>
-      <c r="C67" s="9" t="n"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="8" t="inlineStr">
-        <is>
-          <t>Paths to VSC Config Files</t>
-        </is>
-      </c>
-      <c r="B68" s="9" t="n"/>
-      <c r="C68" s="9" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A65:C65"/>
-  </mergeCells>
-  <dataValidations count="20">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
-      <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
-      <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B53" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C53" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B54" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C54" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B67" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C67" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10756,21 +9816,21 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>VSD Statistics (Elasticsearch)</t>
+          <t>Virtualized Services Directory</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Specify configuration for Nuage VSD stats (VSTAT).</t>
+          <t>Specify configuration for Nuage VSDs.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Management Interface</t>
+          <t>Management Network</t>
         </is>
       </c>
     </row>
@@ -10790,7 +9850,7 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Management IP address</t>
+          <t>Management IP Address</t>
         </is>
       </c>
       <c r="B6" s="5" t="n"/>
@@ -10827,6 +9887,1374 @@
       <c r="G8" s="5" t="n"/>
     </row>
     <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Management Network Bridge</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>VM and Target Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Upgrade VM Name</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Target Server Type</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="9" t="n"/>
+      <c r="F16" s="9" t="n"/>
+      <c r="G16" s="9" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Cluster Name</t>
+        </is>
+      </c>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="9" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="G18" s="9" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="G19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>vCenter VM Folder</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="7" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>AWS Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>AWS Region</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="n"/>
+      <c r="C23" s="7" t="n"/>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="7" t="n"/>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="7" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>AWS VSD AMI ID</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n"/>
+      <c r="C24" s="7" t="n"/>
+      <c r="D24" s="7" t="n"/>
+      <c r="E24" s="7" t="n"/>
+      <c r="F24" s="7" t="n"/>
+      <c r="G24" s="7" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>Upgrade AWS VSD AMI ID</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n"/>
+      <c r="C25" s="7" t="n"/>
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="7" t="n"/>
+      <c r="F25" s="7" t="n"/>
+      <c r="G25" s="7" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>AWS Instance Type</t>
+        </is>
+      </c>
+      <c r="B26" s="7" t="n"/>
+      <c r="C26" s="7" t="n"/>
+      <c r="D26" s="7" t="n"/>
+      <c r="E26" s="7" t="n"/>
+      <c r="F26" s="7" t="n"/>
+      <c r="G26" s="7" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>AWS Keypair Name</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="7" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>AWS Management ENI ID</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="7" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Image</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
+      <c r="F30" s="7" t="n"/>
+      <c r="G30" s="7" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Flavor</t>
+        </is>
+      </c>
+      <c r="B31" s="7" t="n"/>
+      <c r="C31" s="7" t="n"/>
+      <c r="D31" s="7" t="n"/>
+      <c r="E31" s="7" t="n"/>
+      <c r="F31" s="7" t="n"/>
+      <c r="G31" s="7" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Availability Zone</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="n"/>
+      <c r="C32" s="7" t="n"/>
+      <c r="D32" s="7" t="n"/>
+      <c r="E32" s="7" t="n"/>
+      <c r="F32" s="7" t="n"/>
+      <c r="G32" s="7" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Network</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="n"/>
+      <c r="C33" s="7" t="n"/>
+      <c r="D33" s="7" t="n"/>
+      <c r="E33" s="7" t="n"/>
+      <c r="F33" s="7" t="n"/>
+      <c r="G33" s="7" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Subnet</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="n"/>
+      <c r="C34" s="7" t="n"/>
+      <c r="D34" s="7" t="n"/>
+      <c r="E34" s="7" t="n"/>
+      <c r="F34" s="7" t="n"/>
+      <c r="G34" s="7" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Name</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
+      <c r="D35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
+      <c r="F35" s="7" t="n"/>
+      <c r="G35" s="7" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="n"/>
+      <c r="C36" s="7" t="n"/>
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
+      <c r="F36" s="7" t="n"/>
+      <c r="G36" s="7" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Project Name</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="n"/>
+      <c r="C37" s="7" t="n"/>
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
+      <c r="F37" s="7" t="n"/>
+      <c r="G37" s="7" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Keystone URL</t>
+        </is>
+      </c>
+      <c r="B38" s="7" t="n"/>
+      <c r="C38" s="7" t="n"/>
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="7" t="n"/>
+      <c r="F38" s="7" t="n"/>
+      <c r="G38" s="7" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>VSD Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
+      <c r="D40" s="9" t="n"/>
+      <c r="E40" s="9" t="n"/>
+      <c r="F40" s="9" t="n"/>
+      <c r="G40" s="9" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t>Failed login attempts</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="n"/>
+      <c r="C41" s="9" t="n"/>
+      <c r="D41" s="9" t="n"/>
+      <c r="E41" s="9" t="n"/>
+      <c r="F41" s="9" t="n"/>
+      <c r="G41" s="9" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="inlineStr">
+        <is>
+          <t>Failed login lockout time</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="n"/>
+      <c r="C42" s="9" t="n"/>
+      <c r="D42" s="9" t="n"/>
+      <c r="E42" s="9" t="n"/>
+      <c r="F42" s="9" t="n"/>
+      <c r="G42" s="9" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="inlineStr">
+        <is>
+          <t>Advanced API Access Logging</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
+      <c r="D43" s="9" t="n"/>
+      <c r="E43" s="9" t="n"/>
+      <c r="F43" s="9" t="n"/>
+      <c r="G43" s="9" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="inlineStr">
+        <is>
+          <t>Health monitoring agent</t>
+        </is>
+      </c>
+      <c r="B44" s="9" t="n"/>
+      <c r="C44" s="9" t="n"/>
+      <c r="D44" s="9" t="n"/>
+      <c r="E44" s="9" t="n"/>
+      <c r="F44" s="9" t="n"/>
+      <c r="G44" s="9" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>Security and Certificates</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t>TLS version</t>
+        </is>
+      </c>
+      <c r="B46" s="9" t="n"/>
+      <c r="C46" s="9" t="n"/>
+      <c r="D46" s="9" t="n"/>
+      <c r="E46" s="9" t="n"/>
+      <c r="F46" s="9" t="n"/>
+      <c r="G46" s="9" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="inlineStr">
+        <is>
+          <t>Path to CA certificate pem file</t>
+        </is>
+      </c>
+      <c r="B47" s="9" t="n"/>
+      <c r="C47" s="9" t="n"/>
+      <c r="D47" s="9" t="n"/>
+      <c r="E47" s="9" t="n"/>
+      <c r="F47" s="9" t="n"/>
+      <c r="G47" s="9" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="inlineStr">
+        <is>
+          <t>Path to intermediate certificate pem file</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="n"/>
+      <c r="C48" s="9" t="n"/>
+      <c r="D48" s="9" t="n"/>
+      <c r="E48" s="9" t="n"/>
+      <c r="F48" s="9" t="n"/>
+      <c r="G48" s="9" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="inlineStr">
+        <is>
+          <t>Path to certificate pem file</t>
+        </is>
+      </c>
+      <c r="B49" s="9" t="n"/>
+      <c r="C49" s="9" t="n"/>
+      <c r="D49" s="9" t="n"/>
+      <c r="E49" s="9" t="n"/>
+      <c r="F49" s="9" t="n"/>
+      <c r="G49" s="9" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B50" s="9" t="n"/>
+      <c r="C50" s="9" t="n"/>
+      <c r="D50" s="9" t="n"/>
+      <c r="E50" s="9" t="n"/>
+      <c r="F50" s="9" t="n"/>
+      <c r="G50" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A45:G45"/>
+  </mergeCells>
+  <dataValidations count="42">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="list">
+      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="list">
+      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D13" type="list">
+      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E13" type="list">
+      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F13" type="list">
+      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="list">
+      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B46" type="list">
+      <formula1>"1.0,1.2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C46" type="list">
+      <formula1>"1.0,1.2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D46" type="list">
+      <formula1>"1.0,1.2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E46" type="list">
+      <formula1>"1.0,1.2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F46" type="list">
+      <formula1>"1.0,1.2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G46" type="list">
+      <formula1>"1.0,1.2"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Virtualized Services Controller</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Specify configuration for Nuage VSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Management Network</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>Hostname</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Management IP address</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Management Network Prefix Length</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Management Network Gateway</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Static Routes</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Control Network</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Control IP address</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Control Netmask Prefix Length</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>Vlan ID for Control Interface</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="n"/>
+      <c r="C13" s="9" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>Control IP address for VPRN Interface</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="n"/>
+      <c r="C14" s="9" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>List of control IP VPRNs</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>System info</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>System IP address</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>System Name</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>XMPP username</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Target Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Target Server type</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="5" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Bridges and Private IP</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>Management Network Bridge</t>
+        </is>
+      </c>
+      <c r="B25" s="9" t="n"/>
+      <c r="C25" s="9" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>Data Network Bridge</t>
+        </is>
+      </c>
+      <c r="B26" s="9" t="n"/>
+      <c r="C26" s="9" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>VSD FQDN</t>
+        </is>
+      </c>
+      <c r="B27" s="9" t="n"/>
+      <c r="C27" s="9" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Private Management IP</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="n"/>
+      <c r="C28" s="9" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>Private Control IP Address</t>
+        </is>
+      </c>
+      <c r="B29" s="9" t="n"/>
+      <c r="C29" s="9" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Private Data Gateway IP Address</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="n"/>
+      <c r="C30" s="9" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>List of route reflector IPs</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="n"/>
+      <c r="C31" s="9" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B33" s="9" t="n"/>
+      <c r="C33" s="9" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Cluster Name</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="n"/>
+      <c r="C34" s="9" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="n"/>
+      <c r="C35" s="9" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="n"/>
+      <c r="C36" s="9" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>vCenter VM Folder</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="n"/>
+      <c r="C37" s="7" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Image</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="n"/>
+      <c r="C40" s="7" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Flavor</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n"/>
+      <c r="C41" s="7" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Availability Zone</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n"/>
+      <c r="C42" s="7" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Mgmt Network</t>
+        </is>
+      </c>
+      <c r="B43" s="7" t="n"/>
+      <c r="C43" s="7" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Mgmt Subnet</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="n"/>
+      <c r="C44" s="7" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Mgmt Port Name</t>
+        </is>
+      </c>
+      <c r="B45" s="7" t="n"/>
+      <c r="C45" s="7" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Mgmt Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="n"/>
+      <c r="C46" s="7" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Network</t>
+        </is>
+      </c>
+      <c r="B47" s="7" t="n"/>
+      <c r="C47" s="7" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Subnet</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="n"/>
+      <c r="C48" s="7" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Name</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n"/>
+      <c r="C49" s="7" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B50" s="7" t="n"/>
+      <c r="C50" s="7" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Name</t>
+        </is>
+      </c>
+      <c r="B51" s="7" t="n"/>
+      <c r="C51" s="7" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="n"/>
+      <c r="C52" s="7" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>Health Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of BGP neighbors</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="n"/>
+      <c r="C54" s="9" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of vswitches</t>
+        </is>
+      </c>
+      <c r="B55" s="9" t="n"/>
+      <c r="C55" s="9" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of host vports</t>
+        </is>
+      </c>
+      <c r="B56" s="9" t="n"/>
+      <c r="C56" s="9" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of VM vports</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="n"/>
+      <c r="C57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of gateway ports</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="n"/>
+      <c r="C58" s="9" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>Certificates and credentials</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>Ejabberd user id</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="n"/>
+      <c r="C60" s="9" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="inlineStr">
+        <is>
+          <t>Private key path</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="n"/>
+      <c r="C61" s="9" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>Certificate path</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="n"/>
+      <c r="C62" s="9" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>CA certificate path</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="n"/>
+      <c r="C63" s="9" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="inlineStr">
+        <is>
+          <t>XMPP domain</t>
+        </is>
+      </c>
+      <c r="B64" s="9" t="n"/>
+      <c r="C64" s="9" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B65" s="9" t="n"/>
+      <c r="C65" s="9" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>VSC Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+      <c r="C67" s="9" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="inlineStr">
+        <is>
+          <t>Harden VSC</t>
+        </is>
+      </c>
+      <c r="B68" s="9" t="n"/>
+      <c r="C68" s="9" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="inlineStr">
+        <is>
+          <t>Paths to VSC Config Files</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="n"/>
+      <c r="C69" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A66:C66"/>
+  </mergeCells>
+  <dataValidations count="20">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
+      <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+      <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C68" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>VSD Statistics (Elasticsearch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Specify configuration for Nuage VSD stats (VSTAT).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Management Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Hostname</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Management IP address</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Management Network Prefix Length</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Management Network Gateway</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+    <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
           <t>VM and Target Server</t>
@@ -10984,29 +11412,29 @@
       <c r="G21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="n"/>
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="9" t="n"/>
+      <c r="E22" s="9" t="n"/>
+      <c r="F22" s="9" t="n"/>
+      <c r="G22" s="9" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>AWS Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>AWS AMI ID</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="n"/>
-      <c r="C23" s="7" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID for Upgrading Instance</t>
+          <t>AWS AMI ID</t>
         </is>
       </c>
       <c r="B24" s="7" t="n"/>
@@ -11019,7 +11447,7 @@
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>AWS AMI ID for Upgrading Instance</t>
         </is>
       </c>
       <c r="B25" s="7" t="n"/>
@@ -11032,7 +11460,7 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
@@ -11045,7 +11473,7 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>AWS Management ENI ID</t>
+          <t>AWS Keypair Name</t>
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
@@ -11056,29 +11484,29 @@
       <c r="G27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>AWS Management ENI ID</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="7" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>OpenStack Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B30" s="7" t="n"/>
@@ -11091,7 +11519,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Availability Zone</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B31" s="7" t="n"/>
@@ -11104,7 +11532,7 @@
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Network</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B32" s="7" t="n"/>
@@ -11117,7 +11545,7 @@
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Subnet</t>
+          <t>OpenStack Network</t>
         </is>
       </c>
       <c r="B33" s="7" t="n"/>
@@ -11130,7 +11558,7 @@
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Subnet</t>
         </is>
       </c>
       <c r="B34" s="7" t="n"/>
@@ -11143,7 +11571,7 @@
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Port Name</t>
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
@@ -11154,29 +11582,29 @@
       <c r="G35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="n"/>
+      <c r="C36" s="7" t="n"/>
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
+      <c r="F36" s="7" t="n"/>
+      <c r="G36" s="7" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>NFS Backup Configuration</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>NFS backup location</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
-      <c r="F37" s="7" t="n"/>
-      <c r="G37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>Interval to restore snapshots</t>
+          <t>NFS backup location</t>
         </is>
       </c>
       <c r="B38" s="7" t="n"/>
@@ -11189,7 +11617,7 @@
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>Interval to create snapshots</t>
+          <t>Interval to restore snapshots</t>
         </is>
       </c>
       <c r="B39" s="7" t="n"/>
@@ -11202,7 +11630,7 @@
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>Backup repository name</t>
+          <t>Interval to create snapshots</t>
         </is>
       </c>
       <c r="B40" s="7" t="n"/>
@@ -11213,29 +11641,29 @@
       <c r="G40" s="7" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Backup repository name</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n"/>
+      <c r="C41" s="7" t="n"/>
+      <c r="D41" s="7" t="n"/>
+      <c r="E41" s="7" t="n"/>
+      <c r="F41" s="7" t="n"/>
+      <c r="G41" s="7" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>Extra Disk</t>
         </is>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>Add extra disk</t>
-        </is>
-      </c>
-      <c r="B42" s="7" t="n"/>
-      <c r="C42" s="7" t="n"/>
-      <c r="D42" s="7" t="n"/>
-      <c r="E42" s="7" t="n"/>
-      <c r="F42" s="7" t="n"/>
-      <c r="G42" s="7" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>Extra disk size in GB</t>
+          <t>Add extra disk</t>
         </is>
       </c>
       <c r="B43" s="7" t="n"/>
@@ -11248,7 +11676,7 @@
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>Extra disk image path on hypervisor</t>
+          <t>Extra disk size in GB</t>
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
@@ -11261,7 +11689,7 @@
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>Extra disk image file prefix</t>
+          <t>Extra disk image path on hypervisor</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -11272,29 +11700,29 @@
       <c r="G45" s="7" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>Extra disk image file prefix</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="n"/>
+      <c r="C46" s="7" t="n"/>
+      <c r="D46" s="7" t="n"/>
+      <c r="E46" s="7" t="n"/>
+      <c r="F46" s="7" t="n"/>
+      <c r="G46" s="7" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>Other configuration</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B47" s="9" t="n"/>
-      <c r="C47" s="9" t="n"/>
-      <c r="D47" s="9" t="n"/>
-      <c r="E47" s="9" t="n"/>
-      <c r="F47" s="9" t="n"/>
-      <c r="G47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>Enable VSS UI</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B48" s="9" t="n"/>
@@ -11307,7 +11735,7 @@
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
-          <t>Health monitoring agent</t>
+          <t>Enable VSS UI</t>
         </is>
       </c>
       <c r="B49" s="9" t="n"/>
@@ -11320,7 +11748,7 @@
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Health monitoring agent</t>
         </is>
       </c>
       <c r="B50" s="9" t="n"/>
@@ -11330,16 +11758,29 @@
       <c r="F50" s="9" t="n"/>
       <c r="G50" s="9" t="n"/>
     </row>
+    <row r="51">
+      <c r="A51" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="n"/>
+      <c r="C51" s="9" t="n"/>
+      <c r="D51" s="9" t="n"/>
+      <c r="E51" s="9" t="n"/>
+      <c r="F51" s="9" t="n"/>
+      <c r="G51" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A47:G47"/>
   </mergeCells>
   <dataValidations count="48">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -11366,76 +11807,76 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
       <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G38" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G39" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12539,7 +12980,7 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A25:G25"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="12">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
       <formula1>"kvm,vcenter"</formula1>
     </dataValidation>
@@ -12558,6 +12999,12 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="list">
       <formula1>"kvm,vcenter"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -19,17 +19,19 @@
     <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nuh external interfaces" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nuhs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Portals" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Proxys" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Stcv global" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Stcvs" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Vcins" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Vnsutils" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Vrss" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Vsrs" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Webfilters" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Portals" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -327,6 +329,7 @@
     <author>vcenter_cluster</author>
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>aws_region</author>
     <author>aws_ami_id</author>
     <author>aws_upgrade_ami_id</author>
@@ -437,167 +440,172 @@
         <t>Name of the vCenter Datastore on which the NSG VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A24" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="16" ref="A25" shapeId="0">
       <text>
         <t>AWS Region</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
+    <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A26" shapeId="0">
+    <comment authorId="18" ref="A27" shapeId="0">
       <text>
         <t>AMI ID of the upgraded image</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A27" shapeId="0">
+    <comment authorId="19" ref="A28" shapeId="0">
       <text>
         <t>Instance Type of the AWS Instance</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A28" shapeId="0">
+    <comment authorId="20" ref="A29" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to VPC</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="21" ref="A30" shapeId="0">
       <text>
         <t>ENI for Access Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>ENI for Access Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>AWS WAN EIP AllocID</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A33" shapeId="0">
+    <comment authorId="24" ref="A34" shapeId="0">
       <text>
         <t>CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A34" shapeId="0">
+    <comment authorId="25" ref="A35" shapeId="0">
       <text>
         <t>WAN Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A35" shapeId="0">
+    <comment authorId="26" ref="A36" shapeId="0">
       <text>
         <t>LAN Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A36" shapeId="0">
+    <comment authorId="27" ref="A37" shapeId="0">
       <text>
         <t>Private Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A38" shapeId="0">
+    <comment authorId="28" ref="A39" shapeId="0">
       <text>
         <t>Organization on the VSD to associate with the NSG being bootstrapped, overrides global setting. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A39" shapeId="0">
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Name of the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A40" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Field type to match against for NSGv activation. [default: none]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Value to match against for NSGv activation. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Enables SSH on NSGv when set. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A44" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Name of the NSG infra profile template on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A45" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of the NSG infra profile on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A46" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of the NSG infra profile proxy DNS on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Allows NSGs using this profile to override SSH access. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A49" shapeId="0">
+    <comment authorId="37" ref="A50" shapeId="0">
       <text>
         <t>Name of the VSC infra profile for the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A50" shapeId="0">
+    <comment authorId="38" ref="A51" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile first controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A51" shapeId="0">
+    <comment authorId="39" ref="A52" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile second controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>Name of the network port for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A54" shapeId="0">
+    <comment authorId="41" ref="A55" shapeId="0">
       <text>
         <t>Physical name of the network port for the NSG [default: port1]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A55" shapeId="0">
+    <comment authorId="42" ref="A56" shapeId="0">
       <text>
         <t>Name of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A56" shapeId="0">
+    <comment authorId="43" ref="A57" shapeId="0">
       <text>
         <t>Physical name of the access port for the NSG. Deprecated in favor of access_ports [default: port2]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A57" shapeId="0">
+    <comment authorId="44" ref="A58" shapeId="0">
       <text>
         <t>VLAN range of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A58" shapeId="0">
+    <comment authorId="45" ref="A59" shapeId="0">
       <text>
         <t>VLAN number of the NSG access port for the NSG. Deprecated in favor of access_ports [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A59" shapeId="0">
+    <comment authorId="46" ref="A60" shapeId="0">
       <text>
         <t>Name of access ports list. (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A61" shapeId="0">
+    <comment authorId="47" ref="A62" shapeId="0">
       <text>
         <t>The port for telnet to HV host to access NSGv serial or console terminal [default: 2300]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A62" shapeId="0">
+    <comment authorId="48" ref="A63" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -607,6 +615,27 @@
 </file>
 
 <file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>vsdconfig_enable</author>
+    <author>elasticsearch_enable</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Enable VSD configuration parameters on NUH [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Enable Elasticsearch configuration parameters on NUH [default: False]</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -651,7 +680,40 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>router_id</author>
+    <author>enabled</author>
+    <author>interface</author>
+    <author>vip</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Router ID [default: 100]</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Enable this VRRP configuration [default: True]</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>VRRP interface</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>List of VIP addresses (List items separated by comma.)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -762,7 +824,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -873,7 +935,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -966,7 +1028,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>stcv_image_path</author>
@@ -987,180 +1049,6 @@
     <comment authorId="2" ref="A7" shapeId="0">
       <text>
         <t>IP address of the server where the STCv license is found</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>target_server</author>
-    <author>target_server_type</author>
-    <author>hostname</author>
-    <author>vmname</author>
-    <author>mgmt_ip</author>
-    <author>mgmt_gateway</author>
-    <author>mgmt_ip_prefix</author>
-    <author>mgmt_bridge</author>
-    <author>data_bridge1</author>
-    <author>data_bridge2</author>
-    <author>stcv_destination_image_path</author>
-    <author>vcpus</author>
-    <author>ram</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Hostname or IP address of the KVM hypervisor where the STCv VM will be instantiated</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>Type of hypervisor environment into which the instance will be created</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>Hostname to apply to the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
-      <text>
-        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
-      </text>
-    </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
-      <text>
-        <t>IP address to apply to the management interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
-      <text>
-        <t>IP address of the network gateway for the management interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
-      <text>
-        <t>Network prefix length for the STCv management interface</t>
-      </text>
-    </comment>
-    <comment authorId="7" ref="A13" shapeId="0">
-      <text>
-        <t>Bridge to connect the management interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="8" ref="A15" shapeId="0">
-      <text>
-        <t>Bridge to connect the first data interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
-      <text>
-        <t>Bridge to connect the second data interface of the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="A18" shapeId="0">
-      <text>
-        <t>Path to the STCv qcow2 image on the target server</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
-      <text>
-        <t>Number of vCPUs to apply to the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
-      <text>
-        <t>Amount of RAM to apply to the STCv VM</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>hostname</author>
-    <author>mgmt_ip</author>
-    <author>mgmt_ip_prefix</author>
-    <author>mgmt_gateway</author>
-    <author>vmname</author>
-    <author>target_server_type</author>
-    <author>target_server</author>
-    <author>master_vcin</author>
-    <author>vcenter_datacenter</author>
-    <author>vcenter_cluster</author>
-    <author>vcenter_datastore</author>
-    <author>cpuset</author>
-    <author>credentials_set</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Hostname of the VCIN instance</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>IP address of the management interface</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>Management network prefix length</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
-      <text>
-        <t>IP address of the gateway on the management network</t>
-      </text>
-    </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
-      <text>
-        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
-      </text>
-    </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
-      <text>
-        <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy.</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
-      <text>
-        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
-      </text>
-    </comment>
-    <comment authorId="7" ref="A14" shapeId="0">
-      <text>
-        <t>The FQDN or IP address of the Master VCIN in an Active/Standby deployment. Only used when this VCIN is part of an active/standby configuration. The hostname provided here must match the hostname of another VCIN in the list of VCINs for this deployment. [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="8" ref="A15" shapeId="0">
-      <text>
-        <t>Name of the vCenter Datacenter on which the VCIN VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
-      </text>
-    </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
-      <text>
-        <t>Name of the vCenter Cluster on which the VCIN VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
-      <text>
-        <t>Name of the vCenter Datastore on which the VCIN VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
-      <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, VCIN requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
-      <text>
-        <t>Name of the credentials set for the vsd</t>
       </text>
     </comment>
   </commentList>
@@ -1185,6 +1073,8 @@
     <author>access_bridge</author>
     <author>ntp_server_list</author>
     <author>dns_server_list</author>
+    <author>stats_out</author>
+    <author>stats_out_proxy</author>
     <author>timezone</author>
     <author>skip_dns_resolution_tests</author>
     <author>vsd_run_cluster_rtt_test</author>
@@ -1205,6 +1095,7 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>vcenter_resource_pool</author>
     <author>vcenter_ovftool</author>
     <author>vcenter_start_vsd_with_interfaces_disabled</author>
@@ -1347,415 +1238,430 @@
     </comment>
     <comment authorId="15" ref="A24" shapeId="0">
       <text>
+        <t>Set the deployment for stats-out.  At this time, only exactly 3 clustered VSDs and exactly 3 stats VSDs are supported.  The first 3 VSDs specified are clustered and the remaining are marked statistics only [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="16" ref="A25" shapeId="0">
+      <text>
+        <t>Set the proxy address for a stats-out deployment.  If unspecified the first NUH to be deployed will be used as the proxy.  If there are no NUHs being deployed, an alternative proxy address must be specified. [default: (first NUH hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="17" ref="A27" shapeId="0">
+      <text>
         <t>Timezone specification for the deployment [default: US/Pacific]</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
+    <comment authorId="18" ref="A28" shapeId="0">
       <text>
         <t>When true, skip DNS resolution checks for hostnames from the MetroAE host. This is used for situations where the VSP components are configured to use a DNS server that is not accessible from the MetroAE host or when you are deploying a new DNS server with MetroAE. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A26" shapeId="0">
+    <comment authorId="19" ref="A29" shapeId="0">
       <text>
         <t>When true, run RTT tests between VSDs in a cluster or standby/active cluster [default: False]</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A27" shapeId="0">
+    <comment authorId="20" ref="A30" shapeId="0">
       <text>
         <t>When true, do not validate the RTT between VSDs in a cluster is less than max RTT [default: False]</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A28" shapeId="0">
+    <comment authorId="21" ref="A31" shapeId="0">
       <text>
         <t>Maximum RTT in milliseconds between VSDs in a cluster [default: 20]</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="22" ref="A32" shapeId="0">
       <text>
         <t>Maximum RTT in milliseconds between Active and Standby VSDs [default: 200]</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="23" ref="A33" shapeId="0">
       <text>
         <t>Run the VSD disk performance test when true, else skip the test [default: False]</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="24" ref="A34" shapeId="0">
       <text>
         <t>Sets the total size of created files for VSD disk performance test. For a valid measurement, the total file size must be larger than VSD RAM to minimize the effects of caching. [default: 100G]</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A32" shapeId="0">
+    <comment authorId="25" ref="A35" shapeId="0">
       <text>
         <t>Sets the minimum value for VSD disk performance test in IOPS [default: 10000]</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A33" shapeId="0">
+    <comment authorId="26" ref="A36" shapeId="0">
       <text>
         <t>Sets the duration of the VSD disk performance test in seconds [default: 300]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A34" shapeId="0">
+    <comment authorId="27" ref="A37" shapeId="0">
       <text>
         <t>When true, ignore the results of the VSD disk performance test [default: False]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A35" shapeId="0">
+    <comment authorId="28" ref="A38" shapeId="0">
       <text>
         <t>When true, ask user for confirmation before MetroAE destroys components. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Specifies the global directory root to store backup file sets on the MetroAE host.  This overrides metro_backup_root in the upgrade deployment file if specified.  If neither is specified, a backups directory will be created off of nuage_unzipped_files_dir.</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Specifies the maximum number of backups to store in backup_directory_root.  The oldest backups of the same type exceeding this amount will be deleted at backup time.  The default of -1 specifies no limit. [default: -1]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>The name of the backup file set directory under the backup_directory_root to restore. [default: backup-latest-full]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="32" ref="A44" shapeId="0">
       <text>
         <t>vCenter datacenter to deploy Nuage components. Can be overridden by individual components</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Name of the vCenter cluster on which to deploy Nuage components. Can be overridden by individual components</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components. Can be overridden by individual components</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of the vCenter datastore on which to deploy the Nuage components. Can be overridden by individual components</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Optional path to a folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="38" ref="A51" shapeId="0">
       <text>
         <t>The vCenter resource pool where the VMs need to be located. A resource pool is a logical abstraction of resources. Different resource pools can be configured to have different priorities in case of resource contention and can have different resource reservations and limitations.</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="39" ref="A52" shapeId="0">
       <text>
         <t>This is the full path to the vCenter OVFtool executable. When running metroae from a clone of the nuage-metroae repo, this should be set to the path to ovftool on the host, usually /usr/bin/ovftool. When running the metroae Docker container, the ovftool installation directory, /usr/lib/vmware-ovftool, must be copied to the metroae_data directory and this parameter must be set to the internal container path to the ovftool in that directory, /data/vmware-ovftool/ovftool. [default: /usr/bin/ovftool]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A49" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>This when set to true starts the VM with disabled interfaces during upgrade process [default: False]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A51" shapeId="0">
+    <comment authorId="41" ref="A55" shapeId="0">
       <text>
         <t>Project name for OpenStack [default: ]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="42" ref="A56" shapeId="0">
       <text>
         <t>Keystone URL for OpenStack [default: ]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A53" shapeId="0">
+    <comment authorId="43" ref="A57" shapeId="0">
       <text>
         <t>Project domain name for OpenStack if required [default: default]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A54" shapeId="0">
+    <comment authorId="44" ref="A58" shapeId="0">
       <text>
         <t>User domain name for OpenStack if required [default: default]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A55" shapeId="0">
+    <comment authorId="45" ref="A59" shapeId="0">
       <text>
         <t>CA cetrificate file path for Openstack if necessary</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A57" shapeId="0">
+    <comment authorId="46" ref="A61" shapeId="0">
       <text>
         <t>Full path to the public key file to be injected into Nuage components to enable passwordless connectivity for configuration. When using docker container changing the path from default can cause connectivity issues [default: ~/.ssh/id_rsa.pub]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A58" shapeId="0">
+    <comment authorId="47" ref="A62" shapeId="0">
       <text>
         <t>Flag to indicate when secure communications via TLS will be used between VSCs and VSDs [default: True]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A59" shapeId="0">
+    <comment authorId="48" ref="A63" shapeId="0">
       <text>
         <t>Flag to indicate when secure communications via TLS will be used between VSCs and data plane components, e.g. VRS or NSGv; If VRS is defined, target_server_password must be defined in credentials.yml [default: True]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A61" shapeId="0">
+    <comment authorId="49" ref="A65" shapeId="0">
       <text>
         <t>Path to the standard license file for the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A62" shapeId="0">
+    <comment authorId="50" ref="A66" shapeId="0">
       <text>
         <t>Path to the cluster license file for the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A63" shapeId="0">
+    <comment authorId="51" ref="A67" shapeId="0">
       <text>
         <t>Raise a failure if the VSD licenses (Standard or cluster only) do not have at least the specified number of days remaining before expiration. If undefined, no check of days remaining before VSD license expiration will be made. If you want to verify that the number of days left before expiration is more than a certain number of days, uncomment this variable and set the value to the number of days. [default: -1]</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A64" shapeId="0">
+    <comment authorId="52" ref="A68" shapeId="0">
       <text>
         <t>Path to the Ejabberd license file for the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A65" shapeId="0">
+    <comment authorId="53" ref="A69" shapeId="0">
       <text>
         <t>Path to the license file for the SD-WAN Portal [default: ]</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A66" shapeId="0">
+    <comment authorId="54" ref="A70" shapeId="0">
       <text>
         <t>Path to the license file for the NUH [default: ]</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A68" shapeId="0">
+    <comment authorId="55" ref="A72" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSD during the installation [default: True]</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A69" shapeId="0">
+    <comment authorId="56" ref="A73" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSTAT during the installation [default: False]</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A70" shapeId="0">
+    <comment authorId="57" ref="A74" shapeId="0">
       <text>
         <t>Proxy URL to be used if Yum repositories cannot be directly reached [default: NONE]</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A71" shapeId="0">
+    <comment authorId="58" ref="A75" shapeId="0">
       <text>
         <t>Username of the SSH proxy host if one is used [default: root]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A72" shapeId="0">
+    <comment authorId="59" ref="A76" shapeId="0">
       <text>
         <t>IP Address or Hostname of the SSH host if one is used [default: sshhost]</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A74" shapeId="0">
+    <comment authorId="60" ref="A78" shapeId="0">
       <text>
         <t>Amount of VSD disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="58" ref="A75" shapeId="0">
+    <comment authorId="61" ref="A79" shapeId="0">
       <text>
         <t>Amount of VSC disk space to pre-allocate, in GB. The only valid values are 0 and 1. When undefined or 0, file size allocation will be skipped. Production deployments should set this value to 1. [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="59" ref="A76" shapeId="0">
+    <comment authorId="62" ref="A80" shapeId="0">
       <text>
         <t>Amount of VSTAT disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 100]</t>
       </text>
     </comment>
-    <comment authorId="60" ref="A77" shapeId="0">
+    <comment authorId="63" ref="A81" shapeId="0">
       <text>
         <t>Amount of VCIN disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="61" ref="A78" shapeId="0">
+    <comment authorId="64" ref="A82" shapeId="0">
       <text>
         <t>Amount of NSGV disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="62" ref="A80" shapeId="0">
+    <comment authorId="65" ref="A84" shapeId="0">
       <text>
         <t>Amount of VSD RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="63" ref="A81" shapeId="0">
+    <comment authorId="66" ref="A85" shapeId="0">
       <text>
         <t>Amount of VSC RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="64" ref="A82" shapeId="0">
+    <comment authorId="67" ref="A86" shapeId="0">
       <text>
         <t>Amount of VSTAT RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="65" ref="A83" shapeId="0">
+    <comment authorId="68" ref="A87" shapeId="0">
       <text>
         <t>Amount of VCIN RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="66" ref="A84" shapeId="0">
+    <comment authorId="69" ref="A88" shapeId="0">
       <text>
         <t>Amount of NUH RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="67" ref="A85" shapeId="0">
+    <comment authorId="70" ref="A89" shapeId="0">
       <text>
         <t>Amount of Webfilter RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="68" ref="A86" shapeId="0">
+    <comment authorId="71" ref="A90" shapeId="0">
       <text>
         <t>Amount of Portal RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="69" ref="A88" shapeId="0">
+    <comment authorId="72" ref="A92" shapeId="0">
       <text>
         <t>Number of CPU's for VSD. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="70" ref="A89" shapeId="0">
+    <comment authorId="73" ref="A93" shapeId="0">
       <text>
         <t>Number of CPU's for VSC. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="71" ref="A90" shapeId="0">
+    <comment authorId="74" ref="A94" shapeId="0">
       <text>
         <t>Number of CPU's for VSTAT. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="72" ref="A91" shapeId="0">
+    <comment authorId="75" ref="A95" shapeId="0">
       <text>
         <t>Number of CPU's for VNSUTIL. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="73" ref="A92" shapeId="0">
+    <comment authorId="76" ref="A96" shapeId="0">
       <text>
         <t>Number of CPU's for NUH. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="74" ref="A93" shapeId="0">
+    <comment authorId="77" ref="A97" shapeId="0">
       <text>
         <t>Number of CPU's for VCIN. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="75" ref="A94" shapeId="0">
+    <comment authorId="78" ref="A98" shapeId="0">
       <text>
         <t>Number of CPU's for Portal vm. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="76" ref="A95" shapeId="0">
+    <comment authorId="79" ref="A99" shapeId="0">
       <text>
         <t>Number of CPU's for Webfilter vm. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="77" ref="A97" shapeId="0">
+    <comment authorId="80" ref="A101" shapeId="0">
       <text>
         <t>VSD Architect URL. Required for tasks during Upgrade, Health Checks etc [default: https://(vsd_fqdn):8443]</t>
       </text>
     </comment>
-    <comment authorId="78" ref="A98" shapeId="0">
+    <comment authorId="81" ref="A102" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VSD Architect. Required for tasks during Upgrade, Health Checks etc [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="79" ref="A99" shapeId="0">
+    <comment authorId="82" ref="A103" shapeId="0">
       <text>
         <t>VCIN URL used for API interaction. Required for tasks like VRS-E upgrade (through VCIN) [default: https://(vcin_ip_address):8443]</t>
       </text>
     </comment>
-    <comment authorId="80" ref="A100" shapeId="0">
+    <comment authorId="83" ref="A104" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VCIN. Required for tasks like VRS-E upgrade (through VCIN) [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="81" ref="A102" shapeId="0">
+    <comment authorId="84" ref="A106" shapeId="0">
       <text>
         <t>List of hooks files (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="82" ref="A103" shapeId="0">
+    <comment authorId="85" ref="A107" shapeId="0">
       <text>
         <t>Skip tasks and playbooks (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="83" ref="A105" shapeId="0">
+    <comment authorId="86" ref="A109" shapeId="0">
       <text>
         <t>Address of SMTP server to be used if emailing health results</t>
       </text>
     </comment>
-    <comment authorId="84" ref="A106" shapeId="0">
+    <comment authorId="87" ref="A110" shapeId="0">
       <text>
         <t>Port to be used on the SMTP Server [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="85" ref="A107" shapeId="0">
+    <comment authorId="88" ref="A111" shapeId="0">
       <text>
         <t>Email address from which health report will be sent</t>
       </text>
     </comment>
-    <comment authorId="86" ref="A108" shapeId="0">
+    <comment authorId="89" ref="A112" shapeId="0">
       <text>
         <t>List of destination email addresses (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="87" ref="A110" shapeId="0">
+    <comment authorId="90" ref="A114" shapeId="0">
       <text>
         <t>Address of the mail server to be used to receive monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="88" ref="A111" shapeId="0">
+    <comment authorId="91" ref="A115" shapeId="0">
       <text>
         <t>Port on mail server to be used for monit alerts [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="89" ref="A112" shapeId="0">
+    <comment authorId="92" ref="A116" shapeId="0">
       <text>
         <t>Encryption to be used when sending monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="90" ref="A113" shapeId="0">
+    <comment authorId="93" ref="A117" shapeId="0">
       <text>
         <t>Enables use of monit eventqueue to store alerts if email alerts fail to send [default: True]</t>
       </text>
     </comment>
-    <comment authorId="91" ref="A114" shapeId="0">
+    <comment authorId="94" ref="A118" shapeId="0">
       <text>
         <t>Email address from which monit alerts will be sent</t>
       </text>
     </comment>
-    <comment authorId="92" ref="A115" shapeId="0">
+    <comment authorId="95" ref="A119" shapeId="0">
       <text>
         <t>Email address to reply to monit alert emails</t>
       </text>
     </comment>
-    <comment authorId="93" ref="A116" shapeId="0">
+    <comment authorId="96" ref="A120" shapeId="0">
       <text>
         <t>Email subject for alert emails. Overrides monit default alert subject</t>
       </text>
     </comment>
-    <comment authorId="94" ref="A117" shapeId="0">
+    <comment authorId="97" ref="A121" shapeId="0">
       <text>
         <t>Email message for alert emails. Overrides monit default alert message</t>
       </text>
     </comment>
-    <comment authorId="95" ref="A118" shapeId="0">
+    <comment authorId="98" ref="A122" shapeId="0">
       <text>
         <t>Destination email address for monit alerts</t>
       </text>
     </comment>
-    <comment authorId="96" ref="A119" shapeId="0">
+    <comment authorId="99" ref="A123" shapeId="0">
       <text>
         <t>Specific events for which alerts should be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="97" ref="A120" shapeId="0">
+    <comment authorId="100" ref="A124" shapeId="0">
       <text>
         <t>Events for which alerts should not be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
@@ -1765,6 +1671,186 @@
 </file>
 
 <file path=xl/comments/comment20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>target_server</author>
+    <author>target_server_type</author>
+    <author>hostname</author>
+    <author>vmname</author>
+    <author>mgmt_ip</author>
+    <author>mgmt_gateway</author>
+    <author>mgmt_ip_prefix</author>
+    <author>mgmt_bridge</author>
+    <author>data_bridge1</author>
+    <author>data_bridge2</author>
+    <author>stcv_destination_image_path</author>
+    <author>vcpus</author>
+    <author>ram</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Hostname or IP address of the KVM hypervisor where the STCv VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Type of hypervisor environment into which the instance will be created</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Hostname to apply to the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A10" shapeId="0">
+      <text>
+        <t>IP address to apply to the management interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A11" shapeId="0">
+      <text>
+        <t>IP address of the network gateway for the management interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A12" shapeId="0">
+      <text>
+        <t>Network prefix length for the STCv management interface</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A13" shapeId="0">
+      <text>
+        <t>Bridge to connect the management interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="8" ref="A15" shapeId="0">
+      <text>
+        <t>Bridge to connect the first data interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Bridge to connect the second data interface of the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A18" shapeId="0">
+      <text>
+        <t>Path to the STCv qcow2 image on the target server</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A19" shapeId="0">
+      <text>
+        <t>Number of vCPUs to apply to the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>Amount of RAM to apply to the STCv VM</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hostname</author>
+    <author>mgmt_ip</author>
+    <author>mgmt_ip_prefix</author>
+    <author>mgmt_gateway</author>
+    <author>vmname</author>
+    <author>target_server_type</author>
+    <author>target_server</author>
+    <author>master_vcin</author>
+    <author>vcenter_datacenter</author>
+    <author>vcenter_cluster</author>
+    <author>vcenter_datastore</author>
+    <author>vcenter_host_clusters_folder</author>
+    <author>cpuset</author>
+    <author>credentials_set</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Hostname of the VCIN instance</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>IP address of the management interface</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Management network prefix length</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>IP address of the gateway on the management network</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A10" shapeId="0">
+      <text>
+        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A11" shapeId="0">
+      <text>
+        <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy.</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A12" shapeId="0">
+      <text>
+        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A14" shapeId="0">
+      <text>
+        <t>The FQDN or IP address of the Master VCIN in an Active/Standby deployment. Only used when this VCIN is part of an active/standby configuration. The hostname provided here must match the hostname of another VCIN in the list of VCINs for this deployment. [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="8" ref="A15" shapeId="0">
+      <text>
+        <t>Name of the vCenter Datacenter on which the VCIN VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Name of the vCenter Cluster on which the VCIN VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Name of the vCenter Datastore on which the VCIN VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A18" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>Cpuset information for cpu pinning on KVM. For example, VCIN requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A21" shapeId="0">
+      <text>
+        <t>Name of the credentials set for the vsd</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1787,6 +1873,7 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>aws_region</author>
     <author>aws_ami_id</author>
     <author>aws_instance_type</author>
@@ -1909,102 +1996,107 @@
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A31" shapeId="0">
+    <comment authorId="20" ref="A30" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="21" ref="A32" shapeId="0">
       <text>
         <t>Only applicable for AWS deployments</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A32" shapeId="0">
+    <comment authorId="22" ref="A33" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A33" shapeId="0">
+    <comment authorId="23" ref="A34" shapeId="0">
       <text>
         <t>Instance Type of the AWS Instance</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A34" shapeId="0">
+    <comment authorId="24" ref="A35" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to VPC</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A35" shapeId="0">
+    <comment authorId="25" ref="A36" shapeId="0">
       <text>
         <t>ENI ID for VNSUTIL Instance on Management Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A36" shapeId="0">
+    <comment authorId="26" ref="A37" shapeId="0">
       <text>
         <t>ENI ID for VNSUTIL on Data Interface</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A38" shapeId="0">
+    <comment authorId="27" ref="A39" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A39" shapeId="0">
+    <comment authorId="28" ref="A40" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A40" shapeId="0">
+    <comment authorId="29" ref="A41" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A41" shapeId="0">
+    <comment authorId="30" ref="A42" shapeId="0">
       <text>
         <t>Name of management network on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A42" shapeId="0">
+    <comment authorId="31" ref="A43" shapeId="0">
       <text>
         <t>Name of management subnet on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A43" shapeId="0">
+    <comment authorId="32" ref="A44" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A44" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A45" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of data network on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A46" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of data subnet on OpenStack for VNSUTIL</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name for Data interface</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Set of security groups to associate with Data interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A50" shapeId="0">
+    <comment authorId="38" ref="A51" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VNSUTIL requires 2 cores and sample values will be of the form [ 0, 1 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A51" shapeId="0">
+    <comment authorId="39" ref="A52" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -2013,7 +2105,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vrs_os_type</author>
@@ -2076,7 +2168,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2175,7 +2267,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2294,6 +2386,8 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
+    <author>ipv6_script</author>
     <author>aws_region</author>
     <author>aws_ami_id</author>
     <author>aws_upgrade_ami_id</author>
@@ -2391,127 +2485,137 @@
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="14" ref="A21" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="15" ref="A22" shapeId="0">
+      <text>
+        <t>Path to the script on the VSD to configure ipv6</t>
+      </text>
+    </comment>
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>Only applicable for AWS deployments</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="17" ref="A25" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A24" shapeId="0">
+    <comment authorId="18" ref="A26" shapeId="0">
       <text>
         <t>AMI VSD ID of the latest VSD release. Used only during an upgrade</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A25" shapeId="0">
+    <comment authorId="19" ref="A27" shapeId="0">
       <text>
         <t>Instance Type to be used for a VSD instance</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A26" shapeId="0">
+    <comment authorId="20" ref="A28" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to AWS instances</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A27" shapeId="0">
+    <comment authorId="21" ref="A29" shapeId="0">
       <text>
         <t>ENI ID for VSD Instance on Management Subnet</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="24" ref="A33" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A32" shapeId="0">
+    <comment authorId="25" ref="A34" shapeId="0">
       <text>
         <t>Name of network on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A33" shapeId="0">
+    <comment authorId="26" ref="A35" shapeId="0">
       <text>
         <t>Name of subnet on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A34" shapeId="0">
+    <comment authorId="27" ref="A36" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A35" shapeId="0">
+    <comment authorId="28" ref="A37" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A36" shapeId="0">
+    <comment authorId="29" ref="A38" shapeId="0">
       <text>
         <t>Project name for OpenStack [default: ]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A37" shapeId="0">
+    <comment authorId="30" ref="A39" shapeId="0">
       <text>
         <t>Keystone URL for OpenStack [default: ]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="31" ref="A41" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSD requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A40" shapeId="0">
+    <comment authorId="32" ref="A42" shapeId="0">
       <text>
         <t>Lockout the user after reaching the number of failed login attempts</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A41" shapeId="0">
+    <comment authorId="33" ref="A43" shapeId="0">
       <text>
         <t>Lockout time after failed login attemps</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A42" shapeId="0">
+    <comment authorId="34" ref="A44" shapeId="0">
       <text>
         <t>Enables advance API access logging</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A43" shapeId="0">
+    <comment authorId="35" ref="A45" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="36" ref="A47" shapeId="0">
       <text>
         <t>TLS version to use</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="37" ref="A48" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="38" ref="A49" shapeId="0">
       <text>
         <t>Path to intermediate certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="39" ref="A50" shapeId="0">
       <text>
         <t>Path to certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="40" ref="A51" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -2551,6 +2655,7 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>openstack_image</author>
     <author>openstack_flavor</author>
     <author>openstack_availability_zone</author>
@@ -2720,137 +2825,142 @@
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A39" shapeId="0">
+    <comment authorId="28" ref="A38" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A40" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Name of management network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Name of management subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="34" ref="A45" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="35" ref="A46" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="36" ref="A47" shapeId="0">
       <text>
         <t>Name of control network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="37" ref="A48" shapeId="0">
       <text>
         <t>Name of control subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="38" ref="A49" shapeId="0">
       <text>
         <t>Name for Control interface</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="39" ref="A50" shapeId="0">
       <text>
         <t>Set of security groups to associate with Control interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A50" shapeId="0">
+    <comment authorId="40" ref="A51" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A51" shapeId="0">
+    <comment authorId="41" ref="A52" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A53" shapeId="0">
+    <comment authorId="42" ref="A54" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A54" shapeId="0">
+    <comment authorId="43" ref="A55" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A55" shapeId="0">
+    <comment authorId="44" ref="A56" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A56" shapeId="0">
+    <comment authorId="45" ref="A57" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A57" shapeId="0">
+    <comment authorId="46" ref="A58" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A59" shapeId="0">
+    <comment authorId="47" ref="A60" shapeId="0">
       <text>
         <t>Ejabberd user id used to create the certificate</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A60" shapeId="0">
+    <comment authorId="48" ref="A61" shapeId="0">
       <text>
         <t>Path to VSC certificate key pem file</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A61" shapeId="0">
+    <comment authorId="49" ref="A62" shapeId="0">
       <text>
         <t>Path to VSC certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A62" shapeId="0">
+    <comment authorId="50" ref="A63" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A63" shapeId="0">
+    <comment authorId="51" ref="A64" shapeId="0">
       <text>
         <t>XMPP domain used in custom certificates</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A64" shapeId="0">
+    <comment authorId="52" ref="A65" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsc</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A66" shapeId="0">
+    <comment authorId="53" ref="A67" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSC requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A67" shapeId="0">
+    <comment authorId="54" ref="A68" shapeId="0">
       <text>
         <t>Enables hardening configuration on VSC [default: True]</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A68" shapeId="0">
+    <comment authorId="55" ref="A69" shapeId="0">
       <text>
         <t>Paths to files that can be optionally applied for additional VSC configuration (List items separated by comma.)</t>
       </text>
@@ -2877,6 +2987,7 @@
     <author>vcenter_host_reference</author>
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
+    <author>vcenter_host_clusters_folder</author>
     <author>aws_ami_id</author>
     <author>aws_upgrade_ami_id</author>
     <author>aws_instance_type</author>
@@ -2978,122 +3089,127 @@
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="15" ref="A22" shapeId="0">
+      <text>
+        <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A24" shapeId="0">
+    <comment authorId="17" ref="A25" shapeId="0">
       <text>
         <t>AMI ID of the upgraded image</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A25" shapeId="0">
+    <comment authorId="18" ref="A26" shapeId="0">
       <text>
         <t>Instance Type of the AWS Instance</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A26" shapeId="0">
+    <comment authorId="19" ref="A27" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to VPC</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A27" shapeId="0">
+    <comment authorId="20" ref="A28" shapeId="0">
       <text>
         <t>ENI ID for VSTAT Instance on Management Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="21" ref="A30" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A32" shapeId="0">
+    <comment authorId="24" ref="A33" shapeId="0">
       <text>
         <t>Name of network on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A33" shapeId="0">
+    <comment authorId="25" ref="A34" shapeId="0">
       <text>
         <t>Name of subnet on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A34" shapeId="0">
+    <comment authorId="26" ref="A35" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A35" shapeId="0">
+    <comment authorId="27" ref="A36" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="28" ref="A38" shapeId="0">
       <text>
         <t>NFS share for copying vstat backups. For example, NFS share should contain both the ip address and shared volume in this form 1.1.1.1:/nfshare</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="29" ref="A39" shapeId="0">
       <text>
         <t>Interval to restore database snapshots, min value is 0 and max value is 60 minutes [default: 5]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="30" ref="A40" shapeId="0">
       <text>
         <t>Interval to create database snapshots, min value is 0 and max value is 60 minutes [default: 5]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A40" shapeId="0">
+    <comment authorId="31" ref="A41" shapeId="0">
       <text>
         <t>Repository name for storing backups</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Add a second disk to separate Elasticsearch data from primary image. Disk is added to path /var/lib/elasticsearch on the VSTAT. Supported on KVM only. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Size of the extra disk in GB. Supported on KVM only. [default: 1000]</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="34" ref="A45" shapeId="0">
       <text>
         <t>Path on the hypervisor to store the extra disk image. Supported on KVM only. [default: /var/lib/libvirt/images]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="35" ref="A46" shapeId="0">
       <text>
         <t>Name of the extra disk image file. Supported on KVM only. [default: extra-disk-(hostname)]</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSTAT requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Enable the setup of the Virtualized Security Services UI [default: False]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A49" shapeId="0">
+    <comment authorId="38" ref="A50" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A50" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -3402,7 +3518,7 @@
     <author>vmname</author>
     <author>mgmt_ip</author>
     <author>mgmt_gateway</author>
-    <author>mgmt_netmask</author>
+    <author>mgmt_ip_prefix</author>
     <author>data_ip</author>
     <author>data_subnet</author>
     <author>data_netmask</author>
@@ -3449,7 +3565,7 @@
     </comment>
     <comment authorId="6" ref="A12" shapeId="0">
       <text>
-        <t>Management network netmask for the DNS VM</t>
+        <t>Management network prefix length for DNS VM</t>
       </text>
     </comment>
     <comment authorId="7" ref="A14" shapeId="0">
@@ -3853,7 +3969,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Deployment</t>
+          <t>Deployment details</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4465,29 +4581,29 @@
       <c r="G22" s="9" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B23" s="9" t="n"/>
+      <c r="C23" s="9" t="n"/>
+      <c r="D23" s="9" t="n"/>
+      <c r="E23" s="9" t="n"/>
+      <c r="F23" s="9" t="n"/>
+      <c r="G23" s="9" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>AWS Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>AWS Region</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID</t>
+          <t>AWS Region</t>
         </is>
       </c>
       <c r="B25" s="7" t="n"/>
@@ -4500,7 +4616,7 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID for Upgrading Instance</t>
+          <t>AWS AMI ID</t>
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
@@ -4513,7 +4629,7 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>AWS AMI ID for Upgrading Instance</t>
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
@@ -4526,7 +4642,7 @@
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B28" s="7" t="n"/>
@@ -4539,7 +4655,7 @@
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>AWS Access ENI</t>
+          <t>AWS Keypair Name</t>
         </is>
       </c>
       <c r="B29" s="7" t="n"/>
@@ -4552,7 +4668,7 @@
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>AWS Data ENI</t>
+          <t>AWS Access ENI</t>
         </is>
       </c>
       <c r="B30" s="7" t="n"/>
@@ -4565,7 +4681,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>AWS WAN EIP AllocID</t>
+          <t>AWS Data ENI</t>
         </is>
       </c>
       <c r="B31" s="7" t="n"/>
@@ -4576,29 +4692,29 @@
       <c r="G31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>AWS WAN EIP AllocID</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="n"/>
+      <c r="C32" s="7" t="n"/>
+      <c r="D32" s="7" t="n"/>
+      <c r="E32" s="7" t="n"/>
+      <c r="F32" s="7" t="n"/>
+      <c r="G32" s="7" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>AWS VPC Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>AWS Provision VPC CIDR</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="n"/>
-      <c r="C33" s="9" t="n"/>
-      <c r="D33" s="9" t="n"/>
-      <c r="E33" s="9" t="n"/>
-      <c r="F33" s="9" t="n"/>
-      <c r="G33" s="9" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC NSG WAN Subnet CIDR</t>
+          <t>AWS Provision VPC CIDR</t>
         </is>
       </c>
       <c r="B34" s="9" t="n"/>
@@ -4611,7 +4727,7 @@
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC NSG LAN Subnet CIDR</t>
+          <t>AWS Provision VPC NSG WAN Subnet CIDR</t>
         </is>
       </c>
       <c r="B35" s="9" t="n"/>
@@ -4624,7 +4740,7 @@
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC Private Subnet CIDR</t>
+          <t>AWS Provision VPC NSG LAN Subnet CIDR</t>
         </is>
       </c>
       <c r="B36" s="9" t="n"/>
@@ -4635,29 +4751,29 @@
       <c r="G36" s="9" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>AWS Provision VPC Private Subnet CIDR</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="n"/>
+      <c r="C37" s="9" t="n"/>
+      <c r="D37" s="9" t="n"/>
+      <c r="E37" s="9" t="n"/>
+      <c r="F37" s="9" t="n"/>
+      <c r="G37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>NSGv Zero-Factor Bootstrap</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="8" t="inlineStr">
-        <is>
-          <t>NSG Organization</t>
-        </is>
-      </c>
-      <c r="B38" s="9" t="n"/>
-      <c r="C38" s="9" t="n"/>
-      <c r="D38" s="9" t="n"/>
-      <c r="E38" s="9" t="n"/>
-      <c r="F38" s="9" t="n"/>
-      <c r="G38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>NSG Name</t>
+          <t>NSG Organization</t>
         </is>
       </c>
       <c r="B39" s="9" t="n"/>
@@ -4668,22 +4784,22 @@
       <c r="G39" s="9" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>Activation Matching Type</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="n"/>
-      <c r="C40" s="7" t="n"/>
-      <c r="D40" s="7" t="n"/>
-      <c r="E40" s="7" t="n"/>
-      <c r="F40" s="7" t="n"/>
-      <c r="G40" s="7" t="n"/>
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>NSG Name</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
+      <c r="D40" s="9" t="n"/>
+      <c r="E40" s="9" t="n"/>
+      <c r="F40" s="9" t="n"/>
+      <c r="G40" s="9" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>Activation Matching Value</t>
+          <t>Activation Matching Type</t>
         </is>
       </c>
       <c r="B41" s="7" t="n"/>
@@ -4694,42 +4810,42 @@
       <c r="G41" s="7" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="inlineStr">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Activation Matching Value</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n"/>
+      <c r="C42" s="7" t="n"/>
+      <c r="D42" s="7" t="n"/>
+      <c r="E42" s="7" t="n"/>
+      <c r="F42" s="7" t="n"/>
+      <c r="G42" s="7" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="inlineStr">
         <is>
           <t>Enable SSH on NSGv</t>
         </is>
       </c>
-      <c r="B42" s="9" t="n"/>
-      <c r="C42" s="9" t="n"/>
-      <c r="D42" s="9" t="n"/>
-      <c r="E42" s="9" t="n"/>
-      <c r="F42" s="9" t="n"/>
-      <c r="G42" s="9" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
+      <c r="D43" s="9" t="n"/>
+      <c r="E43" s="9" t="n"/>
+      <c r="F43" s="9" t="n"/>
+      <c r="G43" s="9" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>NSG Advanced Options</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="8" t="inlineStr">
-        <is>
-          <t>NSG Infra Profile Template Name</t>
-        </is>
-      </c>
-      <c r="B44" s="9" t="n"/>
-      <c r="C44" s="9" t="n"/>
-      <c r="D44" s="9" t="n"/>
-      <c r="E44" s="9" t="n"/>
-      <c r="F44" s="9" t="n"/>
-      <c r="G44" s="9" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Name</t>
+          <t>NSG Infra Profile Template Name</t>
         </is>
       </c>
       <c r="B45" s="9" t="n"/>
@@ -4742,7 +4858,7 @@
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Proxy DNS Name</t>
+          <t>NSG Infra Profile Name</t>
         </is>
       </c>
       <c r="B46" s="9" t="n"/>
@@ -4755,7 +4871,7 @@
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
         <is>
-          <t>Allow SSH Access Override</t>
+          <t>NSG Infra Profile Proxy DNS Name</t>
         </is>
       </c>
       <c r="B47" s="9" t="n"/>
@@ -4766,29 +4882,29 @@
       <c r="G47" s="9" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" s="8" t="inlineStr">
+        <is>
+          <t>Allow SSH Access Override</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="n"/>
+      <c r="C48" s="9" t="n"/>
+      <c r="D48" s="9" t="n"/>
+      <c r="E48" s="9" t="n"/>
+      <c r="F48" s="9" t="n"/>
+      <c r="G48" s="9" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>VSC Info</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>VSC Infra Profile Name</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="n"/>
-      <c r="C49" s="9" t="n"/>
-      <c r="D49" s="9" t="n"/>
-      <c r="E49" s="9" t="n"/>
-      <c r="F49" s="9" t="n"/>
-      <c r="G49" s="9" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile First Controller</t>
+          <t>VSC Infra Profile Name</t>
         </is>
       </c>
       <c r="B50" s="9" t="n"/>
@@ -4801,7 +4917,7 @@
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile Second Controller</t>
+          <t>VSC Infra Profile First Controller</t>
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
@@ -4814,7 +4930,7 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>NSG Network Port Name</t>
+          <t>VSC Infra Profile Second Controller</t>
         </is>
       </c>
       <c r="B52" s="9" t="n"/>
@@ -4825,29 +4941,29 @@
       <c r="G52" s="9" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>NSG Network Port Name</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="n"/>
+      <c r="C53" s="9" t="n"/>
+      <c r="D53" s="9" t="n"/>
+      <c r="E53" s="9" t="n"/>
+      <c r="F53" s="9" t="n"/>
+      <c r="G53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>Network and Access Ports</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>NSG Network Port Physical Name</t>
-        </is>
-      </c>
-      <c r="B54" s="9" t="n"/>
-      <c r="C54" s="9" t="n"/>
-      <c r="D54" s="9" t="n"/>
-      <c r="E54" s="9" t="n"/>
-      <c r="F54" s="9" t="n"/>
-      <c r="G54" s="9" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Name</t>
+          <t>NSG Network Port Physical Name</t>
         </is>
       </c>
       <c r="B55" s="9" t="n"/>
@@ -4860,7 +4976,7 @@
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Physical Name</t>
+          <t>NSG Access Port Name</t>
         </is>
       </c>
       <c r="B56" s="9" t="n"/>
@@ -4873,7 +4989,7 @@
     <row r="57">
       <c r="A57" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Range</t>
+          <t>NSG Access Port Physical Name</t>
         </is>
       </c>
       <c r="B57" s="9" t="n"/>
@@ -4886,7 +5002,7 @@
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Number</t>
+          <t>NSG Access Port VLAN Range</t>
         </is>
       </c>
       <c r="B58" s="9" t="n"/>
@@ -4897,42 +5013,42 @@
       <c r="G58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="inlineStr">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Number</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="n"/>
+      <c r="C59" s="9" t="n"/>
+      <c r="D59" s="9" t="n"/>
+      <c r="E59" s="9" t="n"/>
+      <c r="F59" s="9" t="n"/>
+      <c r="G59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="inlineStr">
         <is>
           <t>NSGv Access ports list name</t>
         </is>
       </c>
-      <c r="B59" s="7" t="n"/>
-      <c r="C59" s="7" t="n"/>
-      <c r="D59" s="7" t="n"/>
-      <c r="E59" s="7" t="n"/>
-      <c r="F59" s="7" t="n"/>
-      <c r="G59" s="7" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
+      <c r="B60" s="7" t="n"/>
+      <c r="C60" s="7" t="n"/>
+      <c r="D60" s="7" t="n"/>
+      <c r="E60" s="7" t="n"/>
+      <c r="F60" s="7" t="n"/>
+      <c r="G60" s="7" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>Telnet and Credentials</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="inlineStr">
-        <is>
-          <t>Telnet port for console</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="n"/>
-      <c r="C61" s="9" t="n"/>
-      <c r="D61" s="9" t="n"/>
-      <c r="E61" s="9" t="n"/>
-      <c r="F61" s="9" t="n"/>
-      <c r="G61" s="9" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Telnet port for console</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -4942,19 +5058,32 @@
       <c r="F62" s="9" t="n"/>
       <c r="G62" s="9" t="n"/>
     </row>
+    <row r="63">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="n"/>
+      <c r="C63" s="9" t="n"/>
+      <c r="D63" s="9" t="n"/>
+      <c r="E63" s="9" t="n"/>
+      <c r="F63" s="9" t="n"/>
+      <c r="G63" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A61:G61"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
@@ -4993,72 +5122,72 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G40" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G41" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G48" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G62" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -5066,6 +5195,78 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="70"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NUH Common Configuration Settings</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>NUH Common configuration settings for this deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>NUH Global</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Enable VSD configuration on NUH</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Enable Elasticsearch configuration on NUH</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B5" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5210,7 +5411,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NUH VRRP Configuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>NUH VRRP configuration settings for this deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>NUH VRRP</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Router ID</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Enable VRRP configuration</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>VRRP interface</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>VIP list</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G5" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G6" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5566,7 +5898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5940,7 +6272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6231,7 +6563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6303,7 +6635,1082 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B124"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="70"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Common Configuration Settings</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Common configuration settings for this deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Paths and Domains</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Nuage Unzip Files Directory</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Nuage Software Version</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>KVM Images Directory</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Domain Name</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Reports Directory</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>Branding Zip File</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Management FQDNs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Global VSD FQDN</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Global VSD API port</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Global SD-WAN Portal FQDN</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Global VSTAT FQDN</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Network Bridges</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Bridge</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Data Network Bridge</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>NSGv Access Bridge</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Network Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>NTP Server IP(s)</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>DNS server IP(s)</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Stats Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Statistics Out Deployment</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>Statistics Out Proxy Address</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Timezone</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Skip DNS Resolution Tests</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>Run VSD Cluster RTT Tests</t>
+        </is>
+      </c>
+      <c r="B29" s="9" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Ignore RTT Test Errors</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>Max VSD cluster RTT</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>Max VSD active-standby RTT</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>Run VSD Disk Performance Test</t>
+        </is>
+      </c>
+      <c r="B33" s="9" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>Total Size of Disk Performance Test Files</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>Minimum Disk Performance Threshold</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>Duration of Disk Performance Test in Seconds</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>Ignore Disk Performance Test Errors</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>Prompt before destroying components</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Backup and Restore</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>Backup directory</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Maximum number of backups to store.</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Backup set directory to be restored.</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>vCenter infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Cluster Name</t>
+        </is>
+      </c>
+      <c r="B45" s="7" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B47" s="7" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>vCenter VM Folder</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>vCenter common</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Resource Pool</t>
+        </is>
+      </c>
+      <c r="B51" s="7" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>OVF tool location</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Interfaces Disabled State</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Project Name</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Keystone URL</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>OpenStack Project Domain Name</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>OpenStack User Domain Name</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>OpenStack CA Certificate</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="inlineStr">
+        <is>
+          <t>SSH Public Key</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>XMPP TLS</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>OpenFlow TLS</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Licenses</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="inlineStr">
+        <is>
+          <t>VSD Standard License File</t>
+        </is>
+      </c>
+      <c r="B65" s="9" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="inlineStr">
+        <is>
+          <t>VSD Cluster License File</t>
+        </is>
+      </c>
+      <c r="B66" s="9" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>VSD License Required Days Left</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="inlineStr">
+        <is>
+          <t>VSD Ejabberd License File</t>
+        </is>
+      </c>
+      <c r="B68" s="9" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="inlineStr">
+        <is>
+          <t>SD-WAN Portal License Filename</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="inlineStr">
+        <is>
+          <t>NUH License File</t>
+        </is>
+      </c>
+      <c r="B70" s="9" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Yum and SSH Proxy</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>VSD yum update</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="inlineStr">
+        <is>
+          <t>VSTAT yum update</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="inlineStr">
+        <is>
+          <t>Proxy for Yum Updates</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
+        <is>
+          <t>SSH proxy configuration username</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="8" t="inlineStr">
+        <is>
+          <t>SSH proxy configuration host</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>Disk Space</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="inlineStr">
+        <is>
+          <t>VSD Disk Size</t>
+        </is>
+      </c>
+      <c r="B78" s="9" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="8" t="inlineStr">
+        <is>
+          <t>VSC Disk Size</t>
+        </is>
+      </c>
+      <c r="B79" s="9" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="inlineStr">
+        <is>
+          <t>VSTAT Disk Size</t>
+        </is>
+      </c>
+      <c r="B80" s="9" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="8" t="inlineStr">
+        <is>
+          <t>VCIN Disk Size</t>
+        </is>
+      </c>
+      <c r="B81" s="9" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="inlineStr">
+        <is>
+          <t>NSGV Disk Size</t>
+        </is>
+      </c>
+      <c r="B82" s="9" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>KVM RAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSD RAM</t>
+        </is>
+      </c>
+      <c r="B84" s="9" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSC RAM</t>
+        </is>
+      </c>
+      <c r="B85" s="9" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSTAT RAM</t>
+        </is>
+      </c>
+      <c r="B86" s="9" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="inlineStr">
+        <is>
+          <t>KVM VCIN RAM</t>
+        </is>
+      </c>
+      <c r="B87" s="9" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="inlineStr">
+        <is>
+          <t>KVM NUH RAM</t>
+        </is>
+      </c>
+      <c r="B88" s="9" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="inlineStr">
+        <is>
+          <t>KVM Webfilter RAM</t>
+        </is>
+      </c>
+      <c r="B89" s="9" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="inlineStr">
+        <is>
+          <t>KVM Portal RAM</t>
+        </is>
+      </c>
+      <c r="B90" s="9" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>KVM CPU</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSD CPU cores</t>
+        </is>
+      </c>
+      <c r="B92" s="9" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="inlineStr">
+        <is>
+          <t>VSC CPU cores</t>
+        </is>
+      </c>
+      <c r="B93" s="9" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSTAT CPU cores</t>
+        </is>
+      </c>
+      <c r="B94" s="9" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="8" t="inlineStr">
+        <is>
+          <t>KVM VNSUTIL CPU cores</t>
+        </is>
+      </c>
+      <c r="B95" s="9" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="8" t="inlineStr">
+        <is>
+          <t>KVM NUH CPU cores</t>
+        </is>
+      </c>
+      <c r="B96" s="9" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="8" t="inlineStr">
+        <is>
+          <t>KVM VCIN CPU cores</t>
+        </is>
+      </c>
+      <c r="B97" s="9" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="8" t="inlineStr">
+        <is>
+          <t>KVM Portal VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="8" t="inlineStr">
+        <is>
+          <t>KVM Webfilter VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B99" s="9" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>Authentication</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="8" t="inlineStr">
+        <is>
+          <t>VSD Architect URL</t>
+        </is>
+      </c>
+      <c r="B101" s="9" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="8" t="inlineStr">
+        <is>
+          <t>VSD Enterprise</t>
+        </is>
+      </c>
+      <c r="B102" s="9" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="8" t="inlineStr">
+        <is>
+          <t>VCIN URL</t>
+        </is>
+      </c>
+      <c r="B103" s="9" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="8" t="inlineStr">
+        <is>
+          <t>VCIN Enterprise</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>Hooks</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="8" t="inlineStr">
+        <is>
+          <t>hooks</t>
+        </is>
+      </c>
+      <c r="B106" s="9" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="8" t="inlineStr">
+        <is>
+          <t>skip actions</t>
+        </is>
+      </c>
+      <c r="B107" s="9" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>Component Health Report Email Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="8" t="inlineStr">
+        <is>
+          <t>Health Report SMTP Server</t>
+        </is>
+      </c>
+      <c r="B109" s="9" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="8" t="inlineStr">
+        <is>
+          <t>Health Report SMTP Server Port</t>
+        </is>
+      </c>
+      <c r="B110" s="9" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="8" t="inlineStr">
+        <is>
+          <t>Health Report Email From Address</t>
+        </is>
+      </c>
+      <c r="B111" s="9" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="8" t="inlineStr">
+        <is>
+          <t>Health Report Destination Email Address(es)</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>VSD Monit Email Alerts Configuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server</t>
+        </is>
+      </c>
+      <c r="B114" s="9" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server Port</t>
+        </is>
+      </c>
+      <c r="B115" s="9" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server Encryption Type</t>
+        </is>
+      </c>
+      <c r="B116" s="9" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="8" t="inlineStr">
+        <is>
+          <t>Use VSD Monit Eventqueue</t>
+        </is>
+      </c>
+      <c r="B117" s="9" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit From Email Address</t>
+        </is>
+      </c>
+      <c r="B118" s="9" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Reply-To Email Address</t>
+        </is>
+      </c>
+      <c r="B119" s="9" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Email Alert Subject</t>
+        </is>
+      </c>
+      <c r="B120" s="9" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Email Alert Message</t>
+        </is>
+      </c>
+      <c r="B121" s="9" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Destination Email Address</t>
+        </is>
+      </c>
+      <c r="B122" s="9" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Only Alert On</t>
+        </is>
+      </c>
+      <c r="B123" s="9" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Do Not Alert On</t>
+        </is>
+      </c>
+      <c r="B124" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A113:B113"/>
+  </mergeCells>
+  <dataValidations count="39">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B28" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B29" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B30" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B31" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B32" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B33" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B37" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B38" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B53" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B67" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B72" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B73" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B78" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B79" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B80" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B81" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B82" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B84" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B85" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B87" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B96" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B97" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B98" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B99" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B110" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B115" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B117" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6587,13 +7994,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6789,29 +8196,29 @@
       <c r="G17" s="9" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="G18" s="9" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>CPU and credentials</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="G19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B20" s="9" t="n"/>
@@ -6821,12 +8228,25 @@
       <c r="F20" s="9" t="n"/>
       <c r="G20" s="9" t="n"/>
     </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -6859,1053 +8279,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B120"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="70"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Common Configuration Settings</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Common configuration settings for this deployment</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Paths and Domains</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Nuage Unzip Files Directory</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>Nuage Software Version</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>KVM Images Directory</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Domain Name</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Reports Directory</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>Branding Zip File</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Management FQDNs</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Global VSD FQDN</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Global VSD API port</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Global SD-WAN Portal FQDN</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>Global VSTAT FQDN</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Network Bridges</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Data Network Bridge</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>NSGv Access Bridge</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Network Services</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>NTP Server IP(s)</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>DNS server IP(s)</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Options</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Timezone</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>Skip DNS Resolution Tests</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="inlineStr">
-        <is>
-          <t>Run VSD Cluster RTT Tests</t>
-        </is>
-      </c>
-      <c r="B26" s="9" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="inlineStr">
-        <is>
-          <t>Ignore RTT Test Errors</t>
-        </is>
-      </c>
-      <c r="B27" s="9" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>Max VSD cluster RTT</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8" t="inlineStr">
-        <is>
-          <t>Max VSD active-standby RTT</t>
-        </is>
-      </c>
-      <c r="B29" s="9" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
-        <is>
-          <t>Run VSD Disk Performance Test</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t>Total Size of Disk Performance Test Files</t>
-        </is>
-      </c>
-      <c r="B31" s="9" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="inlineStr">
-        <is>
-          <t>Minimum Disk Performance Threshold</t>
-        </is>
-      </c>
-      <c r="B32" s="9" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>Duration of Disk Performance Test in Seconds</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="inlineStr">
-        <is>
-          <t>Ignore Disk Performance Test Errors</t>
-        </is>
-      </c>
-      <c r="B34" s="9" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>Prompt before destroying components</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>Backup and Restore</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>Backup directory</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>Maximum number of backups to store.</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>Backup set directory to be restored.</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>vCenter infrastructure</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B42" s="7" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Host Reference</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B45" s="7" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>vCenter common</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Resource Pool</t>
-        </is>
-      </c>
-      <c r="B47" s="7" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="inlineStr">
-        <is>
-          <t>OVF tool location</t>
-        </is>
-      </c>
-      <c r="B48" s="7" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Interfaces Disabled State</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Project Name</t>
-        </is>
-      </c>
-      <c r="B51" s="7" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Keystone URL</t>
-        </is>
-      </c>
-      <c r="B52" s="7" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="8" t="inlineStr">
-        <is>
-          <t>OpenStack Project Domain Name</t>
-        </is>
-      </c>
-      <c r="B53" s="9" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>OpenStack User Domain Name</t>
-        </is>
-      </c>
-      <c r="B54" s="9" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>OpenStack CA Certificate</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>SSH Public Key</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>XMPP TLS</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="inlineStr">
-        <is>
-          <t>OpenFlow TLS</t>
-        </is>
-      </c>
-      <c r="B59" s="9" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Licenses</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="inlineStr">
-        <is>
-          <t>VSD Standard License File</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="8" t="inlineStr">
-        <is>
-          <t>VSD Cluster License File</t>
-        </is>
-      </c>
-      <c r="B62" s="9" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="8" t="inlineStr">
-        <is>
-          <t>VSD License Required Days Left</t>
-        </is>
-      </c>
-      <c r="B63" s="9" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="inlineStr">
-        <is>
-          <t>VSD Ejabberd License File</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="8" t="inlineStr">
-        <is>
-          <t>SD-WAN Portal License Filename</t>
-        </is>
-      </c>
-      <c r="B65" s="9" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="8" t="inlineStr">
-        <is>
-          <t>NUH License File</t>
-        </is>
-      </c>
-      <c r="B66" s="9" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>Yum and SSH Proxy</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="8" t="inlineStr">
-        <is>
-          <t>VSD yum update</t>
-        </is>
-      </c>
-      <c r="B68" s="9" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="8" t="inlineStr">
-        <is>
-          <t>VSTAT yum update</t>
-        </is>
-      </c>
-      <c r="B69" s="9" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="8" t="inlineStr">
-        <is>
-          <t>Proxy for Yum Updates</t>
-        </is>
-      </c>
-      <c r="B70" s="9" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="8" t="inlineStr">
-        <is>
-          <t>SSH proxy configuration username</t>
-        </is>
-      </c>
-      <c r="B71" s="9" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="8" t="inlineStr">
-        <is>
-          <t>SSH proxy configuration host</t>
-        </is>
-      </c>
-      <c r="B72" s="9" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>Disk Space</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="8" t="inlineStr">
-        <is>
-          <t>VSD Disk Size</t>
-        </is>
-      </c>
-      <c r="B74" s="9" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="8" t="inlineStr">
-        <is>
-          <t>VSC Disk Size</t>
-        </is>
-      </c>
-      <c r="B75" s="9" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="8" t="inlineStr">
-        <is>
-          <t>VSTAT Disk Size</t>
-        </is>
-      </c>
-      <c r="B76" s="9" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="8" t="inlineStr">
-        <is>
-          <t>VCIN Disk Size</t>
-        </is>
-      </c>
-      <c r="B77" s="9" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="8" t="inlineStr">
-        <is>
-          <t>NSGV Disk Size</t>
-        </is>
-      </c>
-      <c r="B78" s="9" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t>KVM RAM</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD RAM</t>
-        </is>
-      </c>
-      <c r="B80" s="9" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSC RAM</t>
-        </is>
-      </c>
-      <c r="B81" s="9" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSTAT RAM</t>
-        </is>
-      </c>
-      <c r="B82" s="9" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN RAM</t>
-        </is>
-      </c>
-      <c r="B83" s="9" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="8" t="inlineStr">
-        <is>
-          <t>KVM NUH RAM</t>
-        </is>
-      </c>
-      <c r="B84" s="9" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="8" t="inlineStr">
-        <is>
-          <t>KVM Webfilter RAM</t>
-        </is>
-      </c>
-      <c r="B85" s="9" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="8" t="inlineStr">
-        <is>
-          <t>KVM Portal RAM</t>
-        </is>
-      </c>
-      <c r="B86" s="9" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="inlineStr">
-        <is>
-          <t>KVM CPU</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD CPU cores</t>
-        </is>
-      </c>
-      <c r="B88" s="9" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="8" t="inlineStr">
-        <is>
-          <t>VSC CPU cores</t>
-        </is>
-      </c>
-      <c r="B89" s="9" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSTAT CPU cores</t>
-        </is>
-      </c>
-      <c r="B90" s="9" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="8" t="inlineStr">
-        <is>
-          <t>KVM VNSUTIL CPU cores</t>
-        </is>
-      </c>
-      <c r="B91" s="9" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="8" t="inlineStr">
-        <is>
-          <t>KVM NUH CPU cores</t>
-        </is>
-      </c>
-      <c r="B92" s="9" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN CPU cores</t>
-        </is>
-      </c>
-      <c r="B93" s="9" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="8" t="inlineStr">
-        <is>
-          <t>KVM Portal VM CPU cores</t>
-        </is>
-      </c>
-      <c r="B94" s="9" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="8" t="inlineStr">
-        <is>
-          <t>KVM Webfilter VM CPU cores</t>
-        </is>
-      </c>
-      <c r="B95" s="9" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="inlineStr">
-        <is>
-          <t>Authentication</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="8" t="inlineStr">
-        <is>
-          <t>VSD Architect URL</t>
-        </is>
-      </c>
-      <c r="B97" s="9" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="8" t="inlineStr">
-        <is>
-          <t>VSD Enterprise</t>
-        </is>
-      </c>
-      <c r="B98" s="9" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="8" t="inlineStr">
-        <is>
-          <t>VCIN URL</t>
-        </is>
-      </c>
-      <c r="B99" s="9" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="8" t="inlineStr">
-        <is>
-          <t>VCIN Enterprise</t>
-        </is>
-      </c>
-      <c r="B100" s="9" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="inlineStr">
-        <is>
-          <t>Hooks</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="8" t="inlineStr">
-        <is>
-          <t>hooks</t>
-        </is>
-      </c>
-      <c r="B102" s="9" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="8" t="inlineStr">
-        <is>
-          <t>skip actions</t>
-        </is>
-      </c>
-      <c r="B103" s="9" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="inlineStr">
-        <is>
-          <t>Component Health Report Email Options</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server</t>
-        </is>
-      </c>
-      <c r="B105" s="9" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server Port</t>
-        </is>
-      </c>
-      <c r="B106" s="9" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="8" t="inlineStr">
-        <is>
-          <t>Health Report Email From Address</t>
-        </is>
-      </c>
-      <c r="B107" s="9" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="8" t="inlineStr">
-        <is>
-          <t>Health Report Destination Email Address(es)</t>
-        </is>
-      </c>
-      <c r="B108" s="9" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
-        <is>
-          <t>VSD Monit Email Alerts Configuration</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server</t>
-        </is>
-      </c>
-      <c r="B110" s="9" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server Port</t>
-        </is>
-      </c>
-      <c r="B111" s="9" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server Encryption Type</t>
-        </is>
-      </c>
-      <c r="B112" s="9" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="8" t="inlineStr">
-        <is>
-          <t>Use VSD Monit Eventqueue</t>
-        </is>
-      </c>
-      <c r="B113" s="9" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit From Email Address</t>
-        </is>
-      </c>
-      <c r="B114" s="9" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Reply-To Email Address</t>
-        </is>
-      </c>
-      <c r="B115" s="9" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Email Alert Subject</t>
-        </is>
-      </c>
-      <c r="B116" s="9" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Email Alert Message</t>
-        </is>
-      </c>
-      <c r="B117" s="9" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Destination Email Address</t>
-        </is>
-      </c>
-      <c r="B118" s="9" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Only Alert On</t>
-        </is>
-      </c>
-      <c r="B119" s="9" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Do Not Alert On</t>
-        </is>
-      </c>
-      <c r="B120" s="9" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A109:B109"/>
-  </mergeCells>
-  <dataValidations count="38">
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B25" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B26" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B28" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B29" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B30" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B34" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B35" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B49" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B69" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B74" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B75" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B76" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B77" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B78" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B80" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B81" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B82" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B83" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B84" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B85" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B91" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B106" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B111" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B113" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8239,29 +8619,29 @@
       <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="n"/>
+      <c r="C30" s="9" t="n"/>
+      <c r="D30" s="9" t="n"/>
+      <c r="E30" s="9" t="n"/>
+      <c r="F30" s="9" t="n"/>
+      <c r="G30" s="9" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>AWS Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>AWS Region</t>
-        </is>
-      </c>
-      <c r="B31" s="7" t="n"/>
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID</t>
+          <t>AWS Region</t>
         </is>
       </c>
       <c r="B32" s="7" t="n"/>
@@ -8274,7 +8654,7 @@
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>AWS AMI ID</t>
         </is>
       </c>
       <c r="B33" s="7" t="n"/>
@@ -8287,7 +8667,7 @@
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B34" s="7" t="n"/>
@@ -8300,7 +8680,7 @@
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>AWS Management ENI ID</t>
+          <t>AWS Keypair Name</t>
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
@@ -8313,7 +8693,7 @@
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>AWS Data ENI ID</t>
+          <t>AWS Management ENI ID</t>
         </is>
       </c>
       <c r="B36" s="7" t="n"/>
@@ -8324,29 +8704,29 @@
       <c r="G36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>AWS Data ENI ID</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="n"/>
+      <c r="C37" s="7" t="n"/>
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
+      <c r="F37" s="7" t="n"/>
+      <c r="G37" s="7" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>OpenStack Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
-      <c r="D38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
-      <c r="F38" s="7" t="n"/>
-      <c r="G38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B39" s="7" t="n"/>
@@ -8359,7 +8739,7 @@
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Availability Zone</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B40" s="7" t="n"/>
@@ -8372,7 +8752,7 @@
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Management Network</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B41" s="7" t="n"/>
@@ -8385,7 +8765,7 @@
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Management Subnet</t>
+          <t>OpenStack Management Network</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
@@ -8398,7 +8778,7 @@
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Management Port Name</t>
+          <t>OpenStack Management Subnet</t>
         </is>
       </c>
       <c r="B43" s="7" t="n"/>
@@ -8411,7 +8791,7 @@
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Management Port Security Groups</t>
+          <t>OpenStack Management Port Name</t>
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
@@ -8424,7 +8804,7 @@
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Data Network</t>
+          <t>OpenStack Management Port Security Groups</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -8437,7 +8817,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Data Subnet</t>
+          <t>OpenStack Data Network</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -8450,7 +8830,7 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Data Port Name</t>
+          <t>OpenStack Data Subnet</t>
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
@@ -8463,7 +8843,7 @@
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Data Port Security Groups</t>
+          <t>OpenStack Data Port Name</t>
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
@@ -8474,29 +8854,29 @@
       <c r="G48" s="7" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Data Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n"/>
+      <c r="C49" s="7" t="n"/>
+      <c r="D49" s="7" t="n"/>
+      <c r="E49" s="7" t="n"/>
+      <c r="F49" s="7" t="n"/>
+      <c r="G49" s="7" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>Other Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B50" s="9" t="n"/>
-      <c r="C50" s="9" t="n"/>
-      <c r="D50" s="9" t="n"/>
-      <c r="E50" s="9" t="n"/>
-      <c r="F50" s="9" t="n"/>
-      <c r="G50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>Health monitoring agent</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
@@ -8509,7 +8889,7 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Health monitoring agent</t>
         </is>
       </c>
       <c r="B52" s="9" t="n"/>
@@ -8518,6 +8898,19 @@
       <c r="E52" s="9" t="n"/>
       <c r="F52" s="9" t="n"/>
       <c r="G52" s="9" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="n"/>
+      <c r="C53" s="9" t="n"/>
+      <c r="D53" s="9" t="n"/>
+      <c r="E53" s="9" t="n"/>
+      <c r="F53" s="9" t="n"/>
+      <c r="G53" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8527,9 +8920,9 @@
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A50:G50"/>
   </mergeCells>
   <dataValidations count="18">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -8556,22 +8949,22 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G11" type="list">
       <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G52" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8580,7 +8973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8804,7 +9197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9084,7 +9477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9390,7 +9783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9625,42 +10018,42 @@
       <c r="G20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>VSD script to configure ipv6</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="n"/>
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="9" t="n"/>
+      <c r="E22" s="9" t="n"/>
+      <c r="F22" s="9" t="n"/>
+      <c r="G22" s="9" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>AWS Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>AWS Region</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="n"/>
-      <c r="C22" s="7" t="n"/>
-      <c r="D22" s="7" t="n"/>
-      <c r="E22" s="7" t="n"/>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>AWS VSD AMI ID</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="n"/>
-      <c r="C23" s="7" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>Upgrade AWS VSD AMI ID</t>
+          <t>AWS Region</t>
         </is>
       </c>
       <c r="B24" s="7" t="n"/>
@@ -9673,7 +10066,7 @@
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>AWS VSD AMI ID</t>
         </is>
       </c>
       <c r="B25" s="7" t="n"/>
@@ -9686,7 +10079,7 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>Upgrade AWS VSD AMI ID</t>
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
@@ -9699,7 +10092,7 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>AWS Management ENI ID</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
@@ -9710,16 +10103,22 @@
       <c r="G27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack Parameters</t>
-        </is>
-      </c>
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>AWS Keypair Name</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Image</t>
+          <t>AWS Management ENI ID</t>
         </is>
       </c>
       <c r="B29" s="7" t="n"/>
@@ -9730,22 +10129,16 @@
       <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Flavor</t>
-        </is>
-      </c>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
-      <c r="G30" s="7" t="n"/>
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Availability Zone</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B31" s="7" t="n"/>
@@ -9758,7 +10151,7 @@
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Network</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B32" s="7" t="n"/>
@@ -9771,7 +10164,7 @@
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Subnet</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B33" s="7" t="n"/>
@@ -9784,7 +10177,7 @@
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Network</t>
         </is>
       </c>
       <c r="B34" s="7" t="n"/>
@@ -9797,7 +10190,7 @@
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Subnet</t>
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
@@ -9810,7 +10203,7 @@
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Project Name</t>
+          <t>OpenStack Port Name</t>
         </is>
       </c>
       <c r="B36" s="7" t="n"/>
@@ -9823,7 +10216,7 @@
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Keystone URL</t>
+          <t>OpenStack Port Security Groups</t>
         </is>
       </c>
       <c r="B37" s="7" t="n"/>
@@ -9834,42 +10227,42 @@
       <c r="G37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Project Name</t>
+        </is>
+      </c>
+      <c r="B38" s="7" t="n"/>
+      <c r="C38" s="7" t="n"/>
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="7" t="n"/>
+      <c r="F38" s="7" t="n"/>
+      <c r="G38" s="7" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Keystone URL</t>
+        </is>
+      </c>
+      <c r="B39" s="7" t="n"/>
+      <c r="C39" s="7" t="n"/>
+      <c r="D39" s="7" t="n"/>
+      <c r="E39" s="7" t="n"/>
+      <c r="F39" s="7" t="n"/>
+      <c r="G39" s="7" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>VSD Options</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B39" s="9" t="n"/>
-      <c r="C39" s="9" t="n"/>
-      <c r="D39" s="9" t="n"/>
-      <c r="E39" s="9" t="n"/>
-      <c r="F39" s="9" t="n"/>
-      <c r="G39" s="9" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="8" t="inlineStr">
-        <is>
-          <t>Failed login attempts</t>
-        </is>
-      </c>
-      <c r="B40" s="9" t="n"/>
-      <c r="C40" s="9" t="n"/>
-      <c r="D40" s="9" t="n"/>
-      <c r="E40" s="9" t="n"/>
-      <c r="F40" s="9" t="n"/>
-      <c r="G40" s="9" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
         <is>
-          <t>Failed login lockout time</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B41" s="9" t="n"/>
@@ -9882,7 +10275,7 @@
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
         <is>
-          <t>Advanced API Access Logging</t>
+          <t>Failed login attempts</t>
         </is>
       </c>
       <c r="B42" s="9" t="n"/>
@@ -9895,7 +10288,7 @@
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
         <is>
-          <t>Health monitoring agent</t>
+          <t>Failed login lockout time</t>
         </is>
       </c>
       <c r="B43" s="9" t="n"/>
@@ -9906,16 +10299,22 @@
       <c r="G43" s="9" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>Security and Certificates</t>
-        </is>
-      </c>
+      <c r="A44" s="8" t="inlineStr">
+        <is>
+          <t>Advanced API Access Logging</t>
+        </is>
+      </c>
+      <c r="B44" s="9" t="n"/>
+      <c r="C44" s="9" t="n"/>
+      <c r="D44" s="9" t="n"/>
+      <c r="E44" s="9" t="n"/>
+      <c r="F44" s="9" t="n"/>
+      <c r="G44" s="9" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="8" t="inlineStr">
         <is>
-          <t>TLS version</t>
+          <t>Health monitoring agent</t>
         </is>
       </c>
       <c r="B45" s="9" t="n"/>
@@ -9926,22 +10325,16 @@
       <c r="G45" s="9" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>Path to CA certificate pem file</t>
-        </is>
-      </c>
-      <c r="B46" s="9" t="n"/>
-      <c r="C46" s="9" t="n"/>
-      <c r="D46" s="9" t="n"/>
-      <c r="E46" s="9" t="n"/>
-      <c r="F46" s="9" t="n"/>
-      <c r="G46" s="9" t="n"/>
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>Security and Certificates</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
         <is>
-          <t>Path to intermediate certificate pem file</t>
+          <t>TLS version</t>
         </is>
       </c>
       <c r="B47" s="9" t="n"/>
@@ -9954,7 +10347,7 @@
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>Path to certificate pem file</t>
+          <t>Path to CA certificate pem file</t>
         </is>
       </c>
       <c r="B48" s="9" t="n"/>
@@ -9967,7 +10360,7 @@
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Path to intermediate certificate pem file</t>
         </is>
       </c>
       <c r="B49" s="9" t="n"/>
@@ -9977,15 +10370,41 @@
       <c r="F49" s="9" t="n"/>
       <c r="G49" s="9" t="n"/>
     </row>
+    <row r="50">
+      <c r="A50" s="8" t="inlineStr">
+        <is>
+          <t>Path to certificate pem file</t>
+        </is>
+      </c>
+      <c r="B50" s="9" t="n"/>
+      <c r="C50" s="9" t="n"/>
+      <c r="D50" s="9" t="n"/>
+      <c r="E50" s="9" t="n"/>
+      <c r="F50" s="9" t="n"/>
+      <c r="G50" s="9" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="n"/>
+      <c r="C51" s="9" t="n"/>
+      <c r="D51" s="9" t="n"/>
+      <c r="E51" s="9" t="n"/>
+      <c r="F51" s="9" t="n"/>
+      <c r="G51" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A46:G46"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -10012,70 +10431,70 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="list">
       <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B45" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C45" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D45" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E45" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F45" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G45" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B47" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C47" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D47" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E47" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F47" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G47" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10090,7 +10509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10229,13 +10648,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>System IP address</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
@@ -10412,25 +10831,25 @@
       <c r="C37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>OpenStack Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="n"/>
-      <c r="C39" s="7" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B40" s="7" t="n"/>
@@ -10439,7 +10858,7 @@
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Availability Zone</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B41" s="7" t="n"/>
@@ -10448,7 +10867,7 @@
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Network</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
@@ -10457,7 +10876,7 @@
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Subnet</t>
+          <t>OpenStack Mgmt Network</t>
         </is>
       </c>
       <c r="B43" s="7" t="n"/>
@@ -10466,7 +10885,7 @@
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Name</t>
+          <t>OpenStack Mgmt Subnet</t>
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
@@ -10475,7 +10894,7 @@
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Security Groups</t>
+          <t>OpenStack Mgmt Port Name</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -10484,7 +10903,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Network</t>
+          <t>OpenStack Mgmt Port Security Groups</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -10493,7 +10912,7 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Subnet</t>
+          <t>OpenStack Control Network</t>
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
@@ -10502,7 +10921,7 @@
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Name</t>
+          <t>OpenStack Control Subnet</t>
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
@@ -10511,7 +10930,7 @@
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Security Groups</t>
+          <t>OpenStack Control Port Name</t>
         </is>
       </c>
       <c r="B49" s="7" t="n"/>
@@ -10520,7 +10939,7 @@
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Control Port Security Groups</t>
         </is>
       </c>
       <c r="B50" s="7" t="n"/>
@@ -10529,32 +10948,32 @@
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Port Name</t>
         </is>
       </c>
       <c r="B51" s="7" t="n"/>
       <c r="C51" s="7" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="n"/>
+      <c r="C52" s="7" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>Health Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of BGP neighbors</t>
-        </is>
-      </c>
-      <c r="B53" s="9" t="n"/>
-      <c r="C53" s="9" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="8" t="inlineStr">
         <is>
-          <t>Expected number of vswitches</t>
+          <t>Expected number of BGP neighbors</t>
         </is>
       </c>
       <c r="B54" s="9" t="n"/>
@@ -10563,7 +10982,7 @@
     <row r="55">
       <c r="A55" s="8" t="inlineStr">
         <is>
-          <t>Expected number of host vports</t>
+          <t>Expected number of vswitches</t>
         </is>
       </c>
       <c r="B55" s="9" t="n"/>
@@ -10572,7 +10991,7 @@
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
-          <t>Expected number of VM vports</t>
+          <t>Expected number of host vports</t>
         </is>
       </c>
       <c r="B56" s="9" t="n"/>
@@ -10581,32 +11000,32 @@
     <row r="57">
       <c r="A57" s="8" t="inlineStr">
         <is>
-          <t>Expected number of gateway ports</t>
+          <t>Expected number of VM vports</t>
         </is>
       </c>
       <c r="B57" s="9" t="n"/>
       <c r="C57" s="9" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of gateway ports</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="n"/>
+      <c r="C58" s="9" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>Certificates and credentials</t>
         </is>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="inlineStr">
-        <is>
-          <t>Ejabberd user id</t>
-        </is>
-      </c>
-      <c r="B59" s="9" t="n"/>
-      <c r="C59" s="9" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="8" t="inlineStr">
         <is>
-          <t>Private key path</t>
+          <t>Ejabberd user id</t>
         </is>
       </c>
       <c r="B60" s="9" t="n"/>
@@ -10615,7 +11034,7 @@
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>Certificate path</t>
+          <t>Private key path</t>
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
@@ -10624,7 +11043,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>CA certificate path</t>
+          <t>Certificate path</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -10633,7 +11052,7 @@
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
         <is>
-          <t>XMPP domain</t>
+          <t>CA certificate path</t>
         </is>
       </c>
       <c r="B63" s="9" t="n"/>
@@ -10642,32 +11061,32 @@
     <row r="64">
       <c r="A64" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>XMPP domain</t>
         </is>
       </c>
       <c r="B64" s="9" t="n"/>
       <c r="C64" s="9" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="A65" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B65" s="9" t="n"/>
+      <c r="C65" s="9" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>VSC Options</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B66" s="9" t="n"/>
-      <c r="C66" s="9" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="8" t="inlineStr">
         <is>
-          <t>Harden VSC</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B67" s="9" t="n"/>
@@ -10676,11 +11095,20 @@
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>Paths to VSC Config Files</t>
+          <t>Harden VSC</t>
         </is>
       </c>
       <c r="B68" s="9" t="n"/>
       <c r="C68" s="9" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="inlineStr">
+        <is>
+          <t>Paths to VSC Config Files</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="n"/>
+      <c r="C69" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10690,10 +11118,10 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A66:C66"/>
   </mergeCells>
   <dataValidations count="20">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -10708,8 +11136,6 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
       <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B53" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C53" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B54" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C54" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
@@ -10718,10 +11144,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C56" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B57" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B67" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C67" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C68" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10736,7 +11164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10984,29 +11412,29 @@
       <c r="G21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="n"/>
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="9" t="n"/>
+      <c r="E22" s="9" t="n"/>
+      <c r="F22" s="9" t="n"/>
+      <c r="G22" s="9" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>AWS Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>AWS AMI ID</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="n"/>
-      <c r="C23" s="7" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID for Upgrading Instance</t>
+          <t>AWS AMI ID</t>
         </is>
       </c>
       <c r="B24" s="7" t="n"/>
@@ -11019,7 +11447,7 @@
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>AWS AMI ID for Upgrading Instance</t>
         </is>
       </c>
       <c r="B25" s="7" t="n"/>
@@ -11032,7 +11460,7 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
@@ -11045,7 +11473,7 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>AWS Management ENI ID</t>
+          <t>AWS Keypair Name</t>
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
@@ -11056,29 +11484,29 @@
       <c r="G27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>AWS Management ENI ID</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="7" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>OpenStack Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B30" s="7" t="n"/>
@@ -11091,7 +11519,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Availability Zone</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B31" s="7" t="n"/>
@@ -11104,7 +11532,7 @@
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Network</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B32" s="7" t="n"/>
@@ -11117,7 +11545,7 @@
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Subnet</t>
+          <t>OpenStack Network</t>
         </is>
       </c>
       <c r="B33" s="7" t="n"/>
@@ -11130,7 +11558,7 @@
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Subnet</t>
         </is>
       </c>
       <c r="B34" s="7" t="n"/>
@@ -11143,7 +11571,7 @@
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Port Name</t>
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
@@ -11154,29 +11582,29 @@
       <c r="G35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="n"/>
+      <c r="C36" s="7" t="n"/>
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
+      <c r="F36" s="7" t="n"/>
+      <c r="G36" s="7" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>NFS Backup Configuration</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>NFS backup location</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
-      <c r="F37" s="7" t="n"/>
-      <c r="G37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>Interval to restore snapshots</t>
+          <t>NFS backup location</t>
         </is>
       </c>
       <c r="B38" s="7" t="n"/>
@@ -11189,7 +11617,7 @@
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>Interval to create snapshots</t>
+          <t>Interval to restore snapshots</t>
         </is>
       </c>
       <c r="B39" s="7" t="n"/>
@@ -11202,7 +11630,7 @@
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>Backup repository name</t>
+          <t>Interval to create snapshots</t>
         </is>
       </c>
       <c r="B40" s="7" t="n"/>
@@ -11213,29 +11641,29 @@
       <c r="G40" s="7" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Backup repository name</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n"/>
+      <c r="C41" s="7" t="n"/>
+      <c r="D41" s="7" t="n"/>
+      <c r="E41" s="7" t="n"/>
+      <c r="F41" s="7" t="n"/>
+      <c r="G41" s="7" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>Extra Disk</t>
         </is>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>Add extra disk</t>
-        </is>
-      </c>
-      <c r="B42" s="7" t="n"/>
-      <c r="C42" s="7" t="n"/>
-      <c r="D42" s="7" t="n"/>
-      <c r="E42" s="7" t="n"/>
-      <c r="F42" s="7" t="n"/>
-      <c r="G42" s="7" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>Extra disk size in GB</t>
+          <t>Add extra disk</t>
         </is>
       </c>
       <c r="B43" s="7" t="n"/>
@@ -11248,7 +11676,7 @@
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>Extra disk image path on hypervisor</t>
+          <t>Extra disk size in GB</t>
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
@@ -11261,7 +11689,7 @@
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>Extra disk image file prefix</t>
+          <t>Extra disk image path on hypervisor</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -11272,29 +11700,29 @@
       <c r="G45" s="7" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>Extra disk image file prefix</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="n"/>
+      <c r="C46" s="7" t="n"/>
+      <c r="D46" s="7" t="n"/>
+      <c r="E46" s="7" t="n"/>
+      <c r="F46" s="7" t="n"/>
+      <c r="G46" s="7" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>Other configuration</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B47" s="9" t="n"/>
-      <c r="C47" s="9" t="n"/>
-      <c r="D47" s="9" t="n"/>
-      <c r="E47" s="9" t="n"/>
-      <c r="F47" s="9" t="n"/>
-      <c r="G47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>Enable VSS UI</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B48" s="9" t="n"/>
@@ -11307,7 +11735,7 @@
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
-          <t>Health monitoring agent</t>
+          <t>Enable VSS UI</t>
         </is>
       </c>
       <c r="B49" s="9" t="n"/>
@@ -11320,7 +11748,7 @@
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Health monitoring agent</t>
         </is>
       </c>
       <c r="B50" s="9" t="n"/>
@@ -11330,16 +11758,29 @@
       <c r="F50" s="9" t="n"/>
       <c r="G50" s="9" t="n"/>
     </row>
+    <row r="51">
+      <c r="A51" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="n"/>
+      <c r="C51" s="9" t="n"/>
+      <c r="D51" s="9" t="n"/>
+      <c r="E51" s="9" t="n"/>
+      <c r="F51" s="9" t="n"/>
+      <c r="G51" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A47:G47"/>
   </mergeCells>
   <dataValidations count="48">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -11366,76 +11807,76 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
       <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F38" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G38" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G39" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G40" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G50" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12539,7 +12980,7 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A25:G25"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="12">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
       <formula1>"kvm,vcenter"</formula1>
     </dataValidation>
@@ -12558,6 +12999,12 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="list">
       <formula1>"kvm,vcenter"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -2638,6 +2638,7 @@
     <author>ctrl_ip_vprn</author>
     <author>ctrl_ip_vprn_list</author>
     <author>system_ip</author>
+    <author>router_id</author>
     <author>vmname</author>
     <author>system_name</author>
     <author>xmpp_username</author>
@@ -2742,225 +2743,230 @@
     </comment>
     <comment authorId="11" ref="A18" shapeId="0">
       <text>
+        <t>Required IPv4 address when using an IPv6 system IP address [default: (system_ip)]</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A19" shapeId="0">
+      <text>
         <t>Name of the virtual machine on the Hypervisor/vCenter Server. [default: (Hostname)]</t>
       </text>
     </comment>
-    <comment authorId="12" ref="A19" shapeId="0">
+    <comment authorId="13" ref="A20" shapeId="0">
       <text>
         <t>Name of the system if other than hostname [default: (Hostname)]</t>
       </text>
     </comment>
-    <comment authorId="13" ref="A20" shapeId="0">
+    <comment authorId="14" ref="A21" shapeId="0">
       <text>
         <t>Unique username used to identify this VSC in its XMPP connection with VSD [default: vsc1]</t>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy.</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
+    <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>Network Bridge used for the management interface of a component or the BOF interface on VSC. This will be a Distributed Virtual PortGroup (DVPG) when deploying on vCenter or a Linux network bridge when deploying on KVM. This field can be overridden by defining the management network bridge separately in the component configuration. Defaults to the global setting [default: (global Bridge interface)]</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A26" shapeId="0">
+    <comment authorId="18" ref="A27" shapeId="0">
       <text>
         <t>Network Bridge used for the data path of a component or the Control interface on VSC. This will be a Distributed Virtual PortGroup (DVPG) when deploying on vCenter or a Linux network bridge when deploying on KVM. [default: (global Bridge interface)]</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A27" shapeId="0">
+    <comment authorId="19" ref="A28" shapeId="0">
       <text>
         <t>FQDN of the VSD or VSD cluster for this VSC</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A28" shapeId="0">
+    <comment authorId="20" ref="A29" shapeId="0">
       <text>
         <t>Private Management IP Address of VSC instances</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="21" ref="A30" shapeId="0">
       <text>
         <t>Private Control IP Address of VSC Instances</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>Private Data Gateway IP Address of VSC Instances</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>List of route reflector IP addresses if present (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A33" shapeId="0">
+    <comment authorId="24" ref="A34" shapeId="0">
       <text>
         <t>Name of the vCenter Datacenter on which the VSC VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A34" shapeId="0">
+    <comment authorId="25" ref="A35" shapeId="0">
       <text>
         <t>Name of the vCenter Cluster on which the VSC VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A35" shapeId="0">
+    <comment authorId="26" ref="A36" shapeId="0">
       <text>
         <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A36" shapeId="0">
+    <comment authorId="27" ref="A37" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the VSC VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="28" ref="A38" shapeId="0">
       <text>
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="29" ref="A39" shapeId="0">
       <text>
         <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A40" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Name of management network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="34" ref="A45" shapeId="0">
       <text>
         <t>Name of management subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="35" ref="A46" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="36" ref="A47" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="37" ref="A48" shapeId="0">
       <text>
         <t>Name of control network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="38" ref="A49" shapeId="0">
       <text>
         <t>Name of control subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="39" ref="A50" shapeId="0">
       <text>
         <t>Name for Control interface</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A50" shapeId="0">
+    <comment authorId="40" ref="A51" shapeId="0">
       <text>
         <t>Set of security groups to associate with Control interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A51" shapeId="0">
+    <comment authorId="41" ref="A52" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A52" shapeId="0">
+    <comment authorId="42" ref="A53" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A54" shapeId="0">
+    <comment authorId="43" ref="A55" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A55" shapeId="0">
+    <comment authorId="44" ref="A56" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A56" shapeId="0">
+    <comment authorId="45" ref="A57" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A57" shapeId="0">
+    <comment authorId="46" ref="A58" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A58" shapeId="0">
+    <comment authorId="47" ref="A59" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A60" shapeId="0">
+    <comment authorId="48" ref="A61" shapeId="0">
       <text>
         <t>Ejabberd user id used to create the certificate</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A61" shapeId="0">
+    <comment authorId="49" ref="A62" shapeId="0">
       <text>
         <t>Path to VSC certificate key pem file</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A62" shapeId="0">
+    <comment authorId="50" ref="A63" shapeId="0">
       <text>
         <t>Path to VSC certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A63" shapeId="0">
+    <comment authorId="51" ref="A64" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A64" shapeId="0">
+    <comment authorId="52" ref="A65" shapeId="0">
       <text>
         <t>XMPP domain used in custom certificates</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A65" shapeId="0">
+    <comment authorId="53" ref="A66" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsc</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A67" shapeId="0">
+    <comment authorId="54" ref="A68" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSC requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A68" shapeId="0">
+    <comment authorId="55" ref="A69" shapeId="0">
       <text>
         <t>Enables hardening configuration on VSC [default: True]</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A69" shapeId="0">
+    <comment authorId="56" ref="A70" shapeId="0">
       <text>
         <t>Paths to files that can be optionally applied for additional VSC configuration (List items separated by comma.)</t>
       </text>
@@ -10509,7 +10515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10659,75 +10665,75 @@
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
-          <t>VM name</t>
+          <t>Router ID</t>
         </is>
       </c>
       <c r="B18" s="7" t="n"/>
       <c r="C18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
         <is>
           <t>System Name</t>
         </is>
       </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="B20" s="9" t="n"/>
+      <c r="C20" s="9" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>XMPP username</t>
         </is>
       </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="B21" s="7" t="n"/>
+      <c r="C21" s="7" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Target Server</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>Target Server type</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Target Server IP or FQDN</t>
+          <t>Target Server type</t>
         </is>
       </c>
       <c r="B23" s="5" t="n"/>
       <c r="C23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Bridges and Private IP</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="n"/>
-      <c r="C25" s="9" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>Data Network Bridge</t>
+          <t>Management Network Bridge</t>
         </is>
       </c>
       <c r="B26" s="9" t="n"/>
@@ -10736,7 +10742,7 @@
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
         <is>
-          <t>VSD FQDN</t>
+          <t>Data Network Bridge</t>
         </is>
       </c>
       <c r="B27" s="9" t="n"/>
@@ -10745,7 +10751,7 @@
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>Private Management IP</t>
+          <t>VSD FQDN</t>
         </is>
       </c>
       <c r="B28" s="9" t="n"/>
@@ -10754,7 +10760,7 @@
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>Private Control IP Address</t>
+          <t>Private Management IP</t>
         </is>
       </c>
       <c r="B29" s="9" t="n"/>
@@ -10763,7 +10769,7 @@
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>Private Data Gateway IP Address</t>
+          <t>Private Control IP Address</t>
         </is>
       </c>
       <c r="B30" s="9" t="n"/>
@@ -10772,32 +10778,32 @@
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t>List of route reflector IPs</t>
+          <t>Private Data Gateway IP Address</t>
         </is>
       </c>
       <c r="B31" s="9" t="n"/>
       <c r="C31" s="9" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>List of route reflector IPs</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="n"/>
+      <c r="C32" s="9" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>vCenter Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter Name</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="n"/>
-      <c r="C33" s="9" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>vCenter Cluster Name</t>
+          <t>vCenter Datacenter Name</t>
         </is>
       </c>
       <c r="B34" s="9" t="n"/>
@@ -10806,7 +10812,7 @@
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
         <is>
-          <t>vCenter Host Reference</t>
+          <t>vCenter Cluster Name</t>
         </is>
       </c>
       <c r="B35" s="9" t="n"/>
@@ -10815,50 +10821,50 @@
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datastore Name</t>
+          <t>vCenter Host Reference</t>
         </is>
       </c>
       <c r="B36" s="9" t="n"/>
       <c r="C36" s="9" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="inlineStr">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="n"/>
+      <c r="C37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
         <is>
           <t>vCenter VM Folder</t>
         </is>
       </c>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="8" t="inlineStr">
+      <c r="B38" s="7" t="n"/>
+      <c r="C38" s="7" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="inlineStr">
         <is>
           <t>vCenter Hosts and Clusters Folder</t>
         </is>
       </c>
-      <c r="B38" s="9" t="n"/>
-      <c r="C38" s="9" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="B39" s="9" t="n"/>
+      <c r="C39" s="9" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>OpenStack Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="n"/>
-      <c r="C40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B41" s="7" t="n"/>
@@ -10867,7 +10873,7 @@
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Availability Zone</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
@@ -10876,7 +10882,7 @@
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Network</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B43" s="7" t="n"/>
@@ -10885,7 +10891,7 @@
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Subnet</t>
+          <t>OpenStack Mgmt Network</t>
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
@@ -10894,7 +10900,7 @@
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Name</t>
+          <t>OpenStack Mgmt Subnet</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -10903,7 +10909,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Security Groups</t>
+          <t>OpenStack Mgmt Port Name</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -10912,7 +10918,7 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Network</t>
+          <t>OpenStack Mgmt Port Security Groups</t>
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
@@ -10921,7 +10927,7 @@
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Subnet</t>
+          <t>OpenStack Control Network</t>
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
@@ -10930,7 +10936,7 @@
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Name</t>
+          <t>OpenStack Control Subnet</t>
         </is>
       </c>
       <c r="B49" s="7" t="n"/>
@@ -10939,7 +10945,7 @@
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Security Groups</t>
+          <t>OpenStack Control Port Name</t>
         </is>
       </c>
       <c r="B50" s="7" t="n"/>
@@ -10948,7 +10954,7 @@
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Control Port Security Groups</t>
         </is>
       </c>
       <c r="B51" s="7" t="n"/>
@@ -10957,32 +10963,32 @@
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Port Name</t>
         </is>
       </c>
       <c r="B52" s="7" t="n"/>
       <c r="C52" s="7" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B53" s="7" t="n"/>
+      <c r="C53" s="7" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>Health Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of BGP neighbors</t>
-        </is>
-      </c>
-      <c r="B54" s="9" t="n"/>
-      <c r="C54" s="9" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="8" t="inlineStr">
         <is>
-          <t>Expected number of vswitches</t>
+          <t>Expected number of BGP neighbors</t>
         </is>
       </c>
       <c r="B55" s="9" t="n"/>
@@ -10991,7 +10997,7 @@
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
-          <t>Expected number of host vports</t>
+          <t>Expected number of vswitches</t>
         </is>
       </c>
       <c r="B56" s="9" t="n"/>
@@ -11000,7 +11006,7 @@
     <row r="57">
       <c r="A57" s="8" t="inlineStr">
         <is>
-          <t>Expected number of VM vports</t>
+          <t>Expected number of host vports</t>
         </is>
       </c>
       <c r="B57" s="9" t="n"/>
@@ -11009,32 +11015,32 @@
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>Expected number of gateway ports</t>
+          <t>Expected number of VM vports</t>
         </is>
       </c>
       <c r="B58" s="9" t="n"/>
       <c r="C58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of gateway ports</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="n"/>
+      <c r="C59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>Certificates and credentials</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="8" t="inlineStr">
-        <is>
-          <t>Ejabberd user id</t>
-        </is>
-      </c>
-      <c r="B60" s="9" t="n"/>
-      <c r="C60" s="9" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>Private key path</t>
+          <t>Ejabberd user id</t>
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
@@ -11043,7 +11049,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>Certificate path</t>
+          <t>Private key path</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -11052,7 +11058,7 @@
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
         <is>
-          <t>CA certificate path</t>
+          <t>Certificate path</t>
         </is>
       </c>
       <c r="B63" s="9" t="n"/>
@@ -11061,7 +11067,7 @@
     <row r="64">
       <c r="A64" s="8" t="inlineStr">
         <is>
-          <t>XMPP domain</t>
+          <t>CA certificate path</t>
         </is>
       </c>
       <c r="B64" s="9" t="n"/>
@@ -11070,32 +11076,32 @@
     <row r="65">
       <c r="A65" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>XMPP domain</t>
         </is>
       </c>
       <c r="B65" s="9" t="n"/>
       <c r="C65" s="9" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="inlineStr">
+      <c r="A66" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B66" s="9" t="n"/>
+      <c r="C66" s="9" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>VSC Options</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B67" s="9" t="n"/>
-      <c r="C67" s="9" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>Harden VSC</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B68" s="9" t="n"/>
@@ -11104,24 +11110,33 @@
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
-          <t>Paths to VSC Config Files</t>
+          <t>Harden VSC</t>
         </is>
       </c>
       <c r="B69" s="9" t="n"/>
       <c r="C69" s="9" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="inlineStr">
+        <is>
+          <t>Paths to VSC Config Files</t>
+        </is>
+      </c>
+      <c r="B70" s="9" t="n"/>
+      <c r="C70" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A67:C67"/>
   </mergeCells>
   <dataValidations count="20">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -11130,14 +11145,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B23" type="list">
       <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
       <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B54" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C54" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B56" type="whole"/>
@@ -11146,10 +11159,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B69" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C68" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C69" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -2743,7 +2743,7 @@
     </comment>
     <comment authorId="11" ref="A18" shapeId="0">
       <text>
-        <t>Required IPv4 address when using an IPv6 system IP address [default: (system_ip)]</t>
+        <t>Required IPv4 address when using an IPv6 system IP address [default: ]</t>
       </text>
     </comment>
     <comment authorId="12" ref="A19" shapeId="0">

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -2387,7 +2387,6 @@
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
     <author>vcenter_host_clusters_folder</author>
-    <author>ipv6_script</author>
     <author>aws_region</author>
     <author>aws_ami_id</author>
     <author>aws_upgrade_ami_id</author>
@@ -2490,132 +2489,127 @@
         <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A22" shapeId="0">
-      <text>
-        <t>Path to the script on the VSD to configure ipv6</t>
+    <comment authorId="15" ref="A23" shapeId="0">
+      <text>
+        <t>Only applicable for AWS deployments</t>
       </text>
     </comment>
     <comment authorId="16" ref="A24" shapeId="0">
       <text>
-        <t>Only applicable for AWS deployments</t>
+        <t>AMI ID for AWS instance</t>
       </text>
     </comment>
     <comment authorId="17" ref="A25" shapeId="0">
       <text>
-        <t>AMI ID for AWS instance</t>
+        <t>AMI VSD ID of the latest VSD release. Used only during an upgrade</t>
       </text>
     </comment>
     <comment authorId="18" ref="A26" shapeId="0">
       <text>
-        <t>AMI VSD ID of the latest VSD release. Used only during an upgrade</t>
+        <t>Instance Type to be used for a VSD instance</t>
       </text>
     </comment>
     <comment authorId="19" ref="A27" shapeId="0">
       <text>
-        <t>Instance Type to be used for a VSD instance</t>
+        <t>Name of the Keypair used to connect to AWS instances</t>
       </text>
     </comment>
     <comment authorId="20" ref="A28" shapeId="0">
       <text>
-        <t>Name of the Keypair used to connect to AWS instances</t>
-      </text>
-    </comment>
-    <comment authorId="21" ref="A29" shapeId="0">
-      <text>
         <t>ENI ID for VSD Instance on Management Subnet</t>
       </text>
     </comment>
+    <comment authorId="21" ref="A30" shapeId="0">
+      <text>
+        <t>Name of image installed on OpenStack for VSD</t>
+      </text>
+    </comment>
     <comment authorId="22" ref="A31" shapeId="0">
       <text>
-        <t>Name of image installed on OpenStack for VSD</t>
+        <t>Name of instance flavor installed on OpenStack for VSD</t>
       </text>
     </comment>
     <comment authorId="23" ref="A32" shapeId="0">
       <text>
-        <t>Name of instance flavor installed on OpenStack for VSD</t>
+        <t>Name of availability zone on OpenStack for VSD</t>
       </text>
     </comment>
     <comment authorId="24" ref="A33" shapeId="0">
       <text>
-        <t>Name of availability zone on OpenStack for VSD</t>
+        <t>Name of network on OpenStack for VSD</t>
       </text>
     </comment>
     <comment authorId="25" ref="A34" shapeId="0">
       <text>
-        <t>Name of network on OpenStack for VSD</t>
+        <t>Name of subnet on OpenStack for VSD</t>
       </text>
     </comment>
     <comment authorId="26" ref="A35" shapeId="0">
       <text>
-        <t>Name of subnet on OpenStack for VSD</t>
+        <t>Name for Mgmt interface</t>
       </text>
     </comment>
     <comment authorId="27" ref="A36" shapeId="0">
       <text>
-        <t>Name for Mgmt interface</t>
+        <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="28" ref="A37" shapeId="0">
       <text>
-        <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
+        <t>Project name for OpenStack [default: ]</t>
       </text>
     </comment>
     <comment authorId="29" ref="A38" shapeId="0">
       <text>
-        <t>Project name for OpenStack [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="30" ref="A39" shapeId="0">
-      <text>
         <t>Keystone URL for OpenStack [default: ]</t>
       </text>
     </comment>
+    <comment authorId="30" ref="A40" shapeId="0">
+      <text>
+        <t>Cpuset information for cpu pinning on KVM. For example, VSD requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
+      </text>
+    </comment>
     <comment authorId="31" ref="A41" shapeId="0">
       <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, VSD requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
+        <t>Lockout the user after reaching the number of failed login attempts</t>
       </text>
     </comment>
     <comment authorId="32" ref="A42" shapeId="0">
       <text>
-        <t>Lockout the user after reaching the number of failed login attempts</t>
+        <t>Lockout time after failed login attemps</t>
       </text>
     </comment>
     <comment authorId="33" ref="A43" shapeId="0">
       <text>
-        <t>Lockout time after failed login attemps</t>
+        <t>Enables advance API access logging</t>
       </text>
     </comment>
     <comment authorId="34" ref="A44" shapeId="0">
       <text>
-        <t>Enables advance API access logging</t>
-      </text>
-    </comment>
-    <comment authorId="35" ref="A45" shapeId="0">
-      <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
+    <comment authorId="35" ref="A46" shapeId="0">
+      <text>
+        <t>TLS version to use</t>
+      </text>
+    </comment>
     <comment authorId="36" ref="A47" shapeId="0">
       <text>
-        <t>TLS version to use</t>
+        <t>Path to CA certificate pem file</t>
       </text>
     </comment>
     <comment authorId="37" ref="A48" shapeId="0">
       <text>
-        <t>Path to CA certificate pem file</t>
+        <t>Path to intermediate certificate pem file</t>
       </text>
     </comment>
     <comment authorId="38" ref="A49" shapeId="0">
       <text>
-        <t>Path to intermediate certificate pem file</t>
+        <t>Path to certificate pem file</t>
       </text>
     </comment>
     <comment authorId="39" ref="A50" shapeId="0">
-      <text>
-        <t>Path to certificate pem file</t>
-      </text>
-    </comment>
-    <comment authorId="40" ref="A51" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -9783,7 +9777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10031,29 +10025,29 @@
       <c r="G21" s="9" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="inlineStr">
-        <is>
-          <t>VSD script to configure ipv6</t>
-        </is>
-      </c>
-      <c r="B22" s="9" t="n"/>
-      <c r="C22" s="9" t="n"/>
-      <c r="D22" s="9" t="n"/>
-      <c r="E22" s="9" t="n"/>
-      <c r="F22" s="9" t="n"/>
-      <c r="G22" s="9" t="n"/>
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>AWS Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>AWS Parameters</t>
-        </is>
-      </c>
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>AWS Region</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="n"/>
+      <c r="C23" s="7" t="n"/>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="7" t="n"/>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>AWS Region</t>
+          <t>AWS VSD AMI ID</t>
         </is>
       </c>
       <c r="B24" s="7" t="n"/>
@@ -10066,7 +10060,7 @@
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>AWS VSD AMI ID</t>
+          <t>Upgrade AWS VSD AMI ID</t>
         </is>
       </c>
       <c r="B25" s="7" t="n"/>
@@ -10079,7 +10073,7 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>Upgrade AWS VSD AMI ID</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
@@ -10092,7 +10086,7 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>AWS Keypair Name</t>
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
@@ -10105,7 +10099,7 @@
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>AWS Management ENI ID</t>
         </is>
       </c>
       <c r="B28" s="7" t="n"/>
@@ -10116,29 +10110,29 @@
       <c r="G28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>AWS Management ENI ID</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack Parameters</t>
-        </is>
-      </c>
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Image</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
+      <c r="F30" s="7" t="n"/>
+      <c r="G30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Image</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B31" s="7" t="n"/>
@@ -10151,7 +10145,7 @@
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B32" s="7" t="n"/>
@@ -10164,7 +10158,7 @@
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Availability Zone</t>
+          <t>OpenStack Network</t>
         </is>
       </c>
       <c r="B33" s="7" t="n"/>
@@ -10177,7 +10171,7 @@
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Network</t>
+          <t>OpenStack Subnet</t>
         </is>
       </c>
       <c r="B34" s="7" t="n"/>
@@ -10190,7 +10184,7 @@
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Subnet</t>
+          <t>OpenStack Port Name</t>
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
@@ -10203,7 +10197,7 @@
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Port Security Groups</t>
         </is>
       </c>
       <c r="B36" s="7" t="n"/>
@@ -10216,7 +10210,7 @@
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Project Name</t>
         </is>
       </c>
       <c r="B37" s="7" t="n"/>
@@ -10229,7 +10223,7 @@
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Project Name</t>
+          <t>OpenStack Keystone URL</t>
         </is>
       </c>
       <c r="B38" s="7" t="n"/>
@@ -10240,29 +10234,29 @@
       <c r="G38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Keystone URL</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="n"/>
-      <c r="C39" s="7" t="n"/>
-      <c r="D39" s="7" t="n"/>
-      <c r="E39" s="7" t="n"/>
-      <c r="F39" s="7" t="n"/>
-      <c r="G39" s="7" t="n"/>
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>VSD Options</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>VSD Options</t>
-        </is>
-      </c>
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
+      <c r="D40" s="9" t="n"/>
+      <c r="E40" s="9" t="n"/>
+      <c r="F40" s="9" t="n"/>
+      <c r="G40" s="9" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
         <is>
-          <t>KVM cpuset information</t>
+          <t>Failed login attempts</t>
         </is>
       </c>
       <c r="B41" s="9" t="n"/>
@@ -10275,7 +10269,7 @@
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
         <is>
-          <t>Failed login attempts</t>
+          <t>Failed login lockout time</t>
         </is>
       </c>
       <c r="B42" s="9" t="n"/>
@@ -10288,7 +10282,7 @@
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
         <is>
-          <t>Failed login lockout time</t>
+          <t>Advanced API Access Logging</t>
         </is>
       </c>
       <c r="B43" s="9" t="n"/>
@@ -10301,7 +10295,7 @@
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
         <is>
-          <t>Advanced API Access Logging</t>
+          <t>Health monitoring agent</t>
         </is>
       </c>
       <c r="B44" s="9" t="n"/>
@@ -10312,29 +10306,29 @@
       <c r="G44" s="9" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>Health monitoring agent</t>
-        </is>
-      </c>
-      <c r="B45" s="9" t="n"/>
-      <c r="C45" s="9" t="n"/>
-      <c r="D45" s="9" t="n"/>
-      <c r="E45" s="9" t="n"/>
-      <c r="F45" s="9" t="n"/>
-      <c r="G45" s="9" t="n"/>
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>Security and Certificates</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>Security and Certificates</t>
-        </is>
-      </c>
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t>TLS version</t>
+        </is>
+      </c>
+      <c r="B46" s="9" t="n"/>
+      <c r="C46" s="9" t="n"/>
+      <c r="D46" s="9" t="n"/>
+      <c r="E46" s="9" t="n"/>
+      <c r="F46" s="9" t="n"/>
+      <c r="G46" s="9" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
         <is>
-          <t>TLS version</t>
+          <t>Path to CA certificate pem file</t>
         </is>
       </c>
       <c r="B47" s="9" t="n"/>
@@ -10347,7 +10341,7 @@
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>Path to CA certificate pem file</t>
+          <t>Path to intermediate certificate pem file</t>
         </is>
       </c>
       <c r="B48" s="9" t="n"/>
@@ -10360,7 +10354,7 @@
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
-          <t>Path to intermediate certificate pem file</t>
+          <t>Path to certificate pem file</t>
         </is>
       </c>
       <c r="B49" s="9" t="n"/>
@@ -10373,7 +10367,7 @@
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>Path to certificate pem file</t>
+          <t>Credentials set name</t>
         </is>
       </c>
       <c r="B50" s="9" t="n"/>
@@ -10383,28 +10377,15 @@
       <c r="F50" s="9" t="n"/>
       <c r="G50" s="9" t="n"/>
     </row>
-    <row r="51">
-      <c r="A51" s="8" t="inlineStr">
-        <is>
-          <t>Credentials set name</t>
-        </is>
-      </c>
-      <c r="B51" s="9" t="n"/>
-      <c r="C51" s="9" t="n"/>
-      <c r="D51" s="9" t="n"/>
-      <c r="E51" s="9" t="n"/>
-      <c r="F51" s="9" t="n"/>
-      <c r="G51" s="9" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A45:G45"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -10431,70 +10412,70 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="list">
       <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G41" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B46" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C46" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D46" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E46" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F46" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G47" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G46" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -2743,7 +2743,7 @@
     </comment>
     <comment authorId="11" ref="A18" shapeId="0">
       <text>
-        <t>Required IPv4 address when using an IPv6 system IP address [default: ]</t>
+        <t>The router ID of this VSC in IPV address format. Required when system_ip is IPV6. [default: (System IP)]</t>
       </text>
     </comment>
     <comment authorId="12" ref="A19" shapeId="0">

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -2743,7 +2743,7 @@
     </comment>
     <comment authorId="11" ref="A18" shapeId="0">
       <text>
-        <t>The router ID of this VSC in IPV address format. Required when system_ip is IPV6. [default: (System IP)]</t>
+        <t>The router ID of this VSC in IPV4 address format. Required when system_ip is IPV6. [default: (System IP)]</t>
       </text>
     </comment>
     <comment authorId="12" ref="A19" shapeId="0">

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -2591,7 +2591,7 @@
     </comment>
     <comment authorId="35" ref="A46" shapeId="0">
       <text>
-        <t>TLS version to use</t>
+        <t>Deprecated TLS version to use - always set to 1.2 starting in version 6.*</t>
       </text>
     </comment>
     <comment authorId="36" ref="A47" shapeId="0">
@@ -2632,6 +2632,7 @@
     <author>ctrl_ip_vprn</author>
     <author>ctrl_ip_vprn_list</author>
     <author>system_ip</author>
+    <author>router_id</author>
     <author>vmname</author>
     <author>system_name</author>
     <author>xmpp_username</author>
@@ -2736,225 +2737,230 @@
     </comment>
     <comment authorId="11" ref="A18" shapeId="0">
       <text>
+        <t>The router ID of this VSC in IPV4 address format. Required when system_ip is IPV6. [default: (System IP)]</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A19" shapeId="0">
+      <text>
         <t>Name of the virtual machine on the Hypervisor/vCenter Server. [default: (Hostname)]</t>
       </text>
     </comment>
-    <comment authorId="12" ref="A19" shapeId="0">
+    <comment authorId="13" ref="A20" shapeId="0">
       <text>
         <t>Name of the system if other than hostname [default: (Hostname)]</t>
       </text>
     </comment>
-    <comment authorId="13" ref="A20" shapeId="0">
+    <comment authorId="14" ref="A21" shapeId="0">
       <text>
         <t>Unique username used to identify this VSC in its XMPP connection with VSD [default: vsc1]</t>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy.</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
+    <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>Network Bridge used for the management interface of a component or the BOF interface on VSC. This will be a Distributed Virtual PortGroup (DVPG) when deploying on vCenter or a Linux network bridge when deploying on KVM. This field can be overridden by defining the management network bridge separately in the component configuration. Defaults to the global setting [default: (global Bridge interface)]</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A26" shapeId="0">
+    <comment authorId="18" ref="A27" shapeId="0">
       <text>
         <t>Network Bridge used for the data path of a component or the Control interface on VSC. This will be a Distributed Virtual PortGroup (DVPG) when deploying on vCenter or a Linux network bridge when deploying on KVM. [default: (global Bridge interface)]</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A27" shapeId="0">
+    <comment authorId="19" ref="A28" shapeId="0">
       <text>
         <t>FQDN of the VSD or VSD cluster for this VSC</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A28" shapeId="0">
+    <comment authorId="20" ref="A29" shapeId="0">
       <text>
         <t>Private Management IP Address of VSC instances</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="21" ref="A30" shapeId="0">
       <text>
         <t>Private Control IP Address of VSC Instances</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>Private Data Gateway IP Address of VSC Instances</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>List of route reflector IP addresses if present (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A33" shapeId="0">
+    <comment authorId="24" ref="A34" shapeId="0">
       <text>
         <t>Name of the vCenter Datacenter on which the VSC VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A34" shapeId="0">
+    <comment authorId="25" ref="A35" shapeId="0">
       <text>
         <t>Name of the vCenter Cluster on which the VSC VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A35" shapeId="0">
+    <comment authorId="26" ref="A36" shapeId="0">
       <text>
         <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A36" shapeId="0">
+    <comment authorId="27" ref="A37" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the VSC VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="28" ref="A38" shapeId="0">
       <text>
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="29" ref="A39" shapeId="0">
       <text>
         <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A40" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Name of management network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="34" ref="A45" shapeId="0">
       <text>
         <t>Name of management subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="35" ref="A46" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="36" ref="A47" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="37" ref="A48" shapeId="0">
       <text>
         <t>Name of control network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="38" ref="A49" shapeId="0">
       <text>
         <t>Name of control subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="39" ref="A50" shapeId="0">
       <text>
         <t>Name for Control interface</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A50" shapeId="0">
+    <comment authorId="40" ref="A51" shapeId="0">
       <text>
         <t>Set of security groups to associate with Control interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A51" shapeId="0">
+    <comment authorId="41" ref="A52" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A52" shapeId="0">
+    <comment authorId="42" ref="A53" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A54" shapeId="0">
+    <comment authorId="43" ref="A55" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A55" shapeId="0">
+    <comment authorId="44" ref="A56" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A56" shapeId="0">
+    <comment authorId="45" ref="A57" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A57" shapeId="0">
+    <comment authorId="46" ref="A58" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A58" shapeId="0">
+    <comment authorId="47" ref="A59" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A60" shapeId="0">
+    <comment authorId="48" ref="A61" shapeId="0">
       <text>
         <t>Ejabberd user id used to create the certificate</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A61" shapeId="0">
+    <comment authorId="49" ref="A62" shapeId="0">
       <text>
         <t>Path to VSC certificate key pem file</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A62" shapeId="0">
+    <comment authorId="50" ref="A63" shapeId="0">
       <text>
         <t>Path to VSC certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A63" shapeId="0">
+    <comment authorId="51" ref="A64" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A64" shapeId="0">
+    <comment authorId="52" ref="A65" shapeId="0">
       <text>
         <t>XMPP domain used in custom certificates</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A65" shapeId="0">
+    <comment authorId="53" ref="A66" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsc</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A67" shapeId="0">
+    <comment authorId="54" ref="A68" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSC requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A68" shapeId="0">
+    <comment authorId="55" ref="A69" shapeId="0">
       <text>
         <t>Enables hardening configuration on VSC [default: True]</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A69" shapeId="0">
+    <comment authorId="56" ref="A70" shapeId="0">
       <text>
         <t>Paths to files that can be optionally applied for additional VSC configuration (List items separated by comma.)</t>
       </text>
@@ -10490,7 +10496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10640,75 +10646,75 @@
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
-          <t>VM name</t>
+          <t>Router ID</t>
         </is>
       </c>
       <c r="B18" s="7" t="n"/>
       <c r="C18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
         <is>
           <t>System Name</t>
         </is>
       </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="B20" s="9" t="n"/>
+      <c r="C20" s="9" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>XMPP username</t>
         </is>
       </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="B21" s="7" t="n"/>
+      <c r="C21" s="7" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Target Server</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>Target Server type</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Target Server IP or FQDN</t>
+          <t>Target Server type</t>
         </is>
       </c>
       <c r="B23" s="5" t="n"/>
       <c r="C23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Bridges and Private IP</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="n"/>
-      <c r="C25" s="9" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>Data Network Bridge</t>
+          <t>Management Network Bridge</t>
         </is>
       </c>
       <c r="B26" s="9" t="n"/>
@@ -10717,7 +10723,7 @@
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
         <is>
-          <t>VSD FQDN</t>
+          <t>Data Network Bridge</t>
         </is>
       </c>
       <c r="B27" s="9" t="n"/>
@@ -10726,7 +10732,7 @@
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>Private Management IP</t>
+          <t>VSD FQDN</t>
         </is>
       </c>
       <c r="B28" s="9" t="n"/>
@@ -10735,7 +10741,7 @@
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>Private Control IP Address</t>
+          <t>Private Management IP</t>
         </is>
       </c>
       <c r="B29" s="9" t="n"/>
@@ -10744,7 +10750,7 @@
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>Private Data Gateway IP Address</t>
+          <t>Private Control IP Address</t>
         </is>
       </c>
       <c r="B30" s="9" t="n"/>
@@ -10753,32 +10759,32 @@
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t>List of route reflector IPs</t>
+          <t>Private Data Gateway IP Address</t>
         </is>
       </c>
       <c r="B31" s="9" t="n"/>
       <c r="C31" s="9" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>List of route reflector IPs</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="n"/>
+      <c r="C32" s="9" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>vCenter Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter Name</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="n"/>
-      <c r="C33" s="9" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>vCenter Cluster Name</t>
+          <t>vCenter Datacenter Name</t>
         </is>
       </c>
       <c r="B34" s="9" t="n"/>
@@ -10787,7 +10793,7 @@
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
         <is>
-          <t>vCenter Host Reference</t>
+          <t>vCenter Cluster Name</t>
         </is>
       </c>
       <c r="B35" s="9" t="n"/>
@@ -10796,50 +10802,50 @@
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datastore Name</t>
+          <t>vCenter Host Reference</t>
         </is>
       </c>
       <c r="B36" s="9" t="n"/>
       <c r="C36" s="9" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="inlineStr">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="n"/>
+      <c r="C37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
         <is>
           <t>vCenter VM Folder</t>
         </is>
       </c>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="8" t="inlineStr">
+      <c r="B38" s="7" t="n"/>
+      <c r="C38" s="7" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="inlineStr">
         <is>
           <t>vCenter Hosts and Clusters Folder</t>
         </is>
       </c>
-      <c r="B38" s="9" t="n"/>
-      <c r="C38" s="9" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="B39" s="9" t="n"/>
+      <c r="C39" s="9" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>OpenStack Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="n"/>
-      <c r="C40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B41" s="7" t="n"/>
@@ -10848,7 +10854,7 @@
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Availability Zone</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
@@ -10857,7 +10863,7 @@
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Network</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B43" s="7" t="n"/>
@@ -10866,7 +10872,7 @@
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Subnet</t>
+          <t>OpenStack Mgmt Network</t>
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
@@ -10875,7 +10881,7 @@
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Name</t>
+          <t>OpenStack Mgmt Subnet</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -10884,7 +10890,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Security Groups</t>
+          <t>OpenStack Mgmt Port Name</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -10893,7 +10899,7 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Network</t>
+          <t>OpenStack Mgmt Port Security Groups</t>
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
@@ -10902,7 +10908,7 @@
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Subnet</t>
+          <t>OpenStack Control Network</t>
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
@@ -10911,7 +10917,7 @@
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Name</t>
+          <t>OpenStack Control Subnet</t>
         </is>
       </c>
       <c r="B49" s="7" t="n"/>
@@ -10920,7 +10926,7 @@
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Security Groups</t>
+          <t>OpenStack Control Port Name</t>
         </is>
       </c>
       <c r="B50" s="7" t="n"/>
@@ -10929,7 +10935,7 @@
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Control Port Security Groups</t>
         </is>
       </c>
       <c r="B51" s="7" t="n"/>
@@ -10938,32 +10944,32 @@
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Port Name</t>
         </is>
       </c>
       <c r="B52" s="7" t="n"/>
       <c r="C52" s="7" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B53" s="7" t="n"/>
+      <c r="C53" s="7" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>Health Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of BGP neighbors</t>
-        </is>
-      </c>
-      <c r="B54" s="9" t="n"/>
-      <c r="C54" s="9" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="8" t="inlineStr">
         <is>
-          <t>Expected number of vswitches</t>
+          <t>Expected number of BGP neighbors</t>
         </is>
       </c>
       <c r="B55" s="9" t="n"/>
@@ -10972,7 +10978,7 @@
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
-          <t>Expected number of host vports</t>
+          <t>Expected number of vswitches</t>
         </is>
       </c>
       <c r="B56" s="9" t="n"/>
@@ -10981,7 +10987,7 @@
     <row r="57">
       <c r="A57" s="8" t="inlineStr">
         <is>
-          <t>Expected number of VM vports</t>
+          <t>Expected number of host vports</t>
         </is>
       </c>
       <c r="B57" s="9" t="n"/>
@@ -10990,32 +10996,32 @@
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>Expected number of gateway ports</t>
+          <t>Expected number of VM vports</t>
         </is>
       </c>
       <c r="B58" s="9" t="n"/>
       <c r="C58" s="9" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of gateway ports</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="n"/>
+      <c r="C59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>Certificates and credentials</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="8" t="inlineStr">
-        <is>
-          <t>Ejabberd user id</t>
-        </is>
-      </c>
-      <c r="B60" s="9" t="n"/>
-      <c r="C60" s="9" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>Private key path</t>
+          <t>Ejabberd user id</t>
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
@@ -11024,7 +11030,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>Certificate path</t>
+          <t>Private key path</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -11033,7 +11039,7 @@
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
         <is>
-          <t>CA certificate path</t>
+          <t>Certificate path</t>
         </is>
       </c>
       <c r="B63" s="9" t="n"/>
@@ -11042,7 +11048,7 @@
     <row r="64">
       <c r="A64" s="8" t="inlineStr">
         <is>
-          <t>XMPP domain</t>
+          <t>CA certificate path</t>
         </is>
       </c>
       <c r="B64" s="9" t="n"/>
@@ -11051,32 +11057,32 @@
     <row r="65">
       <c r="A65" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>XMPP domain</t>
         </is>
       </c>
       <c r="B65" s="9" t="n"/>
       <c r="C65" s="9" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="inlineStr">
+      <c r="A66" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B66" s="9" t="n"/>
+      <c r="C66" s="9" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>VSC Options</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B67" s="9" t="n"/>
-      <c r="C67" s="9" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>Harden VSC</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B68" s="9" t="n"/>
@@ -11085,24 +11091,33 @@
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
-          <t>Paths to VSC Config Files</t>
+          <t>Harden VSC</t>
         </is>
       </c>
       <c r="B69" s="9" t="n"/>
       <c r="C69" s="9" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="inlineStr">
+        <is>
+          <t>Paths to VSC Config Files</t>
+        </is>
+      </c>
+      <c r="B70" s="9" t="n"/>
+      <c r="C70" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A67:C67"/>
   </mergeCells>
   <dataValidations count="20">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -11111,14 +11126,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B23" type="list">
       <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
       <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B54" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C54" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B56" type="whole"/>
@@ -11127,10 +11140,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B69" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C68" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C69" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -1408,12 +1408,12 @@
     </comment>
     <comment authorId="49" ref="A65" shapeId="0">
       <text>
-        <t>Path to the standard license file for the VSD [default: ]</t>
+        <t>Path to the standard license file for the VSD including the file name [default: ]</t>
       </text>
     </comment>
     <comment authorId="50" ref="A66" shapeId="0">
       <text>
-        <t>Path to the cluster license file for the VSD [default: ]</t>
+        <t>Path to the cluster license file for the VSD including the file name [default: ]</t>
       </text>
     </comment>
     <comment authorId="51" ref="A67" shapeId="0">
@@ -1423,17 +1423,17 @@
     </comment>
     <comment authorId="52" ref="A68" shapeId="0">
       <text>
-        <t>Path to the Ejabberd license file for the VSD [default: ]</t>
+        <t>Path to the Ejabberd license file for the VSD including the file name [default: ]</t>
       </text>
     </comment>
     <comment authorId="53" ref="A69" shapeId="0">
       <text>
-        <t>Path to the license file for the SD-WAN Portal [default: ]</t>
+        <t>Path to the license file for the SD-WAN Portal including the file name [default: ]</t>
       </text>
     </comment>
     <comment authorId="54" ref="A70" shapeId="0">
       <text>
-        <t>Path to the license file for the NUH [default: ]</t>
+        <t>Path to the license file for the NUH including the file name [default: ]</t>
       </text>
     </comment>
     <comment authorId="55" ref="A72" shapeId="0">
@@ -7178,7 +7178,7 @@
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
-          <t>SD-WAN Portal License Filename</t>
+          <t>SD-WAN Portal License File</t>
         </is>
       </c>
       <c r="B69" s="9" t="n"/>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -1121,6 +1121,7 @@
     <author>vsd_fallocate_size_gb</author>
     <author>vsc_fallocate_size_gb</author>
     <author>vstat_allocate_size_gb</author>
+    <author>portal_allocate_size_gb</author>
     <author>vcin_allocate_size_gb</author>
     <author>nsgv_allocate_size_gb</author>
     <author>vsd_ram</author>
@@ -1478,190 +1479,195 @@
     </comment>
     <comment authorId="63" ref="A81" shapeId="0">
       <text>
+        <t>Amount of Portal disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 285]</t>
+      </text>
+    </comment>
+    <comment authorId="64" ref="A82" shapeId="0">
+      <text>
         <t>Amount of VCIN disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="64" ref="A82" shapeId="0">
+    <comment authorId="65" ref="A83" shapeId="0">
       <text>
         <t>Amount of NSGV disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="65" ref="A84" shapeId="0">
+    <comment authorId="66" ref="A85" shapeId="0">
       <text>
         <t>Amount of VSD RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="66" ref="A85" shapeId="0">
+    <comment authorId="67" ref="A86" shapeId="0">
       <text>
         <t>Amount of VSC RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="67" ref="A86" shapeId="0">
+    <comment authorId="68" ref="A87" shapeId="0">
       <text>
         <t>Amount of VSTAT RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="68" ref="A87" shapeId="0">
+    <comment authorId="69" ref="A88" shapeId="0">
       <text>
         <t>Amount of VCIN RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="69" ref="A88" shapeId="0">
+    <comment authorId="70" ref="A89" shapeId="0">
       <text>
         <t>Amount of NUH RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="70" ref="A89" shapeId="0">
+    <comment authorId="71" ref="A90" shapeId="0">
       <text>
         <t>Amount of Webfilter RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="71" ref="A90" shapeId="0">
+    <comment authorId="72" ref="A91" shapeId="0">
       <text>
         <t>Amount of Portal RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="72" ref="A92" shapeId="0">
+    <comment authorId="73" ref="A93" shapeId="0">
       <text>
         <t>Number of CPU's for VSD. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="73" ref="A93" shapeId="0">
+    <comment authorId="74" ref="A94" shapeId="0">
       <text>
         <t>Number of CPU's for VSC. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="74" ref="A94" shapeId="0">
+    <comment authorId="75" ref="A95" shapeId="0">
       <text>
         <t>Number of CPU's for VSTAT. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="75" ref="A95" shapeId="0">
+    <comment authorId="76" ref="A96" shapeId="0">
       <text>
         <t>Number of CPU's for VNSUTIL. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="76" ref="A96" shapeId="0">
+    <comment authorId="77" ref="A97" shapeId="0">
       <text>
         <t>Number of CPU's for NUH. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="77" ref="A97" shapeId="0">
+    <comment authorId="78" ref="A98" shapeId="0">
       <text>
         <t>Number of CPU's for VCIN. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="78" ref="A98" shapeId="0">
+    <comment authorId="79" ref="A99" shapeId="0">
       <text>
         <t>Number of CPU's for Portal vm. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="79" ref="A99" shapeId="0">
+    <comment authorId="80" ref="A100" shapeId="0">
       <text>
         <t>Number of CPU's for Webfilter vm. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="80" ref="A101" shapeId="0">
+    <comment authorId="81" ref="A102" shapeId="0">
       <text>
         <t>VSD Architect URL. Required for tasks during Upgrade, Health Checks etc [default: https://(vsd_fqdn):8443]</t>
       </text>
     </comment>
-    <comment authorId="81" ref="A102" shapeId="0">
+    <comment authorId="82" ref="A103" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VSD Architect. Required for tasks during Upgrade, Health Checks etc [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="82" ref="A103" shapeId="0">
+    <comment authorId="83" ref="A104" shapeId="0">
       <text>
         <t>VCIN URL used for API interaction. Required for tasks like VRS-E upgrade (through VCIN) [default: https://(vcin_ip_address):8443]</t>
       </text>
     </comment>
-    <comment authorId="83" ref="A104" shapeId="0">
+    <comment authorId="84" ref="A105" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VCIN. Required for tasks like VRS-E upgrade (through VCIN) [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="84" ref="A106" shapeId="0">
+    <comment authorId="85" ref="A107" shapeId="0">
       <text>
         <t>List of hooks files (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="85" ref="A107" shapeId="0">
+    <comment authorId="86" ref="A108" shapeId="0">
       <text>
         <t>Skip tasks and playbooks (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="86" ref="A109" shapeId="0">
+    <comment authorId="87" ref="A110" shapeId="0">
       <text>
         <t>Address of SMTP server to be used if emailing health results</t>
       </text>
     </comment>
-    <comment authorId="87" ref="A110" shapeId="0">
+    <comment authorId="88" ref="A111" shapeId="0">
       <text>
         <t>Port to be used on the SMTP Server [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="88" ref="A111" shapeId="0">
+    <comment authorId="89" ref="A112" shapeId="0">
       <text>
         <t>Email address from which health report will be sent</t>
       </text>
     </comment>
-    <comment authorId="89" ref="A112" shapeId="0">
+    <comment authorId="90" ref="A113" shapeId="0">
       <text>
         <t>List of destination email addresses (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="90" ref="A114" shapeId="0">
+    <comment authorId="91" ref="A115" shapeId="0">
       <text>
         <t>Address of the mail server to be used to receive monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="91" ref="A115" shapeId="0">
+    <comment authorId="92" ref="A116" shapeId="0">
       <text>
         <t>Port on mail server to be used for monit alerts [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="92" ref="A116" shapeId="0">
+    <comment authorId="93" ref="A117" shapeId="0">
       <text>
         <t>Encryption to be used when sending monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="93" ref="A117" shapeId="0">
+    <comment authorId="94" ref="A118" shapeId="0">
       <text>
         <t>Enables use of monit eventqueue to store alerts if email alerts fail to send [default: True]</t>
       </text>
     </comment>
-    <comment authorId="94" ref="A118" shapeId="0">
+    <comment authorId="95" ref="A119" shapeId="0">
       <text>
         <t>Email address from which monit alerts will be sent</t>
       </text>
     </comment>
-    <comment authorId="95" ref="A119" shapeId="0">
+    <comment authorId="96" ref="A120" shapeId="0">
       <text>
         <t>Email address to reply to monit alert emails</t>
       </text>
     </comment>
-    <comment authorId="96" ref="A120" shapeId="0">
+    <comment authorId="97" ref="A121" shapeId="0">
       <text>
         <t>Email subject for alert emails. Overrides monit default alert subject</t>
       </text>
     </comment>
-    <comment authorId="97" ref="A121" shapeId="0">
+    <comment authorId="98" ref="A122" shapeId="0">
       <text>
         <t>Email message for alert emails. Overrides monit default alert message</t>
       </text>
     </comment>
-    <comment authorId="98" ref="A122" shapeId="0">
+    <comment authorId="99" ref="A123" shapeId="0">
       <text>
         <t>Destination email address for monit alerts</t>
       </text>
     </comment>
-    <comment authorId="99" ref="A123" shapeId="0">
+    <comment authorId="100" ref="A124" shapeId="0">
       <text>
         <t>Specific events for which alerts should be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="100" ref="A124" shapeId="0">
+    <comment authorId="101" ref="A125" shapeId="0">
       <text>
         <t>Events for which alerts should not be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
@@ -6641,7 +6647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7272,7 +7278,7 @@
     <row r="81">
       <c r="A81" s="8" t="inlineStr">
         <is>
-          <t>VCIN Disk Size</t>
+          <t>Portal Disk Size</t>
         </is>
       </c>
       <c r="B81" s="9" t="n"/>
@@ -7280,30 +7286,30 @@
     <row r="82">
       <c r="A82" s="8" t="inlineStr">
         <is>
+          <t>VCIN Disk Size</t>
+        </is>
+      </c>
+      <c r="B82" s="9" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="8" t="inlineStr">
+        <is>
           <t>NSGV Disk Size</t>
         </is>
       </c>
-      <c r="B82" s="9" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="inlineStr">
+      <c r="B83" s="9" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
         <is>
           <t>KVM RAM</t>
         </is>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD RAM</t>
-        </is>
-      </c>
-      <c r="B84" s="9" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="8" t="inlineStr">
         <is>
-          <t>KVM VSC RAM</t>
+          <t>KVM VSD RAM</t>
         </is>
       </c>
       <c r="B85" s="9" t="n"/>
@@ -7311,7 +7317,7 @@
     <row r="86">
       <c r="A86" s="8" t="inlineStr">
         <is>
-          <t>KVM VSTAT RAM</t>
+          <t>KVM VSC RAM</t>
         </is>
       </c>
       <c r="B86" s="9" t="n"/>
@@ -7319,7 +7325,7 @@
     <row r="87">
       <c r="A87" s="8" t="inlineStr">
         <is>
-          <t>KVM VCIN RAM</t>
+          <t>KVM VSTAT RAM</t>
         </is>
       </c>
       <c r="B87" s="9" t="n"/>
@@ -7327,7 +7333,7 @@
     <row r="88">
       <c r="A88" s="8" t="inlineStr">
         <is>
-          <t>KVM NUH RAM</t>
+          <t>KVM VCIN RAM</t>
         </is>
       </c>
       <c r="B88" s="9" t="n"/>
@@ -7335,7 +7341,7 @@
     <row r="89">
       <c r="A89" s="8" t="inlineStr">
         <is>
-          <t>KVM Webfilter RAM</t>
+          <t>KVM NUH RAM</t>
         </is>
       </c>
       <c r="B89" s="9" t="n"/>
@@ -7343,30 +7349,30 @@
     <row r="90">
       <c r="A90" s="8" t="inlineStr">
         <is>
+          <t>KVM Webfilter RAM</t>
+        </is>
+      </c>
+      <c r="B90" s="9" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="8" t="inlineStr">
+        <is>
           <t>KVM Portal RAM</t>
         </is>
       </c>
-      <c r="B90" s="9" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="3" t="inlineStr">
+      <c r="B91" s="9" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
         <is>
           <t>KVM CPU</t>
         </is>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD CPU cores</t>
-        </is>
-      </c>
-      <c r="B92" s="9" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="8" t="inlineStr">
         <is>
-          <t>VSC CPU cores</t>
+          <t>KVM VSD CPU cores</t>
         </is>
       </c>
       <c r="B93" s="9" t="n"/>
@@ -7374,7 +7380,7 @@
     <row r="94">
       <c r="A94" s="8" t="inlineStr">
         <is>
-          <t>KVM VSTAT CPU cores</t>
+          <t>VSC CPU cores</t>
         </is>
       </c>
       <c r="B94" s="9" t="n"/>
@@ -7382,7 +7388,7 @@
     <row r="95">
       <c r="A95" s="8" t="inlineStr">
         <is>
-          <t>KVM VNSUTIL CPU cores</t>
+          <t>KVM VSTAT CPU cores</t>
         </is>
       </c>
       <c r="B95" s="9" t="n"/>
@@ -7390,7 +7396,7 @@
     <row r="96">
       <c r="A96" s="8" t="inlineStr">
         <is>
-          <t>KVM NUH CPU cores</t>
+          <t>KVM VNSUTIL CPU cores</t>
         </is>
       </c>
       <c r="B96" s="9" t="n"/>
@@ -7398,7 +7404,7 @@
     <row r="97">
       <c r="A97" s="8" t="inlineStr">
         <is>
-          <t>KVM VCIN CPU cores</t>
+          <t>KVM NUH CPU cores</t>
         </is>
       </c>
       <c r="B97" s="9" t="n"/>
@@ -7406,7 +7412,7 @@
     <row r="98">
       <c r="A98" s="8" t="inlineStr">
         <is>
-          <t>KVM Portal VM CPU cores</t>
+          <t>KVM VCIN CPU cores</t>
         </is>
       </c>
       <c r="B98" s="9" t="n"/>
@@ -7414,30 +7420,30 @@
     <row r="99">
       <c r="A99" s="8" t="inlineStr">
         <is>
+          <t>KVM Portal VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B99" s="9" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="8" t="inlineStr">
+        <is>
           <t>KVM Webfilter VM CPU cores</t>
         </is>
       </c>
-      <c r="B99" s="9" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="inlineStr">
+      <c r="B100" s="9" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
         <is>
           <t>Authentication</t>
         </is>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="8" t="inlineStr">
-        <is>
-          <t>VSD Architect URL</t>
-        </is>
-      </c>
-      <c r="B101" s="9" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="8" t="inlineStr">
         <is>
-          <t>VSD Enterprise</t>
+          <t>VSD Architect URL</t>
         </is>
       </c>
       <c r="B102" s="9" t="n"/>
@@ -7445,7 +7451,7 @@
     <row r="103">
       <c r="A103" s="8" t="inlineStr">
         <is>
-          <t>VCIN URL</t>
+          <t>VSD Enterprise</t>
         </is>
       </c>
       <c r="B103" s="9" t="n"/>
@@ -7453,53 +7459,53 @@
     <row r="104">
       <c r="A104" s="8" t="inlineStr">
         <is>
+          <t>VCIN URL</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="8" t="inlineStr">
+        <is>
           <t>VCIN Enterprise</t>
         </is>
       </c>
-      <c r="B104" s="9" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="inlineStr">
+      <c r="B105" s="9" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
         <is>
           <t>Hooks</t>
         </is>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="8" t="inlineStr">
-        <is>
-          <t>hooks</t>
-        </is>
-      </c>
-      <c r="B106" s="9" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="8" t="inlineStr">
         <is>
+          <t>hooks</t>
+        </is>
+      </c>
+      <c r="B107" s="9" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="8" t="inlineStr">
+        <is>
           <t>skip actions</t>
         </is>
       </c>
-      <c r="B107" s="9" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="3" t="inlineStr">
+      <c r="B108" s="9" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
         <is>
           <t>Component Health Report Email Options</t>
         </is>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server</t>
-        </is>
-      </c>
-      <c r="B109" s="9" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="8" t="inlineStr">
         <is>
-          <t>Health Report SMTP Server Port</t>
+          <t>Health Report SMTP Server</t>
         </is>
       </c>
       <c r="B110" s="9" t="n"/>
@@ -7507,7 +7513,7 @@
     <row r="111">
       <c r="A111" s="8" t="inlineStr">
         <is>
-          <t>Health Report Email From Address</t>
+          <t>Health Report SMTP Server Port</t>
         </is>
       </c>
       <c r="B111" s="9" t="n"/>
@@ -7515,30 +7521,30 @@
     <row r="112">
       <c r="A112" s="8" t="inlineStr">
         <is>
+          <t>Health Report Email From Address</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="8" t="inlineStr">
+        <is>
           <t>Health Report Destination Email Address(es)</t>
         </is>
       </c>
-      <c r="B112" s="9" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="inlineStr">
+      <c r="B113" s="9" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="inlineStr">
         <is>
           <t>VSD Monit Email Alerts Configuration</t>
         </is>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server</t>
-        </is>
-      </c>
-      <c r="B114" s="9" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Port</t>
+          <t>VSD Monit Mail Server</t>
         </is>
       </c>
       <c r="B115" s="9" t="n"/>
@@ -7546,7 +7552,7 @@
     <row r="116">
       <c r="A116" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Encryption Type</t>
+          <t>VSD Monit Mail Server Port</t>
         </is>
       </c>
       <c r="B116" s="9" t="n"/>
@@ -7554,7 +7560,7 @@
     <row r="117">
       <c r="A117" s="8" t="inlineStr">
         <is>
-          <t>Use VSD Monit Eventqueue</t>
+          <t>VSD Monit Mail Server Encryption Type</t>
         </is>
       </c>
       <c r="B117" s="9" t="n"/>
@@ -7562,7 +7568,7 @@
     <row r="118">
       <c r="A118" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit From Email Address</t>
+          <t>Use VSD Monit Eventqueue</t>
         </is>
       </c>
       <c r="B118" s="9" t="n"/>
@@ -7570,7 +7576,7 @@
     <row r="119">
       <c r="A119" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Reply-To Email Address</t>
+          <t>VSD Monit From Email Address</t>
         </is>
       </c>
       <c r="B119" s="9" t="n"/>
@@ -7578,7 +7584,7 @@
     <row r="120">
       <c r="A120" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Subject</t>
+          <t>VSD Monit Reply-To Email Address</t>
         </is>
       </c>
       <c r="B120" s="9" t="n"/>
@@ -7586,7 +7592,7 @@
     <row r="121">
       <c r="A121" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Message</t>
+          <t>VSD Monit Email Alert Subject</t>
         </is>
       </c>
       <c r="B121" s="9" t="n"/>
@@ -7594,7 +7600,7 @@
     <row r="122">
       <c r="A122" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Destination Email Address</t>
+          <t>VSD Monit Email Alert Message</t>
         </is>
       </c>
       <c r="B122" s="9" t="n"/>
@@ -7602,7 +7608,7 @@
     <row r="123">
       <c r="A123" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Only Alert On</t>
+          <t>VSD Monit Destination Email Address</t>
         </is>
       </c>
       <c r="B123" s="9" t="n"/>
@@ -7610,10 +7616,18 @@
     <row r="124">
       <c r="A124" s="8" t="inlineStr">
         <is>
+          <t>VSD Monit Only Alert On</t>
+        </is>
+      </c>
+      <c r="B124" s="9" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="8" t="inlineStr">
+        <is>
           <t>VSD Monit Do Not Alert On</t>
         </is>
       </c>
-      <c r="B124" s="9" t="n"/>
+      <c r="B125" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -7631,14 +7645,14 @@
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A114:B114"/>
   </mergeCells>
-  <dataValidations count="39">
+  <dataValidations count="40">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -7684,14 +7698,14 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B80" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B81" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B82" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B84" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B83" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B85" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B87" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B91" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
@@ -7699,9 +7713,10 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B97" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B98" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B99" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B110" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B115" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B117" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B100" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B111" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B116" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B118" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -1479,7 +1479,7 @@
     </comment>
     <comment authorId="63" ref="A81" shapeId="0">
       <text>
-        <t>Amount of Portal disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 285]</t>
+        <t>Amount of Portal disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 16]</t>
       </text>
     </comment>
     <comment authorId="64" ref="A82" shapeId="0">

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -1934,7 +1934,7 @@
     </comment>
     <comment authorId="6" ref="A12" shapeId="0">
       <text>
-        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
+        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server. When target_server_type is set to openstack, this property is unused and should be set to 0.0.0.0</t>
       </text>
     </comment>
     <comment authorId="7" ref="A14" shapeId="0">
@@ -2462,7 +2462,7 @@
     </comment>
     <comment authorId="8" ref="A14" shapeId="0">
       <text>
-        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
+        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server. When target_server_type is set to openstack, this property is unused and should be set to 0.0.0.0</t>
       </text>
     </comment>
     <comment authorId="9" ref="A16" shapeId="0">
@@ -2768,7 +2768,7 @@
     </comment>
     <comment authorId="16" ref="A24" shapeId="0">
       <text>
-        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
+        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server. When target_server_type is set to openstack, this property is unused and should be set to 0.0.0.0</t>
       </text>
     </comment>
     <comment authorId="17" ref="A26" shapeId="0">
@@ -3057,7 +3057,7 @@
     </comment>
     <comment authorId="7" ref="A13" shapeId="0">
       <text>
-        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
+        <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server. When target_server_type is set to openstack, this property is unused and should be set to 0.0.0.0</t>
       </text>
     </comment>
     <comment authorId="8" ref="A14" shapeId="0">

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -342,6 +342,7 @@
     <author>provision_vpc_nsg_wan_subnet_cidr</author>
     <author>provision_vpc_nsg_lan_subnet_cidr</author>
     <author>provision_vpc_private_subnet_cidr</author>
+    <author>proxy_external_ip</author>
     <author>nsg_organization</author>
     <author>nsg_name</author>
     <author>match_type</author>
@@ -505,107 +506,112 @@
         <t>Private Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A39" shapeId="0">
+    <comment authorId="28" ref="A38" shapeId="0">
+      <text>
+        <t>IP address of the VNSUtil VM or the NUH used as a proxy for the NSGv on AWS [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Organization on the VSD to associate with the NSG being bootstrapped, overrides global setting. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A40" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Name of the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Field type to match against for NSGv activation. [default: none]</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Value to match against for NSGv activation. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Enables SSH on NSGv when set. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A45" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of the NSG infra profile template on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A46" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of the NSG infra profile on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name of the NSG infra profile proxy DNS on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Allows NSGs using this profile to override SSH access. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A50" shapeId="0">
+    <comment authorId="38" ref="A51" shapeId="0">
       <text>
         <t>Name of the VSC infra profile for the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A51" shapeId="0">
+    <comment authorId="39" ref="A52" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile first controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile second controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A53" shapeId="0">
+    <comment authorId="41" ref="A54" shapeId="0">
       <text>
         <t>Name of the network port for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A55" shapeId="0">
+    <comment authorId="42" ref="A56" shapeId="0">
       <text>
         <t>Physical name of the network port for the NSG [default: port1]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A56" shapeId="0">
+    <comment authorId="43" ref="A57" shapeId="0">
       <text>
         <t>Name of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A57" shapeId="0">
+    <comment authorId="44" ref="A58" shapeId="0">
       <text>
         <t>Physical name of the access port for the NSG. Deprecated in favor of access_ports [default: port2]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A58" shapeId="0">
+    <comment authorId="45" ref="A59" shapeId="0">
       <text>
         <t>VLAN range of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A59" shapeId="0">
+    <comment authorId="46" ref="A60" shapeId="0">
       <text>
         <t>VLAN number of the NSG access port for the NSG. Deprecated in favor of access_ports [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A60" shapeId="0">
+    <comment authorId="47" ref="A61" shapeId="0">
       <text>
         <t>Name of access ports list. (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A62" shapeId="0">
+    <comment authorId="48" ref="A63" shapeId="0">
       <text>
         <t>The port for telnet to HV host to access NSGv serial or console terminal [default: 2300]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A63" shapeId="0">
+    <comment authorId="49" ref="A64" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -4326,7 +4332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4764,29 +4770,29 @@
       <c r="G37" s="9" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>Proxy IP Address</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
+      <c r="D38" s="9" t="n"/>
+      <c r="E38" s="9" t="n"/>
+      <c r="F38" s="9" t="n"/>
+      <c r="G38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>NSGv Zero-Factor Bootstrap</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>NSG Organization</t>
-        </is>
-      </c>
-      <c r="B39" s="9" t="n"/>
-      <c r="C39" s="9" t="n"/>
-      <c r="D39" s="9" t="n"/>
-      <c r="E39" s="9" t="n"/>
-      <c r="F39" s="9" t="n"/>
-      <c r="G39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
         <is>
-          <t>NSG Name</t>
+          <t>NSG Organization</t>
         </is>
       </c>
       <c r="B40" s="9" t="n"/>
@@ -4797,22 +4803,22 @@
       <c r="G40" s="9" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>Activation Matching Type</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
-      <c r="D41" s="7" t="n"/>
-      <c r="E41" s="7" t="n"/>
-      <c r="F41" s="7" t="n"/>
-      <c r="G41" s="7" t="n"/>
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t>NSG Name</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="n"/>
+      <c r="C41" s="9" t="n"/>
+      <c r="D41" s="9" t="n"/>
+      <c r="E41" s="9" t="n"/>
+      <c r="F41" s="9" t="n"/>
+      <c r="G41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>Activation Matching Value</t>
+          <t>Activation Matching Type</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
@@ -4823,42 +4829,42 @@
       <c r="G42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="inlineStr">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>Activation Matching Value</t>
+        </is>
+      </c>
+      <c r="B43" s="7" t="n"/>
+      <c r="C43" s="7" t="n"/>
+      <c r="D43" s="7" t="n"/>
+      <c r="E43" s="7" t="n"/>
+      <c r="F43" s="7" t="n"/>
+      <c r="G43" s="7" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="inlineStr">
         <is>
           <t>Enable SSH on NSGv</t>
         </is>
       </c>
-      <c r="B43" s="9" t="n"/>
-      <c r="C43" s="9" t="n"/>
-      <c r="D43" s="9" t="n"/>
-      <c r="E43" s="9" t="n"/>
-      <c r="F43" s="9" t="n"/>
-      <c r="G43" s="9" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="B44" s="9" t="n"/>
+      <c r="C44" s="9" t="n"/>
+      <c r="D44" s="9" t="n"/>
+      <c r="E44" s="9" t="n"/>
+      <c r="F44" s="9" t="n"/>
+      <c r="G44" s="9" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>NSG Advanced Options</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>NSG Infra Profile Template Name</t>
-        </is>
-      </c>
-      <c r="B45" s="9" t="n"/>
-      <c r="C45" s="9" t="n"/>
-      <c r="D45" s="9" t="n"/>
-      <c r="E45" s="9" t="n"/>
-      <c r="F45" s="9" t="n"/>
-      <c r="G45" s="9" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Name</t>
+          <t>NSG Infra Profile Template Name</t>
         </is>
       </c>
       <c r="B46" s="9" t="n"/>
@@ -4871,7 +4877,7 @@
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Proxy DNS Name</t>
+          <t>NSG Infra Profile Name</t>
         </is>
       </c>
       <c r="B47" s="9" t="n"/>
@@ -4884,7 +4890,7 @@
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>Allow SSH Access Override</t>
+          <t>NSG Infra Profile Proxy DNS Name</t>
         </is>
       </c>
       <c r="B48" s="9" t="n"/>
@@ -4895,29 +4901,29 @@
       <c r="G48" s="9" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="8" t="inlineStr">
+        <is>
+          <t>Allow SSH Access Override</t>
+        </is>
+      </c>
+      <c r="B49" s="9" t="n"/>
+      <c r="C49" s="9" t="n"/>
+      <c r="D49" s="9" t="n"/>
+      <c r="E49" s="9" t="n"/>
+      <c r="F49" s="9" t="n"/>
+      <c r="G49" s="9" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>VSC Info</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>VSC Infra Profile Name</t>
-        </is>
-      </c>
-      <c r="B50" s="9" t="n"/>
-      <c r="C50" s="9" t="n"/>
-      <c r="D50" s="9" t="n"/>
-      <c r="E50" s="9" t="n"/>
-      <c r="F50" s="9" t="n"/>
-      <c r="G50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile First Controller</t>
+          <t>VSC Infra Profile Name</t>
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
@@ -4930,7 +4936,7 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile Second Controller</t>
+          <t>VSC Infra Profile First Controller</t>
         </is>
       </c>
       <c r="B52" s="9" t="n"/>
@@ -4943,7 +4949,7 @@
     <row r="53">
       <c r="A53" s="8" t="inlineStr">
         <is>
-          <t>NSG Network Port Name</t>
+          <t>VSC Infra Profile Second Controller</t>
         </is>
       </c>
       <c r="B53" s="9" t="n"/>
@@ -4954,29 +4960,29 @@
       <c r="G53" s="9" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>NSG Network Port Name</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="n"/>
+      <c r="C54" s="9" t="n"/>
+      <c r="D54" s="9" t="n"/>
+      <c r="E54" s="9" t="n"/>
+      <c r="F54" s="9" t="n"/>
+      <c r="G54" s="9" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>Network and Access Ports</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>NSG Network Port Physical Name</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-      <c r="C55" s="9" t="n"/>
-      <c r="D55" s="9" t="n"/>
-      <c r="E55" s="9" t="n"/>
-      <c r="F55" s="9" t="n"/>
-      <c r="G55" s="9" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Name</t>
+          <t>NSG Network Port Physical Name</t>
         </is>
       </c>
       <c r="B56" s="9" t="n"/>
@@ -4989,7 +4995,7 @@
     <row r="57">
       <c r="A57" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Physical Name</t>
+          <t>NSG Access Port Name</t>
         </is>
       </c>
       <c r="B57" s="9" t="n"/>
@@ -5002,7 +5008,7 @@
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Range</t>
+          <t>NSG Access Port Physical Name</t>
         </is>
       </c>
       <c r="B58" s="9" t="n"/>
@@ -5015,7 +5021,7 @@
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Number</t>
+          <t>NSG Access Port VLAN Range</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
@@ -5026,42 +5032,42 @@
       <c r="G59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="inlineStr">
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Number</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="n"/>
+      <c r="C60" s="9" t="n"/>
+      <c r="D60" s="9" t="n"/>
+      <c r="E60" s="9" t="n"/>
+      <c r="F60" s="9" t="n"/>
+      <c r="G60" s="9" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
         <is>
           <t>NSGv Access ports list name</t>
         </is>
       </c>
-      <c r="B60" s="7" t="n"/>
-      <c r="C60" s="7" t="n"/>
-      <c r="D60" s="7" t="n"/>
-      <c r="E60" s="7" t="n"/>
-      <c r="F60" s="7" t="n"/>
-      <c r="G60" s="7" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="B61" s="7" t="n"/>
+      <c r="C61" s="7" t="n"/>
+      <c r="D61" s="7" t="n"/>
+      <c r="E61" s="7" t="n"/>
+      <c r="F61" s="7" t="n"/>
+      <c r="G61" s="7" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>Telnet and Credentials</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="8" t="inlineStr">
-        <is>
-          <t>Telnet port for console</t>
-        </is>
-      </c>
-      <c r="B62" s="9" t="n"/>
-      <c r="C62" s="9" t="n"/>
-      <c r="D62" s="9" t="n"/>
-      <c r="E62" s="9" t="n"/>
-      <c r="F62" s="9" t="n"/>
-      <c r="G62" s="9" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Telnet port for console</t>
         </is>
       </c>
       <c r="B63" s="9" t="n"/>
@@ -5070,6 +5076,19 @@
       <c r="E63" s="9" t="n"/>
       <c r="F63" s="9" t="n"/>
       <c r="G63" s="9" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B64" s="9" t="n"/>
+      <c r="C64" s="9" t="n"/>
+      <c r="D64" s="9" t="n"/>
+      <c r="E64" s="9" t="n"/>
+      <c r="F64" s="9" t="n"/>
+      <c r="G64" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5079,11 +5098,11 @@
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A62:G62"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
@@ -5122,72 +5141,72 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G63" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -317,6 +317,7 @@
     <author>vmname</author>
     <author>target_server_type</author>
     <author>target_server</author>
+    <author>cpu_cores</author>
     <author>bootstrap_method</author>
     <author>iso_path</author>
     <author>iso_file</author>
@@ -380,232 +381,237 @@
         <t>Hostname or IP address of the hypervisor or vCenter server where the NSGv will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="3" ref="A9" shapeId="0">
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Number of CPU cores to defined for the VM</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A10" shapeId="0">
       <text>
         <t>Bootstrap method for the NSGv. The default is 'none' which means no bootstrap will be performed. 'zfb_metro' creates a boostrap ISO file based on the contents of the file nsgv_bootstrap.yml. 'zfb_external' is used when a 3rd-party ISO file is to be used. [default: none]</t>
       </text>
     </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
+    <comment authorId="5" ref="A11" shapeId="0">
       <text>
         <t>Local path to the 3rd-party ISO file to use for bootstrap. Only required when bootstrap_method id set to 'zfb_external'</t>
       </text>
     </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
+    <comment authorId="6" ref="A12" shapeId="0">
       <text>
         <t>Name of the 3rd-party ISO file to use for bootstrap. Only required when bootstrap_method id set to 'zfb_external'</t>
       </text>
     </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
+    <comment authorId="7" ref="A13" shapeId="0">
       <text>
         <t xml:space="preserve"> [default: ]</t>
       </text>
     </comment>
-    <comment authorId="7" ref="A13" shapeId="0">
+    <comment authorId="8" ref="A14" shapeId="0">
       <text>
         <t>MAC address the proxy will use to recognize the NSGV at boot/DHCP time. Only required when bootstrap_method is set to 'zfb_metro'</t>
       </text>
     </comment>
-    <comment authorId="8" ref="A15" shapeId="0">
+    <comment authorId="9" ref="A16" shapeId="0">
       <text>
         <t>Network Bridge used for the management path of this component. This will be a Distributed Virtual PortGroup (DVPG) when deploying on vCenter or a Linux network bridge. [default: (global Bridge interface)]</t>
       </text>
     </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
+    <comment authorId="10" ref="A17" shapeId="0">
       <text>
         <t>Network Bridge used for the data path of this component. This will be a Distributed Virtual PortGroup (DVPG) when deploying on vCenter or a Linux network bridge. [default: (global Bridge interface)]</t>
       </text>
     </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
+    <comment authorId="11" ref="A18" shapeId="0">
       <text>
         <t>Network bridge used for the access network when installing an NSGv. This will be a Distributed Virtual PortGroup (DVPG) when deploying on vCenter or a Linux network bridge [default: (global Bridge interface)]</t>
       </text>
     </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
+    <comment authorId="12" ref="A20" shapeId="0">
       <text>
         <t>Name of the vCenter Datacenter on which the NSG VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
       </text>
     </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
+    <comment authorId="13" ref="A21" shapeId="0">
       <text>
         <t>Name of the vCenter Cluster on which the NSG VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
       </text>
     </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
+    <comment authorId="14" ref="A22" shapeId="0">
       <text>
         <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the NSG VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
+    <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>AWS Region</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A26" shapeId="0">
+    <comment authorId="18" ref="A27" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A27" shapeId="0">
+    <comment authorId="19" ref="A28" shapeId="0">
       <text>
         <t>AMI ID of the upgraded image</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A28" shapeId="0">
+    <comment authorId="20" ref="A29" shapeId="0">
       <text>
         <t>Instance Type of the AWS Instance</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="21" ref="A30" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to VPC</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>ENI for Access Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>ENI for Access Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A32" shapeId="0">
+    <comment authorId="24" ref="A33" shapeId="0">
       <text>
         <t>AWS WAN EIP AllocID</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A34" shapeId="0">
+    <comment authorId="25" ref="A35" shapeId="0">
       <text>
         <t>CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A35" shapeId="0">
+    <comment authorId="26" ref="A36" shapeId="0">
       <text>
         <t>WAN Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A36" shapeId="0">
+    <comment authorId="27" ref="A37" shapeId="0">
       <text>
         <t>LAN Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="28" ref="A38" shapeId="0">
       <text>
         <t>Private Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A39" shapeId="0">
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Organization on the VSD to associate with the NSG being bootstrapped, overrides global setting. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A40" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Name of the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Field type to match against for NSGv activation. [default: none]</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Value to match against for NSGv activation. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Enables SSH on NSGv when set. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A45" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of the NSG infra profile template on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A46" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of the NSG infra profile on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name of the NSG infra profile proxy DNS on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Allows NSGs using this profile to override SSH access. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A50" shapeId="0">
+    <comment authorId="38" ref="A51" shapeId="0">
       <text>
         <t>Name of the VSC infra profile for the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A51" shapeId="0">
+    <comment authorId="39" ref="A52" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile first controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile second controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A53" shapeId="0">
+    <comment authorId="41" ref="A54" shapeId="0">
       <text>
         <t>Name of the network port for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A55" shapeId="0">
+    <comment authorId="42" ref="A56" shapeId="0">
       <text>
         <t>Physical name of the network port for the NSG [default: port1]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A56" shapeId="0">
+    <comment authorId="43" ref="A57" shapeId="0">
       <text>
         <t>Name of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A57" shapeId="0">
+    <comment authorId="44" ref="A58" shapeId="0">
       <text>
         <t>Physical name of the access port for the NSG. Deprecated in favor of access_ports [default: port2]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A58" shapeId="0">
+    <comment authorId="45" ref="A59" shapeId="0">
       <text>
         <t>VLAN range of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A59" shapeId="0">
+    <comment authorId="46" ref="A60" shapeId="0">
       <text>
         <t>VLAN number of the NSG access port for the NSG. Deprecated in favor of access_ports [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A60" shapeId="0">
+    <comment authorId="47" ref="A61" shapeId="0">
       <text>
         <t>Name of access ports list. (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A62" shapeId="0">
+    <comment authorId="48" ref="A63" shapeId="0">
       <text>
         <t>The port for telnet to HV host to access NSGv serial or console terminal [default: 2300]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A63" shapeId="0">
+    <comment authorId="49" ref="A64" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -4332,7 +4338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4410,29 +4416,29 @@
       <c r="G7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Number of CPU cores</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Bootstrap Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Bootstrap Method</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>External Bootstrap ISO File Directory</t>
+          <t>Bootstrap Method</t>
         </is>
       </c>
       <c r="B10" s="7" t="n"/>
@@ -4445,7 +4451,7 @@
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>External Bootstrap ISO File Name</t>
+          <t>External Bootstrap ISO File Directory</t>
         </is>
       </c>
       <c r="B11" s="7" t="n"/>
@@ -4458,7 +4464,7 @@
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>IP Address to assign to NSGv by VNSUtil</t>
+          <t>External Bootstrap ISO File Name</t>
         </is>
       </c>
       <c r="B12" s="7" t="n"/>
@@ -4471,7 +4477,7 @@
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>NSGV MAC Address</t>
+          <t>IP Address to assign to NSGv by VNSUtil</t>
         </is>
       </c>
       <c r="B13" s="7" t="n"/>
@@ -4482,29 +4488,29 @@
       <c r="G13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>NSGV MAC Address</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>Bridge info</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B15" s="9" t="n"/>
-      <c r="C15" s="9" t="n"/>
-      <c r="D15" s="9" t="n"/>
-      <c r="E15" s="9" t="n"/>
-      <c r="F15" s="9" t="n"/>
-      <c r="G15" s="9" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>Data Network Bridge</t>
+          <t>Management Network Bridge</t>
         </is>
       </c>
       <c r="B16" s="9" t="n"/>
@@ -4515,42 +4521,42 @@
       <c r="G16" s="9" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>Data Network Bridge</t>
+        </is>
+      </c>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="9" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>NSGv Access Bridge</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>vCenter Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter Name</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="G19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>vCenter Cluster Name</t>
+          <t>vCenter Datacenter Name</t>
         </is>
       </c>
       <c r="B20" s="9" t="n"/>
@@ -4563,7 +4569,7 @@
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>vCenter Host Reference</t>
+          <t>vCenter Cluster Name</t>
         </is>
       </c>
       <c r="B21" s="9" t="n"/>
@@ -4576,7 +4582,7 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datastore Name</t>
+          <t>vCenter Host Reference</t>
         </is>
       </c>
       <c r="B22" s="9" t="n"/>
@@ -4589,7 +4595,7 @@
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>vCenter Hosts and Clusters Folder</t>
+          <t>vCenter Datastore Name</t>
         </is>
       </c>
       <c r="B23" s="9" t="n"/>
@@ -4600,29 +4606,29 @@
       <c r="G23" s="9" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B24" s="9" t="n"/>
+      <c r="C24" s="9" t="n"/>
+      <c r="D24" s="9" t="n"/>
+      <c r="E24" s="9" t="n"/>
+      <c r="F24" s="9" t="n"/>
+      <c r="G24" s="9" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>AWS Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>AWS Region</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="7" t="n"/>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID</t>
+          <t>AWS Region</t>
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
@@ -4635,7 +4641,7 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID for Upgrading Instance</t>
+          <t>AWS AMI ID</t>
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
@@ -4648,7 +4654,7 @@
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>AWS AMI ID for Upgrading Instance</t>
         </is>
       </c>
       <c r="B28" s="7" t="n"/>
@@ -4661,7 +4667,7 @@
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B29" s="7" t="n"/>
@@ -4674,7 +4680,7 @@
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>AWS Access ENI</t>
+          <t>AWS Keypair Name</t>
         </is>
       </c>
       <c r="B30" s="7" t="n"/>
@@ -4687,7 +4693,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>AWS Data ENI</t>
+          <t>AWS Access ENI</t>
         </is>
       </c>
       <c r="B31" s="7" t="n"/>
@@ -4700,7 +4706,7 @@
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>AWS WAN EIP AllocID</t>
+          <t>AWS Data ENI</t>
         </is>
       </c>
       <c r="B32" s="7" t="n"/>
@@ -4711,29 +4717,29 @@
       <c r="G32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>AWS WAN EIP AllocID</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="n"/>
+      <c r="C33" s="7" t="n"/>
+      <c r="D33" s="7" t="n"/>
+      <c r="E33" s="7" t="n"/>
+      <c r="F33" s="7" t="n"/>
+      <c r="G33" s="7" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>AWS VPC Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="inlineStr">
-        <is>
-          <t>AWS Provision VPC CIDR</t>
-        </is>
-      </c>
-      <c r="B34" s="9" t="n"/>
-      <c r="C34" s="9" t="n"/>
-      <c r="D34" s="9" t="n"/>
-      <c r="E34" s="9" t="n"/>
-      <c r="F34" s="9" t="n"/>
-      <c r="G34" s="9" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC NSG WAN Subnet CIDR</t>
+          <t>AWS Provision VPC CIDR</t>
         </is>
       </c>
       <c r="B35" s="9" t="n"/>
@@ -4746,7 +4752,7 @@
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC NSG LAN Subnet CIDR</t>
+          <t>AWS Provision VPC NSG WAN Subnet CIDR</t>
         </is>
       </c>
       <c r="B36" s="9" t="n"/>
@@ -4759,7 +4765,7 @@
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC Private Subnet CIDR</t>
+          <t>AWS Provision VPC NSG LAN Subnet CIDR</t>
         </is>
       </c>
       <c r="B37" s="9" t="n"/>
@@ -4770,29 +4776,29 @@
       <c r="G37" s="9" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>AWS Provision VPC Private Subnet CIDR</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
+      <c r="D38" s="9" t="n"/>
+      <c r="E38" s="9" t="n"/>
+      <c r="F38" s="9" t="n"/>
+      <c r="G38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>NSGv Zero-Factor Bootstrap</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>NSG Organization</t>
-        </is>
-      </c>
-      <c r="B39" s="9" t="n"/>
-      <c r="C39" s="9" t="n"/>
-      <c r="D39" s="9" t="n"/>
-      <c r="E39" s="9" t="n"/>
-      <c r="F39" s="9" t="n"/>
-      <c r="G39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
         <is>
-          <t>NSG Name</t>
+          <t>NSG Organization</t>
         </is>
       </c>
       <c r="B40" s="9" t="n"/>
@@ -4803,22 +4809,22 @@
       <c r="G40" s="9" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>Activation Matching Type</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
-      <c r="D41" s="7" t="n"/>
-      <c r="E41" s="7" t="n"/>
-      <c r="F41" s="7" t="n"/>
-      <c r="G41" s="7" t="n"/>
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t>NSG Name</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="n"/>
+      <c r="C41" s="9" t="n"/>
+      <c r="D41" s="9" t="n"/>
+      <c r="E41" s="9" t="n"/>
+      <c r="F41" s="9" t="n"/>
+      <c r="G41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>Activation Matching Value</t>
+          <t>Activation Matching Type</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
@@ -4829,42 +4835,42 @@
       <c r="G42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="inlineStr">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>Activation Matching Value</t>
+        </is>
+      </c>
+      <c r="B43" s="7" t="n"/>
+      <c r="C43" s="7" t="n"/>
+      <c r="D43" s="7" t="n"/>
+      <c r="E43" s="7" t="n"/>
+      <c r="F43" s="7" t="n"/>
+      <c r="G43" s="7" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="inlineStr">
         <is>
           <t>Enable SSH on NSGv</t>
         </is>
       </c>
-      <c r="B43" s="9" t="n"/>
-      <c r="C43" s="9" t="n"/>
-      <c r="D43" s="9" t="n"/>
-      <c r="E43" s="9" t="n"/>
-      <c r="F43" s="9" t="n"/>
-      <c r="G43" s="9" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="B44" s="9" t="n"/>
+      <c r="C44" s="9" t="n"/>
+      <c r="D44" s="9" t="n"/>
+      <c r="E44" s="9" t="n"/>
+      <c r="F44" s="9" t="n"/>
+      <c r="G44" s="9" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>NSG Advanced Options</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>NSG Infra Profile Template Name</t>
-        </is>
-      </c>
-      <c r="B45" s="9" t="n"/>
-      <c r="C45" s="9" t="n"/>
-      <c r="D45" s="9" t="n"/>
-      <c r="E45" s="9" t="n"/>
-      <c r="F45" s="9" t="n"/>
-      <c r="G45" s="9" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Name</t>
+          <t>NSG Infra Profile Template Name</t>
         </is>
       </c>
       <c r="B46" s="9" t="n"/>
@@ -4877,7 +4883,7 @@
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Proxy DNS Name</t>
+          <t>NSG Infra Profile Name</t>
         </is>
       </c>
       <c r="B47" s="9" t="n"/>
@@ -4890,7 +4896,7 @@
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>Allow SSH Access Override</t>
+          <t>NSG Infra Profile Proxy DNS Name</t>
         </is>
       </c>
       <c r="B48" s="9" t="n"/>
@@ -4901,29 +4907,29 @@
       <c r="G48" s="9" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="8" t="inlineStr">
+        <is>
+          <t>Allow SSH Access Override</t>
+        </is>
+      </c>
+      <c r="B49" s="9" t="n"/>
+      <c r="C49" s="9" t="n"/>
+      <c r="D49" s="9" t="n"/>
+      <c r="E49" s="9" t="n"/>
+      <c r="F49" s="9" t="n"/>
+      <c r="G49" s="9" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>VSC Info</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>VSC Infra Profile Name</t>
-        </is>
-      </c>
-      <c r="B50" s="9" t="n"/>
-      <c r="C50" s="9" t="n"/>
-      <c r="D50" s="9" t="n"/>
-      <c r="E50" s="9" t="n"/>
-      <c r="F50" s="9" t="n"/>
-      <c r="G50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile First Controller</t>
+          <t>VSC Infra Profile Name</t>
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
@@ -4936,7 +4942,7 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile Second Controller</t>
+          <t>VSC Infra Profile First Controller</t>
         </is>
       </c>
       <c r="B52" s="9" t="n"/>
@@ -4949,7 +4955,7 @@
     <row r="53">
       <c r="A53" s="8" t="inlineStr">
         <is>
-          <t>NSG Network Port Name</t>
+          <t>VSC Infra Profile Second Controller</t>
         </is>
       </c>
       <c r="B53" s="9" t="n"/>
@@ -4960,29 +4966,29 @@
       <c r="G53" s="9" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>NSG Network Port Name</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="n"/>
+      <c r="C54" s="9" t="n"/>
+      <c r="D54" s="9" t="n"/>
+      <c r="E54" s="9" t="n"/>
+      <c r="F54" s="9" t="n"/>
+      <c r="G54" s="9" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>Network and Access Ports</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>NSG Network Port Physical Name</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-      <c r="C55" s="9" t="n"/>
-      <c r="D55" s="9" t="n"/>
-      <c r="E55" s="9" t="n"/>
-      <c r="F55" s="9" t="n"/>
-      <c r="G55" s="9" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Name</t>
+          <t>NSG Network Port Physical Name</t>
         </is>
       </c>
       <c r="B56" s="9" t="n"/>
@@ -4995,7 +5001,7 @@
     <row r="57">
       <c r="A57" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Physical Name</t>
+          <t>NSG Access Port Name</t>
         </is>
       </c>
       <c r="B57" s="9" t="n"/>
@@ -5008,7 +5014,7 @@
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Range</t>
+          <t>NSG Access Port Physical Name</t>
         </is>
       </c>
       <c r="B58" s="9" t="n"/>
@@ -5021,7 +5027,7 @@
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Number</t>
+          <t>NSG Access Port VLAN Range</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
@@ -5032,42 +5038,42 @@
       <c r="G59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="inlineStr">
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Number</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="n"/>
+      <c r="C60" s="9" t="n"/>
+      <c r="D60" s="9" t="n"/>
+      <c r="E60" s="9" t="n"/>
+      <c r="F60" s="9" t="n"/>
+      <c r="G60" s="9" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
         <is>
           <t>NSGv Access ports list name</t>
         </is>
       </c>
-      <c r="B60" s="7" t="n"/>
-      <c r="C60" s="7" t="n"/>
-      <c r="D60" s="7" t="n"/>
-      <c r="E60" s="7" t="n"/>
-      <c r="F60" s="7" t="n"/>
-      <c r="G60" s="7" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="B61" s="7" t="n"/>
+      <c r="C61" s="7" t="n"/>
+      <c r="D61" s="7" t="n"/>
+      <c r="E61" s="7" t="n"/>
+      <c r="F61" s="7" t="n"/>
+      <c r="G61" s="7" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>Telnet and Credentials</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="8" t="inlineStr">
-        <is>
-          <t>Telnet port for console</t>
-        </is>
-      </c>
-      <c r="B62" s="9" t="n"/>
-      <c r="C62" s="9" t="n"/>
-      <c r="D62" s="9" t="n"/>
-      <c r="E62" s="9" t="n"/>
-      <c r="F62" s="9" t="n"/>
-      <c r="G62" s="9" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Telnet port for console</t>
         </is>
       </c>
       <c r="B63" s="9" t="n"/>
@@ -5077,19 +5083,32 @@
       <c r="F63" s="9" t="n"/>
       <c r="G63" s="9" t="n"/>
     </row>
+    <row r="64">
+      <c r="A64" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B64" s="9" t="n"/>
+      <c r="C64" s="9" t="n"/>
+      <c r="D64" s="9" t="n"/>
+      <c r="E64" s="9" t="n"/>
+      <c r="F64" s="9" t="n"/>
+      <c r="G64" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A62:G62"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
@@ -5110,90 +5129,90 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G6" type="list">
       <formula1>"kvm,vcenter,aws"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C9" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E9" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F9" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G63" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -2684,6 +2684,7 @@
     <author>cpuset</author>
     <author>enable_hardening</author>
     <author>vsc_config_file_paths</author>
+    <author>override_vsc_config</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -2969,6 +2970,11 @@
     <comment authorId="56" ref="A70" shapeId="0">
       <text>
         <t>Paths to files that can be optionally applied for additional VSC configuration (List items separated by comma.)</t>
+      </text>
+    </comment>
+    <comment authorId="57" ref="A71" shapeId="0">
+      <text>
+        <t>This will override the Metro Provided config on the VSC by the config provided in vsc_config_file_paths [default: False]</t>
       </text>
     </comment>
   </commentList>
@@ -10511,7 +10517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11121,6 +11127,15 @@
       <c r="B70" s="9" t="n"/>
       <c r="C70" s="9" t="n"/>
     </row>
+    <row r="71">
+      <c r="A71" s="8" t="inlineStr">
+        <is>
+          <t>Override the configuration on VSC</t>
+        </is>
+      </c>
+      <c r="B71" s="9" t="n"/>
+      <c r="C71" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A4:C4"/>
@@ -11134,7 +11149,7 @@
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A67:C67"/>
   </mergeCells>
-  <dataValidations count="20">
+  <dataValidations count="22">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
@@ -11161,6 +11176,12 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C69" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B71" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C71" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -643,6 +643,7 @@
     <author>external_ip_prefix</author>
     <author>external_gateway</author>
     <author>vlan</author>
+    <author>external_fqdn</author>
     <author>external_bridge</author>
   </authors>
   <commentList>
@@ -672,6 +673,11 @@
       </text>
     </comment>
     <comment authorId="5" ref="A10" shapeId="0">
+      <text>
+        <t>Optional External FQDN name. A valid cert of this FQDN will be generated from the VSD and transferred to NUH [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A11" shapeId="0">
       <text>
         <t>Network Bridge used for the external network on the NUH. This will be a Linux network bridge when deploying on KVM. Defaults to using access bridge [default: (access bridge)]</t>
       </text>
@@ -3280,6 +3286,10 @@
     <author>health_report_email_server_password</author>
     <author>vsd_monit_mail_server_username</author>
     <author>vsd_monit_mail_server_password</author>
+    <author>nuh_notification_app_1_username</author>
+    <author>nuh_notification_app_1_password</author>
+    <author>nuh_notification_app_2_username</author>
+    <author>nuh_notification_app_2_password</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -3515,6 +3525,26 @@
     <comment authorId="46" ref="A64" shapeId="0">
       <text>
         <t>Password for the monit mail server</t>
+      </text>
+    </comment>
+    <comment authorId="47" ref="A66" shapeId="0">
+      <text>
+        <t>Username for NUH notification application</t>
+      </text>
+    </comment>
+    <comment authorId="48" ref="A67" shapeId="0">
+      <text>
+        <t>Password for NUH notification application</t>
+      </text>
+    </comment>
+    <comment authorId="49" ref="A68" shapeId="0">
+      <text>
+        <t>Username for NUH notification application</t>
+      </text>
+    </comment>
+    <comment authorId="50" ref="A69" shapeId="0">
+      <text>
+        <t>Password for NUH notification application</t>
       </text>
     </comment>
   </commentList>
@@ -5284,7 +5314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5388,17 +5418,30 @@
       <c r="G9" s="9" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>External FQDN Name</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>External Network Bridge</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11923,7 +11966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12663,8 +12706,67 @@
       <c r="F64" s="7" t="n"/>
       <c r="G64" s="7" t="n"/>
     </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>NUH notification application</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="inlineStr">
+        <is>
+          <t>NUH notification application 1 username</t>
+        </is>
+      </c>
+      <c r="B66" s="7" t="n"/>
+      <c r="C66" s="7" t="n"/>
+      <c r="D66" s="7" t="n"/>
+      <c r="E66" s="7" t="n"/>
+      <c r="F66" s="7" t="n"/>
+      <c r="G66" s="7" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="inlineStr">
+        <is>
+          <t>NUH notification application 1 password</t>
+        </is>
+      </c>
+      <c r="B67" s="7" t="n"/>
+      <c r="C67" s="7" t="n"/>
+      <c r="D67" s="7" t="n"/>
+      <c r="E67" s="7" t="n"/>
+      <c r="F67" s="7" t="n"/>
+      <c r="G67" s="7" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="inlineStr">
+        <is>
+          <t>NUH notification application 2 username</t>
+        </is>
+      </c>
+      <c r="B68" s="7" t="n"/>
+      <c r="C68" s="7" t="n"/>
+      <c r="D68" s="7" t="n"/>
+      <c r="E68" s="7" t="n"/>
+      <c r="F68" s="7" t="n"/>
+      <c r="G68" s="7" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>NUH notification application 2 password</t>
+        </is>
+      </c>
+      <c r="B69" s="7" t="n"/>
+      <c r="C69" s="7" t="n"/>
+      <c r="D69" s="7" t="n"/>
+      <c r="E69" s="7" t="n"/>
+      <c r="F69" s="7" t="n"/>
+      <c r="G69" s="7" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A14:G14"/>
@@ -12679,6 +12781,7 @@
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A59:G59"/>
     <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A65:G65"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -383,7 +383,7 @@
     </comment>
     <comment authorId="3" ref="A8" shapeId="0">
       <text>
-        <t>Number of CPU cores to defined for the VM</t>
+        <t>Number of CPU cores to defined for the VM [default: 1]</t>
       </text>
     </comment>
     <comment authorId="4" ref="A10" shapeId="0">

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -317,6 +317,7 @@
     <author>vmname</author>
     <author>target_server_type</author>
     <author>target_server</author>
+    <author>cpu_cores</author>
     <author>bootstrap_method</author>
     <author>iso_path</author>
     <author>iso_file</author>
@@ -380,232 +381,237 @@
         <t>Hostname or IP address of the hypervisor or vCenter server where the NSGv will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="3" ref="A9" shapeId="0">
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Number of CPU cores to defined for the VM [default: 1]</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A10" shapeId="0">
       <text>
         <t>Bootstrap method for the NSGv. The default is 'none' which means no bootstrap will be performed. 'zfb_metro' creates a boostrap ISO file based on the contents of the file nsgv_bootstrap.yml. 'zfb_external' is used when a 3rd-party ISO file is to be used. [default: none]</t>
       </text>
     </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
+    <comment authorId="5" ref="A11" shapeId="0">
       <text>
         <t>Local path to the 3rd-party ISO file to use for bootstrap. Only required when bootstrap_method id set to 'zfb_external'</t>
       </text>
     </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
+    <comment authorId="6" ref="A12" shapeId="0">
       <text>
         <t>Name of the 3rd-party ISO file to use for bootstrap. Only required when bootstrap_method id set to 'zfb_external'</t>
       </text>
     </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
+    <comment authorId="7" ref="A13" shapeId="0">
       <text>
         <t xml:space="preserve"> [default: ]</t>
       </text>
     </comment>
-    <comment authorId="7" ref="A13" shapeId="0">
+    <comment authorId="8" ref="A14" shapeId="0">
       <text>
         <t>MAC address the proxy will use to recognize the NSGV at boot/DHCP time. Only required when bootstrap_method is set to 'zfb_metro'</t>
       </text>
     </comment>
-    <comment authorId="8" ref="A15" shapeId="0">
+    <comment authorId="9" ref="A16" shapeId="0">
       <text>
         <t>Network Bridge used for the management path of this component. This will be a Distributed Virtual PortGroup (DVPG) when deploying on vCenter or a Linux network bridge. [default: (global Bridge interface)]</t>
       </text>
     </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
+    <comment authorId="10" ref="A17" shapeId="0">
       <text>
         <t>Network Bridge used for the data path of this component. This will be a Distributed Virtual PortGroup (DVPG) when deploying on vCenter or a Linux network bridge. [default: (global Bridge interface)]</t>
       </text>
     </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
+    <comment authorId="11" ref="A18" shapeId="0">
       <text>
         <t>Network bridge used for the access network when installing an NSGv. This will be a Distributed Virtual PortGroup (DVPG) when deploying on vCenter or a Linux network bridge [default: (global Bridge interface)]</t>
       </text>
     </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
+    <comment authorId="12" ref="A20" shapeId="0">
       <text>
         <t>Name of the vCenter Datacenter on which the NSG VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
       </text>
     </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
+    <comment authorId="13" ref="A21" shapeId="0">
       <text>
         <t>Name of the vCenter Cluster on which the NSG VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
       </text>
     </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
+    <comment authorId="14" ref="A22" shapeId="0">
       <text>
         <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the NSG VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
+    <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>AWS Region</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A26" shapeId="0">
+    <comment authorId="18" ref="A27" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A27" shapeId="0">
+    <comment authorId="19" ref="A28" shapeId="0">
       <text>
         <t>AMI ID of the upgraded image</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A28" shapeId="0">
+    <comment authorId="20" ref="A29" shapeId="0">
       <text>
         <t>Instance Type of the AWS Instance</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A29" shapeId="0">
+    <comment authorId="21" ref="A30" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to VPC</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>ENI for Access Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>ENI for Access Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A32" shapeId="0">
+    <comment authorId="24" ref="A33" shapeId="0">
       <text>
         <t>AWS WAN EIP AllocID</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A34" shapeId="0">
+    <comment authorId="25" ref="A35" shapeId="0">
       <text>
         <t>CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A35" shapeId="0">
+    <comment authorId="26" ref="A36" shapeId="0">
       <text>
         <t>WAN Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A36" shapeId="0">
+    <comment authorId="27" ref="A37" shapeId="0">
       <text>
         <t>LAN Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="28" ref="A38" shapeId="0">
       <text>
         <t>Private Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A39" shapeId="0">
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Organization on the VSD to associate with the NSG being bootstrapped, overrides global setting. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A40" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Name of the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Field type to match against for NSGv activation. [default: none]</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Value to match against for NSGv activation. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Enables SSH on NSGv when set. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A45" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of the NSG infra profile template on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A46" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of the NSG infra profile on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name of the NSG infra profile proxy DNS on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Allows NSGs using this profile to override SSH access. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A50" shapeId="0">
+    <comment authorId="38" ref="A51" shapeId="0">
       <text>
         <t>Name of the VSC infra profile for the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A51" shapeId="0">
+    <comment authorId="39" ref="A52" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile first controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile second controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A53" shapeId="0">
+    <comment authorId="41" ref="A54" shapeId="0">
       <text>
         <t>Name of the network port for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A55" shapeId="0">
+    <comment authorId="42" ref="A56" shapeId="0">
       <text>
         <t>Physical name of the network port for the NSG [default: port1]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A56" shapeId="0">
+    <comment authorId="43" ref="A57" shapeId="0">
       <text>
         <t>Name of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A57" shapeId="0">
+    <comment authorId="44" ref="A58" shapeId="0">
       <text>
         <t>Physical name of the access port for the NSG. Deprecated in favor of access_ports [default: port2]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A58" shapeId="0">
+    <comment authorId="45" ref="A59" shapeId="0">
       <text>
         <t>VLAN range of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A59" shapeId="0">
+    <comment authorId="46" ref="A60" shapeId="0">
       <text>
         <t>VLAN number of the NSG access port for the NSG. Deprecated in favor of access_ports [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A60" shapeId="0">
+    <comment authorId="47" ref="A61" shapeId="0">
       <text>
         <t>Name of access ports list. (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A62" shapeId="0">
+    <comment authorId="48" ref="A63" shapeId="0">
       <text>
         <t>The port for telnet to HV host to access NSGv serial or console terminal [default: 2300]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A63" shapeId="0">
+    <comment authorId="49" ref="A64" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -4368,7 +4374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4446,29 +4452,29 @@
       <c r="G7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Number of CPU cores</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Bootstrap Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Bootstrap Method</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>External Bootstrap ISO File Directory</t>
+          <t>Bootstrap Method</t>
         </is>
       </c>
       <c r="B10" s="7" t="n"/>
@@ -4481,7 +4487,7 @@
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>External Bootstrap ISO File Name</t>
+          <t>External Bootstrap ISO File Directory</t>
         </is>
       </c>
       <c r="B11" s="7" t="n"/>
@@ -4494,7 +4500,7 @@
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>IP Address to assign to NSGv by VNSUtil</t>
+          <t>External Bootstrap ISO File Name</t>
         </is>
       </c>
       <c r="B12" s="7" t="n"/>
@@ -4507,7 +4513,7 @@
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>NSGV MAC Address</t>
+          <t>IP Address to assign to NSGv by VNSUtil</t>
         </is>
       </c>
       <c r="B13" s="7" t="n"/>
@@ -4518,29 +4524,29 @@
       <c r="G13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>NSGV MAC Address</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>Bridge info</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B15" s="9" t="n"/>
-      <c r="C15" s="9" t="n"/>
-      <c r="D15" s="9" t="n"/>
-      <c r="E15" s="9" t="n"/>
-      <c r="F15" s="9" t="n"/>
-      <c r="G15" s="9" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>Data Network Bridge</t>
+          <t>Management Network Bridge</t>
         </is>
       </c>
       <c r="B16" s="9" t="n"/>
@@ -4551,42 +4557,42 @@
       <c r="G16" s="9" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>Data Network Bridge</t>
+        </is>
+      </c>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="9" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>NSGv Access Bridge</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>vCenter Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter Name</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="G19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>vCenter Cluster Name</t>
+          <t>vCenter Datacenter Name</t>
         </is>
       </c>
       <c r="B20" s="9" t="n"/>
@@ -4599,7 +4605,7 @@
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>vCenter Host Reference</t>
+          <t>vCenter Cluster Name</t>
         </is>
       </c>
       <c r="B21" s="9" t="n"/>
@@ -4612,7 +4618,7 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datastore Name</t>
+          <t>vCenter Host Reference</t>
         </is>
       </c>
       <c r="B22" s="9" t="n"/>
@@ -4625,7 +4631,7 @@
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>vCenter Hosts and Clusters Folder</t>
+          <t>vCenter Datastore Name</t>
         </is>
       </c>
       <c r="B23" s="9" t="n"/>
@@ -4636,29 +4642,29 @@
       <c r="G23" s="9" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B24" s="9" t="n"/>
+      <c r="C24" s="9" t="n"/>
+      <c r="D24" s="9" t="n"/>
+      <c r="E24" s="9" t="n"/>
+      <c r="F24" s="9" t="n"/>
+      <c r="G24" s="9" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>AWS Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>AWS Region</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="7" t="n"/>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID</t>
+          <t>AWS Region</t>
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
@@ -4671,7 +4677,7 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID for Upgrading Instance</t>
+          <t>AWS AMI ID</t>
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
@@ -4684,7 +4690,7 @@
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>AWS AMI ID for Upgrading Instance</t>
         </is>
       </c>
       <c r="B28" s="7" t="n"/>
@@ -4697,7 +4703,7 @@
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B29" s="7" t="n"/>
@@ -4710,7 +4716,7 @@
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>AWS Access ENI</t>
+          <t>AWS Keypair Name</t>
         </is>
       </c>
       <c r="B30" s="7" t="n"/>
@@ -4723,7 +4729,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>AWS Data ENI</t>
+          <t>AWS Access ENI</t>
         </is>
       </c>
       <c r="B31" s="7" t="n"/>
@@ -4736,7 +4742,7 @@
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>AWS WAN EIP AllocID</t>
+          <t>AWS Data ENI</t>
         </is>
       </c>
       <c r="B32" s="7" t="n"/>
@@ -4747,29 +4753,29 @@
       <c r="G32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>AWS WAN EIP AllocID</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="n"/>
+      <c r="C33" s="7" t="n"/>
+      <c r="D33" s="7" t="n"/>
+      <c r="E33" s="7" t="n"/>
+      <c r="F33" s="7" t="n"/>
+      <c r="G33" s="7" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>AWS VPC Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="inlineStr">
-        <is>
-          <t>AWS Provision VPC CIDR</t>
-        </is>
-      </c>
-      <c r="B34" s="9" t="n"/>
-      <c r="C34" s="9" t="n"/>
-      <c r="D34" s="9" t="n"/>
-      <c r="E34" s="9" t="n"/>
-      <c r="F34" s="9" t="n"/>
-      <c r="G34" s="9" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC NSG WAN Subnet CIDR</t>
+          <t>AWS Provision VPC CIDR</t>
         </is>
       </c>
       <c r="B35" s="9" t="n"/>
@@ -4782,7 +4788,7 @@
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC NSG LAN Subnet CIDR</t>
+          <t>AWS Provision VPC NSG WAN Subnet CIDR</t>
         </is>
       </c>
       <c r="B36" s="9" t="n"/>
@@ -4795,7 +4801,7 @@
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
         <is>
-          <t>AWS Provision VPC Private Subnet CIDR</t>
+          <t>AWS Provision VPC NSG LAN Subnet CIDR</t>
         </is>
       </c>
       <c r="B37" s="9" t="n"/>
@@ -4806,29 +4812,29 @@
       <c r="G37" s="9" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>AWS Provision VPC Private Subnet CIDR</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
+      <c r="D38" s="9" t="n"/>
+      <c r="E38" s="9" t="n"/>
+      <c r="F38" s="9" t="n"/>
+      <c r="G38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>NSGv Zero-Factor Bootstrap</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>NSG Organization</t>
-        </is>
-      </c>
-      <c r="B39" s="9" t="n"/>
-      <c r="C39" s="9" t="n"/>
-      <c r="D39" s="9" t="n"/>
-      <c r="E39" s="9" t="n"/>
-      <c r="F39" s="9" t="n"/>
-      <c r="G39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
         <is>
-          <t>NSG Name</t>
+          <t>NSG Organization</t>
         </is>
       </c>
       <c r="B40" s="9" t="n"/>
@@ -4839,22 +4845,22 @@
       <c r="G40" s="9" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>Activation Matching Type</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
-      <c r="D41" s="7" t="n"/>
-      <c r="E41" s="7" t="n"/>
-      <c r="F41" s="7" t="n"/>
-      <c r="G41" s="7" t="n"/>
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t>NSG Name</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="n"/>
+      <c r="C41" s="9" t="n"/>
+      <c r="D41" s="9" t="n"/>
+      <c r="E41" s="9" t="n"/>
+      <c r="F41" s="9" t="n"/>
+      <c r="G41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>Activation Matching Value</t>
+          <t>Activation Matching Type</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
@@ -4865,42 +4871,42 @@
       <c r="G42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="inlineStr">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>Activation Matching Value</t>
+        </is>
+      </c>
+      <c r="B43" s="7" t="n"/>
+      <c r="C43" s="7" t="n"/>
+      <c r="D43" s="7" t="n"/>
+      <c r="E43" s="7" t="n"/>
+      <c r="F43" s="7" t="n"/>
+      <c r="G43" s="7" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="inlineStr">
         <is>
           <t>Enable SSH on NSGv</t>
         </is>
       </c>
-      <c r="B43" s="9" t="n"/>
-      <c r="C43" s="9" t="n"/>
-      <c r="D43" s="9" t="n"/>
-      <c r="E43" s="9" t="n"/>
-      <c r="F43" s="9" t="n"/>
-      <c r="G43" s="9" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="B44" s="9" t="n"/>
+      <c r="C44" s="9" t="n"/>
+      <c r="D44" s="9" t="n"/>
+      <c r="E44" s="9" t="n"/>
+      <c r="F44" s="9" t="n"/>
+      <c r="G44" s="9" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>NSG Advanced Options</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>NSG Infra Profile Template Name</t>
-        </is>
-      </c>
-      <c r="B45" s="9" t="n"/>
-      <c r="C45" s="9" t="n"/>
-      <c r="D45" s="9" t="n"/>
-      <c r="E45" s="9" t="n"/>
-      <c r="F45" s="9" t="n"/>
-      <c r="G45" s="9" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Name</t>
+          <t>NSG Infra Profile Template Name</t>
         </is>
       </c>
       <c r="B46" s="9" t="n"/>
@@ -4913,7 +4919,7 @@
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Proxy DNS Name</t>
+          <t>NSG Infra Profile Name</t>
         </is>
       </c>
       <c r="B47" s="9" t="n"/>
@@ -4926,7 +4932,7 @@
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>Allow SSH Access Override</t>
+          <t>NSG Infra Profile Proxy DNS Name</t>
         </is>
       </c>
       <c r="B48" s="9" t="n"/>
@@ -4937,29 +4943,29 @@
       <c r="G48" s="9" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="8" t="inlineStr">
+        <is>
+          <t>Allow SSH Access Override</t>
+        </is>
+      </c>
+      <c r="B49" s="9" t="n"/>
+      <c r="C49" s="9" t="n"/>
+      <c r="D49" s="9" t="n"/>
+      <c r="E49" s="9" t="n"/>
+      <c r="F49" s="9" t="n"/>
+      <c r="G49" s="9" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>VSC Info</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>VSC Infra Profile Name</t>
-        </is>
-      </c>
-      <c r="B50" s="9" t="n"/>
-      <c r="C50" s="9" t="n"/>
-      <c r="D50" s="9" t="n"/>
-      <c r="E50" s="9" t="n"/>
-      <c r="F50" s="9" t="n"/>
-      <c r="G50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile First Controller</t>
+          <t>VSC Infra Profile Name</t>
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
@@ -4972,7 +4978,7 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile Second Controller</t>
+          <t>VSC Infra Profile First Controller</t>
         </is>
       </c>
       <c r="B52" s="9" t="n"/>
@@ -4985,7 +4991,7 @@
     <row r="53">
       <c r="A53" s="8" t="inlineStr">
         <is>
-          <t>NSG Network Port Name</t>
+          <t>VSC Infra Profile Second Controller</t>
         </is>
       </c>
       <c r="B53" s="9" t="n"/>
@@ -4996,29 +5002,29 @@
       <c r="G53" s="9" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>NSG Network Port Name</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="n"/>
+      <c r="C54" s="9" t="n"/>
+      <c r="D54" s="9" t="n"/>
+      <c r="E54" s="9" t="n"/>
+      <c r="F54" s="9" t="n"/>
+      <c r="G54" s="9" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>Network and Access Ports</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>NSG Network Port Physical Name</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-      <c r="C55" s="9" t="n"/>
-      <c r="D55" s="9" t="n"/>
-      <c r="E55" s="9" t="n"/>
-      <c r="F55" s="9" t="n"/>
-      <c r="G55" s="9" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Name</t>
+          <t>NSG Network Port Physical Name</t>
         </is>
       </c>
       <c r="B56" s="9" t="n"/>
@@ -5031,7 +5037,7 @@
     <row r="57">
       <c r="A57" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Physical Name</t>
+          <t>NSG Access Port Name</t>
         </is>
       </c>
       <c r="B57" s="9" t="n"/>
@@ -5044,7 +5050,7 @@
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Range</t>
+          <t>NSG Access Port Physical Name</t>
         </is>
       </c>
       <c r="B58" s="9" t="n"/>
@@ -5057,7 +5063,7 @@
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Number</t>
+          <t>NSG Access Port VLAN Range</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
@@ -5068,42 +5074,42 @@
       <c r="G59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="inlineStr">
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Number</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="n"/>
+      <c r="C60" s="9" t="n"/>
+      <c r="D60" s="9" t="n"/>
+      <c r="E60" s="9" t="n"/>
+      <c r="F60" s="9" t="n"/>
+      <c r="G60" s="9" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
         <is>
           <t>NSGv Access ports list name</t>
         </is>
       </c>
-      <c r="B60" s="7" t="n"/>
-      <c r="C60" s="7" t="n"/>
-      <c r="D60" s="7" t="n"/>
-      <c r="E60" s="7" t="n"/>
-      <c r="F60" s="7" t="n"/>
-      <c r="G60" s="7" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="B61" s="7" t="n"/>
+      <c r="C61" s="7" t="n"/>
+      <c r="D61" s="7" t="n"/>
+      <c r="E61" s="7" t="n"/>
+      <c r="F61" s="7" t="n"/>
+      <c r="G61" s="7" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>Telnet and Credentials</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="8" t="inlineStr">
-        <is>
-          <t>Telnet port for console</t>
-        </is>
-      </c>
-      <c r="B62" s="9" t="n"/>
-      <c r="C62" s="9" t="n"/>
-      <c r="D62" s="9" t="n"/>
-      <c r="E62" s="9" t="n"/>
-      <c r="F62" s="9" t="n"/>
-      <c r="G62" s="9" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Telnet port for console</t>
         </is>
       </c>
       <c r="B63" s="9" t="n"/>
@@ -5113,21 +5119,34 @@
       <c r="F63" s="9" t="n"/>
       <c r="G63" s="9" t="n"/>
     </row>
+    <row r="64">
+      <c r="A64" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B64" s="9" t="n"/>
+      <c r="C64" s="9" t="n"/>
+      <c r="D64" s="9" t="n"/>
+      <c r="E64" s="9" t="n"/>
+      <c r="F64" s="9" t="n"/>
+      <c r="G64" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A62:G62"/>
   </mergeCells>
-  <dataValidations count="42">
+  <dataValidations count="48">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
       <formula1>"kvm,vcenter,aws"</formula1>
     </dataValidation>
@@ -5146,90 +5165,96 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G6" type="list">
       <formula1>"kvm,vcenter,aws"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C9" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E9" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F9" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G41" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G48" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G49" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G63" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -2746,7 +2746,7 @@
     </comment>
     <comment authorId="9" ref="A15" shapeId="0">
       <text>
-        <t>Comma Seperated list of control IP VPRNs. Each item in list is of format VLAN_ID:Control_IP_ADDR/NETMASK_LENGTH . Both Control IP address and Netmask length are optional (List items separated by comma.)</t>
+        <t>Comma Seperated list of control IP VPRNs. Each item in list is of format VLAN_ID:Control_IP_ADDR/NETMASK_LENGTH:NEXT_HOP . Control IP address, netmask length and next hop are optional (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="10" ref="A17" shapeId="0">

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -1783,6 +1783,7 @@
     <author>mgmt_ip_prefix</author>
     <author>mgmt_gateway</author>
     <author>vmname</author>
+    <author>upgrade_vmname</author>
     <author>target_server_type</author>
     <author>target_server</author>
     <author>master_vcin</author>
@@ -1821,45 +1822,50 @@
     </comment>
     <comment authorId="5" ref="A11" shapeId="0">
       <text>
+        <t>Virtual Machine name of the new VCIN VM. Used during Upgrade only</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A12" shapeId="0">
+      <text>
         <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy.</t>
       </text>
     </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
+    <comment authorId="7" ref="A13" shapeId="0">
       <text>
         <t>Hostname or IP address of the hypervisor where VM  will be instantiated. In the case of deployment in a vCenter environment, this will be the FQDN of the vCenter Server</t>
       </text>
     </comment>
-    <comment authorId="7" ref="A14" shapeId="0">
+    <comment authorId="8" ref="A15" shapeId="0">
       <text>
         <t>The FQDN or IP address of the Master VCIN in an Active/Standby deployment. Only used when this VCIN is part of an active/standby configuration. The hostname provided here must match the hostname of another VCIN in the list of VCINs for this deployment. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="8" ref="A15" shapeId="0">
+    <comment authorId="9" ref="A16" shapeId="0">
       <text>
         <t>Name of the vCenter Datacenter on which the VCIN VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
       </text>
     </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
+    <comment authorId="10" ref="A17" shapeId="0">
       <text>
         <t>Name of the vCenter Cluster on which the VCIN VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
       </text>
     </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
+    <comment authorId="11" ref="A18" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the VCIN VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
-    <comment authorId="11" ref="A18" shapeId="0">
+    <comment authorId="12" ref="A19" shapeId="0">
       <text>
         <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
+    <comment authorId="13" ref="A21" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VCIN requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
+    <comment authorId="14" ref="A22" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -8089,7 +8095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8200,22 +8206,22 @@
       <c r="G10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>Target Server Type</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Upgrade VM name</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Target Server IP or FQDN</t>
+          <t>Target Server Type</t>
         </is>
       </c>
       <c r="B12" s="5" t="n"/>
@@ -8226,29 +8232,29 @@
       <c r="G12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>vCenter Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>Master VCIN hostname</t>
-        </is>
-      </c>
-      <c r="B14" s="9" t="n"/>
-      <c r="C14" s="9" t="n"/>
-      <c r="D14" s="9" t="n"/>
-      <c r="E14" s="9" t="n"/>
-      <c r="F14" s="9" t="n"/>
-      <c r="G14" s="9" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datacenter Name</t>
+          <t>Master VCIN hostname</t>
         </is>
       </c>
       <c r="B15" s="9" t="n"/>
@@ -8261,7 +8267,7 @@
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>vCenter Cluster Name</t>
+          <t>vCenter Datacenter Name</t>
         </is>
       </c>
       <c r="B16" s="9" t="n"/>
@@ -8274,7 +8280,7 @@
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datastore Name</t>
+          <t>vCenter Cluster Name</t>
         </is>
       </c>
       <c r="B17" s="9" t="n"/>
@@ -8287,7 +8293,7 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>vCenter Hosts and Clusters Folder</t>
+          <t>vCenter Datastore Name</t>
         </is>
       </c>
       <c r="B18" s="9" t="n"/>
@@ -8298,29 +8304,29 @@
       <c r="G18" s="9" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="G19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>CPU and credentials</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="n"/>
-      <c r="C20" s="9" t="n"/>
-      <c r="D20" s="9" t="n"/>
-      <c r="E20" s="9" t="n"/>
-      <c r="F20" s="9" t="n"/>
-      <c r="G20" s="9" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B21" s="9" t="n"/>
@@ -8330,12 +8336,25 @@
       <c r="F21" s="9" t="n"/>
       <c r="G21" s="9" t="n"/>
     </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="n"/>
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="9" t="n"/>
+      <c r="E22" s="9" t="n"/>
+      <c r="F22" s="9" t="n"/>
+      <c r="G22" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A20:G20"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -8344,22 +8363,22 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="list">
       <formula1>"kvm,vcenter,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C11" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="list">
       <formula1>"kvm,vcenter,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D11" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="list">
       <formula1>"kvm,vcenter,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E11" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="list">
       <formula1>"kvm,vcenter,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F11" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="list">
       <formula1>"kvm,vcenter,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G11" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
       <formula1>"kvm,vcenter,none"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -2752,7 +2752,7 @@
     </comment>
     <comment authorId="9" ref="A15" shapeId="0">
       <text>
-        <t>Comma Seperated list of control IP VPRNs. Each item in list is of format VLAN_ID:Control_IP_ADDR/NETMASK_LENGTH . Both Control IP address and Netmask length are optional (List items separated by comma.)</t>
+        <t>Comma Seperated list of control IP VPRNs. Each item in list is of format VLAN_ID:Control_IP_ADDR/NETMASK_LENGTH:NEXT_HOP . Control IP address, netmask length and next hop are optional (List items separated by comma.)</t>
       </text>
     </comment>
     <comment authorId="10" ref="A17" shapeId="0">

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -2197,6 +2197,7 @@
   <authors>
     <author>hostname</author>
     <author>vname</author>
+    <author>target_server_type</author>
     <author>target_server</author>
     <author>mgmt_ip</author>
     <author>mgmt_gateway</author>
@@ -2224,65 +2225,70 @@
     </comment>
     <comment authorId="2" ref="A7" shapeId="0">
       <text>
+        <t>Type of hypervisor environment into which the instance will be created</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
         <t>Hostname or IP address of the KVM hypervisor where the VSR VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="3" ref="A9" shapeId="0">
+    <comment authorId="4" ref="A10" shapeId="0">
       <text>
         <t>IP address to apply to the management interface of the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
+    <comment authorId="5" ref="A11" shapeId="0">
       <text>
         <t>Network gateway of the management network for the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
+    <comment authorId="6" ref="A12" shapeId="0">
       <text>
         <t>Management network mask prefix length for the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
+    <comment authorId="7" ref="A13" shapeId="0">
       <text>
         <t>Static routes to apply to the management network for the VSR VM (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="7" ref="A13" shapeId="0">
+    <comment authorId="8" ref="A14" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="8" ref="A14" shapeId="0">
+    <comment authorId="9" ref="A15" shapeId="0">
       <text>
         <t xml:space="preserve"> (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
+    <comment authorId="10" ref="A17" shapeId="0">
       <text>
         <t>IP address to apply to the system network interface for the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
+    <comment authorId="11" ref="A18" shapeId="0">
       <text>
         <t>IP address to apply to the data network interface for the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
+    <comment authorId="12" ref="A20" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
+    <comment authorId="13" ref="A21" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
+    <comment authorId="14" ref="A22" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -9311,7 +9317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9378,7 +9384,7 @@
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>Target Server IP or FQDN</t>
+          <t>Target Server Type</t>
         </is>
       </c>
       <c r="B7" s="7" t="n"/>
@@ -9389,29 +9395,29 @@
       <c r="G7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Management network</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Management IP Address</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>Management Network Gateway</t>
+          <t>Management IP Address</t>
         </is>
       </c>
       <c r="B10" s="7" t="n"/>
@@ -9424,7 +9430,7 @@
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>Management Network Mask Prefix Length</t>
+          <t>Management Network Gateway</t>
         </is>
       </c>
       <c r="B11" s="7" t="n"/>
@@ -9437,7 +9443,7 @@
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>Management Static Route List</t>
+          <t>Management Network Mask Prefix Length</t>
         </is>
       </c>
       <c r="B12" s="7" t="n"/>
@@ -9450,7 +9456,7 @@
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>Management to Hypervisor Bridge</t>
+          <t>Management Static Route List</t>
         </is>
       </c>
       <c r="B13" s="7" t="n"/>
@@ -9463,7 +9469,7 @@
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>Port to Hypervisor Bridges</t>
+          <t>Management to Hypervisor Bridge</t>
         </is>
       </c>
       <c r="B14" s="7" t="n"/>
@@ -9474,29 +9480,29 @@
       <c r="G14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Port to Hypervisor Bridges</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>System and Data IP</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>System IP</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>Data IP</t>
+          <t>System IP</t>
         </is>
       </c>
       <c r="B17" s="7" t="n"/>
@@ -9507,29 +9513,29 @@
       <c r="G17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Data IP</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>System configuration</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>License File</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
-          <t>Deploy Configuration File</t>
+          <t>License File</t>
         </is>
       </c>
       <c r="B20" s="7" t="n"/>
@@ -9542,7 +9548,7 @@
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>Config File Directory</t>
+          <t>Deploy Configuration File</t>
         </is>
       </c>
       <c r="B21" s="7" t="n"/>
@@ -9553,32 +9559,63 @@
       <c r="G21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Config File Directory</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="7" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="7" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>Credentials set name</t>
         </is>
       </c>
-      <c r="B22" s="9" t="n"/>
-      <c r="C22" s="9" t="n"/>
-      <c r="D22" s="9" t="n"/>
-      <c r="E22" s="9" t="n"/>
-      <c r="F22" s="9" t="n"/>
-      <c r="G22" s="9" t="n"/>
+      <c r="B23" s="9" t="n"/>
+      <c r="C23" s="9" t="n"/>
+      <c r="D23" s="9" t="n"/>
+      <c r="E23" s="9" t="n"/>
+      <c r="F23" s="9" t="n"/>
+      <c r="G23" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G11" type="whole"/>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -9382,30 +9382,30 @@
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Target Server Type</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -9415,43 +9415,43 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>Management IP Address</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>Management Network Gateway</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Management Network Mask Prefix Length</t>
         </is>
       </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
@@ -9593,22 +9593,22 @@
   </mergeCells>
   <dataValidations count="12">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
+      <formula1>"kvm"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
+      <formula1>"kvm"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
+      <formula1>"kvm"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
+      <formula1>"kvm"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
+      <formula1>"kvm"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
+      <formula1>"kvm"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -794,7 +794,7 @@
     </comment>
     <comment authorId="9" ref="A17" shapeId="0">
       <text>
-        <t>Hostname or IP address of the KVM hypervisor where the DNS VM will be instantiated</t>
+        <t>Hostname or IP address of the KVM hypervisor where the NUH VM will be instantiated</t>
       </text>
     </comment>
     <comment authorId="10" ref="A18" shapeId="0">

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -2208,6 +2208,7 @@
     <author>system_ip</author>
     <author>data_ip</author>
     <author>license_file</author>
+    <author>remote_license_file_location</author>
     <author>deploy_cfg_file</author>
     <author>config_file_directory</author>
     <author>credentials_set</author>
@@ -2270,25 +2271,30 @@
     </comment>
     <comment authorId="11" ref="A18" shapeId="0">
       <text>
-        <t>IP address to apply to the data network interface for the VSR VM</t>
+        <t>IP address to apply to the data network interface for the VSR VM. Use format IP Address/Netmask</t>
       </text>
     </comment>
     <comment authorId="12" ref="A20" shapeId="0">
       <text>
+        <t>Location of the VSR license file</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A21" shapeId="0">
+      <text>
+        <t>Optional location of the VSR license file on the remote ftp or tftp location</t>
+      </text>
+    </comment>
+    <comment authorId="14" ref="A22" shapeId="0">
+      <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
-      <text>
-        <t/>
-      </text>
-    </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -9317,7 +9323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9546,22 +9552,22 @@
       <c r="G20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>Deploy Configuration File</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Remote License File Location</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>Config File Directory</t>
+          <t>Deploy Configuration File</t>
         </is>
       </c>
       <c r="B22" s="7" t="n"/>
@@ -9572,17 +9578,30 @@
       <c r="G22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="inlineStr">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Config File Directory</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="n"/>
+      <c r="C23" s="7" t="n"/>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="7" t="n"/>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="7" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
         <is>
           <t>Credentials set name</t>
         </is>
       </c>
-      <c r="B23" s="9" t="n"/>
-      <c r="C23" s="9" t="n"/>
-      <c r="D23" s="9" t="n"/>
-      <c r="E23" s="9" t="n"/>
-      <c r="F23" s="9" t="n"/>
-      <c r="G23" s="9" t="n"/>
+      <c r="B24" s="9" t="n"/>
+      <c r="C24" s="9" t="n"/>
+      <c r="D24" s="9" t="n"/>
+      <c r="E24" s="9" t="n"/>
+      <c r="F24" s="9" t="n"/>
+      <c r="G24" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -343,6 +343,7 @@
     <author>provision_vpc_nsg_wan_subnet_cidr</author>
     <author>provision_vpc_nsg_lan_subnet_cidr</author>
     <author>provision_vpc_private_subnet_cidr</author>
+    <author>deploy_only_nsgv</author>
     <author>proxy_external_ip</author>
     <author>nsg_organization</author>
     <author>nsg_name</author>
@@ -514,110 +515,115 @@
     </comment>
     <comment authorId="29" ref="A39" shapeId="0">
       <text>
-        <t>IP address of the VNSUtil VM or the NUH used as a proxy for the NSGv on AWS [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+        <t>Whether all components are being deployed on AWS or only the NSGv. Only needed when provision_vpc parameters are provided [default: false]</t>
+      </text>
+    </comment>
+    <comment authorId="30" ref="A40" shapeId="0">
+      <text>
+        <t>Externally routable IP address of the VNSUtil VM or the NUH used as a proxy for the NSGv on AWS. Required when deploying only the NSGv on AWS [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Organization on the VSD to associate with the NSG being bootstrapped, overrides global setting. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Name of the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Field type to match against for NSGv activation. [default: none]</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="34" ref="A45" shapeId="0">
       <text>
         <t>Value to match against for NSGv activation. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="35" ref="A46" shapeId="0">
       <text>
         <t>Enables SSH on NSGv when set. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name of the NSG infra profile template on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Name of the NSG infra profile on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A49" shapeId="0">
+    <comment authorId="38" ref="A50" shapeId="0">
       <text>
         <t>Name of the NSG infra profile proxy DNS on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A50" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Allows NSGs using this profile to override SSH access. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>Name of the VSC infra profile for the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A53" shapeId="0">
+    <comment authorId="41" ref="A54" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile first controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A54" shapeId="0">
+    <comment authorId="42" ref="A55" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile second controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A55" shapeId="0">
+    <comment authorId="43" ref="A56" shapeId="0">
       <text>
         <t>Name of the network port for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A57" shapeId="0">
+    <comment authorId="44" ref="A58" shapeId="0">
       <text>
         <t>Physical name of the network port for the NSG [default: port1]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A58" shapeId="0">
+    <comment authorId="45" ref="A59" shapeId="0">
       <text>
         <t>Name of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A59" shapeId="0">
+    <comment authorId="46" ref="A60" shapeId="0">
       <text>
         <t>Physical name of the access port for the NSG. Deprecated in favor of access_ports [default: port2]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A60" shapeId="0">
+    <comment authorId="47" ref="A61" shapeId="0">
       <text>
         <t>VLAN range of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A61" shapeId="0">
+    <comment authorId="48" ref="A62" shapeId="0">
       <text>
         <t>VLAN number of the NSG access port for the NSG. Deprecated in favor of access_ports [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A62" shapeId="0">
+    <comment authorId="49" ref="A63" shapeId="0">
       <text>
         <t>Name of access ports list. (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A64" shapeId="0">
+    <comment authorId="50" ref="A65" shapeId="0">
       <text>
         <t>The port for telnet to HV host to access NSGv serial or console terminal [default: 2300]</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A65" shapeId="0">
+    <comment authorId="51" ref="A66" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -2203,6 +2209,7 @@
   <authors>
     <author>hostname</author>
     <author>vname</author>
+    <author>target_server_type</author>
     <author>target_server</author>
     <author>mgmt_ip</author>
     <author>mgmt_gateway</author>
@@ -2213,6 +2220,7 @@
     <author>system_ip</author>
     <author>data_ip</author>
     <author>license_file</author>
+    <author>remote_license_file_location</author>
     <author>deploy_cfg_file</author>
     <author>config_file_directory</author>
     <author>credentials_set</author>
@@ -2230,65 +2238,75 @@
     </comment>
     <comment authorId="2" ref="A7" shapeId="0">
       <text>
+        <t>Type of hypervisor environment into which the instance will be created</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
         <t>Hostname or IP address of the KVM hypervisor where the VSR VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="3" ref="A9" shapeId="0">
+    <comment authorId="4" ref="A10" shapeId="0">
       <text>
         <t>IP address to apply to the management interface of the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
+    <comment authorId="5" ref="A11" shapeId="0">
       <text>
         <t>Network gateway of the management network for the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
+    <comment authorId="6" ref="A12" shapeId="0">
       <text>
         <t>Management network mask prefix length for the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
+    <comment authorId="7" ref="A13" shapeId="0">
       <text>
         <t>Static routes to apply to the management network for the VSR VM (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="7" ref="A13" shapeId="0">
+    <comment authorId="8" ref="A14" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="8" ref="A14" shapeId="0">
+    <comment authorId="9" ref="A15" shapeId="0">
       <text>
         <t xml:space="preserve"> (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
+    <comment authorId="10" ref="A17" shapeId="0">
       <text>
         <t>IP address to apply to the system network interface for the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
-      <text>
-        <t>IP address to apply to the data network interface for the VSR VM</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
+    <comment authorId="11" ref="A18" shapeId="0">
+      <text>
+        <t>IP address to apply to the data network interface for the VSR VM. Use format IP Address/Netmask</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>Location of the VSR license file</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A21" shapeId="0">
+      <text>
+        <t>Optional location of the VSR license file on the remote ftp or tftp location</t>
+      </text>
+    </comment>
+    <comment authorId="14" ref="A22" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
-      <text>
-        <t/>
-      </text>
-    </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -4386,7 +4404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4839,7 +4857,7 @@
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>Proxy IP Address</t>
+          <t>Deploy Only NSGv on AWS</t>
         </is>
       </c>
       <c r="B39" s="9" t="n"/>
@@ -4850,29 +4868,29 @@
       <c r="G39" s="9" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>Proxy IP Address</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
+      <c r="D40" s="9" t="n"/>
+      <c r="E40" s="9" t="n"/>
+      <c r="F40" s="9" t="n"/>
+      <c r="G40" s="9" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>NSGv Zero-Factor Bootstrap</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="8" t="inlineStr">
-        <is>
-          <t>NSG Organization</t>
-        </is>
-      </c>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="9" t="n"/>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="9" t="n"/>
-      <c r="F41" s="9" t="n"/>
-      <c r="G41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
         <is>
-          <t>NSG Name</t>
+          <t>NSG Organization</t>
         </is>
       </c>
       <c r="B42" s="9" t="n"/>
@@ -4883,22 +4901,22 @@
       <c r="G42" s="9" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>Activation Matching Type</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
-      <c r="D43" s="7" t="n"/>
-      <c r="E43" s="7" t="n"/>
-      <c r="F43" s="7" t="n"/>
-      <c r="G43" s="7" t="n"/>
+      <c r="A43" s="8" t="inlineStr">
+        <is>
+          <t>NSG Name</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
+      <c r="D43" s="9" t="n"/>
+      <c r="E43" s="9" t="n"/>
+      <c r="F43" s="9" t="n"/>
+      <c r="G43" s="9" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>Activation Matching Value</t>
+          <t>Activation Matching Type</t>
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
@@ -4909,42 +4927,42 @@
       <c r="G44" s="7" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="inlineStr">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>Activation Matching Value</t>
+        </is>
+      </c>
+      <c r="B45" s="7" t="n"/>
+      <c r="C45" s="7" t="n"/>
+      <c r="D45" s="7" t="n"/>
+      <c r="E45" s="7" t="n"/>
+      <c r="F45" s="7" t="n"/>
+      <c r="G45" s="7" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="inlineStr">
         <is>
           <t>Enable SSH on NSGv</t>
         </is>
       </c>
-      <c r="B45" s="9" t="n"/>
-      <c r="C45" s="9" t="n"/>
-      <c r="D45" s="9" t="n"/>
-      <c r="E45" s="9" t="n"/>
-      <c r="F45" s="9" t="n"/>
-      <c r="G45" s="9" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="B46" s="9" t="n"/>
+      <c r="C46" s="9" t="n"/>
+      <c r="D46" s="9" t="n"/>
+      <c r="E46" s="9" t="n"/>
+      <c r="F46" s="9" t="n"/>
+      <c r="G46" s="9" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>NSG Advanced Options</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>NSG Infra Profile Template Name</t>
-        </is>
-      </c>
-      <c r="B47" s="9" t="n"/>
-      <c r="C47" s="9" t="n"/>
-      <c r="D47" s="9" t="n"/>
-      <c r="E47" s="9" t="n"/>
-      <c r="F47" s="9" t="n"/>
-      <c r="G47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Name</t>
+          <t>NSG Infra Profile Template Name</t>
         </is>
       </c>
       <c r="B48" s="9" t="n"/>
@@ -4957,7 +4975,7 @@
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Proxy DNS Name</t>
+          <t>NSG Infra Profile Name</t>
         </is>
       </c>
       <c r="B49" s="9" t="n"/>
@@ -4970,7 +4988,7 @@
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>Allow SSH Access Override</t>
+          <t>NSG Infra Profile Proxy DNS Name</t>
         </is>
       </c>
       <c r="B50" s="9" t="n"/>
@@ -4981,29 +4999,29 @@
       <c r="G50" s="9" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="A51" s="8" t="inlineStr">
+        <is>
+          <t>Allow SSH Access Override</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="n"/>
+      <c r="C51" s="9" t="n"/>
+      <c r="D51" s="9" t="n"/>
+      <c r="E51" s="9" t="n"/>
+      <c r="F51" s="9" t="n"/>
+      <c r="G51" s="9" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>VSC Info</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="8" t="inlineStr">
-        <is>
-          <t>VSC Infra Profile Name</t>
-        </is>
-      </c>
-      <c r="B52" s="9" t="n"/>
-      <c r="C52" s="9" t="n"/>
-      <c r="D52" s="9" t="n"/>
-      <c r="E52" s="9" t="n"/>
-      <c r="F52" s="9" t="n"/>
-      <c r="G52" s="9" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile First Controller</t>
+          <t>VSC Infra Profile Name</t>
         </is>
       </c>
       <c r="B53" s="9" t="n"/>
@@ -5016,7 +5034,7 @@
     <row r="54">
       <c r="A54" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile Second Controller</t>
+          <t>VSC Infra Profile First Controller</t>
         </is>
       </c>
       <c r="B54" s="9" t="n"/>
@@ -5029,7 +5047,7 @@
     <row r="55">
       <c r="A55" s="8" t="inlineStr">
         <is>
-          <t>NSG Network Port Name</t>
+          <t>VSC Infra Profile Second Controller</t>
         </is>
       </c>
       <c r="B55" s="9" t="n"/>
@@ -5040,29 +5058,29 @@
       <c r="G55" s="9" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr">
+      <c r="A56" s="8" t="inlineStr">
+        <is>
+          <t>NSG Network Port Name</t>
+        </is>
+      </c>
+      <c r="B56" s="9" t="n"/>
+      <c r="C56" s="9" t="n"/>
+      <c r="D56" s="9" t="n"/>
+      <c r="E56" s="9" t="n"/>
+      <c r="F56" s="9" t="n"/>
+      <c r="G56" s="9" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>Network and Access Ports</t>
         </is>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>NSG Network Port Physical Name</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-      <c r="C57" s="9" t="n"/>
-      <c r="D57" s="9" t="n"/>
-      <c r="E57" s="9" t="n"/>
-      <c r="F57" s="9" t="n"/>
-      <c r="G57" s="9" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Name</t>
+          <t>NSG Network Port Physical Name</t>
         </is>
       </c>
       <c r="B58" s="9" t="n"/>
@@ -5075,7 +5093,7 @@
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Physical Name</t>
+          <t>NSG Access Port Name</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
@@ -5088,7 +5106,7 @@
     <row r="60">
       <c r="A60" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Range</t>
+          <t>NSG Access Port Physical Name</t>
         </is>
       </c>
       <c r="B60" s="9" t="n"/>
@@ -5101,7 +5119,7 @@
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Number</t>
+          <t>NSG Access Port VLAN Range</t>
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
@@ -5112,42 +5130,42 @@
       <c r="G61" s="9" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="inlineStr">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Number</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="n"/>
+      <c r="C62" s="9" t="n"/>
+      <c r="D62" s="9" t="n"/>
+      <c r="E62" s="9" t="n"/>
+      <c r="F62" s="9" t="n"/>
+      <c r="G62" s="9" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
         <is>
           <t>NSGv Access ports list name</t>
         </is>
       </c>
-      <c r="B62" s="7" t="n"/>
-      <c r="C62" s="7" t="n"/>
-      <c r="D62" s="7" t="n"/>
-      <c r="E62" s="7" t="n"/>
-      <c r="F62" s="7" t="n"/>
-      <c r="G62" s="7" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
+      <c r="B63" s="7" t="n"/>
+      <c r="C63" s="7" t="n"/>
+      <c r="D63" s="7" t="n"/>
+      <c r="E63" s="7" t="n"/>
+      <c r="F63" s="7" t="n"/>
+      <c r="G63" s="7" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>Telnet and Credentials</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="inlineStr">
-        <is>
-          <t>Telnet port for console</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="n"/>
-      <c r="C64" s="9" t="n"/>
-      <c r="D64" s="9" t="n"/>
-      <c r="E64" s="9" t="n"/>
-      <c r="F64" s="9" t="n"/>
-      <c r="G64" s="9" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Telnet port for console</t>
         </is>
       </c>
       <c r="B65" s="9" t="n"/>
@@ -5156,6 +5174,19 @@
       <c r="E65" s="9" t="n"/>
       <c r="F65" s="9" t="n"/>
       <c r="G65" s="9" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B66" s="9" t="n"/>
+      <c r="C66" s="9" t="n"/>
+      <c r="D66" s="9" t="n"/>
+      <c r="E66" s="9" t="n"/>
+      <c r="F66" s="9" t="n"/>
+      <c r="G66" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5165,13 +5196,13 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A64:G64"/>
   </mergeCells>
-  <dataValidations count="48">
+  <dataValidations count="54">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
       <formula1>"kvm,vcenter,aws"</formula1>
     </dataValidation>
@@ -5214,72 +5245,90 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B64" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C64" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D64" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E64" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F64" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G64" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G65" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -9330,7 +9379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9395,81 +9444,81 @@
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Target Server Type</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Management network</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>Management IP Address</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>Management Network Gateway</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Management Network Mask Prefix Length</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Management Static Route List</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>Management to Hypervisor Bridge</t>
+          <t>Management Static Route List</t>
         </is>
       </c>
       <c r="B13" s="7" t="n"/>
@@ -9482,7 +9531,7 @@
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>Port to Hypervisor Bridges</t>
+          <t>Management to Hypervisor Bridge</t>
         </is>
       </c>
       <c r="B14" s="7" t="n"/>
@@ -9493,29 +9542,29 @@
       <c r="G14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Port to Hypervisor Bridges</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>System and Data IP</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>System IP</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>Data IP</t>
+          <t>System IP</t>
         </is>
       </c>
       <c r="B17" s="7" t="n"/>
@@ -9526,29 +9575,29 @@
       <c r="G17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Data IP</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>System configuration</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>License File</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
-          <t>Deploy Configuration File</t>
+          <t>License File</t>
         </is>
       </c>
       <c r="B20" s="7" t="n"/>
@@ -9559,45 +9608,89 @@
       <c r="G20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Remote License File Location</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Deploy Configuration File</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="7" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="7" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>Config File Directory</t>
         </is>
       </c>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="B23" s="7" t="n"/>
+      <c r="C23" s="7" t="n"/>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="7" t="n"/>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="7" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
         <is>
           <t>Credentials set name</t>
         </is>
       </c>
-      <c r="B22" s="9" t="n"/>
-      <c r="C22" s="9" t="n"/>
-      <c r="D22" s="9" t="n"/>
-      <c r="E22" s="9" t="n"/>
-      <c r="F22" s="9" t="n"/>
-      <c r="G22" s="9" t="n"/>
+      <c r="B24" s="9" t="n"/>
+      <c r="C24" s="9" t="n"/>
+      <c r="D24" s="9" t="n"/>
+      <c r="E24" s="9" t="n"/>
+      <c r="F24" s="9" t="n"/>
+      <c r="G24" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G11" type="whole"/>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -794,7 +794,7 @@
     </comment>
     <comment authorId="9" ref="A17" shapeId="0">
       <text>
-        <t>Hostname or IP address of the KVM hypervisor where the DNS VM will be instantiated</t>
+        <t>Hostname or IP address of the KVM hypervisor where the NUH VM will be instantiated</t>
       </text>
     </comment>
     <comment authorId="10" ref="A18" shapeId="0">
@@ -1122,6 +1122,7 @@
     <author>vsd_license_file</author>
     <author>vsd_cluster_license_file</author>
     <author>vsd_license_required_days_left</author>
+    <author>vsd_continue_on_license_failure</author>
     <author>vsd_ejabberd_license_file</author>
     <author>portal_license_file</author>
     <author>nuh_license_file</author>
@@ -1436,250 +1437,255 @@
     </comment>
     <comment authorId="52" ref="A68" shapeId="0">
       <text>
+        <t>Continue Metroae execution even after license failure if this is set to true [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="53" ref="A69" shapeId="0">
+      <text>
         <t>Path to the Ejabberd license file for the VSD including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A69" shapeId="0">
+    <comment authorId="54" ref="A70" shapeId="0">
       <text>
         <t>Path to the license file for the SD-WAN Portal including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A70" shapeId="0">
+    <comment authorId="55" ref="A71" shapeId="0">
       <text>
         <t>Path to the license file for the NUH including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A72" shapeId="0">
+    <comment authorId="56" ref="A73" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSD during the installation [default: True]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A73" shapeId="0">
+    <comment authorId="57" ref="A74" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSTAT during the installation [default: False]</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A74" shapeId="0">
+    <comment authorId="58" ref="A75" shapeId="0">
       <text>
         <t>Proxy URL to be used if Yum repositories cannot be directly reached [default: NONE]</t>
       </text>
     </comment>
-    <comment authorId="58" ref="A75" shapeId="0">
+    <comment authorId="59" ref="A76" shapeId="0">
       <text>
         <t>Username of the SSH proxy host if one is used [default: root]</t>
       </text>
     </comment>
-    <comment authorId="59" ref="A76" shapeId="0">
+    <comment authorId="60" ref="A77" shapeId="0">
       <text>
         <t>IP Address or Hostname of the SSH host if one is used [default: sshhost]</t>
       </text>
     </comment>
-    <comment authorId="60" ref="A78" shapeId="0">
+    <comment authorId="61" ref="A79" shapeId="0">
       <text>
         <t>Amount of VSD disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="61" ref="A79" shapeId="0">
+    <comment authorId="62" ref="A80" shapeId="0">
       <text>
         <t>Amount of VSC disk space to pre-allocate, in GB. The only valid values are 0 and 1. When undefined or 0, file size allocation will be skipped. Production deployments should set this value to 1. [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="62" ref="A80" shapeId="0">
+    <comment authorId="63" ref="A81" shapeId="0">
       <text>
         <t>Amount of VSTAT disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 100]</t>
       </text>
     </comment>
-    <comment authorId="63" ref="A81" shapeId="0">
+    <comment authorId="64" ref="A82" shapeId="0">
       <text>
         <t>Amount of Portal disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="64" ref="A82" shapeId="0">
+    <comment authorId="65" ref="A83" shapeId="0">
       <text>
         <t>Amount of VCIN disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="65" ref="A83" shapeId="0">
+    <comment authorId="66" ref="A84" shapeId="0">
       <text>
         <t>Amount of NSGV disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="66" ref="A85" shapeId="0">
+    <comment authorId="67" ref="A86" shapeId="0">
       <text>
         <t>Amount of VSD RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="67" ref="A86" shapeId="0">
+    <comment authorId="68" ref="A87" shapeId="0">
       <text>
         <t>Amount of VSC RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="68" ref="A87" shapeId="0">
+    <comment authorId="69" ref="A88" shapeId="0">
       <text>
         <t>Amount of VSTAT RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="69" ref="A88" shapeId="0">
+    <comment authorId="70" ref="A89" shapeId="0">
       <text>
         <t>Amount of VCIN RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="70" ref="A89" shapeId="0">
+    <comment authorId="71" ref="A90" shapeId="0">
       <text>
         <t>Amount of NUH RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="71" ref="A90" shapeId="0">
+    <comment authorId="72" ref="A91" shapeId="0">
       <text>
         <t>Amount of Webfilter RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="72" ref="A91" shapeId="0">
+    <comment authorId="73" ref="A92" shapeId="0">
       <text>
         <t>Amount of Portal RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="73" ref="A93" shapeId="0">
+    <comment authorId="74" ref="A94" shapeId="0">
       <text>
         <t>Number of CPU's for VSD. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="74" ref="A94" shapeId="0">
+    <comment authorId="75" ref="A95" shapeId="0">
       <text>
         <t>Number of CPU's for VSC. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="75" ref="A95" shapeId="0">
+    <comment authorId="76" ref="A96" shapeId="0">
       <text>
         <t>Number of CPU's for VSTAT. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="76" ref="A96" shapeId="0">
+    <comment authorId="77" ref="A97" shapeId="0">
       <text>
         <t>Number of CPU's for VNSUTIL. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="77" ref="A97" shapeId="0">
+    <comment authorId="78" ref="A98" shapeId="0">
       <text>
         <t>Number of CPU's for NUH. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="78" ref="A98" shapeId="0">
+    <comment authorId="79" ref="A99" shapeId="0">
       <text>
         <t>Number of CPU's for VCIN. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="79" ref="A99" shapeId="0">
+    <comment authorId="80" ref="A100" shapeId="0">
       <text>
         <t>Number of CPU's for Portal vm. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="80" ref="A100" shapeId="0">
+    <comment authorId="81" ref="A101" shapeId="0">
       <text>
         <t>Number of CPU's for Webfilter vm. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="81" ref="A102" shapeId="0">
+    <comment authorId="82" ref="A103" shapeId="0">
       <text>
         <t>VSD Architect URL. Required for tasks during Upgrade, Health Checks etc [default: https://(vsd_fqdn):8443]</t>
       </text>
     </comment>
-    <comment authorId="82" ref="A103" shapeId="0">
+    <comment authorId="83" ref="A104" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VSD Architect. Required for tasks during Upgrade, Health Checks etc [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="83" ref="A104" shapeId="0">
+    <comment authorId="84" ref="A105" shapeId="0">
       <text>
         <t>VCIN URL used for API interaction. Required for tasks like VRS-E upgrade (through VCIN) [default: https://(vcin_ip_address):8443]</t>
       </text>
     </comment>
-    <comment authorId="84" ref="A105" shapeId="0">
+    <comment authorId="85" ref="A106" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VCIN. Required for tasks like VRS-E upgrade (through VCIN) [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="85" ref="A107" shapeId="0">
+    <comment authorId="86" ref="A108" shapeId="0">
       <text>
         <t>List of hooks files (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="86" ref="A108" shapeId="0">
+    <comment authorId="87" ref="A109" shapeId="0">
       <text>
         <t>Skip tasks and playbooks (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="87" ref="A110" shapeId="0">
+    <comment authorId="88" ref="A111" shapeId="0">
       <text>
         <t>Address of SMTP server to be used if emailing health results</t>
       </text>
     </comment>
-    <comment authorId="88" ref="A111" shapeId="0">
+    <comment authorId="89" ref="A112" shapeId="0">
       <text>
         <t>Port to be used on the SMTP Server [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="89" ref="A112" shapeId="0">
+    <comment authorId="90" ref="A113" shapeId="0">
       <text>
         <t>Email address from which health report will be sent</t>
       </text>
     </comment>
-    <comment authorId="90" ref="A113" shapeId="0">
+    <comment authorId="91" ref="A114" shapeId="0">
       <text>
         <t>List of destination email addresses (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="91" ref="A115" shapeId="0">
+    <comment authorId="92" ref="A116" shapeId="0">
       <text>
         <t>Address of the mail server to be used to receive monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="92" ref="A116" shapeId="0">
+    <comment authorId="93" ref="A117" shapeId="0">
       <text>
         <t>Port on mail server to be used for monit alerts [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="93" ref="A117" shapeId="0">
+    <comment authorId="94" ref="A118" shapeId="0">
       <text>
         <t>Encryption to be used when sending monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="94" ref="A118" shapeId="0">
+    <comment authorId="95" ref="A119" shapeId="0">
       <text>
         <t>Enables use of monit eventqueue to store alerts if email alerts fail to send [default: True]</t>
       </text>
     </comment>
-    <comment authorId="95" ref="A119" shapeId="0">
+    <comment authorId="96" ref="A120" shapeId="0">
       <text>
         <t>Email address from which monit alerts will be sent</t>
       </text>
     </comment>
-    <comment authorId="96" ref="A120" shapeId="0">
+    <comment authorId="97" ref="A121" shapeId="0">
       <text>
         <t>Email address to reply to monit alert emails</t>
       </text>
     </comment>
-    <comment authorId="97" ref="A121" shapeId="0">
+    <comment authorId="98" ref="A122" shapeId="0">
       <text>
         <t>Email subject for alert emails. Overrides monit default alert subject</t>
       </text>
     </comment>
-    <comment authorId="98" ref="A122" shapeId="0">
+    <comment authorId="99" ref="A123" shapeId="0">
       <text>
         <t>Email message for alert emails. Overrides monit default alert message</t>
       </text>
     </comment>
-    <comment authorId="99" ref="A123" shapeId="0">
+    <comment authorId="100" ref="A124" shapeId="0">
       <text>
         <t>Destination email address for monit alerts</t>
       </text>
     </comment>
-    <comment authorId="100" ref="A124" shapeId="0">
+    <comment authorId="101" ref="A125" shapeId="0">
       <text>
         <t>Specific events for which alerts should be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="101" ref="A125" shapeId="0">
+    <comment authorId="102" ref="A126" shapeId="0">
       <text>
         <t>Events for which alerts should not be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
@@ -6727,7 +6733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7256,7 +7262,7 @@
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>VSD Ejabberd License File</t>
+          <t>Continue Metroae execution on VSD license failure</t>
         </is>
       </c>
       <c r="B68" s="9" t="n"/>
@@ -7264,7 +7270,7 @@
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
-          <t>SD-WAN Portal License File</t>
+          <t>VSD Ejabberd License File</t>
         </is>
       </c>
       <c r="B69" s="9" t="n"/>
@@ -7272,30 +7278,30 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
+          <t>SD-WAN Portal License File</t>
+        </is>
+      </c>
+      <c r="B70" s="9" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="inlineStr">
+        <is>
           <t>NUH License File</t>
         </is>
       </c>
-      <c r="B70" s="9" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
+      <c r="B71" s="9" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>Yum and SSH Proxy</t>
         </is>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="8" t="inlineStr">
-        <is>
-          <t>VSD yum update</t>
-        </is>
-      </c>
-      <c r="B72" s="9" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="8" t="inlineStr">
         <is>
-          <t>VSTAT yum update</t>
+          <t>VSD yum update</t>
         </is>
       </c>
       <c r="B73" s="9" t="n"/>
@@ -7303,7 +7309,7 @@
     <row r="74">
       <c r="A74" s="8" t="inlineStr">
         <is>
-          <t>Proxy for Yum Updates</t>
+          <t>VSTAT yum update</t>
         </is>
       </c>
       <c r="B74" s="9" t="n"/>
@@ -7311,7 +7317,7 @@
     <row r="75">
       <c r="A75" s="8" t="inlineStr">
         <is>
-          <t>SSH proxy configuration username</t>
+          <t>Proxy for Yum Updates</t>
         </is>
       </c>
       <c r="B75" s="9" t="n"/>
@@ -7319,30 +7325,30 @@
     <row r="76">
       <c r="A76" s="8" t="inlineStr">
         <is>
+          <t>SSH proxy configuration username</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="8" t="inlineStr">
+        <is>
           <t>SSH proxy configuration host</t>
         </is>
       </c>
-      <c r="B76" s="9" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="inlineStr">
+      <c r="B77" s="9" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
         <is>
           <t>Disk Space</t>
         </is>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="8" t="inlineStr">
-        <is>
-          <t>VSD Disk Size</t>
-        </is>
-      </c>
-      <c r="B78" s="9" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="8" t="inlineStr">
         <is>
-          <t>VSC Disk Size</t>
+          <t>VSD Disk Size</t>
         </is>
       </c>
       <c r="B79" s="9" t="n"/>
@@ -7350,7 +7356,7 @@
     <row r="80">
       <c r="A80" s="8" t="inlineStr">
         <is>
-          <t>VSTAT Disk Size</t>
+          <t>VSC Disk Size</t>
         </is>
       </c>
       <c r="B80" s="9" t="n"/>
@@ -7358,7 +7364,7 @@
     <row r="81">
       <c r="A81" s="8" t="inlineStr">
         <is>
-          <t>Portal Disk Size</t>
+          <t>VSTAT Disk Size</t>
         </is>
       </c>
       <c r="B81" s="9" t="n"/>
@@ -7366,7 +7372,7 @@
     <row r="82">
       <c r="A82" s="8" t="inlineStr">
         <is>
-          <t>VCIN Disk Size</t>
+          <t>Portal Disk Size</t>
         </is>
       </c>
       <c r="B82" s="9" t="n"/>
@@ -7374,30 +7380,30 @@
     <row r="83">
       <c r="A83" s="8" t="inlineStr">
         <is>
+          <t>VCIN Disk Size</t>
+        </is>
+      </c>
+      <c r="B83" s="9" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="8" t="inlineStr">
+        <is>
           <t>NSGV Disk Size</t>
         </is>
       </c>
-      <c r="B83" s="9" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="inlineStr">
+      <c r="B84" s="9" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
         <is>
           <t>KVM RAM</t>
         </is>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD RAM</t>
-        </is>
-      </c>
-      <c r="B85" s="9" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="8" t="inlineStr">
         <is>
-          <t>KVM VSC RAM</t>
+          <t>KVM VSD RAM</t>
         </is>
       </c>
       <c r="B86" s="9" t="n"/>
@@ -7405,7 +7411,7 @@
     <row r="87">
       <c r="A87" s="8" t="inlineStr">
         <is>
-          <t>KVM VSTAT RAM</t>
+          <t>KVM VSC RAM</t>
         </is>
       </c>
       <c r="B87" s="9" t="n"/>
@@ -7413,7 +7419,7 @@
     <row r="88">
       <c r="A88" s="8" t="inlineStr">
         <is>
-          <t>KVM VCIN RAM</t>
+          <t>KVM VSTAT RAM</t>
         </is>
       </c>
       <c r="B88" s="9" t="n"/>
@@ -7421,7 +7427,7 @@
     <row r="89">
       <c r="A89" s="8" t="inlineStr">
         <is>
-          <t>KVM NUH RAM</t>
+          <t>KVM VCIN RAM</t>
         </is>
       </c>
       <c r="B89" s="9" t="n"/>
@@ -7429,7 +7435,7 @@
     <row r="90">
       <c r="A90" s="8" t="inlineStr">
         <is>
-          <t>KVM Webfilter RAM</t>
+          <t>KVM NUH RAM</t>
         </is>
       </c>
       <c r="B90" s="9" t="n"/>
@@ -7437,30 +7443,30 @@
     <row r="91">
       <c r="A91" s="8" t="inlineStr">
         <is>
+          <t>KVM Webfilter RAM</t>
+        </is>
+      </c>
+      <c r="B91" s="9" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="inlineStr">
+        <is>
           <t>KVM Portal RAM</t>
         </is>
       </c>
-      <c r="B91" s="9" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="inlineStr">
+      <c r="B92" s="9" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
         <is>
           <t>KVM CPU</t>
         </is>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD CPU cores</t>
-        </is>
-      </c>
-      <c r="B93" s="9" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="8" t="inlineStr">
         <is>
-          <t>VSC CPU cores</t>
+          <t>KVM VSD CPU cores</t>
         </is>
       </c>
       <c r="B94" s="9" t="n"/>
@@ -7468,7 +7474,7 @@
     <row r="95">
       <c r="A95" s="8" t="inlineStr">
         <is>
-          <t>KVM VSTAT CPU cores</t>
+          <t>VSC CPU cores</t>
         </is>
       </c>
       <c r="B95" s="9" t="n"/>
@@ -7476,7 +7482,7 @@
     <row r="96">
       <c r="A96" s="8" t="inlineStr">
         <is>
-          <t>KVM VNSUTIL CPU cores</t>
+          <t>KVM VSTAT CPU cores</t>
         </is>
       </c>
       <c r="B96" s="9" t="n"/>
@@ -7484,7 +7490,7 @@
     <row r="97">
       <c r="A97" s="8" t="inlineStr">
         <is>
-          <t>KVM NUH CPU cores</t>
+          <t>KVM VNSUTIL CPU cores</t>
         </is>
       </c>
       <c r="B97" s="9" t="n"/>
@@ -7492,7 +7498,7 @@
     <row r="98">
       <c r="A98" s="8" t="inlineStr">
         <is>
-          <t>KVM VCIN CPU cores</t>
+          <t>KVM NUH CPU cores</t>
         </is>
       </c>
       <c r="B98" s="9" t="n"/>
@@ -7500,7 +7506,7 @@
     <row r="99">
       <c r="A99" s="8" t="inlineStr">
         <is>
-          <t>KVM Portal VM CPU cores</t>
+          <t>KVM VCIN CPU cores</t>
         </is>
       </c>
       <c r="B99" s="9" t="n"/>
@@ -7508,30 +7514,30 @@
     <row r="100">
       <c r="A100" s="8" t="inlineStr">
         <is>
+          <t>KVM Portal VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B100" s="9" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="8" t="inlineStr">
+        <is>
           <t>KVM Webfilter VM CPU cores</t>
         </is>
       </c>
-      <c r="B100" s="9" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="inlineStr">
+      <c r="B101" s="9" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="inlineStr">
         <is>
           <t>Authentication</t>
         </is>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="8" t="inlineStr">
-        <is>
-          <t>VSD Architect URL</t>
-        </is>
-      </c>
-      <c r="B102" s="9" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="8" t="inlineStr">
         <is>
-          <t>VSD Enterprise</t>
+          <t>VSD Architect URL</t>
         </is>
       </c>
       <c r="B103" s="9" t="n"/>
@@ -7539,7 +7545,7 @@
     <row r="104">
       <c r="A104" s="8" t="inlineStr">
         <is>
-          <t>VCIN URL</t>
+          <t>VSD Enterprise</t>
         </is>
       </c>
       <c r="B104" s="9" t="n"/>
@@ -7547,53 +7553,53 @@
     <row r="105">
       <c r="A105" s="8" t="inlineStr">
         <is>
+          <t>VCIN URL</t>
+        </is>
+      </c>
+      <c r="B105" s="9" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="8" t="inlineStr">
+        <is>
           <t>VCIN Enterprise</t>
         </is>
       </c>
-      <c r="B105" s="9" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="3" t="inlineStr">
+      <c r="B106" s="9" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
         <is>
           <t>Hooks</t>
         </is>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="8" t="inlineStr">
-        <is>
-          <t>hooks</t>
-        </is>
-      </c>
-      <c r="B107" s="9" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="8" t="inlineStr">
         <is>
+          <t>hooks</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="8" t="inlineStr">
+        <is>
           <t>skip actions</t>
         </is>
       </c>
-      <c r="B108" s="9" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
+      <c r="B109" s="9" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
         <is>
           <t>Component Health Report Email Options</t>
         </is>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server</t>
-        </is>
-      </c>
-      <c r="B110" s="9" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="8" t="inlineStr">
         <is>
-          <t>Health Report SMTP Server Port</t>
+          <t>Health Report SMTP Server</t>
         </is>
       </c>
       <c r="B111" s="9" t="n"/>
@@ -7601,7 +7607,7 @@
     <row r="112">
       <c r="A112" s="8" t="inlineStr">
         <is>
-          <t>Health Report Email From Address</t>
+          <t>Health Report SMTP Server Port</t>
         </is>
       </c>
       <c r="B112" s="9" t="n"/>
@@ -7609,30 +7615,30 @@
     <row r="113">
       <c r="A113" s="8" t="inlineStr">
         <is>
+          <t>Health Report Email From Address</t>
+        </is>
+      </c>
+      <c r="B113" s="9" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="8" t="inlineStr">
+        <is>
           <t>Health Report Destination Email Address(es)</t>
         </is>
       </c>
-      <c r="B113" s="9" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="inlineStr">
+      <c r="B114" s="9" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
         <is>
           <t>VSD Monit Email Alerts Configuration</t>
         </is>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server</t>
-        </is>
-      </c>
-      <c r="B115" s="9" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Port</t>
+          <t>VSD Monit Mail Server</t>
         </is>
       </c>
       <c r="B116" s="9" t="n"/>
@@ -7640,7 +7646,7 @@
     <row r="117">
       <c r="A117" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Encryption Type</t>
+          <t>VSD Monit Mail Server Port</t>
         </is>
       </c>
       <c r="B117" s="9" t="n"/>
@@ -7648,7 +7654,7 @@
     <row r="118">
       <c r="A118" s="8" t="inlineStr">
         <is>
-          <t>Use VSD Monit Eventqueue</t>
+          <t>VSD Monit Mail Server Encryption Type</t>
         </is>
       </c>
       <c r="B118" s="9" t="n"/>
@@ -7656,7 +7662,7 @@
     <row r="119">
       <c r="A119" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit From Email Address</t>
+          <t>Use VSD Monit Eventqueue</t>
         </is>
       </c>
       <c r="B119" s="9" t="n"/>
@@ -7664,7 +7670,7 @@
     <row r="120">
       <c r="A120" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Reply-To Email Address</t>
+          <t>VSD Monit From Email Address</t>
         </is>
       </c>
       <c r="B120" s="9" t="n"/>
@@ -7672,7 +7678,7 @@
     <row r="121">
       <c r="A121" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Subject</t>
+          <t>VSD Monit Reply-To Email Address</t>
         </is>
       </c>
       <c r="B121" s="9" t="n"/>
@@ -7680,7 +7686,7 @@
     <row r="122">
       <c r="A122" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Message</t>
+          <t>VSD Monit Email Alert Subject</t>
         </is>
       </c>
       <c r="B122" s="9" t="n"/>
@@ -7688,7 +7694,7 @@
     <row r="123">
       <c r="A123" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Destination Email Address</t>
+          <t>VSD Monit Email Alert Message</t>
         </is>
       </c>
       <c r="B123" s="9" t="n"/>
@@ -7696,7 +7702,7 @@
     <row r="124">
       <c r="A124" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Only Alert On</t>
+          <t>VSD Monit Destination Email Address</t>
         </is>
       </c>
       <c r="B124" s="9" t="n"/>
@@ -7704,10 +7710,18 @@
     <row r="125">
       <c r="A125" s="8" t="inlineStr">
         <is>
+          <t>VSD Monit Only Alert On</t>
+        </is>
+      </c>
+      <c r="B125" s="9" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="8" t="inlineStr">
+        <is>
           <t>VSD Monit Do Not Alert On</t>
         </is>
       </c>
-      <c r="B125" s="9" t="n"/>
+      <c r="B126" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -7723,16 +7737,16 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A115:B115"/>
   </mergeCells>
-  <dataValidations count="40">
+  <dataValidations count="41">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -7767,26 +7781,28 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B67" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B72" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B73" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B78" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B74" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B79" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B80" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B81" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B82" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B83" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B85" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B84" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B87" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B91" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B96" type="whole"/>
@@ -7794,9 +7810,10 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B98" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B99" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B100" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B111" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B116" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B118" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B101" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B112" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B117" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B119" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -856,6 +856,8 @@
     <author>smtp_secure</author>
     <author>sdwan_portal_secure</author>
     <author>portal_version</author>
+    <author>upgrade_portal</author>
+    <author>portal_upgrade_to_version</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -941,6 +943,16 @@
     <comment authorId="16" ref="A25" shapeId="0">
       <text>
         <t>Portal version to be pulled from Docker hub [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="17" ref="A26" shapeId="0">
+      <text>
+        <t>Flag to indicate whether to upgrade the SD-WAN Portal(s) [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="18" ref="A27" shapeId="0">
+      <text>
+        <t>Version to upgrade portals to [default: ]</t>
       </text>
     </comment>
   </commentList>
@@ -6008,7 +6020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6295,6 +6307,32 @@
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="7" t="n"/>
     </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>Upgrade Portal</t>
+        </is>
+      </c>
+      <c r="B26" s="7" t="n"/>
+      <c r="C26" s="7" t="n"/>
+      <c r="D26" s="7" t="n"/>
+      <c r="E26" s="7" t="n"/>
+      <c r="F26" s="7" t="n"/>
+      <c r="G26" s="7" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>SD-WAN Portal Upgrade Version</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="7" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:G4"/>
@@ -6303,7 +6341,7 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A23:G23"/>
   </mergeCells>
-  <dataValidations count="30">
+  <dataValidations count="36">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -6368,6 +6406,24 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B26" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C26" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D26" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E26" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F26" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G26" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -857,7 +857,6 @@
     <author>sdwan_portal_secure</author>
     <author>portal_version</author>
     <author>upgrade_portal</author>
-    <author>portal_upgrade_to_version</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -948,11 +947,6 @@
     <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>Flag to indicate whether to upgrade the SD-WAN Portal(s) [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="18" ref="A27" shapeId="0">
-      <text>
-        <t>Version to upgrade portals to [default: ]</t>
       </text>
     </comment>
   </commentList>
@@ -6020,7 +6014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6319,19 +6313,6 @@
       <c r="E26" s="7" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>SD-WAN Portal Upgrade Version</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
-      <c r="G27" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -857,6 +857,8 @@
     <author>sdwan_portal_secure</author>
     <author>portal_version</author>
     <author>upgrade_portal</author>
+    <author>skip_portal_db_backup</author>
+    <author>skip_portal_snapshot</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -947,6 +949,16 @@
     <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>Flag to indicate whether to upgrade the SD-WAN Portal(s) [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="18" ref="A27" shapeId="0">
+      <text>
+        <t>Flag to indicate whether to backup the SD-WAN Portal database [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="19" ref="A28" shapeId="0">
+      <text>
+        <t>Flag to indicate whether to snapshot the SD-WAN Portal VM prior to upgrade [default: False]</t>
       </text>
     </comment>
   </commentList>
@@ -6014,7 +6026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6314,6 +6326,32 @@
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="7" t="n"/>
     </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Skip Portal Database Backup</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="7" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>Skip Portal VM Snapshot</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="7" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:G4"/>
@@ -6322,7 +6360,7 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A23:G23"/>
   </mergeCells>
-  <dataValidations count="36">
+  <dataValidations count="48">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -6405,6 +6443,42 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G26" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B27" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C27" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D27" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E27" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F27" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G27" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B28" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C28" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D28" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E28" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F28" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G28" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -856,8 +856,6 @@
     <author>smtp_secure</author>
     <author>sdwan_portal_secure</author>
     <author>portal_version</author>
-    <author>upgrade_portal</author>
-    <author>skip_portal_db_backup</author>
     <author>skip_portal_snapshot</author>
   </authors>
   <commentList>
@@ -947,16 +945,6 @@
       </text>
     </comment>
     <comment authorId="17" ref="A26" shapeId="0">
-      <text>
-        <t>Flag to indicate whether to upgrade the SD-WAN Portal(s) [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="18" ref="A27" shapeId="0">
-      <text>
-        <t>Flag to indicate whether to backup the SD-WAN Portal database [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="19" ref="A28" shapeId="0">
       <text>
         <t>Flag to indicate whether to snapshot the SD-WAN Portal VM prior to upgrade [default: False]</t>
       </text>
@@ -2398,6 +2386,8 @@
     <author>upgrade_to_version</author>
     <author>backup_vsd_host_file</author>
     <author>force_vsc_standalone_upgrade</author>
+    <author>upgrade_portal</author>
+    <author>skip_portal_db_backup</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -2423,6 +2413,16 @@
     <comment authorId="4" ref="A9" shapeId="0">
       <text>
         <t>Force all the vscs to deploy in standalone mode, otherwise the vscs will be deployed in ha mode if there are more than one vscs [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A10" shapeId="0">
+      <text>
+        <t>Upgrade the SD-WAN Portal or Cluster [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A11" shapeId="0">
+      <text>
+        <t>Flag to indicate if the SD-WAN Portal database backup should be skipped [default: False]</t>
       </text>
     </comment>
   </commentList>
@@ -6026,7 +6026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6316,7 +6316,7 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>Upgrade Portal</t>
+          <t>Skip Portal VM Snapshot</t>
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
@@ -6325,32 +6325,6 @@
       <c r="E26" s="7" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>Skip Portal Database Backup</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
-      <c r="G27" s="7" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="inlineStr">
-        <is>
-          <t>Skip Portal VM Snapshot</t>
-        </is>
-      </c>
-      <c r="B28" s="7" t="n"/>
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6360,7 +6334,7 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A23:G23"/>
   </mergeCells>
-  <dataValidations count="48">
+  <dataValidations count="36">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -6443,42 +6417,6 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G26" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B28" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C28" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D28" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E28" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F28" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G28" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9979,7 +9917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10052,15 +9990,37 @@
       </c>
       <c r="B9" s="7" t="n"/>
     </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Upgrade SD-WAN Portal(s)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Skip SD-WAN Portal Database Backup</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -2387,7 +2387,6 @@
     <author>backup_vsd_host_file</author>
     <author>force_vsc_standalone_upgrade</author>
     <author>upgrade_portal</author>
-    <author>skip_portal_db_backup</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -2418,11 +2417,6 @@
     <comment authorId="5" ref="A10" shapeId="0">
       <text>
         <t>Upgrade the SD-WAN Portal or Cluster [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A11" shapeId="0">
-      <text>
-        <t>Flag to indicate if the SD-WAN Portal database backup should be skipped [default: False]</t>
       </text>
     </comment>
   </commentList>
@@ -9917,7 +9911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9998,19 +9992,11 @@
       </c>
       <c r="B10" s="7" t="n"/>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Skip SD-WAN Portal Database Backup</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -10018,9 +10004,6 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -1185,6 +1185,7 @@
     <author>vsd_monit_destination_address</author>
     <author>vsd_monit_alert_only_on</author>
     <author>vsd_monit_alert_not_on</author>
+    <author>vsd_install_inplace_upgrade</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -1700,6 +1701,11 @@
     <comment authorId="102" ref="A126" shapeId="0">
       <text>
         <t>Events for which alerts should not be sent. One string can be used to hold multiple events, separated by commas</t>
+      </text>
+    </comment>
+    <comment authorId="103" ref="A127" shapeId="0">
+      <text>
+        <t>Allowing VSD in-place upgrade during Installation [default: False]</t>
       </text>
     </comment>
   </commentList>
@@ -6801,7 +6807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B126"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7790,6 +7796,14 @@
         </is>
       </c>
       <c r="B126" s="9" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VSD In-place upgrade during Install </t>
+        </is>
+      </c>
+      <c r="B127" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -7814,7 +7828,7 @@
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A115:B115"/>
   </mergeCells>
-  <dataValidations count="41">
+  <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -7882,6 +7896,9 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B112" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B117" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B119" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B127" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sample_deployment.xlsx
+++ b/sample_deployment.xlsx
@@ -343,6 +343,8 @@
     <author>provision_vpc_nsg_wan_subnet_cidr</author>
     <author>provision_vpc_nsg_lan_subnet_cidr</author>
     <author>provision_vpc_private_subnet_cidr</author>
+    <author>deploy_only_nsgv</author>
+    <author>proxy_external_ip</author>
     <author>nsg_organization</author>
     <author>nsg_name</author>
     <author>match_type</author>
@@ -511,107 +513,117 @@
         <t>Private Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A40" shapeId="0">
+    <comment authorId="29" ref="A39" shapeId="0">
+      <text>
+        <t>Whether all components are being deployed on AWS or only the NSGv. Only needed when provision_vpc parameters are provided [default: false]</t>
+      </text>
+    </comment>
+    <comment authorId="30" ref="A40" shapeId="0">
+      <text>
+        <t>Externally routable IP address of the VNSUtil VM or the NUH used as a proxy for the NSGv on AWS. Required when deploying only the NSGv on AWS [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Organization on the VSD to associate with the NSG being bootstrapped